--- a/Data/BryanVsBryan_Data.xlsx
+++ b/Data/BryanVsBryan_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kraem\OneDrive\Data_Science\Visualization_Project_Podcast\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0207EE6-0D5F-4106-8E65-6D70D525AE5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124211CB-F871-49F7-A04F-F040E5379256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{1B70641D-B009-4E91-B3D5-80C95BCC6CD5}"/>
   </bookViews>
@@ -1383,7 +1383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8232CE-F8CC-4A25-9F93-495C87926EDE}">
-  <dimension ref="A1:O208"/>
+  <dimension ref="A1:O207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1473,7 +1473,7 @@
         <v>317000000</v>
       </c>
       <c r="F2" s="17">
-        <f>E2/1000000</f>
+        <f t="shared" ref="F2:F33" si="0">E2/1000000</f>
         <v>317</v>
       </c>
       <c r="G2" s="14" t="s">
@@ -1498,7 +1498,7 @@
         <v>8.5</v>
       </c>
       <c r="N2" s="5">
-        <f>L2-M2</f>
+        <f t="shared" ref="N2:N33" si="1">L2-M2</f>
         <v>-2.5</v>
       </c>
       <c r="O2" s="6" t="s">
@@ -1522,7 +1522,7 @@
         <v>60000</v>
       </c>
       <c r="F3" s="17">
-        <f>E3/1000000</f>
+        <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
       <c r="G3" s="14" t="s">
@@ -1547,7 +1547,7 @@
         <v>10</v>
       </c>
       <c r="N3" s="5">
-        <f>L3-M3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O3" s="6"/>
@@ -1569,7 +1569,7 @@
         <v>15000000</v>
       </c>
       <c r="F4" s="17">
-        <f>E4/1000000</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="G4" s="14" t="s">
@@ -1594,7 +1594,7 @@
         <v>7</v>
       </c>
       <c r="N4" s="5">
-        <f>L4-M4</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O4" s="6"/>
@@ -1616,7 +1616,7 @@
         <v>5000000</v>
       </c>
       <c r="F5" s="17">
-        <f>E5/1000000</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G5" s="14" t="s">
@@ -1641,7 +1641,7 @@
         <v>4.5</v>
       </c>
       <c r="N5" s="5">
-        <f>L5-M5</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="O5" s="6" t="s">
@@ -1665,7 +1665,7 @@
         <v>30000000</v>
       </c>
       <c r="F6" s="17">
-        <f>E6/1000000</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="G6" s="14" t="s">
@@ -1690,7 +1690,7 @@
         <v>9</v>
       </c>
       <c r="N6" s="5">
-        <f>L6-M6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O6" s="6" t="s">
@@ -1714,7 +1714,7 @@
         <v>25000000</v>
       </c>
       <c r="F7" s="17">
-        <f>E7/1000000</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="G7" s="14" t="s">
@@ -1739,7 +1739,7 @@
         <v>7</v>
       </c>
       <c r="N7" s="5">
-        <f>L7-M7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O7" s="6" t="s">
@@ -1763,7 +1763,7 @@
         <v>144000000</v>
       </c>
       <c r="F8" s="17">
-        <f>E8/1000000</f>
+        <f t="shared" si="0"/>
         <v>144</v>
       </c>
       <c r="G8" s="14" t="s">
@@ -1788,7 +1788,7 @@
         <v>5</v>
       </c>
       <c r="N8" s="5">
-        <f>L8-M8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O8" s="6" t="s">
@@ -1812,7 +1812,7 @@
         <v>60000000</v>
       </c>
       <c r="F9" s="17">
-        <f>E9/1000000</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="G9" s="14" t="s">
@@ -1833,7 +1833,7 @@
       <c r="L9" s="20"/>
       <c r="M9" s="20"/>
       <c r="N9" s="5">
-        <f>L9-M9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O9" s="6" t="s">
@@ -1857,7 +1857,7 @@
         <v>15000000</v>
       </c>
       <c r="F10" s="17">
-        <f>E10/1000000</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="G10" s="14" t="s">
@@ -1878,7 +1878,7 @@
       <c r="L10" s="20"/>
       <c r="M10" s="20"/>
       <c r="N10" s="5">
-        <f>L10-M10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O10" s="6" t="s">
@@ -1902,7 +1902,7 @@
         <v>205000000</v>
       </c>
       <c r="F11" s="17">
-        <f>E11/1000000</f>
+        <f t="shared" si="0"/>
         <v>205</v>
       </c>
       <c r="G11" s="14" t="s">
@@ -1927,7 +1927,7 @@
         <v>8</v>
       </c>
       <c r="N11" s="5">
-        <f>L11-M11</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O11" s="6" t="s">
@@ -1951,7 +1951,7 @@
         <v>200000000</v>
       </c>
       <c r="F12" s="17">
-        <f>E12/1000000</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="G12" s="14" t="s">
@@ -1974,7 +1974,7 @@
         <v>6</v>
       </c>
       <c r="N12" s="5">
-        <f>L12-M12</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O12" s="6"/>
@@ -1996,7 +1996,7 @@
         <v>6000000</v>
       </c>
       <c r="F13" s="17">
-        <f>E13/1000000</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G13" s="14" t="s">
@@ -2017,7 +2017,7 @@
       <c r="L13" s="20"/>
       <c r="M13" s="20"/>
       <c r="N13" s="5">
-        <f>L13-M13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O13" s="6" t="s">
@@ -2041,7 +2041,7 @@
         <v>30000000</v>
       </c>
       <c r="F14" s="17">
-        <f>E14/1000000</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="G14" s="14" t="s">
@@ -2066,7 +2066,7 @@
         <v>5</v>
       </c>
       <c r="N14" s="5">
-        <f>L14-M14</f>
+        <f t="shared" si="1"/>
         <v>2.0999999999999996</v>
       </c>
       <c r="O14" s="6"/>
@@ -2088,7 +2088,7 @@
         <v>26000000</v>
       </c>
       <c r="F15" s="17">
-        <f>E15/1000000</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="G15" s="14" t="s">
@@ -2113,7 +2113,7 @@
         <v>8.5</v>
       </c>
       <c r="N15" s="5">
-        <f>L15-M15</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="O15" s="6"/>
@@ -2135,7 +2135,7 @@
         <v>79000000</v>
       </c>
       <c r="F16" s="17">
-        <f>E16/1000000</f>
+        <f t="shared" si="0"/>
         <v>79</v>
       </c>
       <c r="G16" s="14" t="s">
@@ -2160,7 +2160,7 @@
         <v>3</v>
       </c>
       <c r="N16" s="5">
-        <f>L16-M16</f>
+        <f t="shared" si="1"/>
         <v>0.70000000000000018</v>
       </c>
       <c r="O16" s="6"/>
@@ -2182,7 +2182,7 @@
         <v>60000000</v>
       </c>
       <c r="F17" s="17">
-        <f>E17/1000000</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="G17" s="14" t="s">
@@ -2205,7 +2205,7 @@
         <v>5.5</v>
       </c>
       <c r="N17" s="5">
-        <f>L17-M17</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O17" s="6"/>
@@ -2227,7 +2227,7 @@
         <v>7500000</v>
       </c>
       <c r="F18" s="17">
-        <f>E18/1000000</f>
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
       <c r="G18" s="14" t="s">
@@ -2252,7 +2252,7 @@
         <v>8</v>
       </c>
       <c r="N18" s="5">
-        <f>L18-M18</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O18" s="6"/>
@@ -2274,7 +2274,7 @@
         <v>300000000</v>
       </c>
       <c r="F19" s="17">
-        <f>E19/1000000</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="G19" s="16" t="s">
@@ -2297,7 +2297,7 @@
         <v>7</v>
       </c>
       <c r="N19" s="5">
-        <f>L19-M19</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="O19" s="6"/>
@@ -2319,7 +2319,7 @@
         <v>150000000</v>
       </c>
       <c r="F20" s="17">
-        <f>E20/1000000</f>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="G20" s="14" t="s">
@@ -2344,7 +2344,7 @@
         <v>5.5</v>
       </c>
       <c r="N20" s="5">
-        <f>L20-M20</f>
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="O20" s="6"/>
@@ -2366,7 +2366,7 @@
         <v>200000000</v>
       </c>
       <c r="F21" s="17">
-        <f>E21/1000000</f>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="G21" s="14" t="s">
@@ -2391,7 +2391,7 @@
         <v>6</v>
       </c>
       <c r="N21" s="5">
-        <f>L21-M21</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O21" s="6"/>
@@ -2413,7 +2413,7 @@
         <v>7000000</v>
       </c>
       <c r="F22" s="17">
-        <f>E22/1000000</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G22" s="14" t="s">
@@ -2438,7 +2438,7 @@
         <v>7.5</v>
       </c>
       <c r="N22" s="5">
-        <f>L22-M22</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O22" s="6"/>
@@ -2460,7 +2460,7 @@
         <v>10000000</v>
       </c>
       <c r="F23" s="17">
-        <f>E23/1000000</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G23" s="14" t="s">
@@ -2485,7 +2485,7 @@
         <v>8</v>
       </c>
       <c r="N23" s="5">
-        <f>L23-M23</f>
+        <f t="shared" si="1"/>
         <v>0.69999999999999929</v>
       </c>
       <c r="O23" s="6"/>
@@ -2507,7 +2507,7 @@
         <v>55000000</v>
       </c>
       <c r="F24" s="17">
-        <f>E24/1000000</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
       <c r="G24" s="14" t="s">
@@ -2532,7 +2532,7 @@
         <v>5.75</v>
       </c>
       <c r="N24" s="5">
-        <f>L24-M24</f>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
       <c r="O24" s="6"/>
@@ -2554,7 +2554,7 @@
         <v>6500000</v>
       </c>
       <c r="F25" s="17">
-        <f>E25/1000000</f>
+        <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
       <c r="G25" s="14" t="s">
@@ -2579,7 +2579,7 @@
         <v>7</v>
       </c>
       <c r="N25" s="5">
-        <f>L25-M25</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="O25" s="6"/>
@@ -2601,7 +2601,7 @@
         <v>20000000</v>
       </c>
       <c r="F26" s="17">
-        <f>E26/1000000</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G26" s="14" t="s">
@@ -2626,7 +2626,7 @@
         <v>7</v>
       </c>
       <c r="N26" s="5">
-        <f>L26-M26</f>
+        <f t="shared" si="1"/>
         <v>-0.5</v>
       </c>
       <c r="O26" s="6"/>
@@ -2648,7 +2648,7 @@
         <v>70000000</v>
       </c>
       <c r="F27" s="17">
-        <f>E27/1000000</f>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="G27" s="14" t="s">
@@ -2673,7 +2673,7 @@
         <v>6</v>
       </c>
       <c r="N27" s="5">
-        <f>L27-M27</f>
+        <f t="shared" si="1"/>
         <v>0.79999999999999982</v>
       </c>
       <c r="O27" s="6"/>
@@ -2695,7 +2695,7 @@
         <v>20000000</v>
       </c>
       <c r="F28" s="17">
-        <f>E28/1000000</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G28" s="14" t="s">
@@ -2720,7 +2720,7 @@
         <v>9</v>
       </c>
       <c r="N28" s="5">
-        <f>L28-M28</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="O28" s="6"/>
@@ -2742,7 +2742,7 @@
         <v>40000000</v>
       </c>
       <c r="F29" s="17">
-        <f>E29/1000000</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="G29" s="14" t="s">
@@ -2767,7 +2767,7 @@
         <v>8</v>
       </c>
       <c r="N29" s="5">
-        <f>L29-M29</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="O29" s="6"/>
@@ -2789,7 +2789,7 @@
         <v>39000000</v>
       </c>
       <c r="F30" s="17">
-        <f>E30/1000000</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="G30" s="14" t="s">
@@ -2814,7 +2814,7 @@
         <v>7</v>
       </c>
       <c r="N30" s="5">
-        <f>L30-M30</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O30" s="6"/>
@@ -2836,7 +2836,7 @@
         <v>14000000</v>
       </c>
       <c r="F31" s="17">
-        <f>E31/1000000</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="G31" s="14" t="s">
@@ -2861,7 +2861,7 @@
         <v>7</v>
       </c>
       <c r="N31" s="5">
-        <f>L31-M31</f>
+        <f t="shared" si="1"/>
         <v>0.90000000000000036</v>
       </c>
       <c r="O31" s="6"/>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="17">
-        <f>E32/1000000</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G32" s="14" t="s">
@@ -2908,7 +2908,7 @@
         <v>6</v>
       </c>
       <c r="N32" s="5">
-        <f>L32-M32</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O32" s="6"/>
@@ -2930,7 +2930,7 @@
         <v>17000000</v>
       </c>
       <c r="F33" s="17">
-        <f>E33/1000000</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="G33" s="14" t="s">
@@ -2955,7 +2955,7 @@
         <v>8</v>
       </c>
       <c r="N33" s="5">
-        <f>L33-M33</f>
+        <f t="shared" si="1"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="O33" s="6"/>
@@ -2977,7 +2977,7 @@
         <v>61000000</v>
       </c>
       <c r="F34" s="17">
-        <f>E34/1000000</f>
+        <f t="shared" ref="F34:F65" si="2">E34/1000000</f>
         <v>61</v>
       </c>
       <c r="G34" s="14" t="s">
@@ -3002,7 +3002,7 @@
         <v>8.5</v>
       </c>
       <c r="N34" s="5">
-        <f>L34-M34</f>
+        <f t="shared" ref="N34:N65" si="3">L34-M34</f>
         <v>-0.19999999999999929</v>
       </c>
       <c r="O34" s="6"/>
@@ -3024,7 +3024,7 @@
         <v>18000000</v>
       </c>
       <c r="F35" s="17">
-        <f>E35/1000000</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="G35" s="14" t="s">
@@ -3049,7 +3049,7 @@
         <v>5.5</v>
       </c>
       <c r="N35" s="5">
-        <f>L35-M35</f>
+        <f t="shared" si="3"/>
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="O35" s="6"/>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="17">
-        <f>E36/1000000</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G36" s="14" t="s">
@@ -3096,7 +3096,7 @@
         <v>7.5</v>
       </c>
       <c r="N36" s="5">
-        <f>L36-M36</f>
+        <f t="shared" si="3"/>
         <v>0.59999999999999964</v>
       </c>
       <c r="O36" s="6"/>
@@ -3118,7 +3118,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="17">
-        <f>E37/1000000</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G37" s="14" t="s">
@@ -3143,7 +3143,7 @@
         <v>6.7</v>
       </c>
       <c r="N37" s="5">
-        <f>L37-M37</f>
+        <f t="shared" si="3"/>
         <v>0.29999999999999982</v>
       </c>
       <c r="O37" s="6" t="s">
@@ -3167,7 +3167,7 @@
         <v>185000000</v>
       </c>
       <c r="F38" s="17">
-        <f>E38/1000000</f>
+        <f t="shared" si="2"/>
         <v>185</v>
       </c>
       <c r="G38" s="14" t="s">
@@ -3192,7 +3192,7 @@
         <v>8</v>
       </c>
       <c r="N38" s="5">
-        <f>L38-M38</f>
+        <f t="shared" si="3"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="O38" s="6"/>
@@ -3214,7 +3214,7 @@
         <v>13500000</v>
       </c>
       <c r="F39" s="17">
-        <f>E39/1000000</f>
+        <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
       <c r="G39" s="14" t="s">
@@ -3239,7 +3239,7 @@
         <v>8.5</v>
       </c>
       <c r="N39" s="5">
-        <f>L39-M39</f>
+        <f t="shared" si="3"/>
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="O39" s="6"/>
@@ -3261,7 +3261,7 @@
         <v>54000000</v>
       </c>
       <c r="F40" s="17">
-        <f>E40/1000000</f>
+        <f t="shared" si="2"/>
         <v>54</v>
       </c>
       <c r="G40" s="14" t="s">
@@ -3286,7 +3286,7 @@
         <v>5.0999999999999996</v>
       </c>
       <c r="N40" s="5">
-        <f>L40-M40</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="O40" s="6"/>
@@ -3308,7 +3308,7 @@
         <v>22000000</v>
       </c>
       <c r="F41" s="17">
-        <f>E41/1000000</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="G41" s="14" t="s">
@@ -3333,7 +3333,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="N41" s="5">
-        <f>L41-M41</f>
+        <f t="shared" si="3"/>
         <v>-1.4999999999999991</v>
       </c>
       <c r="O41" s="6"/>
@@ -3355,7 +3355,7 @@
         <v>40000000</v>
       </c>
       <c r="F42" s="17">
-        <f>E42/1000000</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="G42" s="14" t="s">
@@ -3380,7 +3380,7 @@
         <v>6</v>
       </c>
       <c r="N42" s="5">
-        <f>L42-M42</f>
+        <f t="shared" si="3"/>
         <v>0.20000000000000018</v>
       </c>
       <c r="O42" s="6"/>
@@ -3402,7 +3402,7 @@
         <v>35000000</v>
       </c>
       <c r="F43" s="17">
-        <f>E43/1000000</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="G43" s="14" t="s">
@@ -3425,7 +3425,7 @@
         <v>9</v>
       </c>
       <c r="N43" s="5">
-        <f>L43-M43</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O43" s="6"/>
@@ -3447,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="F44" s="17">
-        <f>E44/1000000</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G44" s="14" t="s">
@@ -3472,7 +3472,7 @@
         <v>6.5</v>
       </c>
       <c r="N44" s="5">
-        <f>L44-M44</f>
+        <f t="shared" si="3"/>
         <v>0.29999999999999982</v>
       </c>
       <c r="O44" s="6"/>
@@ -3494,7 +3494,7 @@
         <v>110000000</v>
       </c>
       <c r="F45" s="17">
-        <f>E45/1000000</f>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="G45" s="14" t="s">
@@ -3519,7 +3519,7 @@
         <v>6.7</v>
       </c>
       <c r="N45" s="5">
-        <f>L45-M45</f>
+        <f t="shared" si="3"/>
         <v>0.59999999999999964</v>
       </c>
       <c r="O45" s="6"/>
@@ -3541,7 +3541,7 @@
         <v>50000000</v>
       </c>
       <c r="F46" s="17">
-        <f>E46/1000000</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="G46" s="14" t="s">
@@ -3566,7 +3566,7 @@
         <v>7</v>
       </c>
       <c r="N46" s="5">
-        <f>L46-M46</f>
+        <f t="shared" si="3"/>
         <v>-9.9999999999999645E-2</v>
       </c>
       <c r="O46" s="6"/>
@@ -3588,7 +3588,7 @@
         <v>19000000</v>
       </c>
       <c r="F47" s="17">
-        <f>E47/1000000</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="G47" s="14" t="s">
@@ -3613,7 +3613,7 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="N47" s="5">
-        <f>L47-M47</f>
+        <f t="shared" si="3"/>
         <v>-9.9999999999999645E-2</v>
       </c>
       <c r="O47" s="6"/>
@@ -3635,7 +3635,7 @@
         <v>165000000</v>
       </c>
       <c r="F48" s="17">
-        <f>E48/1000000</f>
+        <f t="shared" si="2"/>
         <v>165</v>
       </c>
       <c r="G48" s="14" t="s">
@@ -3660,7 +3660,7 @@
         <v>8</v>
       </c>
       <c r="N48" s="5">
-        <f>L48-M48</f>
+        <f t="shared" si="3"/>
         <v>-1.0999999999999996</v>
       </c>
       <c r="O48" s="6"/>
@@ -3682,7 +3682,7 @@
         <v>20000000</v>
       </c>
       <c r="F49" s="17">
-        <f>E49/1000000</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="G49" s="14" t="s">
@@ -3707,7 +3707,7 @@
         <v>5</v>
       </c>
       <c r="N49" s="5">
-        <f>L49-M49</f>
+        <f t="shared" si="3"/>
         <v>0.29999999999999982</v>
       </c>
       <c r="O49" s="6"/>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="17">
-        <f>E50/1000000</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G50" s="14" t="s">
@@ -3754,7 +3754,7 @@
         <v>5.8</v>
       </c>
       <c r="N50" s="5">
-        <f>L50-M50</f>
+        <f t="shared" si="3"/>
         <v>0.60000000000000053</v>
       </c>
       <c r="O50" s="6"/>
@@ -3776,7 +3776,7 @@
         <v>200000000</v>
       </c>
       <c r="F51" s="17">
-        <f>E51/1000000</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="G51" s="14" t="s">
@@ -3801,7 +3801,7 @@
         <v>6.5</v>
       </c>
       <c r="N51" s="5">
-        <f>L51-M51</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="O51" s="6"/>
@@ -3823,7 +3823,7 @@
         <v>75000000</v>
       </c>
       <c r="F52" s="17">
-        <f>E52/1000000</f>
+        <f t="shared" si="2"/>
         <v>75</v>
       </c>
       <c r="G52" s="14" t="s">
@@ -3848,7 +3848,7 @@
         <v>9</v>
       </c>
       <c r="N52" s="5">
-        <f>L52-M52</f>
+        <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
       <c r="O52" s="6"/>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="17">
-        <f>E53/1000000</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G53" s="14" t="s">
@@ -3895,7 +3895,7 @@
         <v>7</v>
       </c>
       <c r="N53" s="5">
-        <f>L53-M53</f>
+        <f t="shared" si="3"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="O53" s="6"/>
@@ -3917,7 +3917,7 @@
         <v>82000000</v>
       </c>
       <c r="F54" s="17">
-        <f>E54/1000000</f>
+        <f t="shared" si="2"/>
         <v>82</v>
       </c>
       <c r="G54" s="14" t="s">
@@ -3942,7 +3942,7 @@
         <v>7.4</v>
       </c>
       <c r="N54" s="5">
-        <f>L54-M54</f>
+        <f t="shared" si="3"/>
         <v>1.4000000000000004</v>
       </c>
       <c r="O54" s="6"/>
@@ -3964,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="17">
-        <f>E55/1000000</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G55" s="14" t="s">
@@ -3987,7 +3987,7 @@
         <v>8.5</v>
       </c>
       <c r="N55" s="5">
-        <f>L55-M55</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O55" s="6"/>
@@ -4009,7 +4009,7 @@
         <v>200000000</v>
       </c>
       <c r="F56" s="17">
-        <f>E56/1000000</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="G56" s="14" t="s">
@@ -4032,7 +4032,7 @@
         <v>9.6</v>
       </c>
       <c r="N56" s="5">
-        <f>L56-M56</f>
+        <f t="shared" si="3"/>
         <v>-0.19999999999999929</v>
       </c>
       <c r="O56" s="6"/>
@@ -4054,7 +4054,7 @@
         <v>200000000</v>
       </c>
       <c r="F57" s="17">
-        <f>E57/1000000</f>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="G57" s="14" t="s">
@@ -4077,7 +4077,7 @@
         <v>9</v>
       </c>
       <c r="N57" s="5">
-        <f>L57-M57</f>
+        <f t="shared" si="3"/>
         <v>-0.30000000000000071</v>
       </c>
       <c r="O57" s="6" t="s">
@@ -4101,7 +4101,7 @@
         <v>190000000</v>
       </c>
       <c r="F58" s="17">
-        <f>E58/1000000</f>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="G58" s="14" t="s">
@@ -4126,7 +4126,7 @@
         <v>4.5</v>
       </c>
       <c r="N58" s="5">
-        <f>L58-M58</f>
+        <f t="shared" si="3"/>
         <v>-9.9999999999999645E-2</v>
       </c>
       <c r="O58" s="6"/>
@@ -4148,7 +4148,7 @@
         <v>38000000</v>
       </c>
       <c r="F59" s="17">
-        <f>E59/1000000</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="G59" s="14" t="s">
@@ -4173,7 +4173,7 @@
         <v>7.1</v>
       </c>
       <c r="N59" s="5">
-        <f>L59-M59</f>
+        <f t="shared" si="3"/>
         <v>0.80000000000000071</v>
       </c>
       <c r="O59" s="6"/>
@@ -4195,7 +4195,7 @@
         <v>24000000</v>
       </c>
       <c r="F60" s="17">
-        <f>E60/1000000</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="G60" s="14" t="s">
@@ -4220,7 +4220,7 @@
         <v>7.5</v>
       </c>
       <c r="N60" s="5">
-        <f>L60-M60</f>
+        <f t="shared" si="3"/>
         <v>0.29999999999999982</v>
       </c>
       <c r="O60" s="6"/>
@@ -4242,7 +4242,7 @@
         <v>15000000</v>
       </c>
       <c r="F61" s="17">
-        <f>E61/1000000</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="G61" s="14" t="s">
@@ -4267,7 +4267,7 @@
         <v>6</v>
       </c>
       <c r="N61" s="5">
-        <f>L61-M61</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="O61" s="6"/>
@@ -4289,7 +4289,7 @@
         <v>15000000</v>
       </c>
       <c r="F62" s="17">
-        <f>E62/1000000</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="G62" s="14" t="s">
@@ -4314,7 +4314,7 @@
         <v>5.9</v>
       </c>
       <c r="N62" s="5">
-        <f>L62-M62</f>
+        <f t="shared" si="3"/>
         <v>1.5999999999999996</v>
       </c>
       <c r="O62" s="6"/>
@@ -4336,7 +4336,7 @@
         <v>10000000</v>
       </c>
       <c r="F63" s="17">
-        <f>E63/1000000</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G63" s="14" t="s">
@@ -4361,7 +4361,7 @@
         <v>5.5</v>
       </c>
       <c r="N63" s="5">
-        <f>L63-M63</f>
+        <f t="shared" si="3"/>
         <v>-1.2999999999999998</v>
       </c>
       <c r="O63" s="6"/>
@@ -4383,7 +4383,7 @@
         <v>7000000</v>
       </c>
       <c r="F64" s="17">
-        <f>E64/1000000</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="G64" s="14" t="s">
@@ -4408,7 +4408,7 @@
         <v>6</v>
       </c>
       <c r="N64" s="5">
-        <f>L64-M64</f>
+        <f t="shared" si="3"/>
         <v>1.0999999999999996</v>
       </c>
       <c r="O64" s="6"/>
@@ -4430,7 +4430,7 @@
         <v>13000000</v>
       </c>
       <c r="F65" s="17">
-        <f>E65/1000000</f>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="G65" s="14" t="s">
@@ -4455,7 +4455,7 @@
         <v>8.5</v>
       </c>
       <c r="N65" s="5">
-        <f>L65-M65</f>
+        <f t="shared" si="3"/>
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="O65" s="6"/>
@@ -4477,7 +4477,7 @@
         <v>120000000</v>
       </c>
       <c r="F66" s="17">
-        <f>E66/1000000</f>
+        <f t="shared" ref="F66:F97" si="4">E66/1000000</f>
         <v>120</v>
       </c>
       <c r="G66" s="14" t="s">
@@ -4502,7 +4502,7 @@
         <v>6.7</v>
       </c>
       <c r="N66" s="5">
-        <f>L66-M66</f>
+        <f t="shared" ref="N66:N97" si="5">L66-M66</f>
         <v>-0.5</v>
       </c>
       <c r="O66" s="6"/>
@@ -4524,7 +4524,7 @@
         <v>185000000</v>
       </c>
       <c r="F67" s="17">
-        <f>E67/1000000</f>
+        <f t="shared" si="4"/>
         <v>185</v>
       </c>
       <c r="G67" s="14" t="s">
@@ -4547,7 +4547,7 @@
         <v>9.5</v>
       </c>
       <c r="N67" s="5">
-        <f>L67-M67</f>
+        <f t="shared" si="5"/>
         <v>-0.59999999999999964</v>
       </c>
       <c r="O67" s="6"/>
@@ -4569,7 +4569,7 @@
         <v>185000000</v>
       </c>
       <c r="F68" s="17">
-        <f>E68/1000000</f>
+        <f t="shared" si="4"/>
         <v>185</v>
       </c>
       <c r="G68" s="14" t="s">
@@ -4592,7 +4592,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="N68" s="5">
-        <f>L68-M68</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O68" s="6" t="s">
@@ -4616,7 +4616,7 @@
         <v>44000000</v>
       </c>
       <c r="F69" s="17">
-        <f>E69/1000000</f>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="G69" s="14" t="s">
@@ -4641,7 +4641,7 @@
         <v>6.5</v>
       </c>
       <c r="N69" s="5">
-        <f>L69-M69</f>
+        <f t="shared" si="5"/>
         <v>-9.9999999999999645E-2</v>
       </c>
       <c r="O69" s="6"/>
@@ -4663,7 +4663,7 @@
         <v>116000000</v>
       </c>
       <c r="F70" s="17">
-        <f>E70/1000000</f>
+        <f t="shared" si="4"/>
         <v>116</v>
       </c>
       <c r="G70" s="14" t="s">
@@ -4688,7 +4688,7 @@
         <v>6.2</v>
       </c>
       <c r="N70" s="5">
-        <f>L70-M70</f>
+        <f t="shared" si="5"/>
         <v>1.0999999999999996</v>
       </c>
       <c r="O70" s="6"/>
@@ -4710,7 +4710,7 @@
         <v>15000000</v>
       </c>
       <c r="F71" s="17">
-        <f>E71/1000000</f>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="G71" s="14" t="s">
@@ -4735,7 +4735,7 @@
         <v>7</v>
       </c>
       <c r="N71" s="5">
-        <f>L71-M71</f>
+        <f t="shared" si="5"/>
         <v>-0.29999999999999982</v>
       </c>
       <c r="O71" s="6"/>
@@ -4757,7 +4757,7 @@
         <v>80000000</v>
       </c>
       <c r="F72" s="17">
-        <f>E72/1000000</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="G72" s="14" t="s">
@@ -4782,7 +4782,7 @@
         <v>7.8</v>
       </c>
       <c r="N72" s="5">
-        <f>L72-M72</f>
+        <f t="shared" si="5"/>
         <v>-0.79999999999999982</v>
       </c>
       <c r="O72" s="6"/>
@@ -4804,7 +4804,7 @@
         <v>70000000</v>
       </c>
       <c r="F73" s="17">
-        <f>E73/1000000</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="G73" s="14" t="s">
@@ -4829,7 +4829,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="N73" s="5">
-        <f>L73-M73</f>
+        <f t="shared" si="5"/>
         <v>0.40000000000000036</v>
       </c>
       <c r="O73" s="6"/>
@@ -4851,7 +4851,7 @@
         <v>1100000</v>
       </c>
       <c r="F74" s="17">
-        <f>E74/1000000</f>
+        <f t="shared" si="4"/>
         <v>1.1000000000000001</v>
       </c>
       <c r="G74" s="14" t="s">
@@ -4876,7 +4876,7 @@
         <v>7</v>
       </c>
       <c r="N74" s="5">
-        <f>L74-M74</f>
+        <f t="shared" si="5"/>
         <v>-0.79999999999999982</v>
       </c>
       <c r="O74" s="6"/>
@@ -4898,7 +4898,7 @@
         <v>200000000</v>
       </c>
       <c r="F75" s="17">
-        <f>E75/1000000</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="G75" s="14" t="s">
@@ -4921,7 +4921,7 @@
         <v>7.5</v>
       </c>
       <c r="N75" s="5">
-        <f>L75-M75</f>
+        <f t="shared" si="5"/>
         <v>0.29999999999999982</v>
       </c>
       <c r="O75" s="6"/>
@@ -4943,7 +4943,7 @@
         <v>80000000</v>
       </c>
       <c r="F76" s="17">
-        <f>E76/1000000</f>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="G76" s="14" t="s">
@@ -4968,7 +4968,7 @@
         <v>6</v>
       </c>
       <c r="N76" s="5">
-        <f>L76-M76</f>
+        <f t="shared" si="5"/>
         <v>-1</v>
       </c>
       <c r="O76" s="6"/>
@@ -4990,7 +4990,7 @@
         <v>70000000</v>
       </c>
       <c r="F77" s="17">
-        <f>E77/1000000</f>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="G77" s="14" t="s">
@@ -5015,7 +5015,7 @@
         <v>7.2</v>
       </c>
       <c r="N77" s="5">
-        <f>L77-M77</f>
+        <f t="shared" si="5"/>
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="O77" s="6"/>
@@ -5037,7 +5037,7 @@
         <v>170000000</v>
       </c>
       <c r="F78" s="17">
-        <f>E78/1000000</f>
+        <f t="shared" si="4"/>
         <v>170</v>
       </c>
       <c r="G78" s="14" t="s">
@@ -5062,7 +5062,7 @@
         <v>9.4</v>
       </c>
       <c r="N78" s="5">
-        <f>L78-M78</f>
+        <f t="shared" si="5"/>
         <v>-0.40000000000000036</v>
       </c>
       <c r="O78" s="6"/>
@@ -5084,7 +5084,7 @@
         <v>40000000</v>
       </c>
       <c r="F79" s="17">
-        <f>E79/1000000</f>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="G79" s="14" t="s">
@@ -5109,7 +5109,7 @@
         <v>6.8</v>
       </c>
       <c r="N79" s="5">
-        <f>L79-M79</f>
+        <f t="shared" si="5"/>
         <v>0.70000000000000018</v>
       </c>
       <c r="O79" s="6"/>
@@ -5131,7 +5131,7 @@
         <v>75000000</v>
       </c>
       <c r="F80" s="17">
-        <f>E80/1000000</f>
+        <f t="shared" si="4"/>
         <v>75</v>
       </c>
       <c r="G80" s="14" t="s">
@@ -5156,7 +5156,7 @@
         <v>4.5</v>
       </c>
       <c r="N80" s="5">
-        <f>L80-M80</f>
+        <f t="shared" si="5"/>
         <v>-9.9999999999999645E-2</v>
       </c>
       <c r="O80" s="6"/>
@@ -5178,7 +5178,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="17">
-        <f>E81/1000000</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G81" s="14" t="s">
@@ -5201,7 +5201,7 @@
         <v>5.5</v>
       </c>
       <c r="N81" s="5">
-        <f>L81-M81</f>
+        <f t="shared" si="5"/>
         <v>1.0999999999999996</v>
       </c>
       <c r="O81" s="6"/>
@@ -5223,7 +5223,7 @@
         <v>60000000</v>
       </c>
       <c r="F82" s="17">
-        <f>E82/1000000</f>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="G82" s="14" t="s">
@@ -5248,7 +5248,7 @@
         <v>6</v>
       </c>
       <c r="N82" s="5">
-        <f>L82-M82</f>
+        <f t="shared" si="5"/>
         <v>0.79999999999999982</v>
       </c>
       <c r="O82" s="6"/>
@@ -5270,7 +5270,7 @@
         <v>68000000</v>
       </c>
       <c r="F83" s="17">
-        <f>E83/1000000</f>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="G83" s="14" t="s">
@@ -5295,7 +5295,7 @@
         <v>9</v>
       </c>
       <c r="N83" s="5">
-        <f>L83-M83</f>
+        <f t="shared" si="5"/>
         <v>-1.7000000000000002</v>
       </c>
       <c r="O83" s="6"/>
@@ -5317,7 +5317,7 @@
         <v>4500000</v>
       </c>
       <c r="F84" s="17">
-        <f>E84/1000000</f>
+        <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
       <c r="G84" s="14" t="s">
@@ -5342,7 +5342,7 @@
         <v>8.5</v>
       </c>
       <c r="N84" s="5">
-        <f>L84-M84</f>
+        <f t="shared" si="5"/>
         <v>0.30000000000000071</v>
       </c>
       <c r="O84" s="6" t="s">
@@ -5366,7 +5366,7 @@
         <v>20000000</v>
       </c>
       <c r="F85" s="17">
-        <f>E85/1000000</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="G85" s="14" t="s">
@@ -5391,7 +5391,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="N85" s="5">
-        <f>L85-M85</f>
+        <f t="shared" si="5"/>
         <v>-0.40000000000000036</v>
       </c>
       <c r="O85" s="6" t="s">
@@ -5415,7 +5415,7 @@
         <v>200000000</v>
       </c>
       <c r="F86" s="17">
-        <f>E86/1000000</f>
+        <f t="shared" si="4"/>
         <v>200</v>
       </c>
       <c r="G86" s="14" t="s">
@@ -5440,7 +5440,7 @@
         <v>4.5</v>
       </c>
       <c r="N86" s="5">
-        <f>L86-M86</f>
+        <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
       <c r="O86" s="6"/>
@@ -5462,7 +5462,7 @@
         <v>65000000</v>
       </c>
       <c r="F87" s="17">
-        <f>E87/1000000</f>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="G87" s="14" t="s">
@@ -5487,7 +5487,7 @@
         <v>8</v>
       </c>
       <c r="N87" s="5">
-        <f>L87-M87</f>
+        <f t="shared" si="5"/>
         <v>-0.5</v>
       </c>
       <c r="O87" s="6"/>
@@ -5509,7 +5509,7 @@
         <v>18000000</v>
       </c>
       <c r="F88" s="17">
-        <f>E88/1000000</f>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="G88" s="14" t="s">
@@ -5534,7 +5534,7 @@
         <v>8.4</v>
       </c>
       <c r="N88" s="5">
-        <f>L88-M88</f>
+        <f t="shared" si="5"/>
         <v>0.19999999999999929</v>
       </c>
       <c r="O88" s="6"/>
@@ -5556,7 +5556,7 @@
         <v>4000000</v>
       </c>
       <c r="F89" s="17">
-        <f>E89/1000000</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G89" s="14" t="s">
@@ -5581,7 +5581,7 @@
         <v>5.5</v>
       </c>
       <c r="N89" s="5">
-        <f>L89-M89</f>
+        <f t="shared" si="5"/>
         <v>1.5999999999999996</v>
       </c>
       <c r="O89" s="6"/>
@@ -5603,7 +5603,7 @@
         <v>100000000</v>
       </c>
       <c r="F90" s="17">
-        <f>E90/1000000</f>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="G90" s="14" t="s">
@@ -5628,7 +5628,7 @@
         <v>6.2</v>
       </c>
       <c r="N90" s="5">
-        <f>L90-M90</f>
+        <f t="shared" si="5"/>
         <v>0.79999999999999982</v>
       </c>
       <c r="O90" s="6"/>
@@ -5650,7 +5650,7 @@
         <v>85000000</v>
       </c>
       <c r="F91" s="17">
-        <f>E91/1000000</f>
+        <f t="shared" si="4"/>
         <v>85</v>
       </c>
       <c r="G91" s="14" t="s">
@@ -5675,7 +5675,7 @@
         <v>7.4</v>
       </c>
       <c r="N91" s="5">
-        <f>L91-M91</f>
+        <f t="shared" si="5"/>
         <v>0.69999999999999929</v>
       </c>
       <c r="O91" s="6"/>
@@ -5697,7 +5697,7 @@
         <v>150000000</v>
       </c>
       <c r="F92" s="17">
-        <f>E92/1000000</f>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="G92" s="14" t="s">
@@ -5722,7 +5722,7 @@
         <v>5.5</v>
       </c>
       <c r="N92" s="5">
-        <f>L92-M92</f>
+        <f t="shared" si="5"/>
         <v>-0.29999999999999982</v>
       </c>
       <c r="O92" s="6"/>
@@ -5744,7 +5744,7 @@
         <v>250000000</v>
       </c>
       <c r="F93" s="17">
-        <f>E93/1000000</f>
+        <f t="shared" si="4"/>
         <v>250</v>
       </c>
       <c r="G93" s="14" t="s">
@@ -5767,7 +5767,7 @@
         <v>6</v>
       </c>
       <c r="N93" s="5">
-        <f>L93-M93</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="O93" s="6"/>
@@ -5789,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="F94" s="17">
-        <f>E94/1000000</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G94" s="14" t="s">
@@ -5814,7 +5814,7 @@
         <v>5</v>
       </c>
       <c r="N94" s="5">
-        <f>L94-M94</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O94" s="6"/>
@@ -5836,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="F95" s="17">
-        <f>E95/1000000</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G95" s="14" t="s">
@@ -5861,7 +5861,7 @@
         <v>6.5</v>
       </c>
       <c r="N95" s="5">
-        <f>L95-M95</f>
+        <f t="shared" si="5"/>
         <v>0.70000000000000018</v>
       </c>
       <c r="O95" s="6"/>
@@ -5883,7 +5883,7 @@
         <v>14000000</v>
       </c>
       <c r="F96" s="17">
-        <f>E96/1000000</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="G96" s="14" t="s">
@@ -5908,7 +5908,7 @@
         <v>5.5</v>
       </c>
       <c r="N96" s="5">
-        <f>L96-M96</f>
+        <f t="shared" si="5"/>
         <v>-0.5</v>
       </c>
       <c r="O96" s="6"/>
@@ -5930,7 +5930,7 @@
         <v>20000000</v>
       </c>
       <c r="F97" s="17">
-        <f>E97/1000000</f>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="G97" s="14" t="s">
@@ -5955,7 +5955,7 @@
         <v>7.5</v>
       </c>
       <c r="N97" s="5">
-        <f>L97-M97</f>
+        <f t="shared" si="5"/>
         <v>-0.29999999999999982</v>
       </c>
       <c r="O97" s="6"/>
@@ -5977,7 +5977,7 @@
         <v>100000000</v>
       </c>
       <c r="F98" s="17">
-        <f>E98/1000000</f>
+        <f t="shared" ref="F98:F129" si="6">E98/1000000</f>
         <v>100</v>
       </c>
       <c r="G98" s="14" t="s">
@@ -6002,7 +6002,7 @@
         <v>8.5</v>
       </c>
       <c r="N98" s="5">
-        <f>L98-M98</f>
+        <f t="shared" ref="N98:N129" si="7">L98-M98</f>
         <v>0.59999999999999964</v>
       </c>
       <c r="O98" s="6"/>
@@ -6024,7 +6024,7 @@
         <v>8000000</v>
       </c>
       <c r="F99" s="17">
-        <f>E99/1000000</f>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="G99" s="14" t="s">
@@ -6049,7 +6049,7 @@
         <v>6.7</v>
       </c>
       <c r="N99" s="5">
-        <f>L99-M99</f>
+        <f t="shared" si="7"/>
         <v>0.29999999999999982</v>
       </c>
       <c r="O99" s="6"/>
@@ -6071,7 +6071,7 @@
         <v>250000000</v>
       </c>
       <c r="F100" s="17">
-        <f>E100/1000000</f>
+        <f t="shared" si="6"/>
         <v>250</v>
       </c>
       <c r="G100" s="14" t="s">
@@ -6094,7 +6094,7 @@
         <v>6.8</v>
       </c>
       <c r="N100" s="5">
-        <f>L100-M100</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O100" s="6"/>
@@ -6116,7 +6116,7 @@
         <v>17000000</v>
       </c>
       <c r="F101" s="17">
-        <f>E101/1000000</f>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="G101" s="14" t="s">
@@ -6141,7 +6141,7 @@
         <v>7.7</v>
       </c>
       <c r="N101" s="5">
-        <f>L101-M101</f>
+        <f t="shared" si="7"/>
         <v>-0.29999999999999982</v>
       </c>
       <c r="O101" s="6"/>
@@ -6163,7 +6163,7 @@
         <v>20000000</v>
       </c>
       <c r="F102" s="17">
-        <f>E102/1000000</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="G102" s="14" t="s">
@@ -6188,7 +6188,7 @@
         <v>7</v>
       </c>
       <c r="N102" s="5">
-        <f>L102-M102</f>
+        <f t="shared" si="7"/>
         <v>0.79999999999999982</v>
       </c>
       <c r="O102" s="6"/>
@@ -6210,7 +6210,7 @@
         <v>0</v>
       </c>
       <c r="F103" s="17">
-        <f>E103/1000000</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G103" s="14" t="s">
@@ -6235,7 +6235,7 @@
         <v>7.5</v>
       </c>
       <c r="N103" s="5">
-        <f>L103-M103</f>
+        <f t="shared" si="7"/>
         <v>0.59999999999999964</v>
       </c>
       <c r="O103" s="6"/>
@@ -6257,7 +6257,7 @@
         <v>7000000</v>
       </c>
       <c r="F104" s="17">
-        <f>E104/1000000</f>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="G104" s="14" t="s">
@@ -6282,7 +6282,7 @@
         <v>5.5</v>
       </c>
       <c r="N104" s="5">
-        <f>L104-M104</f>
+        <f t="shared" si="7"/>
         <v>1.0999999999999996</v>
       </c>
       <c r="O104" s="6"/>
@@ -6304,7 +6304,7 @@
         <v>350000000</v>
       </c>
       <c r="F105" s="17">
-        <f>E105/1000000</f>
+        <f t="shared" si="6"/>
         <v>350</v>
       </c>
       <c r="G105" s="14" t="s">
@@ -6329,7 +6329,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="N105" s="5">
-        <f>L105-M105</f>
+        <f t="shared" si="7"/>
         <v>-1.4999999999999991</v>
       </c>
       <c r="O105" s="6"/>
@@ -6351,7 +6351,7 @@
         <v>195000000</v>
       </c>
       <c r="F106" s="17">
-        <f>E106/1000000</f>
+        <f t="shared" si="6"/>
         <v>195</v>
       </c>
       <c r="G106" s="14" t="s">
@@ -6376,7 +6376,7 @@
         <v>6.5</v>
       </c>
       <c r="N106" s="5">
-        <f>L106-M106</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O106" s="6"/>
@@ -6398,7 +6398,7 @@
         <v>90000000</v>
       </c>
       <c r="F107" s="17">
-        <f>E107/1000000</f>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="G107" s="14" t="s">
@@ -6423,7 +6423,7 @@
         <v>9.6</v>
       </c>
       <c r="N107" s="5">
-        <f>L107-M107</f>
+        <f t="shared" si="7"/>
         <v>-0.29999999999999893</v>
       </c>
       <c r="O107" s="6"/>
@@ -6445,7 +6445,7 @@
         <v>72000000</v>
       </c>
       <c r="F108" s="17">
-        <f>E108/1000000</f>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="G108" s="14" t="s">
@@ -6470,7 +6470,7 @@
         <v>6.7</v>
       </c>
       <c r="N108" s="5">
-        <f>L108-M108</f>
+        <f t="shared" si="7"/>
         <v>0.39999999999999947</v>
       </c>
       <c r="O108" s="6"/>
@@ -6492,7 +6492,7 @@
         <v>72000000</v>
       </c>
       <c r="F109" s="17">
-        <f>E109/1000000</f>
+        <f t="shared" si="6"/>
         <v>72</v>
       </c>
       <c r="G109" s="14" t="s">
@@ -6517,7 +6517,7 @@
         <v>7.8</v>
       </c>
       <c r="N109" s="5">
-        <f>L109-M109</f>
+        <f t="shared" si="7"/>
         <v>0.29999999999999982</v>
       </c>
       <c r="O109" s="6"/>
@@ -6539,7 +6539,7 @@
         <v>60000000</v>
       </c>
       <c r="F110" s="17">
-        <f>E110/1000000</f>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="G110" s="14" t="s">
@@ -6564,7 +6564,7 @@
         <v>7</v>
       </c>
       <c r="N110" s="5">
-        <f>L110-M110</f>
+        <f t="shared" si="7"/>
         <v>-0.70000000000000018</v>
       </c>
       <c r="O110" s="6"/>
@@ -6586,7 +6586,7 @@
         <v>20000000</v>
       </c>
       <c r="F111" s="17">
-        <f>E111/1000000</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="G111" s="14" t="s">
@@ -6611,7 +6611,7 @@
         <v>7.2</v>
       </c>
       <c r="N111" s="5">
-        <f>L111-M111</f>
+        <f t="shared" si="7"/>
         <v>1.6000000000000005</v>
       </c>
       <c r="O111" s="6"/>
@@ -6633,7 +6633,7 @@
         <v>70000000</v>
       </c>
       <c r="F112" s="17">
-        <f>E112/1000000</f>
+        <f t="shared" si="6"/>
         <v>70</v>
       </c>
       <c r="G112" s="14" t="s">
@@ -6658,7 +6658,7 @@
         <v>5.5</v>
       </c>
       <c r="N112" s="5">
-        <f>L112-M112</f>
+        <f t="shared" si="7"/>
         <v>-1.2000000000000002</v>
       </c>
       <c r="O112" s="6"/>
@@ -6680,7 +6680,7 @@
         <v>200000000</v>
       </c>
       <c r="F113" s="17">
-        <f>E113/1000000</f>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="G113" s="14" t="s">
@@ -6703,7 +6703,7 @@
         <v>7</v>
       </c>
       <c r="N113" s="5">
-        <f>L113-M113</f>
+        <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
       <c r="O113" s="6"/>
@@ -6725,7 +6725,7 @@
         <v>55000000</v>
       </c>
       <c r="F114" s="17">
-        <f>E114/1000000</f>
+        <f t="shared" si="6"/>
         <v>55</v>
       </c>
       <c r="G114" s="14" t="s">
@@ -6748,7 +6748,7 @@
         <v>7</v>
       </c>
       <c r="N114" s="5">
-        <f>L114-M114</f>
+        <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
       <c r="O114" s="6"/>
@@ -6770,7 +6770,7 @@
         <v>10000000</v>
       </c>
       <c r="F115" s="17">
-        <f>E115/1000000</f>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="G115" s="14" t="s">
@@ -6795,7 +6795,7 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="N115" s="5">
-        <f>L115-M115</f>
+        <f t="shared" si="7"/>
         <v>0.30000000000000071</v>
       </c>
       <c r="O115" s="6"/>
@@ -6817,7 +6817,7 @@
         <v>35000000</v>
       </c>
       <c r="F116" s="17">
-        <f>E116/1000000</f>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="G116" s="14" t="s">
@@ -6842,7 +6842,7 @@
         <v>7.8</v>
       </c>
       <c r="N116" s="5">
-        <f>L116-M116</f>
+        <f t="shared" si="7"/>
         <v>0.29999999999999982</v>
       </c>
       <c r="O116" s="6"/>
@@ -6864,7 +6864,7 @@
         <v>17000000</v>
       </c>
       <c r="F117" s="17">
-        <f>E117/1000000</f>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="G117" s="14" t="s">
@@ -6889,7 +6889,7 @@
         <v>6.7</v>
       </c>
       <c r="N117" s="5">
-        <f>L117-M117</f>
+        <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
       <c r="O117" s="6"/>
@@ -6911,7 +6911,7 @@
         <v>24000000</v>
       </c>
       <c r="F118" s="17">
-        <f>E118/1000000</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="G118" s="14" t="s">
@@ -6936,7 +6936,7 @@
         <v>7.5</v>
       </c>
       <c r="N118" s="5">
-        <f>L118-M118</f>
+        <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="O118" s="6"/>
@@ -6958,7 +6958,7 @@
         <v>100000000</v>
       </c>
       <c r="F119" s="17">
-        <f>E119/1000000</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="G119" s="14" t="s">
@@ -6983,7 +6983,7 @@
         <v>6.5</v>
       </c>
       <c r="N119" s="5">
-        <f>L119-M119</f>
+        <f t="shared" si="7"/>
         <v>1.5999999999999996</v>
       </c>
       <c r="O119" s="6"/>
@@ -7005,7 +7005,7 @@
         <v>22000000</v>
       </c>
       <c r="F120" s="17">
-        <f>E120/1000000</f>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="G120" s="14" t="s">
@@ -7030,7 +7030,7 @@
         <v>4.5</v>
       </c>
       <c r="N120" s="5">
-        <f>L120-M120</f>
+        <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
       <c r="O120" s="6"/>
@@ -7052,7 +7052,7 @@
         <v>35000000</v>
       </c>
       <c r="F121" s="17">
-        <f>E121/1000000</f>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="G121" s="14" t="s">
@@ -7077,7 +7077,7 @@
         <v>5.7</v>
       </c>
       <c r="N121" s="5">
-        <f>L121-M121</f>
+        <f t="shared" si="7"/>
         <v>-0.70000000000000018</v>
       </c>
       <c r="O121" s="6"/>
@@ -7099,7 +7099,7 @@
         <v>17000000</v>
       </c>
       <c r="F122" s="17">
-        <f>E122/1000000</f>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="G122" s="14" t="s">
@@ -7122,7 +7122,7 @@
         <v>7.3</v>
       </c>
       <c r="N122" s="5">
-        <f>L122-M122</f>
+        <f t="shared" si="7"/>
         <v>0.79999999999999982</v>
       </c>
       <c r="O122" s="6"/>
@@ -7144,7 +7144,7 @@
         <v>250000000</v>
       </c>
       <c r="F123" s="17">
-        <f>E123/1000000</f>
+        <f t="shared" si="6"/>
         <v>250</v>
       </c>
       <c r="G123" s="14" t="s">
@@ -7169,7 +7169,7 @@
         <v>7.8</v>
       </c>
       <c r="N123" s="5">
-        <f>L123-M123</f>
+        <f t="shared" si="7"/>
         <v>0.39999999999999947</v>
       </c>
       <c r="O123" s="6"/>
@@ -7191,7 +7191,7 @@
         <v>16000000</v>
       </c>
       <c r="F124" s="17">
-        <f>E124/1000000</f>
+        <f t="shared" si="6"/>
         <v>16</v>
       </c>
       <c r="G124" s="14" t="s">
@@ -7216,7 +7216,7 @@
         <v>8.5</v>
       </c>
       <c r="N124" s="5">
-        <f>L124-M124</f>
+        <f t="shared" si="7"/>
         <v>-0.90000000000000036</v>
       </c>
       <c r="O124" s="6"/>
@@ -7238,7 +7238,7 @@
         <v>35000000</v>
       </c>
       <c r="F125" s="17">
-        <f>E125/1000000</f>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="G125" s="14" t="s">
@@ -7263,7 +7263,7 @@
         <v>7.5</v>
       </c>
       <c r="N125" s="5">
-        <f>L125-M125</f>
+        <f t="shared" si="7"/>
         <v>0.59999999999999964</v>
       </c>
       <c r="O125" s="6"/>
@@ -7285,7 +7285,7 @@
         <v>15000000</v>
       </c>
       <c r="F126" s="17">
-        <f>E126/1000000</f>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="G126" s="14" t="s">
@@ -7310,7 +7310,7 @@
         <v>7.2</v>
       </c>
       <c r="N126" s="5">
-        <f>L126-M126</f>
+        <f t="shared" si="7"/>
         <v>0.39999999999999947</v>
       </c>
       <c r="O126" s="6"/>
@@ -7332,7 +7332,7 @@
         <v>100000000</v>
       </c>
       <c r="F127" s="17">
-        <f>E127/1000000</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="G127" s="14" t="s">
@@ -7357,7 +7357,7 @@
         <v>10</v>
       </c>
       <c r="N127" s="5">
-        <f>L127-M127</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O127" s="6"/>
@@ -7379,7 +7379,7 @@
         <v>0</v>
       </c>
       <c r="F128" s="17">
-        <f>E128/1000000</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G128" s="14" t="s">
@@ -7404,7 +7404,7 @@
         <v>7.2</v>
       </c>
       <c r="N128" s="5">
-        <f>L128-M128</f>
+        <f t="shared" si="7"/>
         <v>-0.90000000000000036</v>
       </c>
       <c r="O128" s="6" t="s">
@@ -7428,7 +7428,7 @@
         <v>200000000</v>
       </c>
       <c r="F129" s="17">
-        <f>E129/1000000</f>
+        <f t="shared" si="6"/>
         <v>200</v>
       </c>
       <c r="G129" s="14" t="s">
@@ -7453,7 +7453,7 @@
         <v>7</v>
       </c>
       <c r="N129" s="5">
-        <f>L129-M129</f>
+        <f t="shared" si="7"/>
         <v>0.90000000000000036</v>
       </c>
       <c r="O129" s="6"/>
@@ -7475,7 +7475,7 @@
         <v>28000000</v>
       </c>
       <c r="F130" s="17">
-        <f>E130/1000000</f>
+        <f t="shared" ref="F130:F161" si="8">E130/1000000</f>
         <v>28</v>
       </c>
       <c r="G130" s="14" t="s">
@@ -7500,7 +7500,7 @@
         <v>9.1</v>
       </c>
       <c r="N130" s="5">
-        <f>L130-M130</f>
+        <f t="shared" ref="N130:N161" si="9">L130-M130</f>
         <v>-1.2999999999999998</v>
       </c>
       <c r="O130" s="6"/>
@@ -7522,7 +7522,7 @@
         <v>125000000</v>
       </c>
       <c r="F131" s="17">
-        <f>E131/1000000</f>
+        <f t="shared" si="8"/>
         <v>125</v>
       </c>
       <c r="G131" s="14" t="s">
@@ -7547,7 +7547,7 @@
         <v>5.2</v>
       </c>
       <c r="N131" s="5">
-        <f>L131-M131</f>
+        <f t="shared" si="9"/>
         <v>1.3999999999999995</v>
       </c>
       <c r="O131" s="6"/>
@@ -7569,7 +7569,7 @@
         <v>25000000</v>
       </c>
       <c r="F132" s="17">
-        <f>E132/1000000</f>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="G132" s="14" t="s">
@@ -7594,7 +7594,7 @@
         <v>7.8</v>
       </c>
       <c r="N132" s="5">
-        <f>L132-M132</f>
+        <f t="shared" si="9"/>
         <v>-0.70000000000000018</v>
       </c>
       <c r="O132" s="6"/>
@@ -7616,7 +7616,7 @@
         <v>291000000</v>
       </c>
       <c r="F133" s="17">
-        <f>E133/1000000</f>
+        <f t="shared" si="8"/>
         <v>291</v>
       </c>
       <c r="G133" s="14" t="s">
@@ -7641,7 +7641,7 @@
         <v>8.9</v>
       </c>
       <c r="N133" s="5">
-        <f>L133-M133</f>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="O133" s="6"/>
@@ -7663,7 +7663,7 @@
         <v>100000000</v>
       </c>
       <c r="F134" s="17">
-        <f>E134/1000000</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="G134" s="14" t="s">
@@ -7688,7 +7688,7 @@
         <v>8.5</v>
       </c>
       <c r="N134" s="5">
-        <f>L134-M134</f>
+        <f t="shared" si="9"/>
         <v>-0.30000000000000071</v>
       </c>
       <c r="O134" s="6"/>
@@ -7710,7 +7710,7 @@
         <v>200000000</v>
       </c>
       <c r="F135" s="17">
-        <f>E135/1000000</f>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="G135" s="14" t="s">
@@ -7735,7 +7735,7 @@
         <v>5.5</v>
       </c>
       <c r="N135" s="5">
-        <f>L135-M135</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="O135" s="6"/>
@@ -7757,7 +7757,7 @@
         <v>70000000</v>
       </c>
       <c r="F136" s="17">
-        <f>E136/1000000</f>
+        <f t="shared" si="8"/>
         <v>70</v>
       </c>
       <c r="G136" s="14" t="s">
@@ -7782,7 +7782,7 @@
         <v>9.3000000000000007</v>
       </c>
       <c r="N136" s="5">
-        <f>L136-M136</f>
+        <f t="shared" si="9"/>
         <v>-0.70000000000000107</v>
       </c>
       <c r="O136" s="6"/>
@@ -7804,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="F137" s="17">
-        <f>E137/1000000</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G137" s="14" t="s">
@@ -7829,7 +7829,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="N137" s="5">
-        <f>L137-M137</f>
+        <f t="shared" si="9"/>
         <v>-0.19999999999999929</v>
       </c>
       <c r="O137" s="6"/>
@@ -7851,7 +7851,7 @@
         <v>45000000</v>
       </c>
       <c r="F138" s="17">
-        <f>E138/1000000</f>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="G138" s="14" t="s">
@@ -7876,7 +7876,7 @@
         <v>4.5999999999999996</v>
       </c>
       <c r="N138" s="5">
-        <f>L138-M138</f>
+        <f t="shared" si="9"/>
         <v>0.60000000000000053</v>
       </c>
       <c r="O138" s="6"/>
@@ -7898,7 +7898,7 @@
         <v>45000000</v>
       </c>
       <c r="F139" s="17">
-        <f>E139/1000000</f>
+        <f t="shared" si="8"/>
         <v>45</v>
       </c>
       <c r="G139" s="14" t="s">
@@ -7923,7 +7923,7 @@
         <v>8.5</v>
       </c>
       <c r="N139" s="5">
-        <f>L139-M139</f>
+        <f t="shared" si="9"/>
         <v>0.80000000000000071</v>
       </c>
       <c r="O139" s="6"/>
@@ -7945,7 +7945,7 @@
         <v>57000000</v>
       </c>
       <c r="F140" s="17">
-        <f>E140/1000000</f>
+        <f t="shared" si="8"/>
         <v>57</v>
       </c>
       <c r="G140" s="14" t="s">
@@ -7970,7 +7970,7 @@
         <v>7.7</v>
       </c>
       <c r="N140" s="5">
-        <f>L140-M140</f>
+        <f t="shared" si="9"/>
         <v>0.70000000000000018</v>
       </c>
       <c r="O140" s="6"/>
@@ -7992,7 +7992,7 @@
         <v>11000000</v>
       </c>
       <c r="F141" s="17">
-        <f>E141/1000000</f>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="G141" s="14" t="s">
@@ -8017,7 +8017,7 @@
         <v>8.5</v>
       </c>
       <c r="N141" s="5">
-        <f>L141-M141</f>
+        <f t="shared" si="9"/>
         <v>-0.59999999999999964</v>
       </c>
       <c r="O141" s="6"/>
@@ -8039,7 +8039,7 @@
         <v>15000000</v>
       </c>
       <c r="F142" s="17">
-        <f>E142/1000000</f>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="G142" s="14" t="s">
@@ -8064,7 +8064,7 @@
         <v>5.5</v>
       </c>
       <c r="N142" s="5">
-        <f>L142-M142</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O142" s="6"/>
@@ -8086,7 +8086,7 @@
         <v>25000000</v>
       </c>
       <c r="F143" s="17">
-        <f>E143/1000000</f>
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="G143" s="14" t="s">
@@ -8111,7 +8111,7 @@
         <v>7.2</v>
       </c>
       <c r="N143" s="5">
-        <f>L143-M143</f>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="O143" s="6"/>
@@ -8133,7 +8133,7 @@
         <v>80000000</v>
       </c>
       <c r="F144" s="17">
-        <f>E144/1000000</f>
+        <f t="shared" si="8"/>
         <v>80</v>
       </c>
       <c r="G144" s="14" t="s">
@@ -8158,7 +8158,7 @@
         <v>8</v>
       </c>
       <c r="N144" s="5">
-        <f>L144-M144</f>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="O144" s="6"/>
@@ -8180,7 +8180,7 @@
         <v>150000000</v>
       </c>
       <c r="F145" s="17">
-        <f>E145/1000000</f>
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
       <c r="G145" s="14" t="s">
@@ -8205,7 +8205,7 @@
         <v>9.5</v>
       </c>
       <c r="N145" s="5">
-        <f>L145-M145</f>
+        <f t="shared" si="9"/>
         <v>-1.4000000000000004</v>
       </c>
       <c r="O145" s="6"/>
@@ -8227,7 +8227,7 @@
         <v>3000000</v>
       </c>
       <c r="F146" s="17">
-        <f>E146/1000000</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="G146" s="14" t="s">
@@ -8252,7 +8252,7 @@
         <v>4.5</v>
       </c>
       <c r="N146" s="5">
-        <f>L146-M146</f>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="O146" s="6" t="s">
@@ -8276,7 +8276,7 @@
         <v>4500000</v>
       </c>
       <c r="F147" s="17">
-        <f>E147/1000000</f>
+        <f t="shared" si="8"/>
         <v>4.5</v>
       </c>
       <c r="G147" s="14" t="s">
@@ -8301,7 +8301,7 @@
         <v>9.1</v>
       </c>
       <c r="N147" s="5">
-        <f>L147-M147</f>
+        <f t="shared" si="9"/>
         <v>-0.5</v>
       </c>
       <c r="O147" s="6"/>
@@ -8323,7 +8323,7 @@
         <v>200000000</v>
       </c>
       <c r="F148" s="17">
-        <f>E148/1000000</f>
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
       <c r="G148" s="14" t="s">
@@ -8348,7 +8348,7 @@
         <v>9.5</v>
       </c>
       <c r="N148" s="5">
-        <f>L148-M148</f>
+        <f t="shared" si="9"/>
         <v>-1.9000000000000004</v>
       </c>
       <c r="O148" s="6"/>
@@ -8370,7 +8370,7 @@
         <v>1000000</v>
       </c>
       <c r="F149" s="17">
-        <f>E149/1000000</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="G149" s="14" t="s">
@@ -8395,7 +8395,7 @@
         <v>8.5</v>
       </c>
       <c r="N149" s="5">
-        <f>L149-M149</f>
+        <f t="shared" si="9"/>
         <v>-1.0999999999999996</v>
       </c>
       <c r="O149" s="6"/>
@@ -8417,7 +8417,7 @@
         <v>100000000</v>
       </c>
       <c r="F150" s="17">
-        <f>E150/1000000</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="G150" s="14" t="s">
@@ -8442,7 +8442,7 @@
         <v>5.6</v>
       </c>
       <c r="N150" s="5">
-        <f>L150-M150</f>
+        <f t="shared" si="9"/>
         <v>0.20000000000000018</v>
       </c>
       <c r="O150" s="6"/>
@@ -8464,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="F151" s="17">
-        <f>E151/1000000</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G151" s="14" t="s">
@@ -8489,7 +8489,7 @@
         <v>7.8</v>
       </c>
       <c r="N151" s="5">
-        <f>L151-M151</f>
+        <f t="shared" si="9"/>
         <v>-0.59999999999999964</v>
       </c>
       <c r="O151" s="6"/>
@@ -8511,7 +8511,7 @@
         <v>7000000</v>
       </c>
       <c r="F152" s="17">
-        <f>E152/1000000</f>
+        <f t="shared" si="8"/>
         <v>7</v>
       </c>
       <c r="G152" s="14" t="s">
@@ -8536,7 +8536,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="N152" s="5">
-        <f>L152-M152</f>
+        <f t="shared" si="9"/>
         <v>-0.69999999999999929</v>
       </c>
       <c r="O152" s="6"/>
@@ -8558,7 +8558,7 @@
         <v>40000000</v>
       </c>
       <c r="F153" s="17">
-        <f>E153/1000000</f>
+        <f t="shared" si="8"/>
         <v>40</v>
       </c>
       <c r="G153" s="14" t="s">
@@ -8583,7 +8583,7 @@
         <v>8.5</v>
       </c>
       <c r="N153" s="5">
-        <f>L153-M153</f>
+        <f t="shared" si="9"/>
         <v>-1.2000000000000002</v>
       </c>
       <c r="O153" s="6"/>
@@ -8605,7 +8605,7 @@
         <v>30000000</v>
       </c>
       <c r="F154" s="17">
-        <f>E154/1000000</f>
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="G154" s="14" t="s">
@@ -8628,7 +8628,7 @@
         <v>5.5</v>
       </c>
       <c r="N154" s="5">
-        <f>L154-M154</f>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="O154" s="6"/>
@@ -8650,7 +8650,7 @@
         <v>15000000</v>
       </c>
       <c r="F155" s="17">
-        <f>E155/1000000</f>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="G155" s="14" t="s">
@@ -8675,7 +8675,7 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="N155" s="5">
-        <f>L155-M155</f>
+        <f t="shared" si="9"/>
         <v>-0.20000000000000107</v>
       </c>
       <c r="O155" s="6"/>
@@ -8697,7 +8697,7 @@
         <v>0</v>
       </c>
       <c r="F156" s="17">
-        <f>E156/1000000</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G156" s="14" t="s">
@@ -8722,7 +8722,7 @@
         <v>6</v>
       </c>
       <c r="N156" s="5">
-        <f>L156-M156</f>
+        <f t="shared" si="9"/>
         <v>-9.9999999999999645E-2</v>
       </c>
       <c r="O156" s="6"/>
@@ -8744,7 +8744,7 @@
         <v>90000000</v>
       </c>
       <c r="F157" s="17">
-        <f>E157/1000000</f>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="G157" s="14" t="s">
@@ -8769,7 +8769,7 @@
         <v>5.3</v>
       </c>
       <c r="N157" s="5">
-        <f>L157-M157</f>
+        <f t="shared" si="9"/>
         <v>-0.29999999999999982</v>
       </c>
       <c r="O157" s="6"/>
@@ -8791,7 +8791,7 @@
         <v>100000000</v>
       </c>
       <c r="F158" s="17">
-        <f>E158/1000000</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="G158" s="14" t="s">
@@ -8816,7 +8816,7 @@
         <v>7.1</v>
       </c>
       <c r="N158" s="5">
-        <f>L158-M158</f>
+        <f t="shared" si="9"/>
         <v>-0.39999999999999947</v>
       </c>
       <c r="O158" s="6"/>
@@ -8838,7 +8838,7 @@
         <v>5000000</v>
       </c>
       <c r="F159" s="17">
-        <f>E159/1000000</f>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="G159" s="14" t="s">
@@ -8863,7 +8863,7 @@
         <v>6.8</v>
       </c>
       <c r="N159" s="5">
-        <f>L159-M159</f>
+        <f t="shared" si="9"/>
         <v>0.20000000000000018</v>
       </c>
       <c r="O159" s="6"/>
@@ -8885,7 +8885,7 @@
         <v>17000000</v>
       </c>
       <c r="F160" s="17">
-        <f>E160/1000000</f>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="G160" s="14" t="s">
@@ -8910,7 +8910,7 @@
         <v>6.6</v>
       </c>
       <c r="N160" s="5">
-        <f>L160-M160</f>
+        <f t="shared" si="9"/>
         <v>-0.29999999999999982</v>
       </c>
       <c r="O160" s="6"/>
@@ -8932,7 +8932,7 @@
         <v>500000</v>
       </c>
       <c r="F161" s="17">
-        <f>E161/1000000</f>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
       <c r="G161" s="14" t="s">
@@ -8957,7 +8957,7 @@
         <v>4.2</v>
       </c>
       <c r="N161" s="5">
-        <f>L161-M161</f>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="O161" s="6"/>
@@ -8979,7 +8979,7 @@
         <v>12000000</v>
       </c>
       <c r="F162" s="17">
-        <f>E162/1000000</f>
+        <f t="shared" ref="F162:F184" si="10">E162/1000000</f>
         <v>12</v>
       </c>
       <c r="G162" s="14" t="s">
@@ -9004,7 +9004,7 @@
         <v>7.1</v>
       </c>
       <c r="N162" s="5">
-        <f>L162-M162</f>
+        <f t="shared" ref="N162:N184" si="11">L162-M162</f>
         <v>-0.79999999999999982</v>
       </c>
       <c r="O162" s="6"/>
@@ -9026,7 +9026,7 @@
         <v>10000000</v>
       </c>
       <c r="F163" s="17">
-        <f>E163/1000000</f>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="G163" s="14" t="s">
@@ -9051,7 +9051,7 @@
         <v>6.2</v>
       </c>
       <c r="N163" s="5">
-        <f>L163-M163</f>
+        <f t="shared" si="11"/>
         <v>-0.5</v>
       </c>
       <c r="O163" s="6"/>
@@ -9073,7 +9073,7 @@
         <v>220000000</v>
       </c>
       <c r="F164" s="17">
-        <f>E164/1000000</f>
+        <f t="shared" si="10"/>
         <v>220</v>
       </c>
       <c r="G164" s="14" t="s">
@@ -9096,7 +9096,7 @@
         <v>7.1</v>
       </c>
       <c r="N164" s="5">
-        <f>L164-M164</f>
+        <f t="shared" si="11"/>
         <v>-1.0999999999999996</v>
       </c>
       <c r="O164" s="6"/>
@@ -9118,7 +9118,7 @@
         <v>100000</v>
       </c>
       <c r="F165" s="17">
-        <f>E165/1000000</f>
+        <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
       <c r="G165" s="14" t="s">
@@ -9143,7 +9143,7 @@
         <v>4</v>
       </c>
       <c r="N165" s="5">
-        <f>L165-M165</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="O165" s="6"/>
@@ -9165,7 +9165,7 @@
         <v>5000000</v>
       </c>
       <c r="F166" s="17">
-        <f>E166/1000000</f>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="G166" s="14" t="s">
@@ -9190,7 +9190,7 @@
         <v>7.2</v>
       </c>
       <c r="N166" s="5">
-        <f>L166-M166</f>
+        <f t="shared" si="11"/>
         <v>0.20000000000000018</v>
       </c>
       <c r="O166" s="6"/>
@@ -9212,7 +9212,7 @@
         <v>40000000</v>
       </c>
       <c r="F167" s="17">
-        <f>E167/1000000</f>
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
       <c r="G167" s="14" t="s">
@@ -9237,7 +9237,7 @@
         <v>6.7</v>
       </c>
       <c r="N167" s="5">
-        <f>L167-M167</f>
+        <f t="shared" si="11"/>
         <v>0.79999999999999982</v>
       </c>
       <c r="O167" s="6"/>
@@ -9259,7 +9259,7 @@
         <v>205000000</v>
       </c>
       <c r="F168" s="17">
-        <f>E168/1000000</f>
+        <f t="shared" si="10"/>
         <v>205</v>
       </c>
       <c r="G168" s="14" t="s">
@@ -9282,7 +9282,7 @@
         <v>5.6</v>
       </c>
       <c r="N168" s="5">
-        <f>L168-M168</f>
+        <f t="shared" si="11"/>
         <v>-9.9999999999999645E-2</v>
       </c>
       <c r="O168" s="6"/>
@@ -9304,7 +9304,7 @@
         <v>13000000</v>
       </c>
       <c r="F169" s="17">
-        <f>E169/1000000</f>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="G169" s="14" t="s">
@@ -9329,7 +9329,7 @@
         <v>3.7</v>
       </c>
       <c r="N169" s="5">
-        <f>L169-M169</f>
+        <f t="shared" si="11"/>
         <v>-0.5</v>
       </c>
       <c r="O169" s="6"/>
@@ -9351,7 +9351,7 @@
         <v>100000000</v>
       </c>
       <c r="F170" s="17">
-        <f>E170/1000000</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="G170" s="14" t="s">
@@ -9376,7 +9376,7 @@
         <v>7.2</v>
       </c>
       <c r="N170" s="5">
-        <f>L170-M170</f>
+        <f t="shared" si="11"/>
         <v>-0.20000000000000018</v>
       </c>
       <c r="O170" s="6"/>
@@ -9398,7 +9398,7 @@
         <v>75000000</v>
       </c>
       <c r="F171" s="17">
-        <f>E171/1000000</f>
+        <f t="shared" si="10"/>
         <v>75</v>
       </c>
       <c r="G171" s="14" t="s">
@@ -9423,7 +9423,7 @@
         <v>5.5</v>
       </c>
       <c r="N171" s="5">
-        <f>L171-M171</f>
+        <f t="shared" si="11"/>
         <v>-9.9999999999999645E-2</v>
       </c>
       <c r="O171" s="6"/>
@@ -9445,7 +9445,7 @@
         <v>28000000</v>
       </c>
       <c r="F172" s="17">
-        <f>E172/1000000</f>
+        <f t="shared" si="10"/>
         <v>28</v>
       </c>
       <c r="G172" s="14" t="s">
@@ -9470,7 +9470,7 @@
         <v>6.8</v>
       </c>
       <c r="N172" s="5">
-        <f>L172-M172</f>
+        <f t="shared" si="11"/>
         <v>0.79999999999999982</v>
       </c>
       <c r="O172" s="6"/>
@@ -9492,7 +9492,7 @@
         <v>50000000</v>
       </c>
       <c r="F173" s="17">
-        <f>E173/1000000</f>
+        <f t="shared" si="10"/>
         <v>50</v>
       </c>
       <c r="G173" s="14" t="s">
@@ -9517,7 +9517,7 @@
         <v>9.1999999999999993</v>
       </c>
       <c r="N173" s="5">
-        <f>L173-M173</f>
+        <f t="shared" si="11"/>
         <v>-2.0999999999999996</v>
       </c>
       <c r="O173" s="6"/>
@@ -9539,7 +9539,7 @@
         <v>100000000</v>
       </c>
       <c r="F174" s="17">
-        <f>E174/1000000</f>
+        <f t="shared" si="10"/>
         <v>100</v>
       </c>
       <c r="G174" s="14" t="s">
@@ -9564,7 +9564,7 @@
         <v>6</v>
       </c>
       <c r="N174" s="5">
-        <f>L174-M174</f>
+        <f t="shared" si="11"/>
         <v>0.70000000000000018</v>
       </c>
       <c r="O174" s="6"/>
@@ -9586,7 +9586,7 @@
         <v>150000000</v>
       </c>
       <c r="F175" s="17">
-        <f>E175/1000000</f>
+        <f t="shared" si="10"/>
         <v>150</v>
       </c>
       <c r="G175" s="14" t="s">
@@ -9611,7 +9611,7 @@
         <v>4.7</v>
       </c>
       <c r="N175" s="5">
-        <f>L175-M175</f>
+        <f t="shared" si="11"/>
         <v>1.7999999999999998</v>
       </c>
       <c r="O175" s="6"/>
@@ -9633,7 +9633,7 @@
         <v>45000000</v>
       </c>
       <c r="F176" s="17">
-        <f>E176/1000000</f>
+        <f t="shared" si="10"/>
         <v>45</v>
       </c>
       <c r="G176" s="14" t="s">
@@ -9658,7 +9658,7 @@
         <v>5.6</v>
       </c>
       <c r="N176" s="5">
-        <f>L176-M176</f>
+        <f t="shared" si="11"/>
         <v>0.10000000000000053</v>
       </c>
       <c r="O176" s="6"/>
@@ -9680,7 +9680,7 @@
         <v>105000000</v>
       </c>
       <c r="F177" s="17">
-        <f>E177/1000000</f>
+        <f t="shared" si="10"/>
         <v>105</v>
       </c>
       <c r="G177" s="14" t="s">
@@ -9705,7 +9705,7 @@
         <v>7.2</v>
       </c>
       <c r="N177" s="5">
-        <f>L177-M177</f>
+        <f t="shared" si="11"/>
         <v>-0.70000000000000018</v>
       </c>
       <c r="O177" s="6"/>
@@ -9727,7 +9727,7 @@
         <v>110000000</v>
       </c>
       <c r="F178" s="17">
-        <f>E178/1000000</f>
+        <f t="shared" si="10"/>
         <v>110</v>
       </c>
       <c r="G178" s="14" t="s">
@@ -9752,7 +9752,7 @@
         <v>6.7</v>
       </c>
       <c r="N178" s="5">
-        <f>L178-M178</f>
+        <f t="shared" si="11"/>
         <v>0.20000000000000018</v>
       </c>
       <c r="O178" s="6"/>
@@ -9774,7 +9774,7 @@
         <v>168000000</v>
       </c>
       <c r="F179" s="23">
-        <f>E179/1000000</f>
+        <f t="shared" si="10"/>
         <v>168</v>
       </c>
       <c r="G179" s="22" t="s">
@@ -9799,7 +9799,7 @@
         <v>9</v>
       </c>
       <c r="N179" s="5">
-        <f>L179-M179</f>
+        <f t="shared" si="11"/>
         <v>-1.7999999999999998</v>
       </c>
       <c r="O179" s="6"/>
@@ -9821,7 +9821,7 @@
         <v>23000000</v>
       </c>
       <c r="F180" s="23">
-        <f>E180/1000000</f>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
       <c r="G180" s="22" t="s">
@@ -9846,7 +9846,7 @@
         <v>6.7</v>
       </c>
       <c r="N180" s="5">
-        <f>L180-M180</f>
+        <f t="shared" si="11"/>
         <v>-0.70000000000000018</v>
       </c>
       <c r="O180" s="6"/>
@@ -9868,7 +9868,7 @@
         <v>0</v>
       </c>
       <c r="F181" s="23">
-        <f>E181/1000000</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G181" s="22" t="s">
@@ -9893,7 +9893,7 @@
         <v>8.5</v>
       </c>
       <c r="N181" s="5">
-        <f>L181-M181</f>
+        <f t="shared" si="11"/>
         <v>-1.2999999999999998</v>
       </c>
       <c r="O181" s="6"/>
@@ -9915,7 +9915,7 @@
         <v>44000000</v>
       </c>
       <c r="F182" s="23">
-        <f>E182/1000000</f>
+        <f t="shared" si="10"/>
         <v>44</v>
       </c>
       <c r="G182" s="14" t="s">
@@ -9940,7 +9940,7 @@
         <v>6.2</v>
       </c>
       <c r="N182" s="5">
-        <f>L182-M182</f>
+        <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
       <c r="O182" s="6"/>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="F183" s="23">
-        <f>E183/1000000</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G183" s="14" t="s">
@@ -9987,7 +9987,7 @@
         <v>4.8</v>
       </c>
       <c r="N183" s="5">
-        <f>L183-M183</f>
+        <f t="shared" si="11"/>
         <v>0.79999999999999982</v>
       </c>
       <c r="O183" s="6"/>
@@ -10009,7 +10009,7 @@
         <v>67000000</v>
       </c>
       <c r="F184" s="23">
-        <f>E184/1000000</f>
+        <f t="shared" si="10"/>
         <v>67</v>
       </c>
       <c r="G184" s="14" t="s">
@@ -10034,7 +10034,7 @@
         <v>7</v>
       </c>
       <c r="N184" s="5">
-        <f>L184-M184</f>
+        <f t="shared" si="11"/>
         <v>1.1999999999999993</v>
       </c>
       <c r="O184" s="6"/>
@@ -10314,18 +10314,6 @@
       <c r="L207" s="1"/>
       <c r="M207" s="1"/>
       <c r="O207" s="1"/>
-    </row>
-    <row r="208" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C208" s="1"/>
-      <c r="E208" s="1"/>
-      <c r="F208" s="1"/>
-      <c r="G208" s="1"/>
-      <c r="H208" s="1"/>
-      <c r="I208" s="1"/>
-      <c r="J208" s="1"/>
-      <c r="L208" s="1"/>
-      <c r="M208" s="1"/>
-      <c r="O208" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:O174" xr:uid="{AA8232CE-F8CC-4A25-9F93-495C87926EDE}">

--- a/Data/BryanVsBryan_Data.xlsx
+++ b/Data/BryanVsBryan_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kraem\OneDrive\Data_Science\Visualization_Project_Podcast\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65f40906fbee13bf/Data_Science/Visualization_Project_Podcast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124211CB-F871-49F7-A04F-F040E5379256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{124211CB-F871-49F7-A04F-F040E5379256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C51A18AF-777E-408D-89AE-A41716EFDF49}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{1B70641D-B009-4E91-B3D5-80C95BCC6CD5}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="285">
   <si>
     <t>Episode</t>
   </si>
@@ -893,6 +893,9 @@
   </si>
   <si>
     <t>A Quiet Place: Day One</t>
+  </si>
+  <si>
+    <t>Beverly Hills Cop: Axel F</t>
   </si>
 </sst>
 </file>
@@ -1386,8 +1389,8 @@
   <dimension ref="A1:O207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A185" sqref="A185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8979,7 +8982,7 @@
         <v>12000000</v>
       </c>
       <c r="F162" s="17">
-        <f t="shared" ref="F162:F184" si="10">E162/1000000</f>
+        <f t="shared" ref="F162:F185" si="10">E162/1000000</f>
         <v>12</v>
       </c>
       <c r="G162" s="14" t="s">
@@ -9004,7 +9007,7 @@
         <v>7.1</v>
       </c>
       <c r="N162" s="5">
-        <f t="shared" ref="N162:N184" si="11">L162-M162</f>
+        <f t="shared" ref="N162:N185" si="11">L162-M162</f>
         <v>-0.79999999999999982</v>
       </c>
       <c r="O162" s="6"/>
@@ -10040,16 +10043,51 @@
       <c r="O184" s="6"/>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="C185" s="1"/>
-      <c r="E185" s="1"/>
-      <c r="F185" s="1"/>
-      <c r="G185" s="1"/>
-      <c r="H185" s="1"/>
-      <c r="I185" s="1"/>
-      <c r="J185" s="1"/>
-      <c r="L185" s="1"/>
-      <c r="M185" s="1"/>
-      <c r="O185" s="1"/>
+      <c r="A185" s="5">
+        <v>184</v>
+      </c>
+      <c r="B185" s="5">
+        <v>205</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D185" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E185" s="14">
+        <v>150000000</v>
+      </c>
+      <c r="F185" s="23">
+        <f t="shared" si="10"/>
+        <v>150</v>
+      </c>
+      <c r="G185" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="H185" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I185" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J185" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K185" s="5">
+        <v>118</v>
+      </c>
+      <c r="L185" s="20">
+        <v>7.2</v>
+      </c>
+      <c r="M185" s="20">
+        <v>7</v>
+      </c>
+      <c r="N185" s="5">
+        <f t="shared" si="11"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="O185" s="6"/>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C186" s="1"/>

--- a/Data/BryanVsBryan_Data.xlsx
+++ b/Data/BryanVsBryan_Data.xlsx
@@ -1067,6 +1067,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1389,8 +1393,8 @@
   <dimension ref="A1:O207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A185" sqref="A185"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Data/BryanVsBryan_Data.xlsx
+++ b/Data/BryanVsBryan_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65f40906fbee13bf/Data_Science/Visualization_Project_Podcast/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kraem\OneDrive\Data_Science\Visualization_Project_Podcast\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{124211CB-F871-49F7-A04F-F040E5379256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C51A18AF-777E-408D-89AE-A41716EFDF49}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E419A0D-BF55-42CB-B348-BA5F4F25B863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{1B70641D-B009-4E91-B3D5-80C95BCC6CD5}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1066" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="286">
   <si>
     <t>Episode</t>
   </si>
@@ -896,6 +896,9 @@
   </si>
   <si>
     <t>Beverly Hills Cop: Axel F</t>
+  </si>
+  <si>
+    <t>Twisters</t>
   </si>
 </sst>
 </file>
@@ -1067,10 +1070,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8986,7 +8985,7 @@
         <v>12000000</v>
       </c>
       <c r="F162" s="17">
-        <f t="shared" ref="F162:F185" si="10">E162/1000000</f>
+        <f t="shared" ref="F162:F186" si="10">E162/1000000</f>
         <v>12</v>
       </c>
       <c r="G162" s="14" t="s">
@@ -9011,7 +9010,7 @@
         <v>7.1</v>
       </c>
       <c r="N162" s="5">
-        <f t="shared" ref="N162:N185" si="11">L162-M162</f>
+        <f t="shared" ref="N162:N186" si="11">L162-M162</f>
         <v>-0.79999999999999982</v>
       </c>
       <c r="O162" s="6"/>
@@ -10094,16 +10093,51 @@
       <c r="O185" s="6"/>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="C186" s="1"/>
-      <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
-      <c r="G186" s="1"/>
-      <c r="H186" s="1"/>
-      <c r="I186" s="1"/>
-      <c r="J186" s="1"/>
-      <c r="L186" s="1"/>
-      <c r="M186" s="1"/>
-      <c r="O186" s="1"/>
+      <c r="A186" s="5">
+        <v>185</v>
+      </c>
+      <c r="B186" s="5">
+        <v>206</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D186" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E186" s="14">
+        <v>155000000</v>
+      </c>
+      <c r="F186" s="23">
+        <f t="shared" si="10"/>
+        <v>155</v>
+      </c>
+      <c r="G186" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="H186" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I186" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J186" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="K186" s="5">
+        <v>122</v>
+      </c>
+      <c r="L186" s="20">
+        <v>6</v>
+      </c>
+      <c r="M186" s="20">
+        <v>6.8</v>
+      </c>
+      <c r="N186" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.79999999999999982</v>
+      </c>
+      <c r="O186" s="6"/>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C187" s="1"/>

--- a/Data/BryanVsBryan_Data.xlsx
+++ b/Data/BryanVsBryan_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kraem\OneDrive\Data_Science\Visualization_Project_Podcast\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E419A0D-BF55-42CB-B348-BA5F4F25B863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90BC9D9-2229-42B0-8D48-8869D1F73EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{1B70641D-B009-4E91-B3D5-80C95BCC6CD5}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="287">
   <si>
     <t>Episode</t>
   </si>
@@ -899,6 +899,9 @@
   </si>
   <si>
     <t>Twisters</t>
+  </si>
+  <si>
+    <t>Deadpool and Wolverine</t>
   </si>
 </sst>
 </file>
@@ -1396,23 +1399,23 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.06640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.86328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.9296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.86328125" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.19921875" style="18" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" style="18" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.796875" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.59765625" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" style="9" customWidth="1"/>
-    <col min="11" max="11" width="10.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.73046875" style="21" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" style="21" customWidth="1"/>
-    <col min="14" max="14" width="9.46484375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="58.796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.19921875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.265625" style="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.796875" style="21" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="56.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.45">
@@ -1437,13 +1440,13 @@
       <c r="G1" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="3" t="s">
         <v>74</v>
       </c>
       <c r="K1" s="24" t="s">
@@ -1485,13 +1488,13 @@
       <c r="G2" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="5" t="s">
         <v>37</v>
       </c>
       <c r="K2" s="5">
@@ -1534,13 +1537,13 @@
       <c r="G3" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="8" t="s">
+      <c r="H3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="5" t="s">
         <v>246</v>
       </c>
       <c r="K3" s="5">
@@ -1581,13 +1584,13 @@
       <c r="G4" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="8" t="s">
+      <c r="H4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="5" t="s">
         <v>125</v>
       </c>
       <c r="K4" s="5">
@@ -1628,13 +1631,13 @@
       <c r="G5" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="8" t="s">
+      <c r="H5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="5" t="s">
         <v>246</v>
       </c>
       <c r="K5" s="5">
@@ -1677,13 +1680,13 @@
       <c r="G6" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="8" t="s">
+      <c r="H6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="5" t="s">
         <v>249</v>
       </c>
       <c r="K6" s="5">
@@ -1726,13 +1729,13 @@
       <c r="G7" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="8" t="s">
+      <c r="H7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="5" t="s">
         <v>249</v>
       </c>
       <c r="K7" s="5">
@@ -1775,13 +1778,13 @@
       <c r="G8" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I8" s="8" t="s">
+      <c r="H8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="5" t="s">
         <v>249</v>
       </c>
       <c r="K8" s="5">
@@ -1824,13 +1827,13 @@
       <c r="G9" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="8" t="s">
+      <c r="H9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K9" s="5">
@@ -1869,13 +1872,13 @@
       <c r="G10" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="8" t="s">
+      <c r="H10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K10" s="5">
@@ -1914,13 +1917,13 @@
       <c r="G11" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I11" s="8" t="s">
+      <c r="H11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="5" t="s">
         <v>37</v>
       </c>
       <c r="K11" s="5">
@@ -1963,13 +1966,13 @@
       <c r="G12" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="8" t="s">
+      <c r="H12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="8"/>
+      <c r="J12" s="5"/>
       <c r="K12" s="5">
         <v>151</v>
       </c>
@@ -2008,13 +2011,13 @@
       <c r="G13" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I13" s="8" t="s">
+      <c r="H13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="5" t="s">
         <v>263</v>
       </c>
       <c r="K13" s="5">
@@ -2053,13 +2056,13 @@
       <c r="G14" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="8" t="s">
+      <c r="H14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="5" t="s">
         <v>71</v>
       </c>
       <c r="K14" s="5">
@@ -2100,13 +2103,13 @@
       <c r="G15" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I15" s="8" t="s">
+      <c r="H15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="5" t="s">
         <v>71</v>
       </c>
       <c r="K15" s="5">
@@ -2147,13 +2150,13 @@
       <c r="G16" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="8" t="s">
+      <c r="H16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="5" t="s">
         <v>125</v>
       </c>
       <c r="K16" s="5">
@@ -2194,13 +2197,13 @@
       <c r="G17" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I17" s="8" t="s">
+      <c r="H17" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="8"/>
+      <c r="J17" s="5"/>
       <c r="K17" s="5">
         <v>110</v>
       </c>
@@ -2239,13 +2242,13 @@
       <c r="G18" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I18" s="8" t="s">
+      <c r="H18" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K18" s="5">
@@ -2286,13 +2289,13 @@
       <c r="G19" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="H19" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="8" t="s">
+      <c r="H19" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J19" s="8"/>
+      <c r="J19" s="5"/>
       <c r="K19" s="5">
         <v>242</v>
       </c>
@@ -2331,13 +2334,13 @@
       <c r="G20" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H20" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I20" s="8" t="s">
+      <c r="H20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="5" t="s">
         <v>37</v>
       </c>
       <c r="K20" s="5">
@@ -2378,13 +2381,13 @@
       <c r="G21" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I21" s="8" t="s">
+      <c r="H21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I21" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" s="5" t="s">
         <v>37</v>
       </c>
       <c r="K21" s="5">
@@ -2425,13 +2428,13 @@
       <c r="G22" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H22" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="8" t="s">
+      <c r="H22" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="8" t="s">
+      <c r="J22" s="5" t="s">
         <v>80</v>
       </c>
       <c r="K22" s="5">
@@ -2472,13 +2475,13 @@
       <c r="G23" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H23" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I23" s="8" t="s">
+      <c r="H23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I23" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="8" t="s">
+      <c r="J23" s="5" t="s">
         <v>80</v>
       </c>
       <c r="K23" s="5">
@@ -2519,13 +2522,13 @@
       <c r="G24" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H24" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="8" t="s">
+      <c r="H24" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J24" s="8" t="s">
+      <c r="J24" s="5" t="s">
         <v>249</v>
       </c>
       <c r="K24" s="5">
@@ -2566,13 +2569,13 @@
       <c r="G25" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H25" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I25" s="8" t="s">
+      <c r="H25" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J25" s="8" t="s">
+      <c r="J25" s="5" t="s">
         <v>80</v>
       </c>
       <c r="K25" s="5">
@@ -2613,13 +2616,13 @@
       <c r="G26" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H26" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I26" s="8" t="s">
+      <c r="H26" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J26" s="8" t="s">
+      <c r="J26" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K26" s="5">
@@ -2660,13 +2663,13 @@
       <c r="G27" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H27" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" s="8" t="s">
+      <c r="H27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J27" s="8" t="s">
+      <c r="J27" s="5" t="s">
         <v>102</v>
       </c>
       <c r="K27" s="5">
@@ -2707,13 +2710,13 @@
       <c r="G28" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H28" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I28" s="8" t="s">
+      <c r="H28" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K28" s="5">
@@ -2754,13 +2757,13 @@
       <c r="G29" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H29" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" s="8" t="s">
+      <c r="H29" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J29" s="8" t="s">
+      <c r="J29" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K29" s="5">
@@ -2801,13 +2804,13 @@
       <c r="G30" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H30" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I30" s="8" t="s">
+      <c r="H30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J30" s="8" t="s">
+      <c r="J30" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K30" s="5">
@@ -2848,13 +2851,13 @@
       <c r="G31" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H31" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I31" s="8" t="s">
+      <c r="H31" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="J31" s="8" t="s">
+      <c r="J31" s="5" t="s">
         <v>71</v>
       </c>
       <c r="K31" s="5">
@@ -2895,13 +2898,13 @@
       <c r="G32" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H32" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" s="8" t="s">
+      <c r="H32" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J32" s="8" t="s">
+      <c r="J32" s="5" t="s">
         <v>246</v>
       </c>
       <c r="K32" s="5">
@@ -2942,13 +2945,13 @@
       <c r="G33" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H33" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" s="8" t="s">
+      <c r="H33" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J33" s="8" t="s">
+      <c r="J33" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K33" s="5">
@@ -2989,13 +2992,13 @@
       <c r="G34" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H34" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I34" s="8" t="s">
+      <c r="H34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J34" s="8" t="s">
+      <c r="J34" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K34" s="5">
@@ -3036,13 +3039,13 @@
       <c r="G35" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H35" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I35" s="8" t="s">
+      <c r="H35" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J35" s="8" t="s">
+      <c r="J35" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K35" s="5">
@@ -3083,13 +3086,13 @@
       <c r="G36" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H36" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I36" s="8" t="s">
+      <c r="H36" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J36" s="8" t="s">
+      <c r="J36" s="5" t="s">
         <v>246</v>
       </c>
       <c r="K36" s="5">
@@ -3130,13 +3133,13 @@
       <c r="G37" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H37" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I37" s="8" t="s">
+      <c r="H37" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J37" s="8" t="s">
+      <c r="J37" s="5" t="s">
         <v>246</v>
       </c>
       <c r="K37" s="5">
@@ -3179,13 +3182,13 @@
       <c r="G38" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H38" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I38" s="8" t="s">
+      <c r="H38" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J38" s="8" t="s">
+      <c r="J38" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K38" s="5">
@@ -3226,13 +3229,13 @@
       <c r="G39" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H39" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I39" s="8" t="s">
+      <c r="H39" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I39" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J39" s="8" t="s">
+      <c r="J39" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K39" s="5">
@@ -3273,13 +3276,13 @@
       <c r="G40" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H40" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I40" s="8" t="s">
+      <c r="H40" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I40" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="J40" s="8" t="s">
+      <c r="J40" s="5" t="s">
         <v>62</v>
       </c>
       <c r="K40" s="5">
@@ -3320,13 +3323,13 @@
       <c r="G41" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H41" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I41" s="8" t="s">
+      <c r="H41" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I41" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J41" s="8" t="s">
+      <c r="J41" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K41" s="5">
@@ -3367,13 +3370,13 @@
       <c r="G42" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H42" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I42" s="8" t="s">
+      <c r="H42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I42" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J42" s="8" t="s">
+      <c r="J42" s="5" t="s">
         <v>246</v>
       </c>
       <c r="K42" s="5">
@@ -3414,13 +3417,13 @@
       <c r="G43" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H43" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I43" s="8" t="s">
+      <c r="H43" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J43" s="8"/>
+      <c r="J43" s="5"/>
       <c r="K43" s="5">
         <v>126</v>
       </c>
@@ -3459,13 +3462,13 @@
       <c r="G44" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="H44" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I44" s="8" t="s">
+      <c r="H44" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="J44" s="8" t="s">
+      <c r="J44" s="5" t="s">
         <v>77</v>
       </c>
       <c r="K44" s="5">
@@ -3506,13 +3509,13 @@
       <c r="G45" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H45" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="8" t="s">
+      <c r="H45" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J45" s="8" t="s">
+      <c r="J45" s="5" t="s">
         <v>62</v>
       </c>
       <c r="K45" s="5">
@@ -3553,13 +3556,13 @@
       <c r="G46" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H46" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I46" s="8" t="s">
+      <c r="H46" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I46" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="J46" s="8" t="s">
+      <c r="J46" s="5" t="s">
         <v>71</v>
       </c>
       <c r="K46" s="5">
@@ -3600,13 +3603,13 @@
       <c r="G47" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H47" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="8" t="s">
+      <c r="H47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J47" s="8" t="s">
+      <c r="J47" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K47" s="5">
@@ -3647,13 +3650,13 @@
       <c r="G48" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H48" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="8" t="s">
+      <c r="H48" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J48" s="8" t="s">
+      <c r="J48" s="5" t="s">
         <v>37</v>
       </c>
       <c r="K48" s="5">
@@ -3694,13 +3697,13 @@
       <c r="G49" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H49" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" s="8" t="s">
+      <c r="H49" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J49" s="8" t="s">
+      <c r="J49" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K49" s="5">
@@ -3741,13 +3744,13 @@
       <c r="G50" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H50" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I50" s="8" t="s">
+      <c r="H50" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I50" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J50" s="8" t="s">
+      <c r="J50" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K50" s="5">
@@ -3788,13 +3791,13 @@
       <c r="G51" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H51" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I51" s="8" t="s">
+      <c r="H51" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I51" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J51" s="8" t="s">
+      <c r="J51" s="5" t="s">
         <v>249</v>
       </c>
       <c r="K51" s="5">
@@ -3835,13 +3838,13 @@
       <c r="G52" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H52" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" s="8" t="s">
+      <c r="H52" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J52" s="8" t="s">
+      <c r="J52" s="5" t="s">
         <v>249</v>
       </c>
       <c r="K52" s="5">
@@ -3882,13 +3885,13 @@
       <c r="G53" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H53" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I53" s="8" t="s">
+      <c r="H53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I53" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J53" s="8" t="s">
+      <c r="J53" s="5" t="s">
         <v>80</v>
       </c>
       <c r="K53" s="5">
@@ -3929,13 +3932,13 @@
       <c r="G54" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H54" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I54" s="8" t="s">
+      <c r="H54" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="J54" s="8" t="s">
+      <c r="J54" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K54" s="5">
@@ -3976,13 +3979,13 @@
       <c r="G55" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="H55" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I55" s="8" t="s">
+      <c r="H55" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I55" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="J55" s="8"/>
+      <c r="J55" s="5"/>
       <c r="K55" s="5">
         <v>94</v>
       </c>
@@ -4021,13 +4024,13 @@
       <c r="G56" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H56" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I56" s="8" t="s">
+      <c r="H56" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I56" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J56" s="8"/>
+      <c r="J56" s="5"/>
       <c r="K56" s="5">
         <v>127</v>
       </c>
@@ -4066,13 +4069,13 @@
       <c r="G57" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H57" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="8" t="s">
+      <c r="H57" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J57" s="8"/>
+      <c r="J57" s="5"/>
       <c r="K57" s="5">
         <v>148</v>
       </c>
@@ -4113,13 +4116,13 @@
       <c r="G58" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H58" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="8" t="s">
+      <c r="H58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I58" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J58" s="8" t="s">
+      <c r="J58" s="5" t="s">
         <v>37</v>
       </c>
       <c r="K58" s="5">
@@ -4160,13 +4163,13 @@
       <c r="G59" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H59" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="8" t="s">
+      <c r="H59" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J59" s="8" t="s">
+      <c r="J59" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K59" s="5">
@@ -4207,13 +4210,13 @@
       <c r="G60" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H60" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I60" s="8" t="s">
+      <c r="H60" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I60" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J60" s="8" t="s">
+      <c r="J60" s="5" t="s">
         <v>246</v>
       </c>
       <c r="K60" s="5">
@@ -4254,13 +4257,13 @@
       <c r="G61" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H61" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I61" s="8" t="s">
+      <c r="H61" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I61" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J61" s="8" t="s">
+      <c r="J61" s="5" t="s">
         <v>80</v>
       </c>
       <c r="K61" s="5">
@@ -4301,13 +4304,13 @@
       <c r="G62" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H62" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="8" t="s">
+      <c r="H62" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J62" s="8" t="s">
+      <c r="J62" s="5" t="s">
         <v>80</v>
       </c>
       <c r="K62" s="5">
@@ -4348,13 +4351,13 @@
       <c r="G63" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H63" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I63" s="8" t="s">
+      <c r="H63" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I63" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J63" s="8" t="s">
+      <c r="J63" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K63" s="5">
@@ -4395,13 +4398,13 @@
       <c r="G64" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H64" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I64" s="8" t="s">
+      <c r="H64" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I64" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J64" s="8" t="s">
+      <c r="J64" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K64" s="5">
@@ -4442,13 +4445,13 @@
       <c r="G65" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H65" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I65" s="8" t="s">
+      <c r="H65" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I65" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J65" s="8" t="s">
+      <c r="J65" s="5" t="s">
         <v>37</v>
       </c>
       <c r="K65" s="5">
@@ -4489,13 +4492,13 @@
       <c r="G66" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H66" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I66" s="8" t="s">
+      <c r="H66" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I66" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J66" s="8" t="s">
+      <c r="J66" s="5" t="s">
         <v>125</v>
       </c>
       <c r="K66" s="5">
@@ -4536,13 +4539,13 @@
       <c r="G67" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H67" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I67" s="8" t="s">
+      <c r="H67" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I67" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J67" s="8"/>
+      <c r="J67" s="5"/>
       <c r="K67" s="5">
         <v>176</v>
       </c>
@@ -4581,13 +4584,13 @@
       <c r="G68" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H68" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I68" s="8" t="s">
+      <c r="H68" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I68" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J68" s="8"/>
+      <c r="J68" s="5"/>
       <c r="K68" s="5">
         <v>152</v>
       </c>
@@ -4628,13 +4631,13 @@
       <c r="G69" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H69" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I69" s="8" t="s">
+      <c r="H69" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I69" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J69" s="8" t="s">
+      <c r="J69" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K69" s="5">
@@ -4675,13 +4678,13 @@
       <c r="G70" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H70" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I70" s="8" t="s">
+      <c r="H70" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I70" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J70" s="8" t="s">
+      <c r="J70" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K70" s="5">
@@ -4722,13 +4725,13 @@
       <c r="G71" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H71" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I71" s="8" t="s">
+      <c r="H71" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I71" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J71" s="8" t="s">
+      <c r="J71" s="5" t="s">
         <v>71</v>
       </c>
       <c r="K71" s="5">
@@ -4769,13 +4772,13 @@
       <c r="G72" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H72" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I72" s="8" t="s">
+      <c r="H72" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J72" s="8" t="s">
+      <c r="J72" s="5" t="s">
         <v>37</v>
       </c>
       <c r="K72" s="5">
@@ -4816,13 +4819,13 @@
       <c r="G73" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H73" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I73" s="8" t="s">
+      <c r="H73" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I73" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J73" s="8" t="s">
+      <c r="J73" s="5" t="s">
         <v>71</v>
       </c>
       <c r="K73" s="5">
@@ -4863,13 +4866,13 @@
       <c r="G74" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H74" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I74" s="8" t="s">
+      <c r="H74" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I74" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J74" s="8" t="s">
+      <c r="J74" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K74" s="5">
@@ -4910,13 +4913,13 @@
       <c r="G75" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H75" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I75" s="8" t="s">
+      <c r="H75" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I75" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J75" s="8"/>
+      <c r="J75" s="5"/>
       <c r="K75" s="5">
         <v>126</v>
       </c>
@@ -4955,13 +4958,13 @@
       <c r="G76" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H76" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I76" s="8" t="s">
+      <c r="H76" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J76" s="8" t="s">
+      <c r="J76" s="5" t="s">
         <v>80</v>
       </c>
       <c r="K76" s="5">
@@ -5002,13 +5005,13 @@
       <c r="G77" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H77" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I77" s="8" t="s">
+      <c r="H77" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I77" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J77" s="8" t="s">
+      <c r="J77" s="5" t="s">
         <v>125</v>
       </c>
       <c r="K77" s="5">
@@ -5049,13 +5052,13 @@
       <c r="G78" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H78" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I78" s="8" t="s">
+      <c r="H78" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I78" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J78" s="8" t="s">
+      <c r="J78" s="5" t="s">
         <v>71</v>
       </c>
       <c r="K78" s="5">
@@ -5096,13 +5099,13 @@
       <c r="G79" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H79" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I79" s="8" t="s">
+      <c r="H79" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I79" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J79" s="8" t="s">
+      <c r="J79" s="5" t="s">
         <v>71</v>
       </c>
       <c r="K79" s="5">
@@ -5143,13 +5146,13 @@
       <c r="G80" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H80" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I80" s="8" t="s">
+      <c r="H80" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I80" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J80" s="8" t="s">
+      <c r="J80" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K80" s="5">
@@ -5190,13 +5193,13 @@
       <c r="G81" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="H81" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I81" s="8" t="s">
+      <c r="H81" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I81" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J81" s="8"/>
+      <c r="J81" s="5"/>
       <c r="K81" s="5">
         <v>86</v>
       </c>
@@ -5235,13 +5238,13 @@
       <c r="G82" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H82" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I82" s="8" t="s">
+      <c r="H82" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I82" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J82" s="8" t="s">
+      <c r="J82" s="5" t="s">
         <v>71</v>
       </c>
       <c r="K82" s="5">
@@ -5282,13 +5285,13 @@
       <c r="G83" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H83" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I83" s="8" t="s">
+      <c r="H83" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J83" s="8" t="s">
+      <c r="J83" s="5" t="s">
         <v>246</v>
       </c>
       <c r="K83" s="5">
@@ -5329,13 +5332,13 @@
       <c r="G84" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H84" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I84" s="8" t="s">
+      <c r="H84" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I84" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J84" s="8" t="s">
+      <c r="J84" s="5" t="s">
         <v>246</v>
       </c>
       <c r="K84" s="5">
@@ -5378,13 +5381,13 @@
       <c r="G85" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H85" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I85" s="8" t="s">
+      <c r="H85" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I85" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J85" s="8" t="s">
+      <c r="J85" s="5" t="s">
         <v>246</v>
       </c>
       <c r="K85" s="5">
@@ -5427,13 +5430,13 @@
       <c r="G86" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H86" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I86" s="8" t="s">
+      <c r="H86" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I86" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J86" s="8" t="s">
+      <c r="J86" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K86" s="5">
@@ -5474,13 +5477,13 @@
       <c r="G87" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H87" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I87" s="8" t="s">
+      <c r="H87" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I87" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J87" s="8" t="s">
+      <c r="J87" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K87" s="5">
@@ -5521,13 +5524,13 @@
       <c r="G88" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H88" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I88" s="8" t="s">
+      <c r="H88" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I88" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J88" s="8" t="s">
+      <c r="J88" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K88" s="5">
@@ -5568,13 +5571,13 @@
       <c r="G89" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H89" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I89" s="8" t="s">
+      <c r="H89" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I89" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J89" s="8" t="s">
+      <c r="J89" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K89" s="5">
@@ -5615,13 +5618,13 @@
       <c r="G90" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H90" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I90" s="8" t="s">
+      <c r="H90" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I90" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J90" s="8" t="s">
+      <c r="J90" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K90" s="5">
@@ -5662,13 +5665,13 @@
       <c r="G91" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H91" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="8" t="s">
+      <c r="H91" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="J91" s="8" t="s">
+      <c r="J91" s="5" t="s">
         <v>71</v>
       </c>
       <c r="K91" s="5">
@@ -5709,13 +5712,13 @@
       <c r="G92" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H92" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I92" s="8" t="s">
+      <c r="H92" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I92" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="J92" s="8" t="s">
+      <c r="J92" s="5" t="s">
         <v>71</v>
       </c>
       <c r="K92" s="5">
@@ -5756,13 +5759,13 @@
       <c r="G93" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H93" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I93" s="8" t="s">
+      <c r="H93" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I93" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J93" s="8"/>
+      <c r="J93" s="5"/>
       <c r="K93" s="5">
         <v>118</v>
       </c>
@@ -5801,13 +5804,13 @@
       <c r="G94" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H94" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I94" s="8" t="s">
+      <c r="H94" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J94" s="8" t="s">
+      <c r="J94" s="5" t="s">
         <v>249</v>
       </c>
       <c r="K94" s="5">
@@ -5848,13 +5851,13 @@
       <c r="G95" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="H95" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I95" s="8" t="s">
+      <c r="H95" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I95" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J95" s="8" t="s">
+      <c r="J95" s="5" t="s">
         <v>71</v>
       </c>
       <c r="K95" s="5">
@@ -5895,13 +5898,13 @@
       <c r="G96" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H96" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I96" s="8" t="s">
+      <c r="H96" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I96" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J96" s="8" t="s">
+      <c r="J96" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K96" s="5">
@@ -5942,13 +5945,13 @@
       <c r="G97" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H97" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I97" s="8" t="s">
+      <c r="H97" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I97" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J97" s="8" t="s">
+      <c r="J97" s="5" t="s">
         <v>71</v>
       </c>
       <c r="K97" s="5">
@@ -5989,13 +5992,13 @@
       <c r="G98" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H98" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I98" s="8" t="s">
+      <c r="H98" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I98" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="J98" s="8" t="s">
+      <c r="J98" s="5" t="s">
         <v>71</v>
       </c>
       <c r="K98" s="5">
@@ -6036,13 +6039,13 @@
       <c r="G99" s="14" t="s">
         <v>267</v>
       </c>
-      <c r="H99" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I99" s="8" t="s">
+      <c r="H99" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I99" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="J99" s="8" t="s">
+      <c r="J99" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K99" s="5">
@@ -6083,13 +6086,13 @@
       <c r="G100" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H100" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="8" t="s">
+      <c r="H100" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J100" s="8"/>
+      <c r="J100" s="5"/>
       <c r="K100" s="5">
         <v>161</v>
       </c>
@@ -6128,13 +6131,13 @@
       <c r="G101" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H101" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="8" t="s">
+      <c r="H101" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I101" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J101" s="8" t="s">
+      <c r="J101" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K101" s="5">
@@ -6175,13 +6178,13 @@
       <c r="G102" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H102" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I102" s="8" t="s">
+      <c r="H102" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I102" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J102" s="8" t="s">
+      <c r="J102" s="5" t="s">
         <v>80</v>
       </c>
       <c r="K102" s="5">
@@ -6222,13 +6225,13 @@
       <c r="G103" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H103" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I103" s="8" t="s">
+      <c r="H103" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I103" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J103" s="8" t="s">
+      <c r="J103" s="5" t="s">
         <v>80</v>
       </c>
       <c r="K103" s="5">
@@ -6269,13 +6272,13 @@
       <c r="G104" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H104" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I104" s="8" t="s">
+      <c r="H104" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I104" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J104" s="8" t="s">
+      <c r="J104" s="5" t="s">
         <v>71</v>
       </c>
       <c r="K104" s="5">
@@ -6316,13 +6319,13 @@
       <c r="G105" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H105" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I105" s="8" t="s">
+      <c r="H105" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I105" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J105" s="8" t="s">
+      <c r="J105" s="5" t="s">
         <v>249</v>
       </c>
       <c r="K105" s="5">
@@ -6363,13 +6366,13 @@
       <c r="G106" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H106" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I106" s="8" t="s">
+      <c r="H106" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I106" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J106" s="8" t="s">
+      <c r="J106" s="5" t="s">
         <v>249</v>
       </c>
       <c r="K106" s="5">
@@ -6410,13 +6413,13 @@
       <c r="G107" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H107" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I107" s="8" t="s">
+      <c r="H107" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I107" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="J107" s="8" t="s">
+      <c r="J107" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K107" s="5">
@@ -6457,13 +6460,13 @@
       <c r="G108" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H108" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I108" s="8" t="s">
+      <c r="H108" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I108" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="J108" s="8" t="s">
+      <c r="J108" s="5" t="s">
         <v>246</v>
       </c>
       <c r="K108" s="5">
@@ -6504,13 +6507,13 @@
       <c r="G109" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H109" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I109" s="8" t="s">
+      <c r="H109" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I109" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J109" s="8" t="s">
+      <c r="J109" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K109" s="5">
@@ -6551,13 +6554,13 @@
       <c r="G110" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H110" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I110" s="8" t="s">
+      <c r="H110" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I110" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J110" s="8" t="s">
+      <c r="J110" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K110" s="5">
@@ -6598,13 +6601,13 @@
       <c r="G111" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H111" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I111" s="8" t="s">
+      <c r="H111" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I111" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J111" s="8" t="s">
+      <c r="J111" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K111" s="5">
@@ -6645,13 +6648,13 @@
       <c r="G112" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H112" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I112" s="8" t="s">
+      <c r="H112" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I112" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J112" s="8" t="s">
+      <c r="J112" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K112" s="5">
@@ -6692,13 +6695,13 @@
       <c r="G113" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H113" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I113" s="8" t="s">
+      <c r="H113" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I113" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J113" s="8"/>
+      <c r="J113" s="5"/>
       <c r="K113" s="5">
         <v>124</v>
       </c>
@@ -6737,13 +6740,13 @@
       <c r="G114" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H114" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I114" s="8" t="s">
+      <c r="H114" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I114" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J114" s="8"/>
+      <c r="J114" s="5"/>
       <c r="K114" s="5">
         <v>143</v>
       </c>
@@ -6782,13 +6785,13 @@
       <c r="G115" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H115" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I115" s="8" t="s">
+      <c r="H115" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I115" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J115" s="8" t="s">
+      <c r="J115" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K115" s="5">
@@ -6829,13 +6832,13 @@
       <c r="G116" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H116" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I116" s="8" t="s">
+      <c r="H116" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I116" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J116" s="8" t="s">
+      <c r="J116" s="5" t="s">
         <v>246</v>
       </c>
       <c r="K116" s="5">
@@ -6876,13 +6879,13 @@
       <c r="G117" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H117" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I117" s="8" t="s">
+      <c r="H117" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I117" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J117" s="8" t="s">
+      <c r="J117" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K117" s="5">
@@ -6923,13 +6926,13 @@
       <c r="G118" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H118" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I118" s="8" t="s">
+      <c r="H118" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I118" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J118" s="8" t="s">
+      <c r="J118" s="5" t="s">
         <v>102</v>
       </c>
       <c r="K118" s="5">
@@ -6970,13 +6973,13 @@
       <c r="G119" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H119" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I119" s="8" t="s">
+      <c r="H119" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I119" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J119" s="8" t="s">
+      <c r="J119" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K119" s="5">
@@ -7017,13 +7020,13 @@
       <c r="G120" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="H120" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I120" s="8" t="s">
+      <c r="H120" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I120" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J120" s="8" t="s">
+      <c r="J120" s="5" t="s">
         <v>270</v>
       </c>
       <c r="K120" s="5">
@@ -7064,13 +7067,13 @@
       <c r="G121" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H121" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I121" s="8" t="s">
+      <c r="H121" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I121" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J121" s="8" t="s">
+      <c r="J121" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K121" s="5">
@@ -7111,13 +7114,13 @@
       <c r="G122" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H122" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I122" s="8" t="s">
+      <c r="H122" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I122" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J122" s="8"/>
+      <c r="J122" s="5"/>
       <c r="K122" s="5">
         <v>91</v>
       </c>
@@ -7156,13 +7159,13 @@
       <c r="G123" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H123" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I123" s="8" t="s">
+      <c r="H123" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I123" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J123" s="8" t="s">
+      <c r="J123" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K123" s="5">
@@ -7203,13 +7206,13 @@
       <c r="G124" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H124" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I124" s="8" t="s">
+      <c r="H124" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I124" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="J124" s="8" t="s">
+      <c r="J124" s="5" t="s">
         <v>80</v>
       </c>
       <c r="K124" s="5">
@@ -7250,13 +7253,13 @@
       <c r="G125" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H125" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I125" s="8" t="s">
+      <c r="H125" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I125" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J125" s="8" t="s">
+      <c r="J125" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K125" s="5">
@@ -7297,13 +7300,13 @@
       <c r="G126" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H126" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I126" s="8" t="s">
+      <c r="H126" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I126" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J126" s="8" t="s">
+      <c r="J126" s="5" t="s">
         <v>62</v>
       </c>
       <c r="K126" s="5">
@@ -7344,13 +7347,13 @@
       <c r="G127" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H127" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I127" s="8" t="s">
+      <c r="H127" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I127" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J127" s="8" t="s">
+      <c r="J127" s="5" t="s">
         <v>251</v>
       </c>
       <c r="K127" s="5">
@@ -7391,13 +7394,13 @@
       <c r="G128" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H128" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I128" s="8" t="s">
+      <c r="H128" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I128" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="J128" s="8" t="s">
+      <c r="J128" s="5" t="s">
         <v>270</v>
       </c>
       <c r="K128" s="5">
@@ -7440,13 +7443,13 @@
       <c r="G129" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H129" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I129" s="8" t="s">
+      <c r="H129" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I129" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J129" s="8" t="s">
+      <c r="J129" s="5" t="s">
         <v>249</v>
       </c>
       <c r="K129" s="5">
@@ -7487,13 +7490,13 @@
       <c r="G130" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H130" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I130" s="8" t="s">
+      <c r="H130" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I130" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J130" s="8" t="s">
+      <c r="J130" s="5" t="s">
         <v>125</v>
       </c>
       <c r="K130" s="5">
@@ -7534,13 +7537,13 @@
       <c r="G131" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H131" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I131" s="8" t="s">
+      <c r="H131" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I131" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J131" s="8" t="s">
+      <c r="J131" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K131" s="5">
@@ -7581,13 +7584,13 @@
       <c r="G132" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H132" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I132" s="8" t="s">
+      <c r="H132" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I132" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="J132" s="8" t="s">
+      <c r="J132" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K132" s="5">
@@ -7628,13 +7631,13 @@
       <c r="G133" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H133" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I133" s="8" t="s">
+      <c r="H133" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I133" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J133" s="8" t="s">
+      <c r="J133" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K133" s="5">
@@ -7675,13 +7678,13 @@
       <c r="G134" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H134" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I134" s="8" t="s">
+      <c r="H134" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I134" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="J134" s="8" t="s">
+      <c r="J134" s="5" t="s">
         <v>270</v>
       </c>
       <c r="K134" s="5">
@@ -7722,13 +7725,13 @@
       <c r="G135" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H135" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I135" s="8" t="s">
+      <c r="H135" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I135" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J135" s="8" t="s">
+      <c r="J135" s="5" t="s">
         <v>37</v>
       </c>
       <c r="K135" s="5">
@@ -7769,13 +7772,13 @@
       <c r="G136" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H136" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I136" s="8" t="s">
+      <c r="H136" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I136" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J136" s="8" t="s">
+      <c r="J136" s="5" t="s">
         <v>125</v>
       </c>
       <c r="K136" s="5">
@@ -7816,13 +7819,13 @@
       <c r="G137" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H137" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I137" s="8" t="s">
+      <c r="H137" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I137" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J137" s="8" t="s">
+      <c r="J137" s="5" t="s">
         <v>62</v>
       </c>
       <c r="K137" s="5">
@@ -7863,13 +7866,13 @@
       <c r="G138" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H138" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I138" s="8" t="s">
+      <c r="H138" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I138" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J138" s="8" t="s">
+      <c r="J138" s="5" t="s">
         <v>71</v>
       </c>
       <c r="K138" s="5">
@@ -7910,13 +7913,13 @@
       <c r="G139" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H139" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I139" s="8" t="s">
+      <c r="H139" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I139" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="J139" s="8" t="s">
+      <c r="J139" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K139" s="5">
@@ -7957,13 +7960,13 @@
       <c r="G140" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H140" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I140" s="8" t="s">
+      <c r="H140" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I140" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J140" s="8" t="s">
+      <c r="J140" s="5" t="s">
         <v>37</v>
       </c>
       <c r="K140" s="5">
@@ -8004,13 +8007,13 @@
       <c r="G141" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H141" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I141" s="8" t="s">
+      <c r="H141" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I141" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="J141" s="8" t="s">
+      <c r="J141" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K141" s="5">
@@ -8051,13 +8054,13 @@
       <c r="G142" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H142" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I142" s="8" t="s">
+      <c r="H142" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I142" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J142" s="8" t="s">
+      <c r="J142" s="5" t="s">
         <v>102</v>
       </c>
       <c r="K142" s="5">
@@ -8098,13 +8101,13 @@
       <c r="G143" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H143" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I143" s="8" t="s">
+      <c r="H143" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I143" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J143" s="8" t="s">
+      <c r="J143" s="5" t="s">
         <v>271</v>
       </c>
       <c r="K143" s="5">
@@ -8145,13 +8148,13 @@
       <c r="G144" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H144" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I144" s="8" t="s">
+      <c r="H144" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I144" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J144" s="8" t="s">
+      <c r="J144" s="5" t="s">
         <v>71</v>
       </c>
       <c r="K144" s="5">
@@ -8192,13 +8195,13 @@
       <c r="G145" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H145" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I145" s="8" t="s">
+      <c r="H145" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I145" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J145" s="8" t="s">
+      <c r="J145" s="5" t="s">
         <v>58</v>
       </c>
       <c r="K145" s="5">
@@ -8239,13 +8242,13 @@
       <c r="G146" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H146" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I146" s="8" t="s">
+      <c r="H146" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I146" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J146" s="8" t="s">
+      <c r="J146" s="5" t="s">
         <v>249</v>
       </c>
       <c r="K146" s="5">
@@ -8288,13 +8291,13 @@
       <c r="G147" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H147" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I147" s="8" t="s">
+      <c r="H147" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I147" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J147" s="8" t="s">
+      <c r="J147" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K147" s="5">
@@ -8335,13 +8338,13 @@
       <c r="G148" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H148" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I148" s="8" t="s">
+      <c r="H148" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I148" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="J148" s="8" t="s">
+      <c r="J148" s="5" t="s">
         <v>270</v>
       </c>
       <c r="K148" s="5">
@@ -8382,13 +8385,13 @@
       <c r="G149" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H149" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I149" s="8" t="s">
+      <c r="H149" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I149" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J149" s="8" t="s">
+      <c r="J149" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K149" s="5">
@@ -8429,13 +8432,13 @@
       <c r="G150" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H150" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I150" s="8" t="s">
+      <c r="H150" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I150" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J150" s="8" t="s">
+      <c r="J150" s="5" t="s">
         <v>249</v>
       </c>
       <c r="K150" s="5">
@@ -8476,13 +8479,13 @@
       <c r="G151" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H151" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I151" s="8" t="s">
+      <c r="H151" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I151" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J151" s="8" t="s">
+      <c r="J151" s="5" t="s">
         <v>102</v>
       </c>
       <c r="K151" s="5">
@@ -8523,13 +8526,13 @@
       <c r="G152" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H152" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I152" s="8" t="s">
+      <c r="H152" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I152" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="J152" s="8" t="s">
+      <c r="J152" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K152" s="5">
@@ -8570,13 +8573,13 @@
       <c r="G153" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H153" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I153" s="8" t="s">
+      <c r="H153" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I153" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J153" s="8" t="s">
+      <c r="J153" s="5" t="s">
         <v>102</v>
       </c>
       <c r="K153" s="5">
@@ -8617,13 +8620,13 @@
       <c r="G154" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H154" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I154" s="8" t="s">
+      <c r="H154" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I154" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J154" s="8"/>
+      <c r="J154" s="5"/>
       <c r="K154" s="5">
         <v>111</v>
       </c>
@@ -8662,13 +8665,13 @@
       <c r="G155" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H155" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I155" s="8" t="s">
+      <c r="H155" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I155" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J155" s="8" t="s">
+      <c r="J155" s="5" t="s">
         <v>71</v>
       </c>
       <c r="K155" s="5">
@@ -8709,13 +8712,13 @@
       <c r="G156" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H156" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I156" s="8" t="s">
+      <c r="H156" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I156" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J156" s="8" t="s">
+      <c r="J156" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K156" s="5">
@@ -8756,13 +8759,13 @@
       <c r="G157" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H157" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I157" s="8" t="s">
+      <c r="H157" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I157" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J157" s="8" t="s">
+      <c r="J157" s="5" t="s">
         <v>71</v>
       </c>
       <c r="K157" s="5">
@@ -8803,13 +8806,13 @@
       <c r="G158" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H158" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I158" s="8" t="s">
+      <c r="H158" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I158" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="J158" s="8" t="s">
+      <c r="J158" s="5" t="s">
         <v>249</v>
       </c>
       <c r="K158" s="5">
@@ -8850,13 +8853,13 @@
       <c r="G159" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H159" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I159" s="8" t="s">
+      <c r="H159" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I159" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J159" s="8" t="s">
+      <c r="J159" s="5" t="s">
         <v>71</v>
       </c>
       <c r="K159" s="5">
@@ -8897,13 +8900,13 @@
       <c r="G160" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H160" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I160" s="8" t="s">
+      <c r="H160" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I160" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J160" s="8" t="s">
+      <c r="J160" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K160" s="5">
@@ -8944,13 +8947,13 @@
       <c r="G161" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H161" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I161" s="8" t="s">
+      <c r="H161" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I161" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J161" s="8" t="s">
+      <c r="J161" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K161" s="5">
@@ -8985,19 +8988,19 @@
         <v>12000000</v>
       </c>
       <c r="F162" s="17">
-        <f t="shared" ref="F162:F186" si="10">E162/1000000</f>
+        <f t="shared" ref="F162:F187" si="10">E162/1000000</f>
         <v>12</v>
       </c>
       <c r="G162" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H162" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I162" s="8" t="s">
+      <c r="H162" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I162" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J162" s="8" t="s">
+      <c r="J162" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K162" s="5">
@@ -9010,7 +9013,7 @@
         <v>7.1</v>
       </c>
       <c r="N162" s="5">
-        <f t="shared" ref="N162:N186" si="11">L162-M162</f>
+        <f t="shared" ref="N162:N187" si="11">L162-M162</f>
         <v>-0.79999999999999982</v>
       </c>
       <c r="O162" s="6"/>
@@ -9038,13 +9041,13 @@
       <c r="G163" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H163" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I163" s="8" t="s">
+      <c r="H163" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I163" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J163" s="8" t="s">
+      <c r="J163" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K163" s="5">
@@ -9085,13 +9088,13 @@
       <c r="G164" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H164" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I164" s="8" t="s">
+      <c r="H164" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I164" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J164" s="8"/>
+      <c r="J164" s="5"/>
       <c r="K164" s="5">
         <v>105</v>
       </c>
@@ -9130,13 +9133,13 @@
       <c r="G165" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H165" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I165" s="8" t="s">
+      <c r="H165" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I165" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="J165" s="8" t="s">
+      <c r="J165" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K165" s="5">
@@ -9177,13 +9180,13 @@
       <c r="G166" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H166" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I166" s="8" t="s">
+      <c r="H166" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I166" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J166" s="8" t="s">
+      <c r="J166" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K166" s="5">
@@ -9224,13 +9227,13 @@
       <c r="G167" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H167" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I167" s="8" t="s">
+      <c r="H167" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I167" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J167" s="8" t="s">
+      <c r="J167" s="5" t="s">
         <v>71</v>
       </c>
       <c r="K167" s="5">
@@ -9271,13 +9274,13 @@
       <c r="G168" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H168" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I168" s="8" t="s">
+      <c r="H168" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I168" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J168" s="8"/>
+      <c r="J168" s="5"/>
       <c r="K168" s="5">
         <v>124</v>
       </c>
@@ -9316,13 +9319,13 @@
       <c r="G169" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H169" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I169" s="8" t="s">
+      <c r="H169" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I169" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="J169" s="8" t="s">
+      <c r="J169" s="5" t="s">
         <v>80</v>
       </c>
       <c r="K169" s="5">
@@ -9363,13 +9366,13 @@
       <c r="G170" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H170" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I170" s="8" t="s">
+      <c r="H170" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I170" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="J170" s="8" t="s">
+      <c r="J170" s="5" t="s">
         <v>249</v>
       </c>
       <c r="K170" s="5">
@@ -9410,13 +9413,13 @@
       <c r="G171" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H171" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I171" s="8" t="s">
+      <c r="H171" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I171" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J171" s="8" t="s">
+      <c r="J171" s="5" t="s">
         <v>37</v>
       </c>
       <c r="K171" s="5">
@@ -9457,13 +9460,13 @@
       <c r="G172" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H172" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I172" s="8" t="s">
+      <c r="H172" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I172" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="J172" s="8" t="s">
+      <c r="J172" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K172" s="5">
@@ -9504,13 +9507,13 @@
       <c r="G173" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H173" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I173" s="8" t="s">
+      <c r="H173" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I173" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J173" s="8" t="s">
+      <c r="J173" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K173" s="5">
@@ -9551,13 +9554,13 @@
       <c r="G174" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H174" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I174" s="8" t="s">
+      <c r="H174" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I174" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J174" s="8" t="s">
+      <c r="J174" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K174" s="5">
@@ -9598,13 +9601,13 @@
       <c r="G175" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H175" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I175" s="8" t="s">
+      <c r="H175" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I175" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J175" s="8" t="s">
+      <c r="J175" s="5" t="s">
         <v>62</v>
       </c>
       <c r="K175" s="5">
@@ -9645,13 +9648,13 @@
       <c r="G176" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H176" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I176" s="8" t="s">
+      <c r="H176" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I176" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J176" s="8" t="s">
+      <c r="J176" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K176" s="5">
@@ -9692,13 +9695,13 @@
       <c r="G177" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H177" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I177" s="8" t="s">
+      <c r="H177" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I177" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J177" s="8" t="s">
+      <c r="J177" s="5" t="s">
         <v>62</v>
       </c>
       <c r="K177" s="5">
@@ -9739,13 +9742,13 @@
       <c r="G178" s="14" t="s">
         <v>262</v>
       </c>
-      <c r="H178" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I178" s="8" t="s">
+      <c r="H178" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I178" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="J178" s="8" t="s">
+      <c r="J178" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K178" s="5">
@@ -9786,13 +9789,13 @@
       <c r="G179" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="H179" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I179" s="8" t="s">
+      <c r="H179" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I179" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J179" s="8" t="s">
+      <c r="J179" s="5" t="s">
         <v>125</v>
       </c>
       <c r="K179" s="5">
@@ -9833,13 +9836,13 @@
       <c r="G180" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="H180" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I180" s="8" t="s">
+      <c r="H180" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I180" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J180" s="8" t="s">
+      <c r="J180" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K180" s="5">
@@ -9880,13 +9883,13 @@
       <c r="G181" s="22" t="s">
         <v>261</v>
       </c>
-      <c r="H181" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I181" s="8" t="s">
+      <c r="H181" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I181" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J181" s="8" t="s">
+      <c r="J181" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K181" s="5">
@@ -9927,13 +9930,13 @@
       <c r="G182" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H182" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I182" s="8" t="s">
+      <c r="H182" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I182" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J182" s="8" t="s">
+      <c r="J182" s="5" t="s">
         <v>102</v>
       </c>
       <c r="K182" s="5">
@@ -9974,13 +9977,13 @@
       <c r="G183" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="H183" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I183" s="8" t="s">
+      <c r="H183" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I183" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J183" s="8" t="s">
+      <c r="J183" s="5" t="s">
         <v>51</v>
       </c>
       <c r="K183" s="5">
@@ -10021,13 +10024,13 @@
       <c r="G184" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H184" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I184" s="8" t="s">
+      <c r="H184" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I184" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J184" s="8" t="s">
+      <c r="J184" s="5" t="s">
         <v>17</v>
       </c>
       <c r="K184" s="5">
@@ -10068,13 +10071,13 @@
       <c r="G185" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="H185" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I185" s="8" t="s">
+      <c r="H185" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I185" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J185" s="8" t="s">
+      <c r="J185" s="5" t="s">
         <v>27</v>
       </c>
       <c r="K185" s="5">
@@ -10115,13 +10118,13 @@
       <c r="G186" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="H186" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="I186" s="8" t="s">
+      <c r="H186" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I186" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J186" s="8" t="s">
+      <c r="J186" s="5" t="s">
         <v>125</v>
       </c>
       <c r="K186" s="5">
@@ -10140,25 +10143,57 @@
       <c r="O186" s="6"/>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="C187" s="1"/>
-      <c r="E187" s="1"/>
-      <c r="F187" s="1"/>
-      <c r="G187" s="1"/>
-      <c r="H187" s="1"/>
-      <c r="I187" s="1"/>
-      <c r="J187" s="1"/>
-      <c r="L187" s="1"/>
-      <c r="M187" s="1"/>
-      <c r="O187" s="1"/>
+      <c r="A187" s="5">
+        <v>186</v>
+      </c>
+      <c r="B187" s="5">
+        <v>207</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D187" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E187" s="14">
+        <v>200000000</v>
+      </c>
+      <c r="F187" s="23">
+        <f t="shared" si="10"/>
+        <v>200</v>
+      </c>
+      <c r="G187" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="H187" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I187" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J187" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K187" s="5">
+        <v>127</v>
+      </c>
+      <c r="L187" s="20">
+        <v>9.1</v>
+      </c>
+      <c r="M187" s="20">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N187" s="5">
+        <f t="shared" si="11"/>
+        <v>0.29999999999999893</v>
+      </c>
+      <c r="O187" s="6"/>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C188" s="1"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
       <c r="G188" s="1"/>
-      <c r="H188" s="1"/>
-      <c r="I188" s="1"/>
-      <c r="J188" s="1"/>
       <c r="L188" s="1"/>
       <c r="M188" s="1"/>
       <c r="O188" s="1"/>
@@ -10168,9 +10203,6 @@
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
-      <c r="H189" s="1"/>
-      <c r="I189" s="1"/>
-      <c r="J189" s="1"/>
       <c r="L189" s="1"/>
       <c r="M189" s="1"/>
       <c r="O189" s="1"/>
@@ -10180,9 +10212,6 @@
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
       <c r="G190" s="1"/>
-      <c r="H190" s="1"/>
-      <c r="I190" s="1"/>
-      <c r="J190" s="1"/>
       <c r="L190" s="1"/>
       <c r="M190" s="1"/>
       <c r="O190" s="1"/>
@@ -10192,9 +10221,6 @@
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
       <c r="G191" s="1"/>
-      <c r="H191" s="1"/>
-      <c r="I191" s="1"/>
-      <c r="J191" s="1"/>
       <c r="L191" s="1"/>
       <c r="M191" s="1"/>
       <c r="O191" s="1"/>
@@ -10204,9 +10230,6 @@
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
       <c r="G192" s="1"/>
-      <c r="H192" s="1"/>
-      <c r="I192" s="1"/>
-      <c r="J192" s="1"/>
       <c r="L192" s="1"/>
       <c r="M192" s="1"/>
       <c r="O192" s="1"/>
@@ -10216,9 +10239,6 @@
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
       <c r="G193" s="1"/>
-      <c r="H193" s="1"/>
-      <c r="I193" s="1"/>
-      <c r="J193" s="1"/>
       <c r="L193" s="1"/>
       <c r="M193" s="1"/>
       <c r="O193" s="1"/>
@@ -10228,9 +10248,6 @@
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
-      <c r="H194" s="1"/>
-      <c r="I194" s="1"/>
-      <c r="J194" s="1"/>
       <c r="L194" s="1"/>
       <c r="M194" s="1"/>
       <c r="O194" s="1"/>
@@ -10240,9 +10257,6 @@
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
-      <c r="H195" s="1"/>
-      <c r="I195" s="1"/>
-      <c r="J195" s="1"/>
       <c r="L195" s="1"/>
       <c r="M195" s="1"/>
       <c r="O195" s="1"/>
@@ -10252,9 +10266,6 @@
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
-      <c r="H196" s="1"/>
-      <c r="I196" s="1"/>
-      <c r="J196" s="1"/>
       <c r="L196" s="1"/>
       <c r="M196" s="1"/>
       <c r="O196" s="1"/>
@@ -10264,9 +10275,6 @@
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
-      <c r="H197" s="1"/>
-      <c r="I197" s="1"/>
-      <c r="J197" s="1"/>
       <c r="L197" s="1"/>
       <c r="M197" s="1"/>
       <c r="O197" s="1"/>
@@ -10276,9 +10284,6 @@
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
-      <c r="H198" s="1"/>
-      <c r="I198" s="1"/>
-      <c r="J198" s="1"/>
       <c r="L198" s="1"/>
       <c r="M198" s="1"/>
       <c r="O198" s="1"/>
@@ -10288,9 +10293,6 @@
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
-      <c r="H199" s="1"/>
-      <c r="I199" s="1"/>
-      <c r="J199" s="1"/>
       <c r="L199" s="1"/>
       <c r="M199" s="1"/>
       <c r="O199" s="1"/>
@@ -10300,9 +10302,6 @@
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
-      <c r="H200" s="1"/>
-      <c r="I200" s="1"/>
-      <c r="J200" s="1"/>
       <c r="L200" s="1"/>
       <c r="M200" s="1"/>
       <c r="O200" s="1"/>
@@ -10312,9 +10311,6 @@
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
-      <c r="H201" s="1"/>
-      <c r="I201" s="1"/>
-      <c r="J201" s="1"/>
       <c r="L201" s="1"/>
       <c r="M201" s="1"/>
       <c r="O201" s="1"/>
@@ -10324,9 +10320,6 @@
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
-      <c r="H202" s="1"/>
-      <c r="I202" s="1"/>
-      <c r="J202" s="1"/>
       <c r="L202" s="1"/>
       <c r="M202" s="1"/>
       <c r="O202" s="1"/>
@@ -10336,9 +10329,6 @@
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
-      <c r="H203" s="1"/>
-      <c r="I203" s="1"/>
-      <c r="J203" s="1"/>
       <c r="L203" s="1"/>
       <c r="M203" s="1"/>
       <c r="O203" s="1"/>
@@ -10348,9 +10338,6 @@
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
-      <c r="H204" s="1"/>
-      <c r="I204" s="1"/>
-      <c r="J204" s="1"/>
       <c r="L204" s="1"/>
       <c r="M204" s="1"/>
       <c r="O204" s="1"/>
@@ -10360,9 +10347,6 @@
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
-      <c r="H205" s="1"/>
-      <c r="I205" s="1"/>
-      <c r="J205" s="1"/>
       <c r="L205" s="1"/>
       <c r="M205" s="1"/>
       <c r="O205" s="1"/>
@@ -10372,9 +10356,6 @@
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
-      <c r="H206" s="1"/>
-      <c r="I206" s="1"/>
-      <c r="J206" s="1"/>
       <c r="L206" s="1"/>
       <c r="M206" s="1"/>
       <c r="O206" s="1"/>
@@ -10384,9 +10365,6 @@
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
-      <c r="H207" s="1"/>
-      <c r="I207" s="1"/>
-      <c r="J207" s="1"/>
       <c r="L207" s="1"/>
       <c r="M207" s="1"/>
       <c r="O207" s="1"/>

--- a/Data/BryanVsBryan_Data.xlsx
+++ b/Data/BryanVsBryan_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kraem\OneDrive\Data_Science\Visualization_Project_Podcast\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90BC9D9-2229-42B0-8D48-8869D1F73EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89ECE04C-954A-48B9-8A22-E1990C1548B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{1B70641D-B009-4E91-B3D5-80C95BCC6CD5}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1076" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="288">
   <si>
     <t>Episode</t>
   </si>
@@ -902,6 +902,9 @@
   </si>
   <si>
     <t>Deadpool and Wolverine</t>
+  </si>
+  <si>
+    <t>TRAP</t>
   </si>
 </sst>
 </file>
@@ -8988,7 +8991,7 @@
         <v>12000000</v>
       </c>
       <c r="F162" s="17">
-        <f t="shared" ref="F162:F187" si="10">E162/1000000</f>
+        <f t="shared" ref="F162:F188" si="10">E162/1000000</f>
         <v>12</v>
       </c>
       <c r="G162" s="14" t="s">
@@ -9013,7 +9016,7 @@
         <v>7.1</v>
       </c>
       <c r="N162" s="5">
-        <f t="shared" ref="N162:N187" si="11">L162-M162</f>
+        <f t="shared" ref="N162:N188" si="11">L162-M162</f>
         <v>-0.79999999999999982</v>
       </c>
       <c r="O162" s="6"/>
@@ -10190,17 +10193,54 @@
       <c r="O187" s="6"/>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="C188" s="1"/>
-      <c r="E188" s="1"/>
-      <c r="F188" s="1"/>
-      <c r="G188" s="1"/>
-      <c r="L188" s="1"/>
-      <c r="M188" s="1"/>
-      <c r="O188" s="1"/>
+      <c r="A188" s="5">
+        <v>187</v>
+      </c>
+      <c r="B188" s="5">
+        <v>208</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="D188" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E188" s="14">
+        <v>30000000</v>
+      </c>
+      <c r="F188" s="23">
+        <f t="shared" si="10"/>
+        <v>30</v>
+      </c>
+      <c r="G188" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="H188" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I188" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J188" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K188" s="5">
+        <v>105</v>
+      </c>
+      <c r="L188" s="20">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M188" s="20">
+        <v>5.2</v>
+      </c>
+      <c r="N188" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="O188" s="6"/>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C189" s="1"/>
-      <c r="E189" s="1"/>
       <c r="F189" s="1"/>
       <c r="G189" s="1"/>
       <c r="L189" s="1"/>

--- a/Data/BryanVsBryan_Data.xlsx
+++ b/Data/BryanVsBryan_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kraem\OneDrive\Data_Science\Visualization_Project_Podcast\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89ECE04C-954A-48B9-8A22-E1990C1548B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D0A9B5-1820-43BA-A66B-3301C8896957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{1B70641D-B009-4E91-B3D5-80C95BCC6CD5}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="289">
   <si>
     <t>Episode</t>
   </si>
@@ -905,6 +905,9 @@
   </si>
   <si>
     <t>TRAP</t>
+  </si>
+  <si>
+    <t>Total Recall (2012)</t>
   </si>
 </sst>
 </file>
@@ -8991,7 +8994,7 @@
         <v>12000000</v>
       </c>
       <c r="F162" s="17">
-        <f t="shared" ref="F162:F188" si="10">E162/1000000</f>
+        <f t="shared" ref="F162:F189" si="10">E162/1000000</f>
         <v>12</v>
       </c>
       <c r="G162" s="14" t="s">
@@ -9016,7 +9019,7 @@
         <v>7.1</v>
       </c>
       <c r="N162" s="5">
-        <f t="shared" ref="N162:N188" si="11">L162-M162</f>
+        <f t="shared" ref="N162:N189" si="11">L162-M162</f>
         <v>-0.79999999999999982</v>
       </c>
       <c r="O162" s="6"/>
@@ -10240,12 +10243,51 @@
       <c r="O188" s="6"/>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="C189" s="1"/>
-      <c r="F189" s="1"/>
-      <c r="G189" s="1"/>
-      <c r="L189" s="1"/>
-      <c r="M189" s="1"/>
-      <c r="O189" s="1"/>
+      <c r="A189" s="5">
+        <v>188</v>
+      </c>
+      <c r="B189" s="5">
+        <v>209</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D189" s="5">
+        <v>2012</v>
+      </c>
+      <c r="E189" s="14">
+        <v>125000000</v>
+      </c>
+      <c r="F189" s="5">
+        <f t="shared" si="10"/>
+        <v>125</v>
+      </c>
+      <c r="G189" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="H189" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I189" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J189" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K189" s="5">
+        <v>118</v>
+      </c>
+      <c r="L189" s="5">
+        <v>6.2</v>
+      </c>
+      <c r="M189" s="5">
+        <v>6.3</v>
+      </c>
+      <c r="N189" s="5">
+        <f t="shared" si="11"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="O189" s="5"/>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C190" s="1"/>

--- a/Data/BryanVsBryan_Data.xlsx
+++ b/Data/BryanVsBryan_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kraem\OneDrive\Data_Science\Visualization_Project_Podcast\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D0A9B5-1820-43BA-A66B-3301C8896957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACA8C9E-7365-44C3-850C-68F33C775C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{1B70641D-B009-4E91-B3D5-80C95BCC6CD5}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1086" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="295">
   <si>
     <t>Episode</t>
   </si>
@@ -908,6 +908,24 @@
   </si>
   <si>
     <t>Total Recall (2012)</t>
+  </si>
+  <si>
+    <t>Alien Romulus</t>
+  </si>
+  <si>
+    <t>Timecop (1994)</t>
+  </si>
+  <si>
+    <t>Beetlejuice (1988)</t>
+  </si>
+  <si>
+    <t>Dark Comedy</t>
+  </si>
+  <si>
+    <t>Dark Fantasy</t>
+  </si>
+  <si>
+    <t>Beetlejuice Beetlejuice</t>
   </si>
 </sst>
 </file>
@@ -992,7 +1010,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1010,9 +1028,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1063,6 +1078,9 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1409,17 +1427,17 @@
   <cols>
     <col min="1" max="1" width="14.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.9296875" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.9296875" style="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.86328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.796875" style="18" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" style="17" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.9296875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.1328125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.1328125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.19921875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.265625" style="21" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.796875" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.265625" style="20" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.796875" style="20" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.46484375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="56.9296875" bestFit="1" customWidth="1"/>
   </cols>
@@ -1431,19 +1449,19 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>259</v>
       </c>
       <c r="H1" s="3" t="s">
@@ -1455,16 +1473,16 @@
       <c r="J1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="23" t="s">
         <v>99</v>
       </c>
       <c r="O1" s="4" t="s">
@@ -1478,20 +1496,20 @@
       <c r="B2" s="5">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5">
         <v>2017</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>317000000</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <f t="shared" ref="F2:F33" si="0">E2/1000000</f>
         <v>317</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -1506,10 +1524,10 @@
       <c r="K2" s="5">
         <v>152</v>
       </c>
-      <c r="L2" s="20">
+      <c r="L2" s="19">
         <v>6</v>
       </c>
-      <c r="M2" s="20">
+      <c r="M2" s="19">
         <v>8.5</v>
       </c>
       <c r="N2" s="5">
@@ -1527,20 +1545,20 @@
       <c r="B3" s="5">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="26" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="5">
         <v>1999</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>60000</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -1555,10 +1573,10 @@
       <c r="K3" s="5">
         <v>81</v>
       </c>
-      <c r="L3" s="20">
+      <c r="L3" s="19">
         <v>10</v>
       </c>
-      <c r="M3" s="20">
+      <c r="M3" s="19">
         <v>10</v>
       </c>
       <c r="N3" s="5">
@@ -1574,20 +1592,20 @@
       <c r="B4" s="5">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="26" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="5">
         <v>2000</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>15000000</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -1602,10 +1620,10 @@
       <c r="K4" s="5">
         <v>90</v>
       </c>
-      <c r="L4" s="20">
+      <c r="L4" s="19">
         <v>8</v>
       </c>
-      <c r="M4" s="20">
+      <c r="M4" s="19">
         <v>7</v>
       </c>
       <c r="N4" s="5">
@@ -1621,20 +1639,20 @@
       <c r="B5" s="5">
         <v>10</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="26" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="5">
         <v>2016</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>5000000</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -1649,10 +1667,10 @@
       <c r="K5" s="5">
         <v>89</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="19">
         <v>5</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="19">
         <v>4.5</v>
       </c>
       <c r="N5" s="5">
@@ -1670,20 +1688,20 @@
       <c r="B6" s="5">
         <v>12</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="26" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="5">
         <v>1984</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>30000000</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="13" t="s">
         <v>262</v>
       </c>
       <c r="H6" s="5" t="s">
@@ -1698,10 +1716,10 @@
       <c r="K6" s="5">
         <v>105</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="19">
         <v>9</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="19">
         <v>9</v>
       </c>
       <c r="N6" s="5">
@@ -1719,20 +1737,20 @@
       <c r="B7" s="5">
         <v>12</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="26" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="5">
         <v>1989</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>25000000</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="13" t="s">
         <v>262</v>
       </c>
       <c r="H7" s="5" t="s">
@@ -1747,10 +1765,10 @@
       <c r="K7" s="5">
         <v>108</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="19">
         <v>7</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="19">
         <v>7</v>
       </c>
       <c r="N7" s="5">
@@ -1768,20 +1786,20 @@
       <c r="B8" s="5">
         <v>12</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="26" t="s">
         <v>60</v>
       </c>
       <c r="D8" s="5">
         <v>2016</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>144000000</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -1796,10 +1814,10 @@
       <c r="K8" s="5">
         <v>116</v>
       </c>
-      <c r="L8" s="20">
+      <c r="L8" s="19">
         <v>5</v>
       </c>
-      <c r="M8" s="20">
+      <c r="M8" s="19">
         <v>5</v>
       </c>
       <c r="N8" s="5">
@@ -1817,20 +1835,20 @@
       <c r="B9" s="5">
         <v>16</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="26" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="5">
         <v>1996</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>60000000</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="13" t="s">
         <v>262</v>
       </c>
       <c r="H9" s="5" t="s">
@@ -1845,8 +1863,8 @@
       <c r="K9" s="5">
         <v>89</v>
       </c>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
       <c r="N9" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1862,20 +1880,20 @@
       <c r="B10" s="5">
         <v>18</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="26" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="5">
         <v>2015</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>15000000</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -1890,8 +1908,8 @@
       <c r="K10" s="5">
         <v>98</v>
       </c>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
       <c r="N10" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -1907,20 +1925,20 @@
       <c r="B11" s="5">
         <v>20</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="26" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="5">
         <v>2020</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="13">
         <v>205000000</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="16">
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -1935,10 +1953,10 @@
       <c r="K11" s="5">
         <v>150</v>
       </c>
-      <c r="L11" s="20">
+      <c r="L11" s="19">
         <v>8</v>
       </c>
-      <c r="M11" s="20">
+      <c r="M11" s="19">
         <v>8</v>
       </c>
       <c r="N11" s="5">
@@ -1956,20 +1974,20 @@
       <c r="B12" s="5">
         <v>21</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="26" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="5">
         <v>2020</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>200000000</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="16">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H12" s="5" t="s">
@@ -1982,10 +2000,10 @@
       <c r="K12" s="5">
         <v>151</v>
       </c>
-      <c r="L12" s="20">
+      <c r="L12" s="19">
         <v>7</v>
       </c>
-      <c r="M12" s="20">
+      <c r="M12" s="19">
         <v>6</v>
       </c>
       <c r="N12" s="5">
@@ -2001,20 +2019,20 @@
       <c r="B13" s="5">
         <v>24</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="26" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="5">
         <v>1980</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>6000000</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="16">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H13" s="5" t="s">
@@ -2029,8 +2047,8 @@
       <c r="K13" s="5">
         <v>98</v>
       </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
       <c r="N13" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2046,20 +2064,20 @@
       <c r="B14" s="5">
         <v>27</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="26" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="5">
         <v>2021</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>30000000</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="16">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H14" s="5" t="s">
@@ -2074,10 +2092,10 @@
       <c r="K14" s="5">
         <v>128</v>
       </c>
-      <c r="L14" s="20">
+      <c r="L14" s="19">
         <v>7.1</v>
       </c>
-      <c r="M14" s="20">
+      <c r="M14" s="19">
         <v>5</v>
       </c>
       <c r="N14" s="5">
@@ -2093,20 +2111,20 @@
       <c r="B15" s="5">
         <v>28</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="26" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="5">
         <v>2021</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>26000000</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="16">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H15" s="5" t="s">
@@ -2121,10 +2139,10 @@
       <c r="K15" s="5">
         <v>126</v>
       </c>
-      <c r="L15" s="20">
+      <c r="L15" s="19">
         <v>9</v>
       </c>
-      <c r="M15" s="20">
+      <c r="M15" s="19">
         <v>8.5</v>
       </c>
       <c r="N15" s="5">
@@ -2140,20 +2158,20 @@
       <c r="B16" s="5">
         <v>30</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="26" t="s">
         <v>54</v>
       </c>
       <c r="D16" s="5">
         <v>2021</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <v>79000000</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="16">
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="13" t="s">
         <v>262</v>
       </c>
       <c r="H16" s="5" t="s">
@@ -2168,10 +2186,10 @@
       <c r="K16" s="5">
         <v>101</v>
       </c>
-      <c r="L16" s="20">
+      <c r="L16" s="19">
         <v>3.7</v>
       </c>
-      <c r="M16" s="20">
+      <c r="M16" s="19">
         <v>3</v>
       </c>
       <c r="N16" s="5">
@@ -2187,20 +2205,20 @@
       <c r="B17" s="5">
         <v>31</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="26" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="5">
         <v>2021</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>60000000</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="16">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H17" s="5" t="s">
@@ -2213,10 +2231,10 @@
       <c r="K17" s="5">
         <v>110</v>
       </c>
-      <c r="L17" s="20">
+      <c r="L17" s="19">
         <v>6.5</v>
       </c>
-      <c r="M17" s="20">
+      <c r="M17" s="19">
         <v>5.5</v>
       </c>
       <c r="N17" s="5">
@@ -2232,20 +2250,20 @@
       <c r="B18" s="5">
         <v>32</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="26" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="5">
         <v>1995</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <v>7500000</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="16">
         <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -2260,10 +2278,10 @@
       <c r="K18" s="5">
         <v>104</v>
       </c>
-      <c r="L18" s="20">
+      <c r="L18" s="19">
         <v>9</v>
       </c>
-      <c r="M18" s="20">
+      <c r="M18" s="19">
         <v>8</v>
       </c>
       <c r="N18" s="5">
@@ -2279,20 +2297,20 @@
       <c r="B19" s="5">
         <v>33</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="26" t="s">
         <v>57</v>
       </c>
       <c r="D19" s="5">
         <v>2021</v>
       </c>
-      <c r="E19" s="14">
+      <c r="E19" s="13">
         <v>300000000</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="16">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G19" s="15" t="s">
         <v>261</v>
       </c>
       <c r="H19" s="5" t="s">
@@ -2305,10 +2323,10 @@
       <c r="K19" s="5">
         <v>242</v>
       </c>
-      <c r="L19" s="20">
+      <c r="L19" s="19">
         <v>7.5</v>
       </c>
-      <c r="M19" s="20">
+      <c r="M19" s="19">
         <v>7</v>
       </c>
       <c r="N19" s="5">
@@ -2324,20 +2342,20 @@
       <c r="B20" s="5">
         <v>34</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="26" t="s">
         <v>61</v>
       </c>
       <c r="D20" s="5">
         <v>2007</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <v>150000000</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="16">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="G20" s="14" t="s">
+      <c r="G20" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H20" s="5" t="s">
@@ -2352,10 +2370,10 @@
       <c r="K20" s="5">
         <v>144</v>
       </c>
-      <c r="L20" s="20">
+      <c r="L20" s="19">
         <v>8</v>
       </c>
-      <c r="M20" s="20">
+      <c r="M20" s="19">
         <v>5.5</v>
       </c>
       <c r="N20" s="5">
@@ -2371,20 +2389,20 @@
       <c r="B21" s="5">
         <v>35</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="26" t="s">
         <v>63</v>
       </c>
       <c r="D21" s="5">
         <v>2021</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="13">
         <v>200000000</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="16">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="G21" s="14" t="s">
+      <c r="G21" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H21" s="5" t="s">
@@ -2399,10 +2417,10 @@
       <c r="K21" s="5">
         <v>113</v>
       </c>
-      <c r="L21" s="20">
+      <c r="L21" s="19">
         <v>6</v>
       </c>
-      <c r="M21" s="20">
+      <c r="M21" s="19">
         <v>6</v>
       </c>
       <c r="N21" s="5">
@@ -2418,20 +2436,20 @@
       <c r="B22" s="5">
         <v>37</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="26" t="s">
         <v>264</v>
       </c>
       <c r="D22" s="5">
         <v>1993</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="13">
         <v>7000000</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="16">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G22" s="14" t="s">
+      <c r="G22" s="13" t="s">
         <v>262</v>
       </c>
       <c r="H22" s="5" t="s">
@@ -2446,10 +2464,10 @@
       <c r="K22" s="5">
         <v>101</v>
       </c>
-      <c r="L22" s="20">
+      <c r="L22" s="19">
         <v>8.5</v>
       </c>
-      <c r="M22" s="20">
+      <c r="M22" s="19">
         <v>7.5</v>
       </c>
       <c r="N22" s="5">
@@ -2465,20 +2483,20 @@
       <c r="B23" s="5">
         <v>37</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="26" t="s">
         <v>64</v>
       </c>
       <c r="D23" s="5">
         <v>1993</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="13">
         <v>10000000</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="16">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="13" t="s">
         <v>262</v>
       </c>
       <c r="H23" s="5" t="s">
@@ -2493,10 +2511,10 @@
       <c r="K23" s="5">
         <v>103</v>
       </c>
-      <c r="L23" s="20">
+      <c r="L23" s="19">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M23" s="20">
+      <c r="M23" s="19">
         <v>8</v>
       </c>
       <c r="N23" s="5">
@@ -2512,20 +2530,20 @@
       <c r="B24" s="5">
         <v>38</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="26" t="s">
         <v>65</v>
       </c>
       <c r="D24" s="5">
         <v>2021</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="13">
         <v>55000000</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="16">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H24" s="5" t="s">
@@ -2540,10 +2558,10 @@
       <c r="K24" s="5">
         <v>110</v>
       </c>
-      <c r="L24" s="20">
+      <c r="L24" s="19">
         <v>6.5</v>
       </c>
-      <c r="M24" s="20">
+      <c r="M24" s="19">
         <v>5.75</v>
       </c>
       <c r="N24" s="5">
@@ -2559,20 +2577,20 @@
       <c r="B25" s="5">
         <v>39</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="26" t="s">
         <v>66</v>
       </c>
       <c r="D25" s="5">
         <v>1992</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="13">
         <v>6500000</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="16">
         <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
-      <c r="G25" s="14" t="s">
+      <c r="G25" s="13" t="s">
         <v>262</v>
       </c>
       <c r="H25" s="5" t="s">
@@ -2587,10 +2605,10 @@
       <c r="K25" s="5">
         <v>84</v>
       </c>
-      <c r="L25" s="20">
+      <c r="L25" s="19">
         <v>7.5</v>
       </c>
-      <c r="M25" s="20">
+      <c r="M25" s="19">
         <v>7</v>
       </c>
       <c r="N25" s="5">
@@ -2606,20 +2624,20 @@
       <c r="B26" s="5">
         <v>41</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="26" t="s">
         <v>68</v>
       </c>
       <c r="D26" s="5">
         <v>2021</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="13">
         <v>20000000</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="16">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G26" s="14" t="s">
+      <c r="G26" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H26" s="5" t="s">
@@ -2634,10 +2652,10 @@
       <c r="K26" s="5">
         <v>100</v>
       </c>
-      <c r="L26" s="20">
+      <c r="L26" s="19">
         <v>6.5</v>
       </c>
-      <c r="M26" s="20">
+      <c r="M26" s="19">
         <v>7</v>
       </c>
       <c r="N26" s="5">
@@ -2653,20 +2671,20 @@
       <c r="B27" s="5">
         <v>42</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="26" t="s">
         <v>69</v>
       </c>
       <c r="D27" s="5">
         <v>2021</v>
       </c>
-      <c r="E27" s="14">
+      <c r="E27" s="13">
         <v>70000000</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="16">
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H27" s="5" t="s">
@@ -2681,10 +2699,10 @@
       <c r="K27" s="5">
         <v>148</v>
       </c>
-      <c r="L27" s="20">
+      <c r="L27" s="19">
         <v>6.8</v>
       </c>
-      <c r="M27" s="20">
+      <c r="M27" s="19">
         <v>6</v>
       </c>
       <c r="N27" s="5">
@@ -2700,20 +2718,20 @@
       <c r="B28" s="5">
         <v>44</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="26" t="s">
         <v>72</v>
       </c>
       <c r="D28" s="5">
         <v>2013</v>
       </c>
-      <c r="E28" s="14">
+      <c r="E28" s="13">
         <v>20000000</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="16">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G28" s="14" t="s">
+      <c r="G28" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H28" s="5" t="s">
@@ -2728,10 +2746,10 @@
       <c r="K28" s="5">
         <v>111</v>
       </c>
-      <c r="L28" s="20">
+      <c r="L28" s="19">
         <v>8</v>
       </c>
-      <c r="M28" s="20">
+      <c r="M28" s="19">
         <v>9</v>
       </c>
       <c r="N28" s="5">
@@ -2747,20 +2765,20 @@
       <c r="B29" s="5">
         <v>44</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="26" t="s">
         <v>73</v>
       </c>
       <c r="D29" s="5">
         <v>2016</v>
       </c>
-      <c r="E29" s="14">
+      <c r="E29" s="13">
         <v>40000000</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="16">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G29" s="14" t="s">
+      <c r="G29" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H29" s="5" t="s">
@@ -2775,10 +2793,10 @@
       <c r="K29" s="5">
         <v>134</v>
       </c>
-      <c r="L29" s="20">
+      <c r="L29" s="19">
         <v>8.5</v>
       </c>
-      <c r="M29" s="20">
+      <c r="M29" s="19">
         <v>8</v>
       </c>
       <c r="N29" s="5">
@@ -2794,20 +2812,20 @@
       <c r="B30" s="5">
         <v>44</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="26" t="s">
         <v>70</v>
       </c>
       <c r="D30" s="5">
         <v>2021</v>
       </c>
-      <c r="E30" s="14">
+      <c r="E30" s="13">
         <v>39000000</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="16">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="G30" s="14" t="s">
+      <c r="G30" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H30" s="5" t="s">
@@ -2822,10 +2840,10 @@
       <c r="K30" s="5">
         <v>112</v>
       </c>
-      <c r="L30" s="20">
+      <c r="L30" s="19">
         <v>7</v>
       </c>
-      <c r="M30" s="20">
+      <c r="M30" s="19">
         <v>7</v>
       </c>
       <c r="N30" s="5">
@@ -2841,20 +2859,20 @@
       <c r="B31" s="5">
         <v>47</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="26" t="s">
         <v>76</v>
       </c>
       <c r="D31" s="5">
         <v>1993</v>
       </c>
-      <c r="E31" s="14">
+      <c r="E31" s="13">
         <v>14000000</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="16">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H31" s="5" t="s">
@@ -2869,10 +2887,10 @@
       <c r="K31" s="5">
         <v>120</v>
       </c>
-      <c r="L31" s="20">
+      <c r="L31" s="19">
         <v>7.9</v>
       </c>
-      <c r="M31" s="20">
+      <c r="M31" s="19">
         <v>7</v>
       </c>
       <c r="N31" s="5">
@@ -2888,20 +2906,20 @@
       <c r="B32" s="5">
         <v>48</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="26" t="s">
         <v>81</v>
       </c>
       <c r="D32" s="5">
         <v>2021</v>
       </c>
-      <c r="E32" s="14">
+      <c r="E32" s="13">
         <v>0</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F32" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H32" s="5" t="s">
@@ -2916,10 +2934,10 @@
       <c r="K32" s="5">
         <v>107</v>
       </c>
-      <c r="L32" s="20">
+      <c r="L32" s="19">
         <v>7</v>
       </c>
-      <c r="M32" s="20">
+      <c r="M32" s="19">
         <v>6</v>
       </c>
       <c r="N32" s="5">
@@ -2935,20 +2953,20 @@
       <c r="B33" s="5">
         <v>50</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="26" t="s">
         <v>88</v>
       </c>
       <c r="D33" s="5">
         <v>2018</v>
       </c>
-      <c r="E33" s="14">
+      <c r="E33" s="13">
         <v>17000000</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="16">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="G33" s="14" t="s">
+      <c r="G33" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H33" s="5" t="s">
@@ -2963,10 +2981,10 @@
       <c r="K33" s="5">
         <v>90</v>
       </c>
-      <c r="L33" s="20">
+      <c r="L33" s="19">
         <v>8.4</v>
       </c>
-      <c r="M33" s="20">
+      <c r="M33" s="19">
         <v>8</v>
       </c>
       <c r="N33" s="5">
@@ -2982,20 +3000,20 @@
       <c r="B34" s="5">
         <v>50</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="26" t="s">
         <v>83</v>
       </c>
       <c r="D34" s="5">
         <v>2021</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="13">
         <v>61000000</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F34" s="16">
         <f t="shared" ref="F34:F65" si="2">E34/1000000</f>
         <v>61</v>
       </c>
-      <c r="G34" s="14" t="s">
+      <c r="G34" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H34" s="5" t="s">
@@ -3010,10 +3028,10 @@
       <c r="K34" s="5">
         <v>97</v>
       </c>
-      <c r="L34" s="20">
+      <c r="L34" s="19">
         <v>8.3000000000000007</v>
       </c>
-      <c r="M34" s="20">
+      <c r="M34" s="19">
         <v>8.5</v>
       </c>
       <c r="N34" s="5">
@@ -3029,20 +3047,20 @@
       <c r="B35" s="5">
         <v>51</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="26" t="s">
         <v>84</v>
       </c>
       <c r="D35" s="5">
         <v>2021</v>
       </c>
-      <c r="E35" s="14">
+      <c r="E35" s="13">
         <v>18000000</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="16">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="G35" s="14" t="s">
+      <c r="G35" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H35" s="5" t="s">
@@ -3057,10 +3075,10 @@
       <c r="K35" s="5">
         <v>109</v>
       </c>
-      <c r="L35" s="20">
+      <c r="L35" s="19">
         <v>5.6</v>
       </c>
-      <c r="M35" s="20">
+      <c r="M35" s="19">
         <v>5.5</v>
       </c>
       <c r="N35" s="5">
@@ -3076,20 +3094,20 @@
       <c r="B36" s="5">
         <v>52</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="26" t="s">
         <v>85</v>
       </c>
       <c r="D36" s="5">
         <v>2021</v>
       </c>
-      <c r="E36" s="14">
+      <c r="E36" s="13">
         <v>0</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F36" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G36" s="14" t="s">
+      <c r="G36" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H36" s="5" t="s">
@@ -3104,10 +3122,10 @@
       <c r="K36" s="5">
         <v>110</v>
       </c>
-      <c r="L36" s="20">
+      <c r="L36" s="19">
         <v>8.1</v>
       </c>
-      <c r="M36" s="20">
+      <c r="M36" s="19">
         <v>7.5</v>
       </c>
       <c r="N36" s="5">
@@ -3123,20 +3141,20 @@
       <c r="B37" s="5">
         <v>52</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="26" t="s">
         <v>87</v>
       </c>
       <c r="D37" s="5">
         <v>2021</v>
       </c>
-      <c r="E37" s="14">
+      <c r="E37" s="13">
         <v>0</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G37" s="14" t="s">
+      <c r="G37" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H37" s="5" t="s">
@@ -3151,10 +3169,10 @@
       <c r="K37" s="5">
         <v>114</v>
       </c>
-      <c r="L37" s="20">
+      <c r="L37" s="19">
         <v>7</v>
       </c>
-      <c r="M37" s="20">
+      <c r="M37" s="19">
         <v>6.7</v>
       </c>
       <c r="N37" s="5">
@@ -3172,20 +3190,20 @@
       <c r="B38" s="5">
         <v>53</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="26" t="s">
         <v>89</v>
       </c>
       <c r="D38" s="5">
         <v>2021</v>
       </c>
-      <c r="E38" s="14">
+      <c r="E38" s="13">
         <v>185000000</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F38" s="16">
         <f t="shared" si="2"/>
         <v>185</v>
       </c>
-      <c r="G38" s="14" t="s">
+      <c r="G38" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H38" s="5" t="s">
@@ -3200,10 +3218,10 @@
       <c r="K38" s="5">
         <v>132</v>
       </c>
-      <c r="L38" s="20">
+      <c r="L38" s="19">
         <v>8.4</v>
       </c>
-      <c r="M38" s="20">
+      <c r="M38" s="19">
         <v>8</v>
       </c>
       <c r="N38" s="5">
@@ -3219,20 +3237,20 @@
       <c r="B39" s="5">
         <v>54</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="26" t="s">
         <v>200</v>
       </c>
       <c r="D39" s="5">
         <v>1990</v>
       </c>
-      <c r="E39" s="14">
+      <c r="E39" s="13">
         <v>13500000</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="16">
         <f t="shared" si="2"/>
         <v>13.5</v>
       </c>
-      <c r="G39" s="14" t="s">
+      <c r="G39" s="13" t="s">
         <v>262</v>
       </c>
       <c r="H39" s="5" t="s">
@@ -3247,10 +3265,10 @@
       <c r="K39" s="5">
         <v>93</v>
       </c>
-      <c r="L39" s="20">
+      <c r="L39" s="19">
         <v>8.6</v>
       </c>
-      <c r="M39" s="20">
+      <c r="M39" s="19">
         <v>8.5</v>
       </c>
       <c r="N39" s="5">
@@ -3266,20 +3284,20 @@
       <c r="B40" s="5">
         <v>55</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="26" t="s">
         <v>90</v>
       </c>
       <c r="D40" s="5">
         <v>2021</v>
       </c>
-      <c r="E40" s="14">
+      <c r="E40" s="13">
         <v>54000000</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F40" s="16">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="G40" s="14" t="s">
+      <c r="G40" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H40" s="5" t="s">
@@ -3294,10 +3312,10 @@
       <c r="K40" s="5">
         <v>116</v>
       </c>
-      <c r="L40" s="20">
+      <c r="L40" s="19">
         <v>7.1</v>
       </c>
-      <c r="M40" s="20">
+      <c r="M40" s="19">
         <v>5.0999999999999996</v>
       </c>
       <c r="N40" s="5">
@@ -3313,20 +3331,20 @@
       <c r="B41" s="5">
         <v>57</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="26" t="s">
         <v>92</v>
       </c>
       <c r="D41" s="5">
         <v>2021</v>
       </c>
-      <c r="E41" s="14">
+      <c r="E41" s="13">
         <v>22000000</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="16">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="G41" s="14" t="s">
+      <c r="G41" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H41" s="5" t="s">
@@ -3341,10 +3359,10 @@
       <c r="K41" s="5">
         <v>91</v>
       </c>
-      <c r="L41" s="20">
+      <c r="L41" s="19">
         <v>7.7</v>
       </c>
-      <c r="M41" s="20">
+      <c r="M41" s="19">
         <v>9.1999999999999993</v>
       </c>
       <c r="N41" s="5">
@@ -3360,20 +3378,20 @@
       <c r="B42" s="5">
         <v>58</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="26" t="s">
         <v>93</v>
       </c>
       <c r="D42" s="5">
         <v>2021</v>
       </c>
-      <c r="E42" s="14">
+      <c r="E42" s="13">
         <v>40000000</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F42" s="16">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H42" s="5" t="s">
@@ -3388,10 +3406,10 @@
       <c r="K42" s="5">
         <v>111</v>
       </c>
-      <c r="L42" s="20">
+      <c r="L42" s="19">
         <v>6.2</v>
       </c>
-      <c r="M42" s="20">
+      <c r="M42" s="19">
         <v>6</v>
       </c>
       <c r="N42" s="5">
@@ -3407,20 +3425,20 @@
       <c r="B43" s="5">
         <v>59</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="26" t="s">
         <v>94</v>
       </c>
       <c r="D43" s="5">
         <v>1989</v>
       </c>
-      <c r="E43" s="14">
+      <c r="E43" s="13">
         <v>35000000</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F43" s="16">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="G43" s="14" t="s">
+      <c r="G43" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H43" s="5" t="s">
@@ -3433,10 +3451,10 @@
       <c r="K43" s="5">
         <v>126</v>
       </c>
-      <c r="L43" s="20">
+      <c r="L43" s="19">
         <v>9</v>
       </c>
-      <c r="M43" s="20">
+      <c r="M43" s="19">
         <v>9</v>
       </c>
       <c r="N43" s="5">
@@ -3452,20 +3470,20 @@
       <c r="B44" s="5">
         <v>60</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="26" t="s">
         <v>95</v>
       </c>
       <c r="D44" s="5">
         <v>2021</v>
       </c>
-      <c r="E44" s="14">
+      <c r="E44" s="13">
         <v>0</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F44" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G44" s="14" t="s">
+      <c r="G44" s="13" t="s">
         <v>266</v>
       </c>
       <c r="H44" s="5" t="s">
@@ -3480,10 +3498,10 @@
       <c r="K44" s="5">
         <v>71</v>
       </c>
-      <c r="L44" s="20">
+      <c r="L44" s="19">
         <v>6.8</v>
       </c>
-      <c r="M44" s="20">
+      <c r="M44" s="19">
         <v>6.5</v>
       </c>
       <c r="N44" s="5">
@@ -3499,20 +3517,20 @@
       <c r="B45" s="5">
         <v>61</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="26" t="s">
         <v>96</v>
       </c>
       <c r="D45" s="5">
         <v>2021</v>
       </c>
-      <c r="E45" s="14">
+      <c r="E45" s="13">
         <v>110000000</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F45" s="16">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="G45" s="14" t="s">
+      <c r="G45" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H45" s="5" t="s">
@@ -3527,10 +3545,10 @@
       <c r="K45" s="5">
         <v>97</v>
       </c>
-      <c r="L45" s="20">
+      <c r="L45" s="19">
         <v>7.3</v>
       </c>
-      <c r="M45" s="20">
+      <c r="M45" s="19">
         <v>6.7</v>
       </c>
       <c r="N45" s="5">
@@ -3546,20 +3564,20 @@
       <c r="B46" s="5">
         <v>62</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="26" t="s">
         <v>101</v>
       </c>
       <c r="D46" s="5">
         <v>2021</v>
       </c>
-      <c r="E46" s="14">
+      <c r="E46" s="13">
         <v>50000000</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F46" s="16">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="G46" s="14" t="s">
+      <c r="G46" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H46" s="5" t="s">
@@ -3574,10 +3592,10 @@
       <c r="K46" s="5">
         <v>120</v>
       </c>
-      <c r="L46" s="20">
+      <c r="L46" s="19">
         <v>6.9</v>
       </c>
-      <c r="M46" s="20">
+      <c r="M46" s="19">
         <v>7</v>
       </c>
       <c r="N46" s="5">
@@ -3593,20 +3611,20 @@
       <c r="B47" s="5">
         <v>63</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="26" t="s">
         <v>103</v>
       </c>
       <c r="D47" s="5">
         <v>1980</v>
       </c>
-      <c r="E47" s="14">
+      <c r="E47" s="13">
         <v>19000000</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F47" s="16">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="G47" s="14" t="s">
+      <c r="G47" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H47" s="5" t="s">
@@ -3621,10 +3639,10 @@
       <c r="K47" s="5">
         <v>144</v>
       </c>
-      <c r="L47" s="20">
+      <c r="L47" s="19">
         <v>9.6</v>
       </c>
-      <c r="M47" s="20">
+      <c r="M47" s="19">
         <v>9.6999999999999993</v>
       </c>
       <c r="N47" s="5">
@@ -3640,20 +3658,20 @@
       <c r="B48" s="5">
         <v>64</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="26" t="s">
         <v>110</v>
       </c>
       <c r="D48" s="5">
         <v>2021</v>
       </c>
-      <c r="E48" s="14">
+      <c r="E48" s="13">
         <v>165000000</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F48" s="16">
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
-      <c r="G48" s="14" t="s">
+      <c r="G48" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H48" s="5" t="s">
@@ -3668,10 +3686,10 @@
       <c r="K48" s="5">
         <v>155</v>
       </c>
-      <c r="L48" s="20">
+      <c r="L48" s="19">
         <v>6.9</v>
       </c>
-      <c r="M48" s="20">
+      <c r="M48" s="19">
         <v>8</v>
       </c>
       <c r="N48" s="5">
@@ -3687,20 +3705,20 @@
       <c r="B49" s="5">
         <v>65</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="26" t="s">
         <v>111</v>
       </c>
       <c r="D49" s="5">
         <v>2021</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="13">
         <v>20000000</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F49" s="16">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="G49" s="14" t="s">
+      <c r="G49" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H49" s="5" t="s">
@@ -3715,10 +3733,10 @@
       <c r="K49" s="5">
         <v>105</v>
       </c>
-      <c r="L49" s="20">
+      <c r="L49" s="19">
         <v>5.3</v>
       </c>
-      <c r="M49" s="20">
+      <c r="M49" s="19">
         <v>5</v>
       </c>
       <c r="N49" s="5">
@@ -3734,20 +3752,20 @@
       <c r="B50" s="5">
         <v>66</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="26" t="s">
         <v>112</v>
       </c>
       <c r="D50" s="5">
         <v>2021</v>
       </c>
-      <c r="E50" s="14">
+      <c r="E50" s="13">
         <v>0</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F50" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G50" s="14" t="s">
+      <c r="G50" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H50" s="5" t="s">
@@ -3762,10 +3780,10 @@
       <c r="K50" s="5">
         <v>98</v>
       </c>
-      <c r="L50" s="20">
+      <c r="L50" s="19">
         <v>6.4</v>
       </c>
-      <c r="M50" s="20">
+      <c r="M50" s="19">
         <v>5.8</v>
       </c>
       <c r="N50" s="5">
@@ -3781,20 +3799,20 @@
       <c r="B51" s="5">
         <v>67</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="26" t="s">
         <v>113</v>
       </c>
       <c r="D51" s="5">
         <v>2021</v>
       </c>
-      <c r="E51" s="14">
+      <c r="E51" s="13">
         <v>200000000</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F51" s="16">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="G51" s="14" t="s">
+      <c r="G51" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H51" s="5" t="s">
@@ -3809,10 +3827,10 @@
       <c r="K51" s="5">
         <v>132</v>
       </c>
-      <c r="L51" s="20">
+      <c r="L51" s="19">
         <v>7</v>
       </c>
-      <c r="M51" s="20">
+      <c r="M51" s="19">
         <v>6.5</v>
       </c>
       <c r="N51" s="5">
@@ -3828,20 +3846,20 @@
       <c r="B52" s="5">
         <v>68</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="26" t="s">
         <v>239</v>
       </c>
       <c r="D52" s="5">
         <v>2021</v>
       </c>
-      <c r="E52" s="14">
+      <c r="E52" s="13">
         <v>75000000</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F52" s="16">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="G52" s="14" t="s">
+      <c r="G52" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H52" s="5" t="s">
@@ -3856,10 +3874,10 @@
       <c r="K52" s="5">
         <v>124</v>
       </c>
-      <c r="L52" s="20">
+      <c r="L52" s="19">
         <v>8.5</v>
       </c>
-      <c r="M52" s="20">
+      <c r="M52" s="19">
         <v>9</v>
       </c>
       <c r="N52" s="5">
@@ -3875,20 +3893,20 @@
       <c r="B53" s="5">
         <v>69</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="26" t="s">
         <v>114</v>
       </c>
       <c r="D53" s="5">
         <v>2021</v>
       </c>
-      <c r="E53" s="14">
+      <c r="E53" s="13">
         <v>0</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F53" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G53" s="14" t="s">
+      <c r="G53" s="13" t="s">
         <v>262</v>
       </c>
       <c r="H53" s="5" t="s">
@@ -3903,10 +3921,10 @@
       <c r="K53" s="5">
         <v>97</v>
       </c>
-      <c r="L53" s="20">
+      <c r="L53" s="19">
         <v>7.4</v>
       </c>
-      <c r="M53" s="20">
+      <c r="M53" s="19">
         <v>7</v>
       </c>
       <c r="N53" s="5">
@@ -3922,20 +3940,20 @@
       <c r="B54" s="5">
         <v>70</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="26" t="s">
         <v>105</v>
       </c>
       <c r="D54" s="5">
         <v>1999</v>
       </c>
-      <c r="E54" s="14">
+      <c r="E54" s="13">
         <v>82000000</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F54" s="16">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="G54" s="14" t="s">
+      <c r="G54" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H54" s="5" t="s">
@@ -3950,10 +3968,10 @@
       <c r="K54" s="5">
         <v>119</v>
       </c>
-      <c r="L54" s="20">
+      <c r="L54" s="19">
         <v>8.8000000000000007</v>
       </c>
-      <c r="M54" s="20">
+      <c r="M54" s="19">
         <v>7.4</v>
       </c>
       <c r="N54" s="5">
@@ -3969,20 +3987,20 @@
       <c r="B55" s="5">
         <v>70</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="26" t="s">
         <v>106</v>
       </c>
       <c r="D55" s="5">
         <v>2017</v>
       </c>
-      <c r="E55" s="14">
+      <c r="E55" s="13">
         <v>0</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F55" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G55" s="14" t="s">
+      <c r="G55" s="13" t="s">
         <v>266</v>
       </c>
       <c r="H55" s="5" t="s">
@@ -3995,10 +4013,10 @@
       <c r="K55" s="5">
         <v>94</v>
       </c>
-      <c r="L55" s="20">
+      <c r="L55" s="19">
         <v>8.5</v>
       </c>
-      <c r="M55" s="20">
+      <c r="M55" s="19">
         <v>8.5</v>
       </c>
       <c r="N55" s="5">
@@ -4014,20 +4032,20 @@
       <c r="B56" s="5">
         <v>72</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="26" t="s">
         <v>104</v>
       </c>
       <c r="D56" s="5">
         <v>2004</v>
       </c>
-      <c r="E56" s="14">
+      <c r="E56" s="13">
         <v>200000000</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F56" s="16">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="G56" s="14" t="s">
+      <c r="G56" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H56" s="5" t="s">
@@ -4040,10 +4058,10 @@
       <c r="K56" s="5">
         <v>127</v>
       </c>
-      <c r="L56" s="20">
+      <c r="L56" s="19">
         <v>9.4</v>
       </c>
-      <c r="M56" s="20">
+      <c r="M56" s="19">
         <v>9.6</v>
       </c>
       <c r="N56" s="5">
@@ -4059,20 +4077,20 @@
       <c r="B57" s="5">
         <v>72</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="26" t="s">
         <v>107</v>
       </c>
       <c r="D57" s="5">
         <v>2021</v>
       </c>
-      <c r="E57" s="14">
+      <c r="E57" s="13">
         <v>200000000</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F57" s="16">
         <f t="shared" si="2"/>
         <v>200</v>
       </c>
-      <c r="G57" s="14" t="s">
+      <c r="G57" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H57" s="5" t="s">
@@ -4085,10 +4103,10 @@
       <c r="K57" s="5">
         <v>148</v>
       </c>
-      <c r="L57" s="20">
+      <c r="L57" s="19">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M57" s="20">
+      <c r="M57" s="19">
         <v>9</v>
       </c>
       <c r="N57" s="5">
@@ -4106,20 +4124,20 @@
       <c r="B58" s="5">
         <v>73</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="26" t="s">
         <v>109</v>
       </c>
       <c r="D58" s="5">
         <v>2021</v>
       </c>
-      <c r="E58" s="14">
+      <c r="E58" s="13">
         <v>190000000</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F58" s="16">
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="G58" s="14" t="s">
+      <c r="G58" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H58" s="5" t="s">
@@ -4134,10 +4152,10 @@
       <c r="K58" s="5">
         <v>148</v>
       </c>
-      <c r="L58" s="20">
+      <c r="L58" s="19">
         <v>4.4000000000000004</v>
       </c>
-      <c r="M58" s="20">
+      <c r="M58" s="19">
         <v>4.5</v>
       </c>
       <c r="N58" s="5">
@@ -4153,20 +4171,20 @@
       <c r="B59" s="5">
         <v>75</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="26" t="s">
         <v>116</v>
       </c>
       <c r="D59" s="5">
         <v>2011</v>
       </c>
-      <c r="E59" s="14">
+      <c r="E59" s="13">
         <v>38000000</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F59" s="16">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="G59" s="14" t="s">
+      <c r="G59" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H59" s="5" t="s">
@@ -4181,10 +4199,10 @@
       <c r="K59" s="5">
         <v>103</v>
       </c>
-      <c r="L59" s="20">
+      <c r="L59" s="19">
         <v>7.9</v>
       </c>
-      <c r="M59" s="20">
+      <c r="M59" s="19">
         <v>7.1</v>
       </c>
       <c r="N59" s="5">
@@ -4200,20 +4218,20 @@
       <c r="B60" s="5">
         <v>76</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="26" t="s">
         <v>118</v>
       </c>
       <c r="D60" s="5">
         <v>2022</v>
       </c>
-      <c r="E60" s="14">
+      <c r="E60" s="13">
         <v>24000000</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F60" s="16">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="G60" s="14" t="s">
+      <c r="G60" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H60" s="5" t="s">
@@ -4228,10 +4246,10 @@
       <c r="K60" s="5">
         <v>114</v>
       </c>
-      <c r="L60" s="20">
+      <c r="L60" s="19">
         <v>7.8</v>
       </c>
-      <c r="M60" s="20">
+      <c r="M60" s="19">
         <v>7.5</v>
       </c>
       <c r="N60" s="5">
@@ -4247,20 +4265,20 @@
       <c r="B61" s="5">
         <v>77</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="26" t="s">
         <v>119</v>
       </c>
       <c r="D61" s="5">
         <v>1986</v>
       </c>
-      <c r="E61" s="14">
+      <c r="E61" s="13">
         <v>15000000</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F61" s="16">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="G61" s="14" t="s">
+      <c r="G61" s="13" t="s">
         <v>262</v>
       </c>
       <c r="H61" s="5" t="s">
@@ -4275,10 +4293,10 @@
       <c r="K61" s="5">
         <v>98</v>
       </c>
-      <c r="L61" s="20">
+      <c r="L61" s="19">
         <v>7</v>
       </c>
-      <c r="M61" s="20">
+      <c r="M61" s="19">
         <v>6</v>
       </c>
       <c r="N61" s="5">
@@ -4294,20 +4312,20 @@
       <c r="B62" s="5">
         <v>77</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="26" t="s">
         <v>120</v>
       </c>
       <c r="D62" s="5">
         <v>1988</v>
       </c>
-      <c r="E62" s="14">
+      <c r="E62" s="13">
         <v>15000000</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F62" s="16">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="G62" s="14" t="s">
+      <c r="G62" s="13" t="s">
         <v>262</v>
       </c>
       <c r="H62" s="5" t="s">
@@ -4322,10 +4340,10 @@
       <c r="K62" s="5">
         <v>110</v>
       </c>
-      <c r="L62" s="20">
+      <c r="L62" s="19">
         <v>7.5</v>
       </c>
-      <c r="M62" s="20">
+      <c r="M62" s="19">
         <v>5.9</v>
       </c>
       <c r="N62" s="5">
@@ -4341,20 +4359,20 @@
       <c r="B63" s="5">
         <v>78</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="26" t="s">
         <v>121</v>
       </c>
       <c r="D63" s="5">
         <v>1992</v>
       </c>
-      <c r="E63" s="14">
+      <c r="E63" s="13">
         <v>10000000</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F63" s="16">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="G63" s="14" t="s">
+      <c r="G63" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H63" s="5" t="s">
@@ -4369,10 +4387,10 @@
       <c r="K63" s="5">
         <v>108</v>
       </c>
-      <c r="L63" s="20">
+      <c r="L63" s="19">
         <v>4.2</v>
       </c>
-      <c r="M63" s="20">
+      <c r="M63" s="19">
         <v>5.5</v>
       </c>
       <c r="N63" s="5">
@@ -4388,20 +4406,20 @@
       <c r="B64" s="5">
         <v>79</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="26" t="s">
         <v>122</v>
       </c>
       <c r="D64" s="5">
         <v>1992</v>
       </c>
-      <c r="E64" s="14">
+      <c r="E64" s="13">
         <v>7000000</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F64" s="16">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="G64" s="14" t="s">
+      <c r="G64" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H64" s="5" t="s">
@@ -4416,10 +4434,10 @@
       <c r="K64" s="5">
         <v>86</v>
       </c>
-      <c r="L64" s="20">
+      <c r="L64" s="19">
         <v>7.1</v>
       </c>
-      <c r="M64" s="20">
+      <c r="M64" s="19">
         <v>6</v>
       </c>
       <c r="N64" s="5">
@@ -4435,20 +4453,20 @@
       <c r="B65" s="5">
         <v>80</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="26" t="s">
         <v>123</v>
       </c>
       <c r="D65" s="5">
         <v>1987</v>
       </c>
-      <c r="E65" s="14">
+      <c r="E65" s="13">
         <v>13000000</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F65" s="16">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="G65" s="14" t="s">
+      <c r="G65" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H65" s="5" t="s">
@@ -4463,10 +4481,10 @@
       <c r="K65" s="5">
         <v>102</v>
       </c>
-      <c r="L65" s="20">
+      <c r="L65" s="19">
         <v>8.6</v>
       </c>
-      <c r="M65" s="20">
+      <c r="M65" s="19">
         <v>8.5</v>
       </c>
       <c r="N65" s="5">
@@ -4482,20 +4500,20 @@
       <c r="B66" s="5">
         <v>81</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="26" t="s">
         <v>124</v>
       </c>
       <c r="D66" s="5">
         <v>2022</v>
       </c>
-      <c r="E66" s="14">
+      <c r="E66" s="13">
         <v>120000000</v>
       </c>
-      <c r="F66" s="17">
+      <c r="F66" s="16">
         <f t="shared" ref="F66:F97" si="4">E66/1000000</f>
         <v>120</v>
       </c>
-      <c r="G66" s="14" t="s">
+      <c r="G66" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H66" s="5" t="s">
@@ -4510,10 +4528,10 @@
       <c r="K66" s="5">
         <v>116</v>
       </c>
-      <c r="L66" s="20">
+      <c r="L66" s="19">
         <v>6.2</v>
       </c>
-      <c r="M66" s="20">
+      <c r="M66" s="19">
         <v>6.7</v>
       </c>
       <c r="N66" s="5">
@@ -4529,20 +4547,20 @@
       <c r="B67" s="5">
         <v>83</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="26" t="s">
         <v>126</v>
       </c>
       <c r="D67" s="5">
         <v>2022</v>
       </c>
-      <c r="E67" s="14">
+      <c r="E67" s="13">
         <v>185000000</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F67" s="16">
         <f t="shared" si="4"/>
         <v>185</v>
       </c>
-      <c r="G67" s="14" t="s">
+      <c r="G67" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H67" s="5" t="s">
@@ -4555,10 +4573,10 @@
       <c r="K67" s="5">
         <v>176</v>
       </c>
-      <c r="L67" s="20">
+      <c r="L67" s="19">
         <v>8.9</v>
       </c>
-      <c r="M67" s="20">
+      <c r="M67" s="19">
         <v>9.5</v>
       </c>
       <c r="N67" s="5">
@@ -4574,20 +4592,20 @@
       <c r="B68" s="5">
         <v>83</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="26" t="s">
         <v>127</v>
       </c>
       <c r="D68" s="5">
         <v>2008</v>
       </c>
-      <c r="E68" s="14">
+      <c r="E68" s="13">
         <v>185000000</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F68" s="16">
         <f t="shared" si="4"/>
         <v>185</v>
       </c>
-      <c r="G68" s="14" t="s">
+      <c r="G68" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H68" s="5" t="s">
@@ -4600,10 +4618,10 @@
       <c r="K68" s="5">
         <v>152</v>
       </c>
-      <c r="L68" s="20">
+      <c r="L68" s="19">
         <v>9.3000000000000007</v>
       </c>
-      <c r="M68" s="20">
+      <c r="M68" s="19">
         <v>9.3000000000000007</v>
       </c>
       <c r="N68" s="5">
@@ -4621,20 +4639,20 @@
       <c r="B69" s="5">
         <v>84</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="26" t="s">
         <v>140</v>
       </c>
       <c r="D69" s="5">
         <v>2014</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E69" s="13">
         <v>44000000</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F69" s="16">
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="G69" s="14" t="s">
+      <c r="G69" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H69" s="5" t="s">
@@ -4649,10 +4667,10 @@
       <c r="K69" s="5">
         <v>112</v>
       </c>
-      <c r="L69" s="20">
+      <c r="L69" s="19">
         <v>6.4</v>
       </c>
-      <c r="M69" s="20">
+      <c r="M69" s="19">
         <v>6.5</v>
       </c>
       <c r="N69" s="5">
@@ -4668,20 +4686,20 @@
       <c r="B70" s="5">
         <v>85</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="26" t="s">
         <v>141</v>
       </c>
       <c r="D70" s="5">
         <v>2022</v>
       </c>
-      <c r="E70" s="14">
+      <c r="E70" s="13">
         <v>116000000</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F70" s="16">
         <f t="shared" si="4"/>
         <v>116</v>
       </c>
-      <c r="G70" s="14" t="s">
+      <c r="G70" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H70" s="5" t="s">
@@ -4696,10 +4714,10 @@
       <c r="K70" s="5">
         <v>106</v>
       </c>
-      <c r="L70" s="20">
+      <c r="L70" s="19">
         <v>7.3</v>
       </c>
-      <c r="M70" s="20">
+      <c r="M70" s="19">
         <v>6.2</v>
       </c>
       <c r="N70" s="5">
@@ -4715,20 +4733,20 @@
       <c r="B71" s="5">
         <v>87</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="26" t="s">
         <v>142</v>
       </c>
       <c r="D71" s="5">
         <v>1986</v>
       </c>
-      <c r="E71" s="14">
+      <c r="E71" s="13">
         <v>15000000</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F71" s="16">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
-      <c r="G71" s="14" t="s">
+      <c r="G71" s="13" t="s">
         <v>262</v>
       </c>
       <c r="H71" s="5" t="s">
@@ -4743,10 +4761,10 @@
       <c r="K71" s="5">
         <v>109</v>
       </c>
-      <c r="L71" s="20">
+      <c r="L71" s="19">
         <v>6.7</v>
       </c>
-      <c r="M71" s="20">
+      <c r="M71" s="19">
         <v>7</v>
       </c>
       <c r="N71" s="5">
@@ -4762,20 +4780,20 @@
       <c r="B72" s="5">
         <v>88</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="26" t="s">
         <v>143</v>
       </c>
       <c r="D72" s="5">
         <v>1997</v>
       </c>
-      <c r="E72" s="14">
+      <c r="E72" s="13">
         <v>80000000</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F72" s="16">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="G72" s="14" t="s">
+      <c r="G72" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H72" s="5" t="s">
@@ -4790,10 +4808,10 @@
       <c r="K72" s="5">
         <v>138</v>
       </c>
-      <c r="L72" s="20">
+      <c r="L72" s="19">
         <v>7</v>
       </c>
-      <c r="M72" s="20">
+      <c r="M72" s="19">
         <v>7.8</v>
       </c>
       <c r="N72" s="5">
@@ -4809,20 +4827,20 @@
       <c r="B73" s="5">
         <v>89</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="26" t="s">
         <v>144</v>
       </c>
       <c r="D73" s="5">
         <v>2022</v>
       </c>
-      <c r="E73" s="14">
+      <c r="E73" s="13">
         <v>70000000</v>
       </c>
-      <c r="F73" s="17">
+      <c r="F73" s="16">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="G73" s="14" t="s">
+      <c r="G73" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H73" s="5" t="s">
@@ -4837,10 +4855,10 @@
       <c r="K73" s="5">
         <v>137</v>
       </c>
-      <c r="L73" s="20">
+      <c r="L73" s="19">
         <v>8.6</v>
       </c>
-      <c r="M73" s="20">
+      <c r="M73" s="19">
         <v>8.1999999999999993</v>
       </c>
       <c r="N73" s="5">
@@ -4856,20 +4874,20 @@
       <c r="B74" s="5">
         <v>90</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="26" t="s">
         <v>243</v>
       </c>
       <c r="D74" s="5">
         <v>2011</v>
       </c>
-      <c r="E74" s="14">
+      <c r="E74" s="13">
         <v>1100000</v>
       </c>
-      <c r="F74" s="17">
+      <c r="F74" s="16">
         <f t="shared" si="4"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="G74" s="14" t="s">
+      <c r="G74" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H74" s="5" t="s">
@@ -4884,10 +4902,10 @@
       <c r="K74" s="5">
         <v>101</v>
       </c>
-      <c r="L74" s="20">
+      <c r="L74" s="19">
         <v>6.2</v>
       </c>
-      <c r="M74" s="20">
+      <c r="M74" s="19">
         <v>7</v>
       </c>
       <c r="N74" s="5">
@@ -4903,20 +4921,20 @@
       <c r="B75" s="5">
         <v>91</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="26" t="s">
         <v>145</v>
       </c>
       <c r="D75" s="5">
         <v>2022</v>
       </c>
-      <c r="E75" s="14">
+      <c r="E75" s="13">
         <v>200000000</v>
       </c>
-      <c r="F75" s="17">
+      <c r="F75" s="16">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="G75" s="14" t="s">
+      <c r="G75" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H75" s="5" t="s">
@@ -4929,10 +4947,10 @@
       <c r="K75" s="5">
         <v>126</v>
       </c>
-      <c r="L75" s="20">
+      <c r="L75" s="19">
         <v>7.8</v>
       </c>
-      <c r="M75" s="20">
+      <c r="M75" s="19">
         <v>7.5</v>
       </c>
       <c r="N75" s="5">
@@ -4948,20 +4966,20 @@
       <c r="B76" s="5">
         <v>92</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="26" t="s">
         <v>146</v>
       </c>
       <c r="D76" s="5">
         <v>1998</v>
       </c>
-      <c r="E76" s="14">
+      <c r="E76" s="13">
         <v>80000000</v>
       </c>
-      <c r="F76" s="17">
+      <c r="F76" s="16">
         <f t="shared" si="4"/>
         <v>80</v>
       </c>
-      <c r="G76" s="14" t="s">
+      <c r="G76" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H76" s="5" t="s">
@@ -4976,10 +4994,10 @@
       <c r="K76" s="5">
         <v>130</v>
       </c>
-      <c r="L76" s="20">
+      <c r="L76" s="19">
         <v>5</v>
       </c>
-      <c r="M76" s="20">
+      <c r="M76" s="19">
         <v>6</v>
       </c>
       <c r="N76" s="5">
@@ -4995,20 +5013,20 @@
       <c r="B77" s="5">
         <v>93</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="26" t="s">
         <v>244</v>
       </c>
       <c r="D77" s="5">
         <v>2022</v>
       </c>
-      <c r="E77" s="14">
+      <c r="E77" s="13">
         <v>70000000</v>
       </c>
-      <c r="F77" s="17">
+      <c r="F77" s="16">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="G77" s="14" t="s">
+      <c r="G77" s="13" t="s">
         <v>262</v>
       </c>
       <c r="H77" s="5" t="s">
@@ -5023,10 +5041,10 @@
       <c r="K77" s="5">
         <v>97</v>
       </c>
-      <c r="L77" s="20">
+      <c r="L77" s="19">
         <v>7.3</v>
       </c>
-      <c r="M77" s="20">
+      <c r="M77" s="19">
         <v>7.2</v>
       </c>
       <c r="N77" s="5">
@@ -5042,20 +5060,20 @@
       <c r="B78" s="5">
         <v>94</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="26" t="s">
         <v>147</v>
       </c>
       <c r="D78" s="5">
         <v>2022</v>
       </c>
-      <c r="E78" s="14">
+      <c r="E78" s="13">
         <v>170000000</v>
       </c>
-      <c r="F78" s="17">
+      <c r="F78" s="16">
         <f t="shared" si="4"/>
         <v>170</v>
       </c>
-      <c r="G78" s="14" t="s">
+      <c r="G78" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H78" s="5" t="s">
@@ -5070,10 +5088,10 @@
       <c r="K78" s="5">
         <v>130</v>
       </c>
-      <c r="L78" s="20">
+      <c r="L78" s="19">
         <v>9</v>
       </c>
-      <c r="M78" s="20">
+      <c r="M78" s="19">
         <v>9.4</v>
       </c>
       <c r="N78" s="5">
@@ -5089,20 +5107,20 @@
       <c r="B79" s="5">
         <v>97</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" s="26" t="s">
         <v>148</v>
       </c>
       <c r="D79" s="5">
         <v>2022</v>
       </c>
-      <c r="E79" s="14">
+      <c r="E79" s="13">
         <v>40000000</v>
       </c>
-      <c r="F79" s="17">
+      <c r="F79" s="16">
         <f t="shared" si="4"/>
         <v>40</v>
       </c>
-      <c r="G79" s="14" t="s">
+      <c r="G79" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H79" s="5" t="s">
@@ -5117,10 +5135,10 @@
       <c r="K79" s="5">
         <v>136</v>
       </c>
-      <c r="L79" s="20">
+      <c r="L79" s="19">
         <v>7.5</v>
       </c>
-      <c r="M79" s="20">
+      <c r="M79" s="19">
         <v>6.8</v>
       </c>
       <c r="N79" s="5">
@@ -5136,20 +5154,20 @@
       <c r="B80" s="5">
         <v>98</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" s="26" t="s">
         <v>149</v>
       </c>
       <c r="D80" s="5">
         <v>2022</v>
       </c>
-      <c r="E80" s="14">
+      <c r="E80" s="13">
         <v>75000000</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F80" s="16">
         <f t="shared" si="4"/>
         <v>75</v>
       </c>
-      <c r="G80" s="14" t="s">
+      <c r="G80" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H80" s="5" t="s">
@@ -5164,10 +5182,10 @@
       <c r="K80" s="5">
         <v>104</v>
       </c>
-      <c r="L80" s="20">
+      <c r="L80" s="19">
         <v>4.4000000000000004</v>
       </c>
-      <c r="M80" s="20">
+      <c r="M80" s="19">
         <v>4.5</v>
       </c>
       <c r="N80" s="5">
@@ -5183,20 +5201,20 @@
       <c r="B81" s="5">
         <v>101</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" s="26" t="s">
         <v>151</v>
       </c>
       <c r="D81" s="5">
         <v>2002</v>
       </c>
-      <c r="E81" s="14">
+      <c r="E81" s="13">
         <v>0</v>
       </c>
-      <c r="F81" s="17">
+      <c r="F81" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G81" s="14" t="s">
+      <c r="G81" s="13" t="s">
         <v>265</v>
       </c>
       <c r="H81" s="5" t="s">
@@ -5209,10 +5227,10 @@
       <c r="K81" s="5">
         <v>86</v>
       </c>
-      <c r="L81" s="20">
+      <c r="L81" s="19">
         <v>6.6</v>
       </c>
-      <c r="M81" s="20">
+      <c r="M81" s="19">
         <v>5.5</v>
       </c>
       <c r="N81" s="5">
@@ -5228,20 +5246,20 @@
       <c r="B82" s="5">
         <v>102</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="26" t="s">
         <v>152</v>
       </c>
       <c r="D82" s="5">
         <v>1990</v>
       </c>
-      <c r="E82" s="14">
+      <c r="E82" s="13">
         <v>60000000</v>
       </c>
-      <c r="F82" s="17">
+      <c r="F82" s="16">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="G82" s="14" t="s">
+      <c r="G82" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H82" s="5" t="s">
@@ -5256,10 +5274,10 @@
       <c r="K82" s="5">
         <v>107</v>
       </c>
-      <c r="L82" s="20">
+      <c r="L82" s="19">
         <v>6.8</v>
       </c>
-      <c r="M82" s="20">
+      <c r="M82" s="19">
         <v>6</v>
       </c>
       <c r="N82" s="5">
@@ -5275,20 +5293,20 @@
       <c r="B83" s="5">
         <v>103</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="26" t="s">
         <v>153</v>
       </c>
       <c r="D83" s="5">
         <v>2022</v>
       </c>
-      <c r="E83" s="14">
+      <c r="E83" s="13">
         <v>68000000</v>
       </c>
-      <c r="F83" s="17">
+      <c r="F83" s="16">
         <f t="shared" si="4"/>
         <v>68</v>
       </c>
-      <c r="G83" s="14" t="s">
+      <c r="G83" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H83" s="5" t="s">
@@ -5303,10 +5321,10 @@
       <c r="K83" s="5">
         <v>130</v>
       </c>
-      <c r="L83" s="20">
+      <c r="L83" s="19">
         <v>7.3</v>
       </c>
-      <c r="M83" s="20">
+      <c r="M83" s="19">
         <v>9</v>
       </c>
       <c r="N83" s="5">
@@ -5322,20 +5340,20 @@
       <c r="B84" s="5">
         <v>103</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="26" t="s">
         <v>154</v>
       </c>
       <c r="D84" s="5">
         <v>2017</v>
       </c>
-      <c r="E84" s="14">
+      <c r="E84" s="13">
         <v>4500000</v>
       </c>
-      <c r="F84" s="17">
+      <c r="F84" s="16">
         <f t="shared" si="4"/>
         <v>4.5</v>
       </c>
-      <c r="G84" s="14" t="s">
+      <c r="G84" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H84" s="5" t="s">
@@ -5350,10 +5368,10 @@
       <c r="K84" s="5">
         <v>104</v>
       </c>
-      <c r="L84" s="20">
+      <c r="L84" s="19">
         <v>8.8000000000000007</v>
       </c>
-      <c r="M84" s="20">
+      <c r="M84" s="19">
         <v>8.5</v>
       </c>
       <c r="N84" s="5">
@@ -5371,20 +5389,20 @@
       <c r="B85" s="5">
         <v>103</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" s="26" t="s">
         <v>155</v>
       </c>
       <c r="D85" s="5">
         <v>2019</v>
       </c>
-      <c r="E85" s="14">
+      <c r="E85" s="13">
         <v>20000000</v>
       </c>
-      <c r="F85" s="17">
+      <c r="F85" s="16">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="G85" s="14" t="s">
+      <c r="G85" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H85" s="5" t="s">
@@ -5399,10 +5417,10 @@
       <c r="K85" s="5">
         <v>116</v>
       </c>
-      <c r="L85" s="20">
+      <c r="L85" s="19">
         <v>8.4</v>
       </c>
-      <c r="M85" s="20">
+      <c r="M85" s="19">
         <v>8.8000000000000007</v>
       </c>
       <c r="N85" s="5">
@@ -5420,20 +5438,20 @@
       <c r="B86" s="5">
         <v>104</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" s="26" t="s">
         <v>157</v>
       </c>
       <c r="D86" s="5">
         <v>2022</v>
       </c>
-      <c r="E86" s="14">
+      <c r="E86" s="13">
         <v>200000000</v>
       </c>
-      <c r="F86" s="17">
+      <c r="F86" s="16">
         <f t="shared" si="4"/>
         <v>200</v>
       </c>
-      <c r="G86" s="14" t="s">
+      <c r="G86" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H86" s="5" t="s">
@@ -5448,10 +5466,10 @@
       <c r="K86" s="5">
         <v>122</v>
       </c>
-      <c r="L86" s="20">
+      <c r="L86" s="19">
         <v>6</v>
       </c>
-      <c r="M86" s="20">
+      <c r="M86" s="19">
         <v>4.5</v>
       </c>
       <c r="N86" s="5">
@@ -5467,20 +5485,20 @@
       <c r="B87" s="5">
         <v>105</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="26" t="s">
         <v>158</v>
       </c>
       <c r="D87" s="5">
         <v>2022</v>
       </c>
-      <c r="E87" s="14">
+      <c r="E87" s="13">
         <v>65000000</v>
       </c>
-      <c r="F87" s="17">
+      <c r="F87" s="16">
         <f t="shared" si="4"/>
         <v>65</v>
       </c>
-      <c r="G87" s="14" t="s">
+      <c r="G87" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H87" s="5" t="s">
@@ -5495,10 +5513,10 @@
       <c r="K87" s="5">
         <v>100</v>
       </c>
-      <c r="L87" s="20">
+      <c r="L87" s="19">
         <v>7.5</v>
       </c>
-      <c r="M87" s="20">
+      <c r="M87" s="19">
         <v>8</v>
       </c>
       <c r="N87" s="5">
@@ -5514,20 +5532,20 @@
       <c r="B88" s="5">
         <v>106</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="26" t="s">
         <v>159</v>
       </c>
       <c r="D88" s="5">
         <v>2021</v>
       </c>
-      <c r="E88" s="14">
+      <c r="E88" s="13">
         <v>18000000</v>
       </c>
-      <c r="F88" s="17">
+      <c r="F88" s="16">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
-      <c r="G88" s="14" t="s">
+      <c r="G88" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H88" s="5" t="s">
@@ -5542,10 +5560,10 @@
       <c r="K88" s="5">
         <v>103</v>
       </c>
-      <c r="L88" s="20">
+      <c r="L88" s="19">
         <v>8.6</v>
       </c>
-      <c r="M88" s="20">
+      <c r="M88" s="19">
         <v>8.4</v>
       </c>
       <c r="N88" s="5">
@@ -5561,20 +5579,20 @@
       <c r="B89" s="5">
         <v>107</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="26" t="s">
         <v>160</v>
       </c>
       <c r="D89" s="5">
         <v>2015</v>
       </c>
-      <c r="E89" s="14">
+      <c r="E89" s="13">
         <v>4000000</v>
       </c>
-      <c r="F89" s="17">
+      <c r="F89" s="16">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="G89" s="14" t="s">
+      <c r="G89" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H89" s="5" t="s">
@@ -5589,10 +5607,10 @@
       <c r="K89" s="5">
         <v>95</v>
       </c>
-      <c r="L89" s="20">
+      <c r="L89" s="19">
         <v>7.1</v>
       </c>
-      <c r="M89" s="20">
+      <c r="M89" s="19">
         <v>5.5</v>
       </c>
       <c r="N89" s="5">
@@ -5608,20 +5626,20 @@
       <c r="B90" s="5">
         <v>108</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="26" t="s">
         <v>161</v>
       </c>
       <c r="D90" s="5">
         <v>2022</v>
       </c>
-      <c r="E90" s="14">
+      <c r="E90" s="13">
         <v>100000000</v>
       </c>
-      <c r="F90" s="17">
+      <c r="F90" s="16">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="G90" s="14" t="s">
+      <c r="G90" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H90" s="5" t="s">
@@ -5636,10 +5654,10 @@
       <c r="K90" s="5">
         <v>113</v>
       </c>
-      <c r="L90" s="20">
+      <c r="L90" s="19">
         <v>7</v>
       </c>
-      <c r="M90" s="20">
+      <c r="M90" s="19">
         <v>6.2</v>
       </c>
       <c r="N90" s="5">
@@ -5655,20 +5673,20 @@
       <c r="B91" s="5">
         <v>109</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="26" t="s">
         <v>162</v>
       </c>
       <c r="D91" s="5">
         <v>2022</v>
       </c>
-      <c r="E91" s="14">
+      <c r="E91" s="13">
         <v>85000000</v>
       </c>
-      <c r="F91" s="17">
+      <c r="F91" s="16">
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
-      <c r="G91" s="14" t="s">
+      <c r="G91" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H91" s="5" t="s">
@@ -5683,10 +5701,10 @@
       <c r="K91" s="5">
         <v>159</v>
       </c>
-      <c r="L91" s="20">
+      <c r="L91" s="19">
         <v>8.1</v>
       </c>
-      <c r="M91" s="20">
+      <c r="M91" s="19">
         <v>7.4</v>
       </c>
       <c r="N91" s="5">
@@ -5702,20 +5720,20 @@
       <c r="B92" s="5">
         <v>110</v>
       </c>
-      <c r="C92" s="8" t="s">
+      <c r="C92" s="26" t="s">
         <v>163</v>
       </c>
       <c r="D92" s="5">
         <v>2022</v>
       </c>
-      <c r="E92" s="14">
+      <c r="E92" s="13">
         <v>150000000</v>
       </c>
-      <c r="F92" s="17">
+      <c r="F92" s="16">
         <f t="shared" si="4"/>
         <v>150</v>
       </c>
-      <c r="G92" s="14" t="s">
+      <c r="G92" s="13" t="s">
         <v>262</v>
       </c>
       <c r="H92" s="5" t="s">
@@ -5730,10 +5748,10 @@
       <c r="K92" s="5">
         <v>105</v>
       </c>
-      <c r="L92" s="20">
+      <c r="L92" s="19">
         <v>5.2</v>
       </c>
-      <c r="M92" s="20">
+      <c r="M92" s="19">
         <v>5.5</v>
       </c>
       <c r="N92" s="5">
@@ -5749,20 +5767,20 @@
       <c r="B93" s="5">
         <v>111</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="C93" s="26" t="s">
         <v>247</v>
       </c>
       <c r="D93" s="5">
         <v>2022</v>
       </c>
-      <c r="E93" s="14">
+      <c r="E93" s="13">
         <v>250000000</v>
       </c>
-      <c r="F93" s="17">
+      <c r="F93" s="16">
         <f t="shared" si="4"/>
         <v>250</v>
       </c>
-      <c r="G93" s="14" t="s">
+      <c r="G93" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H93" s="5" t="s">
@@ -5775,10 +5793,10 @@
       <c r="K93" s="5">
         <v>118</v>
       </c>
-      <c r="L93" s="20">
+      <c r="L93" s="19">
         <v>6.5</v>
       </c>
-      <c r="M93" s="20">
+      <c r="M93" s="19">
         <v>6</v>
       </c>
       <c r="N93" s="5">
@@ -5794,20 +5812,20 @@
       <c r="B94" s="5">
         <v>113</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="C94" s="26" t="s">
         <v>164</v>
       </c>
       <c r="D94" s="5">
         <v>2022</v>
       </c>
-      <c r="E94" s="14">
+      <c r="E94" s="13">
         <v>0</v>
       </c>
-      <c r="F94" s="17">
+      <c r="F94" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G94" s="14" t="s">
+      <c r="G94" s="13" t="s">
         <v>262</v>
       </c>
       <c r="H94" s="5" t="s">
@@ -5822,10 +5840,10 @@
       <c r="K94" s="5">
         <v>109</v>
       </c>
-      <c r="L94" s="20">
+      <c r="L94" s="19">
         <v>5</v>
       </c>
-      <c r="M94" s="20">
+      <c r="M94" s="19">
         <v>5</v>
       </c>
       <c r="N94" s="5">
@@ -5841,20 +5859,20 @@
       <c r="B95" s="5">
         <v>114</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="C95" s="26" t="s">
         <v>165</v>
       </c>
       <c r="D95" s="5">
         <v>2022</v>
       </c>
-      <c r="E95" s="14">
+      <c r="E95" s="13">
         <v>0</v>
       </c>
-      <c r="F95" s="17">
+      <c r="F95" s="16">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G95" s="14" t="s">
+      <c r="G95" s="13" t="s">
         <v>267</v>
       </c>
       <c r="H95" s="5" t="s">
@@ -5869,10 +5887,10 @@
       <c r="K95" s="5">
         <v>52</v>
       </c>
-      <c r="L95" s="20">
+      <c r="L95" s="19">
         <v>7.2</v>
       </c>
-      <c r="M95" s="20">
+      <c r="M95" s="19">
         <v>6.5</v>
       </c>
       <c r="N95" s="5">
@@ -5888,20 +5906,20 @@
       <c r="B96" s="5">
         <v>115</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="26" t="s">
         <v>166</v>
       </c>
       <c r="D96" s="5">
         <v>2022</v>
       </c>
-      <c r="E96" s="14">
+      <c r="E96" s="13">
         <v>14000000</v>
       </c>
-      <c r="F96" s="17">
+      <c r="F96" s="16">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
-      <c r="G96" s="14" t="s">
+      <c r="G96" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H96" s="5" t="s">
@@ -5916,10 +5934,10 @@
       <c r="K96" s="5">
         <v>121</v>
       </c>
-      <c r="L96" s="20">
+      <c r="L96" s="19">
         <v>5</v>
       </c>
-      <c r="M96" s="20">
+      <c r="M96" s="19">
         <v>5.5</v>
       </c>
       <c r="N96" s="5">
@@ -5935,20 +5953,20 @@
       <c r="B97" s="5">
         <v>116</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="26" t="s">
         <v>167</v>
       </c>
       <c r="D97" s="5">
         <v>2022</v>
       </c>
-      <c r="E97" s="14">
+      <c r="E97" s="13">
         <v>20000000</v>
       </c>
-      <c r="F97" s="17">
+      <c r="F97" s="16">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
-      <c r="G97" s="14" t="s">
+      <c r="G97" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H97" s="5" t="s">
@@ -5963,10 +5981,10 @@
       <c r="K97" s="5">
         <v>111</v>
       </c>
-      <c r="L97" s="20">
+      <c r="L97" s="19">
         <v>7.2</v>
       </c>
-      <c r="M97" s="20">
+      <c r="M97" s="19">
         <v>7.5</v>
       </c>
       <c r="N97" s="5">
@@ -5982,20 +6000,20 @@
       <c r="B98" s="5">
         <v>117</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="26" t="s">
         <v>168</v>
       </c>
       <c r="D98" s="5">
         <v>2007</v>
       </c>
-      <c r="E98" s="14">
+      <c r="E98" s="13">
         <v>100000000</v>
       </c>
-      <c r="F98" s="17">
+      <c r="F98" s="16">
         <f t="shared" ref="F98:F129" si="6">E98/1000000</f>
         <v>100</v>
       </c>
-      <c r="G98" s="14" t="s">
+      <c r="G98" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H98" s="5" t="s">
@@ -6010,10 +6028,10 @@
       <c r="K98" s="5">
         <v>157</v>
       </c>
-      <c r="L98" s="20">
+      <c r="L98" s="19">
         <v>9.1</v>
       </c>
-      <c r="M98" s="20">
+      <c r="M98" s="19">
         <v>8.5</v>
       </c>
       <c r="N98" s="5">
@@ -6029,20 +6047,20 @@
       <c r="B99" s="5">
         <v>118</v>
       </c>
-      <c r="C99" s="8" t="s">
+      <c r="C99" s="26" t="s">
         <v>169</v>
       </c>
       <c r="D99" s="5">
         <v>2022</v>
       </c>
-      <c r="E99" s="14">
+      <c r="E99" s="13">
         <v>8000000</v>
       </c>
-      <c r="F99" s="17">
+      <c r="F99" s="16">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="G99" s="14" t="s">
+      <c r="G99" s="13" t="s">
         <v>267</v>
       </c>
       <c r="H99" s="5" t="s">
@@ -6057,10 +6075,10 @@
       <c r="K99" s="5">
         <v>108</v>
       </c>
-      <c r="L99" s="20">
+      <c r="L99" s="19">
         <v>7</v>
       </c>
-      <c r="M99" s="20">
+      <c r="M99" s="19">
         <v>6.7</v>
       </c>
       <c r="N99" s="5">
@@ -6076,20 +6094,20 @@
       <c r="B100" s="5">
         <v>119</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="26" t="s">
         <v>248</v>
       </c>
       <c r="D100" s="5">
         <v>2022</v>
       </c>
-      <c r="E100" s="14">
+      <c r="E100" s="13">
         <v>250000000</v>
       </c>
-      <c r="F100" s="17">
+      <c r="F100" s="16">
         <f t="shared" si="6"/>
         <v>250</v>
       </c>
-      <c r="G100" s="14" t="s">
+      <c r="G100" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H100" s="5" t="s">
@@ -6102,10 +6120,10 @@
       <c r="K100" s="5">
         <v>161</v>
       </c>
-      <c r="L100" s="20">
+      <c r="L100" s="19">
         <v>6.8</v>
       </c>
-      <c r="M100" s="20">
+      <c r="M100" s="19">
         <v>6.8</v>
       </c>
       <c r="N100" s="5">
@@ -6121,20 +6139,20 @@
       <c r="B101" s="5">
         <v>120</v>
       </c>
-      <c r="C101" s="8" t="s">
+      <c r="C101" s="26" t="s">
         <v>170</v>
       </c>
       <c r="D101" s="5">
         <v>2022</v>
       </c>
-      <c r="E101" s="14">
+      <c r="E101" s="13">
         <v>17000000</v>
       </c>
-      <c r="F101" s="17">
+      <c r="F101" s="16">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="G101" s="14" t="s">
+      <c r="G101" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H101" s="5" t="s">
@@ -6149,10 +6167,10 @@
       <c r="K101" s="5">
         <v>115</v>
       </c>
-      <c r="L101" s="20">
+      <c r="L101" s="19">
         <v>7.4</v>
       </c>
-      <c r="M101" s="20">
+      <c r="M101" s="19">
         <v>7.7</v>
       </c>
       <c r="N101" s="5">
@@ -6168,20 +6186,20 @@
       <c r="B102" s="5">
         <v>121</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="C102" s="26" t="s">
         <v>171</v>
       </c>
       <c r="D102" s="5">
         <v>1995</v>
       </c>
-      <c r="E102" s="14">
+      <c r="E102" s="13">
         <v>20000000</v>
       </c>
-      <c r="F102" s="17">
+      <c r="F102" s="16">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="G102" s="14" t="s">
+      <c r="G102" s="13" t="s">
         <v>262</v>
       </c>
       <c r="H102" s="5" t="s">
@@ -6196,10 +6214,10 @@
       <c r="K102" s="5">
         <v>95</v>
       </c>
-      <c r="L102" s="20">
+      <c r="L102" s="19">
         <v>7.8</v>
       </c>
-      <c r="M102" s="20">
+      <c r="M102" s="19">
         <v>7</v>
       </c>
       <c r="N102" s="5">
@@ -6215,20 +6233,20 @@
       <c r="B103" s="5">
         <v>122</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="C103" s="26" t="s">
         <v>172</v>
       </c>
       <c r="D103" s="5">
         <v>2022</v>
       </c>
-      <c r="E103" s="14">
+      <c r="E103" s="13">
         <v>0</v>
       </c>
-      <c r="F103" s="17">
+      <c r="F103" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G103" s="14" t="s">
+      <c r="G103" s="13" t="s">
         <v>262</v>
       </c>
       <c r="H103" s="5" t="s">
@@ -6243,10 +6261,10 @@
       <c r="K103" s="5">
         <v>98</v>
       </c>
-      <c r="L103" s="20">
+      <c r="L103" s="19">
         <v>8.1</v>
       </c>
-      <c r="M103" s="20">
+      <c r="M103" s="19">
         <v>7.5</v>
       </c>
       <c r="N103" s="5">
@@ -6262,20 +6280,20 @@
       <c r="B104" s="5">
         <v>123</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="C104" s="26" t="s">
         <v>173</v>
       </c>
       <c r="D104" s="5">
         <v>2022</v>
       </c>
-      <c r="E104" s="14">
+      <c r="E104" s="13">
         <v>7000000</v>
       </c>
-      <c r="F104" s="17">
+      <c r="F104" s="16">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="G104" s="14" t="s">
+      <c r="G104" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H104" s="5" t="s">
@@ -6290,10 +6308,10 @@
       <c r="K104" s="5">
         <v>100</v>
       </c>
-      <c r="L104" s="20">
+      <c r="L104" s="19">
         <v>6.6</v>
       </c>
-      <c r="M104" s="20">
+      <c r="M104" s="19">
         <v>5.5</v>
       </c>
       <c r="N104" s="5">
@@ -6309,20 +6327,20 @@
       <c r="B105" s="5">
         <v>124</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="C105" s="26" t="s">
         <v>174</v>
       </c>
       <c r="D105" s="5">
         <v>2022</v>
       </c>
-      <c r="E105" s="14">
+      <c r="E105" s="13">
         <v>350000000</v>
       </c>
-      <c r="F105" s="17">
+      <c r="F105" s="16">
         <f t="shared" si="6"/>
         <v>350</v>
       </c>
-      <c r="G105" s="14" t="s">
+      <c r="G105" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H105" s="5" t="s">
@@ -6337,10 +6355,10 @@
       <c r="K105" s="5">
         <v>192</v>
       </c>
-      <c r="L105" s="20">
+      <c r="L105" s="19">
         <v>6.7</v>
       </c>
-      <c r="M105" s="20">
+      <c r="M105" s="19">
         <v>8.1999999999999993</v>
       </c>
       <c r="N105" s="5">
@@ -6356,20 +6374,20 @@
       <c r="B106" s="5">
         <v>125</v>
       </c>
-      <c r="C106" s="8" t="s">
+      <c r="C106" s="26" t="s">
         <v>175</v>
       </c>
       <c r="D106" s="5">
         <v>2022</v>
       </c>
-      <c r="E106" s="14">
+      <c r="E106" s="13">
         <v>195000000</v>
       </c>
-      <c r="F106" s="17">
+      <c r="F106" s="16">
         <f t="shared" si="6"/>
         <v>195</v>
       </c>
-      <c r="G106" s="14" t="s">
+      <c r="G106" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H106" s="5" t="s">
@@ -6384,10 +6402,10 @@
       <c r="K106" s="5">
         <v>125</v>
       </c>
-      <c r="L106" s="20">
+      <c r="L106" s="19">
         <v>6.5</v>
       </c>
-      <c r="M106" s="20">
+      <c r="M106" s="19">
         <v>6.5</v>
       </c>
       <c r="N106" s="5">
@@ -6403,20 +6421,20 @@
       <c r="B107" s="5">
         <v>126</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="C107" s="26" t="s">
         <v>176</v>
       </c>
       <c r="D107" s="5">
         <v>2006</v>
       </c>
-      <c r="E107" s="14">
+      <c r="E107" s="13">
         <v>90000000</v>
       </c>
-      <c r="F107" s="17">
+      <c r="F107" s="16">
         <f t="shared" si="6"/>
         <v>90</v>
       </c>
-      <c r="G107" s="14" t="s">
+      <c r="G107" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H107" s="5" t="s">
@@ -6431,10 +6449,10 @@
       <c r="K107" s="5">
         <v>151</v>
       </c>
-      <c r="L107" s="20">
+      <c r="L107" s="19">
         <v>9.3000000000000007</v>
       </c>
-      <c r="M107" s="20">
+      <c r="M107" s="19">
         <v>9.6</v>
       </c>
       <c r="N107" s="5">
@@ -6450,20 +6468,20 @@
       <c r="B108" s="5">
         <v>127</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="C108" s="26" t="s">
         <v>177</v>
       </c>
       <c r="D108" s="5">
         <v>2022</v>
       </c>
-      <c r="E108" s="14">
+      <c r="E108" s="13">
         <v>72000000</v>
       </c>
-      <c r="F108" s="17">
+      <c r="F108" s="16">
         <f t="shared" si="6"/>
         <v>72</v>
       </c>
-      <c r="G108" s="14" t="s">
+      <c r="G108" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H108" s="5" t="s">
@@ -6478,10 +6496,10 @@
       <c r="K108" s="5">
         <v>128</v>
       </c>
-      <c r="L108" s="20">
+      <c r="L108" s="19">
         <v>7.1</v>
       </c>
-      <c r="M108" s="20">
+      <c r="M108" s="19">
         <v>6.7</v>
       </c>
       <c r="N108" s="5">
@@ -6497,20 +6515,20 @@
       <c r="B109" s="5">
         <v>128</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C109" s="26" t="s">
         <v>178</v>
       </c>
       <c r="D109" s="5">
         <v>2002</v>
       </c>
-      <c r="E109" s="14">
+      <c r="E109" s="13">
         <v>72000000</v>
       </c>
-      <c r="F109" s="17">
+      <c r="F109" s="16">
         <f t="shared" si="6"/>
         <v>72</v>
       </c>
-      <c r="G109" s="14" t="s">
+      <c r="G109" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H109" s="5" t="s">
@@ -6525,10 +6543,10 @@
       <c r="K109" s="5">
         <v>106</v>
       </c>
-      <c r="L109" s="20">
+      <c r="L109" s="19">
         <v>8.1</v>
       </c>
-      <c r="M109" s="20">
+      <c r="M109" s="19">
         <v>7.8</v>
       </c>
       <c r="N109" s="5">
@@ -6544,20 +6562,20 @@
       <c r="B110" s="5">
         <v>130</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C110" s="26" t="s">
         <v>179</v>
       </c>
       <c r="D110" s="5">
         <v>1997</v>
       </c>
-      <c r="E110" s="14">
+      <c r="E110" s="13">
         <v>60000000</v>
       </c>
-      <c r="F110" s="17">
+      <c r="F110" s="16">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="G110" s="14" t="s">
+      <c r="G110" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H110" s="5" t="s">
@@ -6572,10 +6590,10 @@
       <c r="K110" s="5">
         <v>96</v>
       </c>
-      <c r="L110" s="20">
+      <c r="L110" s="19">
         <v>6.3</v>
       </c>
-      <c r="M110" s="20">
+      <c r="M110" s="19">
         <v>7</v>
       </c>
       <c r="N110" s="5">
@@ -6591,20 +6609,20 @@
       <c r="B111" s="5">
         <v>131</v>
       </c>
-      <c r="C111" s="8" t="s">
+      <c r="C111" s="26" t="s">
         <v>268</v>
       </c>
       <c r="D111" s="5">
         <v>2023</v>
       </c>
-      <c r="E111" s="14">
+      <c r="E111" s="13">
         <v>20000000</v>
       </c>
-      <c r="F111" s="17">
+      <c r="F111" s="16">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="G111" s="14" t="s">
+      <c r="G111" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H111" s="5" t="s">
@@ -6619,10 +6637,10 @@
       <c r="K111" s="5">
         <v>100</v>
       </c>
-      <c r="L111" s="20">
+      <c r="L111" s="19">
         <v>8.8000000000000007</v>
       </c>
-      <c r="M111" s="20">
+      <c r="M111" s="19">
         <v>7.2</v>
       </c>
       <c r="N111" s="5">
@@ -6638,20 +6656,20 @@
       <c r="B112" s="5">
         <v>132</v>
       </c>
-      <c r="C112" s="8" t="s">
+      <c r="C112" s="26" t="s">
         <v>180</v>
       </c>
       <c r="D112" s="5">
         <v>1996</v>
       </c>
-      <c r="E112" s="14">
+      <c r="E112" s="13">
         <v>70000000</v>
       </c>
-      <c r="F112" s="17">
+      <c r="F112" s="16">
         <f t="shared" si="6"/>
         <v>70</v>
       </c>
-      <c r="G112" s="14" t="s">
+      <c r="G112" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H112" s="5" t="s">
@@ -6666,10 +6684,10 @@
       <c r="K112" s="5">
         <v>106</v>
       </c>
-      <c r="L112" s="20">
+      <c r="L112" s="19">
         <v>4.3</v>
       </c>
-      <c r="M112" s="20">
+      <c r="M112" s="19">
         <v>5.5</v>
       </c>
       <c r="N112" s="5">
@@ -6685,20 +6703,20 @@
       <c r="B113" s="5">
         <v>133</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="C113" s="26" t="s">
         <v>250</v>
       </c>
       <c r="D113" s="5">
         <v>2023</v>
       </c>
-      <c r="E113" s="14">
+      <c r="E113" s="13">
         <v>200000000</v>
       </c>
-      <c r="F113" s="17">
+      <c r="F113" s="16">
         <f t="shared" si="6"/>
         <v>200</v>
       </c>
-      <c r="G113" s="14" t="s">
+      <c r="G113" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H113" s="5" t="s">
@@ -6711,10 +6729,10 @@
       <c r="K113" s="5">
         <v>124</v>
       </c>
-      <c r="L113" s="20">
+      <c r="L113" s="19">
         <v>6.5</v>
       </c>
-      <c r="M113" s="20">
+      <c r="M113" s="19">
         <v>7</v>
       </c>
       <c r="N113" s="5">
@@ -6730,20 +6748,20 @@
       <c r="B114" s="5">
         <v>134</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="C114" s="26" t="s">
         <v>181</v>
       </c>
       <c r="D114" s="5">
         <v>1978</v>
       </c>
-      <c r="E114" s="14">
+      <c r="E114" s="13">
         <v>55000000</v>
       </c>
-      <c r="F114" s="17">
+      <c r="F114" s="16">
         <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="G114" s="14" t="s">
+      <c r="G114" s="13" t="s">
         <v>262</v>
       </c>
       <c r="H114" s="5" t="s">
@@ -6756,10 +6774,10 @@
       <c r="K114" s="5">
         <v>143</v>
       </c>
-      <c r="L114" s="20">
+      <c r="L114" s="19">
         <v>6.5</v>
       </c>
-      <c r="M114" s="20">
+      <c r="M114" s="19">
         <v>7</v>
       </c>
       <c r="N114" s="5">
@@ -6775,20 +6793,20 @@
       <c r="B115" s="5">
         <v>135</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="C115" s="26" t="s">
         <v>182</v>
       </c>
       <c r="D115" s="5">
         <v>1985</v>
       </c>
-      <c r="E115" s="14">
+      <c r="E115" s="13">
         <v>10000000</v>
       </c>
-      <c r="F115" s="17">
+      <c r="F115" s="16">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="G115" s="14" t="s">
+      <c r="G115" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H115" s="5" t="s">
@@ -6803,10 +6821,10 @@
       <c r="K115" s="5">
         <v>109</v>
       </c>
-      <c r="L115" s="20">
+      <c r="L115" s="19">
         <v>8.5</v>
       </c>
-      <c r="M115" s="20">
+      <c r="M115" s="19">
         <v>8.1999999999999993</v>
       </c>
       <c r="N115" s="5">
@@ -6822,20 +6840,20 @@
       <c r="B116" s="5">
         <v>136</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="C116" s="26" t="s">
         <v>183</v>
       </c>
       <c r="D116" s="5">
         <v>2023</v>
       </c>
-      <c r="E116" s="14">
+      <c r="E116" s="13">
         <v>35000000</v>
       </c>
-      <c r="F116" s="17">
+      <c r="F116" s="16">
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="G116" s="14" t="s">
+      <c r="G116" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H116" s="5" t="s">
@@ -6850,10 +6868,10 @@
       <c r="K116" s="5">
         <v>122</v>
       </c>
-      <c r="L116" s="20">
+      <c r="L116" s="19">
         <v>8.1</v>
       </c>
-      <c r="M116" s="20">
+      <c r="M116" s="19">
         <v>7.8</v>
       </c>
       <c r="N116" s="5">
@@ -6869,20 +6887,20 @@
       <c r="B117" s="5">
         <v>137</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="C117" s="26" t="s">
         <v>184</v>
       </c>
       <c r="D117" s="5">
         <v>1989</v>
       </c>
-      <c r="E117" s="14">
+      <c r="E117" s="13">
         <v>17000000</v>
       </c>
-      <c r="F117" s="17">
+      <c r="F117" s="16">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="G117" s="14" t="s">
+      <c r="G117" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H117" s="5" t="s">
@@ -6897,10 +6915,10 @@
       <c r="K117" s="5">
         <v>114</v>
       </c>
-      <c r="L117" s="20">
+      <c r="L117" s="19">
         <v>6.2</v>
       </c>
-      <c r="M117" s="20">
+      <c r="M117" s="19">
         <v>6.7</v>
       </c>
       <c r="N117" s="5">
@@ -6916,20 +6934,20 @@
       <c r="B118" s="5">
         <v>138</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="C118" s="26" t="s">
         <v>185</v>
       </c>
       <c r="D118" s="5">
         <v>1991</v>
       </c>
-      <c r="E118" s="14">
+      <c r="E118" s="13">
         <v>24000000</v>
       </c>
-      <c r="F118" s="17">
+      <c r="F118" s="16">
         <f t="shared" si="6"/>
         <v>24</v>
       </c>
-      <c r="G118" s="14" t="s">
+      <c r="G118" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H118" s="5" t="s">
@@ -6944,10 +6962,10 @@
       <c r="K118" s="5">
         <v>122</v>
       </c>
-      <c r="L118" s="20">
+      <c r="L118" s="19">
         <v>7.6</v>
       </c>
-      <c r="M118" s="20">
+      <c r="M118" s="19">
         <v>7.5</v>
       </c>
       <c r="N118" s="5">
@@ -6963,20 +6981,20 @@
       <c r="B119" s="5">
         <v>140</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="C119" s="26" t="s">
         <v>187</v>
       </c>
       <c r="D119" s="5">
         <v>2023</v>
       </c>
-      <c r="E119" s="14">
+      <c r="E119" s="13">
         <v>100000000</v>
       </c>
-      <c r="F119" s="17">
+      <c r="F119" s="16">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="G119" s="14" t="s">
+      <c r="G119" s="13" t="s">
         <v>262</v>
       </c>
       <c r="H119" s="5" t="s">
@@ -6991,10 +7009,10 @@
       <c r="K119" s="5">
         <v>92</v>
       </c>
-      <c r="L119" s="20">
+      <c r="L119" s="19">
         <v>8.1</v>
       </c>
-      <c r="M119" s="20">
+      <c r="M119" s="19">
         <v>6.5</v>
       </c>
       <c r="N119" s="5">
@@ -7010,20 +7028,20 @@
       <c r="B120" s="5">
         <v>141</v>
       </c>
-      <c r="C120" s="8" t="s">
+      <c r="C120" s="26" t="s">
         <v>188</v>
       </c>
       <c r="D120" s="5">
         <v>2022</v>
       </c>
-      <c r="E120" s="14">
+      <c r="E120" s="13">
         <v>22000000</v>
       </c>
-      <c r="F120" s="17">
+      <c r="F120" s="16">
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-      <c r="G120" s="14" t="s">
+      <c r="G120" s="13" t="s">
         <v>269</v>
       </c>
       <c r="H120" s="5" t="s">
@@ -7038,10 +7056,10 @@
       <c r="K120" s="5">
         <v>167</v>
       </c>
-      <c r="L120" s="20">
-        <v>4</v>
-      </c>
-      <c r="M120" s="20">
+      <c r="L120" s="19">
+        <v>4</v>
+      </c>
+      <c r="M120" s="19">
         <v>4.5</v>
       </c>
       <c r="N120" s="5">
@@ -7057,20 +7075,20 @@
       <c r="B121" s="5">
         <v>142</v>
       </c>
-      <c r="C121" s="8" t="s">
+      <c r="C121" s="26" t="s">
         <v>189</v>
       </c>
       <c r="D121" s="5">
         <v>2023</v>
       </c>
-      <c r="E121" s="14">
+      <c r="E121" s="13">
         <v>35000000</v>
       </c>
-      <c r="F121" s="17">
+      <c r="F121" s="16">
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="G121" s="14" t="s">
+      <c r="G121" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H121" s="5" t="s">
@@ -7085,10 +7103,10 @@
       <c r="K121" s="5">
         <v>95</v>
       </c>
-      <c r="L121" s="20">
+      <c r="L121" s="19">
         <v>5</v>
       </c>
-      <c r="M121" s="20">
+      <c r="M121" s="19">
         <v>5.7</v>
       </c>
       <c r="N121" s="5">
@@ -7104,20 +7122,20 @@
       <c r="B122" s="5">
         <v>143</v>
       </c>
-      <c r="C122" s="8" t="s">
+      <c r="C122" s="26" t="s">
         <v>190</v>
       </c>
       <c r="D122" s="5">
         <v>2013</v>
       </c>
-      <c r="E122" s="14">
+      <c r="E122" s="13">
         <v>17000000</v>
       </c>
-      <c r="F122" s="17">
+      <c r="F122" s="16">
         <f t="shared" si="6"/>
         <v>17</v>
       </c>
-      <c r="G122" s="14" t="s">
+      <c r="G122" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H122" s="5" t="s">
@@ -7130,10 +7148,10 @@
       <c r="K122" s="5">
         <v>91</v>
       </c>
-      <c r="L122" s="20">
+      <c r="L122" s="19">
         <v>8.1</v>
       </c>
-      <c r="M122" s="20">
+      <c r="M122" s="19">
         <v>7.3</v>
       </c>
       <c r="N122" s="5">
@@ -7149,20 +7167,20 @@
       <c r="B123" s="5">
         <v>144</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="C123" s="26" t="s">
         <v>191</v>
       </c>
       <c r="D123" s="5">
         <v>2023</v>
       </c>
-      <c r="E123" s="14">
+      <c r="E123" s="13">
         <v>250000000</v>
       </c>
-      <c r="F123" s="17">
+      <c r="F123" s="16">
         <f t="shared" si="6"/>
         <v>250</v>
       </c>
-      <c r="G123" s="14" t="s">
+      <c r="G123" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H123" s="5" t="s">
@@ -7177,10 +7195,10 @@
       <c r="K123" s="5">
         <v>150</v>
       </c>
-      <c r="L123" s="20">
+      <c r="L123" s="19">
         <v>8.1999999999999993</v>
       </c>
-      <c r="M123" s="20">
+      <c r="M123" s="19">
         <v>7.8</v>
       </c>
       <c r="N123" s="5">
@@ -7196,20 +7214,20 @@
       <c r="B124" s="5">
         <v>145</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="C124" s="26" t="s">
         <v>192</v>
       </c>
       <c r="D124" s="5">
         <v>1987</v>
       </c>
-      <c r="E124" s="14">
+      <c r="E124" s="13">
         <v>16000000</v>
       </c>
-      <c r="F124" s="17">
+      <c r="F124" s="16">
         <f t="shared" si="6"/>
         <v>16</v>
       </c>
-      <c r="G124" s="14" t="s">
+      <c r="G124" s="13" t="s">
         <v>262</v>
       </c>
       <c r="H124" s="5" t="s">
@@ -7224,10 +7242,10 @@
       <c r="K124" s="5">
         <v>98</v>
       </c>
-      <c r="L124" s="20">
+      <c r="L124" s="19">
         <v>7.6</v>
       </c>
-      <c r="M124" s="20">
+      <c r="M124" s="19">
         <v>8.5</v>
       </c>
       <c r="N124" s="5">
@@ -7243,20 +7261,20 @@
       <c r="B125" s="5">
         <v>146</v>
       </c>
-      <c r="C125" s="8" t="s">
+      <c r="C125" s="26" t="s">
         <v>193</v>
       </c>
       <c r="D125" s="5">
         <v>1992</v>
       </c>
-      <c r="E125" s="14">
+      <c r="E125" s="13">
         <v>35000000</v>
       </c>
-      <c r="F125" s="17">
+      <c r="F125" s="16">
         <f t="shared" si="6"/>
         <v>35</v>
       </c>
-      <c r="G125" s="14" t="s">
+      <c r="G125" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H125" s="5" t="s">
@@ -7271,10 +7289,10 @@
       <c r="K125" s="5">
         <v>103</v>
       </c>
-      <c r="L125" s="20">
+      <c r="L125" s="19">
         <v>8.1</v>
       </c>
-      <c r="M125" s="20">
+      <c r="M125" s="19">
         <v>7.5</v>
       </c>
       <c r="N125" s="5">
@@ -7290,20 +7308,20 @@
       <c r="B126" s="5">
         <v>147</v>
       </c>
-      <c r="C126" s="8" t="s">
+      <c r="C126" s="26" t="s">
         <v>194</v>
       </c>
       <c r="D126" s="5">
         <v>1998</v>
       </c>
-      <c r="E126" s="14">
+      <c r="E126" s="13">
         <v>15000000</v>
       </c>
-      <c r="F126" s="17">
+      <c r="F126" s="16">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="G126" s="14" t="s">
+      <c r="G126" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H126" s="5" t="s">
@@ -7318,10 +7336,10 @@
       <c r="K126" s="5">
         <v>104</v>
       </c>
-      <c r="L126" s="20">
+      <c r="L126" s="19">
         <v>7.6</v>
       </c>
-      <c r="M126" s="20">
+      <c r="M126" s="19">
         <v>7.2</v>
       </c>
       <c r="N126" s="5">
@@ -7337,20 +7355,20 @@
       <c r="B127" s="5">
         <v>148</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="C127" s="26" t="s">
         <v>195</v>
       </c>
       <c r="D127" s="5">
         <v>2012</v>
       </c>
-      <c r="E127" s="14">
+      <c r="E127" s="13">
         <v>100000000</v>
       </c>
-      <c r="F127" s="17">
+      <c r="F127" s="16">
         <f t="shared" si="6"/>
         <v>100</v>
       </c>
-      <c r="G127" s="14" t="s">
+      <c r="G127" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H127" s="5" t="s">
@@ -7365,10 +7383,10 @@
       <c r="K127" s="5">
         <v>165</v>
       </c>
-      <c r="L127" s="20">
+      <c r="L127" s="19">
         <v>10</v>
       </c>
-      <c r="M127" s="20">
+      <c r="M127" s="19">
         <v>10</v>
       </c>
       <c r="N127" s="5">
@@ -7384,20 +7402,20 @@
       <c r="B128" s="5">
         <v>149</v>
       </c>
-      <c r="C128" s="8" t="s">
+      <c r="C128" s="26" t="s">
         <v>196</v>
       </c>
       <c r="D128" s="5">
         <v>2023</v>
       </c>
-      <c r="E128" s="14">
+      <c r="E128" s="13">
         <v>0</v>
       </c>
-      <c r="F128" s="17">
+      <c r="F128" s="16">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="G128" s="14" t="s">
+      <c r="G128" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H128" s="5" t="s">
@@ -7412,10 +7430,10 @@
       <c r="K128" s="5">
         <v>99</v>
       </c>
-      <c r="L128" s="20">
+      <c r="L128" s="19">
         <v>6.3</v>
       </c>
-      <c r="M128" s="20">
+      <c r="M128" s="19">
         <v>7.2</v>
       </c>
       <c r="N128" s="5">
@@ -7433,20 +7451,20 @@
       <c r="B129" s="5">
         <v>150</v>
       </c>
-      <c r="C129" s="8" t="s">
+      <c r="C129" s="26" t="s">
         <v>252</v>
       </c>
       <c r="D129" s="5">
         <v>2023</v>
       </c>
-      <c r="E129" s="14">
+      <c r="E129" s="13">
         <v>200000000</v>
       </c>
-      <c r="F129" s="17">
+      <c r="F129" s="16">
         <f t="shared" si="6"/>
         <v>200</v>
       </c>
-      <c r="G129" s="14" t="s">
+      <c r="G129" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H129" s="5" t="s">
@@ -7461,10 +7479,10 @@
       <c r="K129" s="5">
         <v>144</v>
       </c>
-      <c r="L129" s="20">
+      <c r="L129" s="19">
         <v>7.9</v>
       </c>
-      <c r="M129" s="20">
+      <c r="M129" s="19">
         <v>7</v>
       </c>
       <c r="N129" s="5">
@@ -7480,20 +7498,20 @@
       <c r="B130" s="5">
         <v>151</v>
       </c>
-      <c r="C130" s="8" t="s">
+      <c r="C130" s="26" t="s">
         <v>198</v>
       </c>
       <c r="D130" s="5">
         <v>1984</v>
       </c>
-      <c r="E130" s="14">
+      <c r="E130" s="13">
         <v>28000000</v>
       </c>
-      <c r="F130" s="17">
+      <c r="F130" s="16">
         <f t="shared" ref="F130:F161" si="8">E130/1000000</f>
         <v>28</v>
       </c>
-      <c r="G130" s="14" t="s">
+      <c r="G130" s="13" t="s">
         <v>262</v>
       </c>
       <c r="H130" s="5" t="s">
@@ -7508,10 +7526,10 @@
       <c r="K130" s="5">
         <v>118</v>
       </c>
-      <c r="L130" s="20">
+      <c r="L130" s="19">
         <v>7.8</v>
       </c>
-      <c r="M130" s="20">
+      <c r="M130" s="19">
         <v>9.1</v>
       </c>
       <c r="N130" s="5">
@@ -7527,20 +7545,20 @@
       <c r="B131" s="5">
         <v>152</v>
       </c>
-      <c r="C131" s="8" t="s">
+      <c r="C131" s="26" t="s">
         <v>199</v>
       </c>
       <c r="D131" s="5">
         <v>2014</v>
       </c>
-      <c r="E131" s="14">
+      <c r="E131" s="13">
         <v>125000000</v>
       </c>
-      <c r="F131" s="17">
+      <c r="F131" s="16">
         <f t="shared" si="8"/>
         <v>125</v>
       </c>
-      <c r="G131" s="14" t="s">
+      <c r="G131" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H131" s="5" t="s">
@@ -7555,10 +7573,10 @@
       <c r="K131" s="5">
         <v>101</v>
       </c>
-      <c r="L131" s="20">
+      <c r="L131" s="19">
         <v>6.6</v>
       </c>
-      <c r="M131" s="20">
+      <c r="M131" s="19">
         <v>5.2</v>
       </c>
       <c r="N131" s="5">
@@ -7574,20 +7592,20 @@
       <c r="B132" s="5">
         <v>153</v>
       </c>
-      <c r="C132" s="8" t="s">
+      <c r="C132" s="26" t="s">
         <v>201</v>
       </c>
       <c r="D132" s="5">
         <v>1987</v>
       </c>
-      <c r="E132" s="14">
+      <c r="E132" s="13">
         <v>25000000</v>
       </c>
-      <c r="F132" s="17">
+      <c r="F132" s="16">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="G132" s="14" t="s">
+      <c r="G132" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H132" s="5" t="s">
@@ -7602,10 +7620,10 @@
       <c r="K132" s="5">
         <v>119</v>
       </c>
-      <c r="L132" s="20">
+      <c r="L132" s="19">
         <v>7.1</v>
       </c>
-      <c r="M132" s="20">
+      <c r="M132" s="19">
         <v>7.8</v>
       </c>
       <c r="N132" s="5">
@@ -7621,20 +7639,20 @@
       <c r="B133" s="5">
         <v>154</v>
       </c>
-      <c r="C133" s="8" t="s">
+      <c r="C133" s="26" t="s">
         <v>202</v>
       </c>
       <c r="D133" s="5">
         <v>2023</v>
       </c>
-      <c r="E133" s="14">
+      <c r="E133" s="13">
         <v>291000000</v>
       </c>
-      <c r="F133" s="17">
+      <c r="F133" s="16">
         <f t="shared" si="8"/>
         <v>291</v>
       </c>
-      <c r="G133" s="14" t="s">
+      <c r="G133" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H133" s="5" t="s">
@@ -7649,10 +7667,10 @@
       <c r="K133" s="5">
         <v>163</v>
       </c>
-      <c r="L133" s="20">
+      <c r="L133" s="19">
         <v>7.9</v>
       </c>
-      <c r="M133" s="20">
+      <c r="M133" s="19">
         <v>8.9</v>
       </c>
       <c r="N133" s="5">
@@ -7668,20 +7686,20 @@
       <c r="B134" s="5">
         <v>155</v>
       </c>
-      <c r="C134" s="8" t="s">
+      <c r="C134" s="26" t="s">
         <v>203</v>
       </c>
       <c r="D134" s="5">
         <v>2023</v>
       </c>
-      <c r="E134" s="14">
+      <c r="E134" s="13">
         <v>100000000</v>
       </c>
-      <c r="F134" s="17">
+      <c r="F134" s="16">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="G134" s="14" t="s">
+      <c r="G134" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H134" s="5" t="s">
@@ -7696,10 +7714,10 @@
       <c r="K134" s="5">
         <v>180</v>
       </c>
-      <c r="L134" s="20">
+      <c r="L134" s="19">
         <v>8.1999999999999993</v>
       </c>
-      <c r="M134" s="20">
+      <c r="M134" s="19">
         <v>8.5</v>
       </c>
       <c r="N134" s="5">
@@ -7715,20 +7733,20 @@
       <c r="B135" s="5">
         <v>156</v>
       </c>
-      <c r="C135" s="8" t="s">
+      <c r="C135" s="26" t="s">
         <v>204</v>
       </c>
       <c r="D135" s="5">
         <v>2023</v>
       </c>
-      <c r="E135" s="14">
+      <c r="E135" s="13">
         <v>200000000</v>
       </c>
-      <c r="F135" s="17">
+      <c r="F135" s="16">
         <f t="shared" si="8"/>
         <v>200</v>
       </c>
-      <c r="G135" s="14" t="s">
+      <c r="G135" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H135" s="5" t="s">
@@ -7743,10 +7761,10 @@
       <c r="K135" s="5">
         <v>127</v>
       </c>
-      <c r="L135" s="20">
+      <c r="L135" s="19">
         <v>6.5</v>
       </c>
-      <c r="M135" s="20">
+      <c r="M135" s="19">
         <v>5.5</v>
       </c>
       <c r="N135" s="5">
@@ -7762,20 +7780,20 @@
       <c r="B136" s="5">
         <v>157</v>
       </c>
-      <c r="C136" s="8" t="s">
+      <c r="C136" s="26" t="s">
         <v>205</v>
       </c>
       <c r="D136" s="5">
         <v>2023</v>
       </c>
-      <c r="E136" s="14">
+      <c r="E136" s="13">
         <v>70000000</v>
       </c>
-      <c r="F136" s="17">
+      <c r="F136" s="16">
         <f t="shared" si="8"/>
         <v>70</v>
       </c>
-      <c r="G136" s="14" t="s">
+      <c r="G136" s="13" t="s">
         <v>262</v>
       </c>
       <c r="H136" s="5" t="s">
@@ -7790,10 +7808,10 @@
       <c r="K136" s="5">
         <v>99</v>
       </c>
-      <c r="L136" s="20">
+      <c r="L136" s="19">
         <v>8.6</v>
       </c>
-      <c r="M136" s="20">
+      <c r="M136" s="19">
         <v>9.3000000000000007</v>
       </c>
       <c r="N136" s="5">
@@ -7809,20 +7827,20 @@
       <c r="B137" s="5">
         <v>158</v>
       </c>
-      <c r="C137" s="8" t="s">
+      <c r="C137" s="26" t="s">
         <v>206</v>
       </c>
       <c r="D137" s="5">
         <v>2023</v>
       </c>
-      <c r="E137" s="14">
+      <c r="E137" s="13">
         <v>0</v>
       </c>
-      <c r="F137" s="17">
+      <c r="F137" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G137" s="14" t="s">
+      <c r="G137" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H137" s="5" t="s">
@@ -7837,10 +7855,10 @@
       <c r="K137" s="5">
         <v>122</v>
       </c>
-      <c r="L137" s="20">
+      <c r="L137" s="19">
         <v>8.5</v>
       </c>
-      <c r="M137" s="20">
+      <c r="M137" s="19">
         <v>8.6999999999999993</v>
       </c>
       <c r="N137" s="5">
@@ -7856,20 +7874,20 @@
       <c r="B138" s="5">
         <v>159</v>
       </c>
-      <c r="C138" s="8">
+      <c r="C138" s="26">
         <v>65</v>
       </c>
       <c r="D138" s="5">
         <v>2023</v>
       </c>
-      <c r="E138" s="14">
+      <c r="E138" s="13">
         <v>45000000</v>
       </c>
-      <c r="F138" s="17">
+      <c r="F138" s="16">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
-      <c r="G138" s="14" t="s">
+      <c r="G138" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H138" s="5" t="s">
@@ -7884,10 +7902,10 @@
       <c r="K138" s="5">
         <v>93</v>
       </c>
-      <c r="L138" s="20">
+      <c r="L138" s="19">
         <v>5.2</v>
       </c>
-      <c r="M138" s="20">
+      <c r="M138" s="19">
         <v>4.5999999999999996</v>
       </c>
       <c r="N138" s="5">
@@ -7903,20 +7921,20 @@
       <c r="B139" s="5">
         <v>160</v>
       </c>
-      <c r="C139" s="8" t="s">
+      <c r="C139" s="26" t="s">
         <v>207</v>
       </c>
       <c r="D139" s="5">
         <v>2001</v>
       </c>
-      <c r="E139" s="14">
+      <c r="E139" s="13">
         <v>45000000</v>
       </c>
-      <c r="F139" s="17">
+      <c r="F139" s="16">
         <f t="shared" si="8"/>
         <v>45</v>
       </c>
-      <c r="G139" s="14" t="s">
+      <c r="G139" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H139" s="5" t="s">
@@ -7931,10 +7949,10 @@
       <c r="K139" s="5">
         <v>122</v>
       </c>
-      <c r="L139" s="20">
+      <c r="L139" s="19">
         <v>9.3000000000000007</v>
       </c>
-      <c r="M139" s="20">
+      <c r="M139" s="19">
         <v>8.5</v>
       </c>
       <c r="N139" s="5">
@@ -7950,20 +7968,20 @@
       <c r="B140" s="5">
         <v>161</v>
       </c>
-      <c r="C140" s="8" t="s">
+      <c r="C140" s="26" t="s">
         <v>208</v>
       </c>
       <c r="D140" s="5">
         <v>1993</v>
       </c>
-      <c r="E140" s="14">
+      <c r="E140" s="13">
         <v>57000000</v>
       </c>
-      <c r="F140" s="17">
+      <c r="F140" s="16">
         <f t="shared" si="8"/>
         <v>57</v>
       </c>
-      <c r="G140" s="14" t="s">
+      <c r="G140" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H140" s="5" t="s">
@@ -7978,10 +7996,10 @@
       <c r="K140" s="5">
         <v>115</v>
       </c>
-      <c r="L140" s="20">
+      <c r="L140" s="19">
         <v>8.4</v>
       </c>
-      <c r="M140" s="20">
+      <c r="M140" s="19">
         <v>7.7</v>
       </c>
       <c r="N140" s="5">
@@ -7997,20 +8015,20 @@
       <c r="B141" s="5">
         <v>162</v>
       </c>
-      <c r="C141" s="8" t="s">
+      <c r="C141" s="26" t="s">
         <v>209</v>
       </c>
       <c r="D141" s="5">
         <v>2001</v>
       </c>
-      <c r="E141" s="14">
+      <c r="E141" s="13">
         <v>11000000</v>
       </c>
-      <c r="F141" s="17">
+      <c r="F141" s="16">
         <f t="shared" si="8"/>
         <v>11</v>
       </c>
-      <c r="G141" s="14" t="s">
+      <c r="G141" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H141" s="5" t="s">
@@ -8025,10 +8043,10 @@
       <c r="K141" s="5">
         <v>100</v>
       </c>
-      <c r="L141" s="20">
+      <c r="L141" s="19">
         <v>7.9</v>
       </c>
-      <c r="M141" s="20">
+      <c r="M141" s="19">
         <v>8.5</v>
       </c>
       <c r="N141" s="5">
@@ -8044,20 +8062,20 @@
       <c r="B142" s="5">
         <v>163</v>
       </c>
-      <c r="C142" s="8" t="s">
+      <c r="C142" s="26" t="s">
         <v>210</v>
       </c>
       <c r="D142" s="5">
         <v>1991</v>
       </c>
-      <c r="E142" s="14">
+      <c r="E142" s="13">
         <v>15000000</v>
       </c>
-      <c r="F142" s="17">
+      <c r="F142" s="16">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="G142" s="14" t="s">
+      <c r="G142" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H142" s="5" t="s">
@@ -8072,10 +8090,10 @@
       <c r="K142" s="5">
         <v>110</v>
       </c>
-      <c r="L142" s="20">
+      <c r="L142" s="19">
         <v>5.5</v>
       </c>
-      <c r="M142" s="20">
+      <c r="M142" s="19">
         <v>5.5</v>
       </c>
       <c r="N142" s="5">
@@ -8091,20 +8109,20 @@
       <c r="B143" s="5">
         <v>164</v>
       </c>
-      <c r="C143" s="8" t="s">
+      <c r="C143" s="26" t="s">
         <v>211</v>
       </c>
       <c r="D143" s="5">
         <v>2023</v>
       </c>
-      <c r="E143" s="14">
+      <c r="E143" s="13">
         <v>25000000</v>
       </c>
-      <c r="F143" s="17">
+      <c r="F143" s="16">
         <f t="shared" si="8"/>
         <v>25</v>
       </c>
-      <c r="G143" s="14" t="s">
+      <c r="G143" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H143" s="5" t="s">
@@ -8119,10 +8137,10 @@
       <c r="K143" s="5">
         <v>105</v>
       </c>
-      <c r="L143" s="20">
+      <c r="L143" s="19">
         <v>6.2</v>
       </c>
-      <c r="M143" s="20">
+      <c r="M143" s="19">
         <v>7.2</v>
       </c>
       <c r="N143" s="5">
@@ -8138,20 +8156,20 @@
       <c r="B144" s="5">
         <v>165</v>
       </c>
-      <c r="C144" s="8" t="s">
+      <c r="C144" s="26" t="s">
         <v>212</v>
       </c>
       <c r="D144" s="5">
         <v>2023</v>
       </c>
-      <c r="E144" s="14">
+      <c r="E144" s="13">
         <v>80000000</v>
       </c>
-      <c r="F144" s="17">
+      <c r="F144" s="16">
         <f t="shared" si="8"/>
         <v>80</v>
       </c>
-      <c r="G144" s="14" t="s">
+      <c r="G144" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H144" s="5" t="s">
@@ -8166,10 +8184,10 @@
       <c r="K144" s="5">
         <v>133</v>
       </c>
-      <c r="L144" s="20">
+      <c r="L144" s="19">
         <v>8.5</v>
       </c>
-      <c r="M144" s="20">
+      <c r="M144" s="19">
         <v>8</v>
       </c>
       <c r="N144" s="5">
@@ -8185,20 +8203,20 @@
       <c r="B145" s="5">
         <v>166</v>
       </c>
-      <c r="C145" s="8" t="s">
+      <c r="C145" s="26" t="s">
         <v>213</v>
       </c>
       <c r="D145" s="5">
         <v>2023</v>
       </c>
-      <c r="E145" s="14">
+      <c r="E145" s="13">
         <v>150000000</v>
       </c>
-      <c r="F145" s="17">
+      <c r="F145" s="16">
         <f t="shared" si="8"/>
         <v>150</v>
       </c>
-      <c r="G145" s="14" t="s">
+      <c r="G145" s="13" t="s">
         <v>262</v>
       </c>
       <c r="H145" s="5" t="s">
@@ -8213,10 +8231,10 @@
       <c r="K145" s="5">
         <v>140</v>
       </c>
-      <c r="L145" s="20">
+      <c r="L145" s="19">
         <v>8.1</v>
       </c>
-      <c r="M145" s="20">
+      <c r="M145" s="19">
         <v>9.5</v>
       </c>
       <c r="N145" s="5">
@@ -8232,20 +8250,20 @@
       <c r="B146" s="5">
         <v>166</v>
       </c>
-      <c r="C146" s="8" t="s">
+      <c r="C146" s="26" t="s">
         <v>214</v>
       </c>
       <c r="D146" s="5">
         <v>1993</v>
       </c>
-      <c r="E146" s="14">
+      <c r="E146" s="13">
         <v>3000000</v>
       </c>
-      <c r="F146" s="17">
+      <c r="F146" s="16">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="G146" s="14" t="s">
+      <c r="G146" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H146" s="5" t="s">
@@ -8260,10 +8278,10 @@
       <c r="K146" s="5">
         <v>87</v>
       </c>
-      <c r="L146" s="20">
+      <c r="L146" s="19">
         <v>5</v>
       </c>
-      <c r="M146" s="20">
+      <c r="M146" s="19">
         <v>4.5</v>
       </c>
       <c r="N146" s="5">
@@ -8281,20 +8299,20 @@
       <c r="B147" s="5">
         <v>167</v>
       </c>
-      <c r="C147" s="8" t="s">
+      <c r="C147" s="26" t="s">
         <v>216</v>
       </c>
       <c r="D147" s="5">
         <v>2022</v>
       </c>
-      <c r="E147" s="14">
+      <c r="E147" s="13">
         <v>4500000</v>
       </c>
-      <c r="F147" s="17">
+      <c r="F147" s="16">
         <f t="shared" si="8"/>
         <v>4.5</v>
       </c>
-      <c r="G147" s="14" t="s">
+      <c r="G147" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H147" s="5" t="s">
@@ -8309,10 +8327,10 @@
       <c r="K147" s="5">
         <v>95</v>
       </c>
-      <c r="L147" s="20">
+      <c r="L147" s="19">
         <v>8.6</v>
       </c>
-      <c r="M147" s="20">
+      <c r="M147" s="19">
         <v>9.1</v>
       </c>
       <c r="N147" s="5">
@@ -8328,20 +8346,20 @@
       <c r="B148" s="5">
         <v>168</v>
       </c>
-      <c r="C148" s="8" t="s">
+      <c r="C148" s="26" t="s">
         <v>217</v>
       </c>
       <c r="D148" s="5">
         <v>2023</v>
       </c>
-      <c r="E148" s="14">
+      <c r="E148" s="13">
         <v>200000000</v>
       </c>
-      <c r="F148" s="17">
+      <c r="F148" s="16">
         <f t="shared" si="8"/>
         <v>200</v>
       </c>
-      <c r="G148" s="14" t="s">
+      <c r="G148" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H148" s="5" t="s">
@@ -8356,10 +8374,10 @@
       <c r="K148" s="5">
         <v>206</v>
       </c>
-      <c r="L148" s="20">
+      <c r="L148" s="19">
         <v>7.6</v>
       </c>
-      <c r="M148" s="20">
+      <c r="M148" s="19">
         <v>9.5</v>
       </c>
       <c r="N148" s="5">
@@ -8375,20 +8393,20 @@
       <c r="B149" s="5">
         <v>169</v>
       </c>
-      <c r="C149" s="8" t="s">
+      <c r="C149" s="26" t="s">
         <v>218</v>
       </c>
       <c r="D149" s="5">
         <v>2022</v>
       </c>
-      <c r="E149" s="14">
+      <c r="E149" s="13">
         <v>1000000</v>
       </c>
-      <c r="F149" s="17">
+      <c r="F149" s="16">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="G149" s="14" t="s">
+      <c r="G149" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H149" s="5" t="s">
@@ -8403,10 +8421,10 @@
       <c r="K149" s="5">
         <v>105</v>
       </c>
-      <c r="L149" s="20">
+      <c r="L149" s="19">
         <v>7.4</v>
       </c>
-      <c r="M149" s="20">
+      <c r="M149" s="19">
         <v>8.5</v>
       </c>
       <c r="N149" s="5">
@@ -8422,20 +8440,20 @@
       <c r="B150" s="5">
         <v>170</v>
       </c>
-      <c r="C150" s="8" t="s">
+      <c r="C150" s="26" t="s">
         <v>219</v>
       </c>
       <c r="D150" s="5">
         <v>2017</v>
       </c>
-      <c r="E150" s="14">
+      <c r="E150" s="13">
         <v>100000000</v>
       </c>
-      <c r="F150" s="17">
+      <c r="F150" s="16">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="G150" s="14" t="s">
+      <c r="G150" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H150" s="5" t="s">
@@ -8450,10 +8468,10 @@
       <c r="K150" s="5">
         <v>124</v>
       </c>
-      <c r="L150" s="20">
+      <c r="L150" s="19">
         <v>5.8</v>
       </c>
-      <c r="M150" s="20">
+      <c r="M150" s="19">
         <v>5.6</v>
       </c>
       <c r="N150" s="5">
@@ -8469,20 +8487,20 @@
       <c r="B151" s="5">
         <v>171</v>
       </c>
-      <c r="C151" s="8" t="s">
+      <c r="C151" s="26" t="s">
         <v>220</v>
       </c>
       <c r="D151" s="5">
         <v>2023</v>
       </c>
-      <c r="E151" s="14">
+      <c r="E151" s="13">
         <v>0</v>
       </c>
-      <c r="F151" s="17">
+      <c r="F151" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G151" s="14" t="s">
+      <c r="G151" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H151" s="5" t="s">
@@ -8497,10 +8515,10 @@
       <c r="K151" s="5">
         <v>118</v>
       </c>
-      <c r="L151" s="20">
+      <c r="L151" s="19">
         <v>7.2</v>
       </c>
-      <c r="M151" s="20">
+      <c r="M151" s="19">
         <v>7.8</v>
       </c>
       <c r="N151" s="5">
@@ -8516,20 +8534,20 @@
       <c r="B152" s="5">
         <v>172</v>
       </c>
-      <c r="C152" s="8" t="s">
+      <c r="C152" s="26" t="s">
         <v>221</v>
       </c>
       <c r="D152" s="5">
         <v>1996</v>
       </c>
-      <c r="E152" s="14">
+      <c r="E152" s="13">
         <v>7000000</v>
       </c>
-      <c r="F152" s="17">
+      <c r="F152" s="16">
         <f t="shared" si="8"/>
         <v>7</v>
       </c>
-      <c r="G152" s="14" t="s">
+      <c r="G152" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H152" s="5" t="s">
@@ -8544,10 +8562,10 @@
       <c r="K152" s="5">
         <v>98</v>
       </c>
-      <c r="L152" s="20">
+      <c r="L152" s="19">
         <v>8</v>
       </c>
-      <c r="M152" s="20">
+      <c r="M152" s="19">
         <v>8.6999999999999993</v>
       </c>
       <c r="N152" s="5">
@@ -8563,20 +8581,20 @@
       <c r="B153" s="5">
         <v>173</v>
       </c>
-      <c r="C153" s="8" t="s">
+      <c r="C153" s="26" t="s">
         <v>222</v>
       </c>
       <c r="D153" s="5">
         <v>2019</v>
       </c>
-      <c r="E153" s="14">
+      <c r="E153" s="13">
         <v>40000000</v>
       </c>
-      <c r="F153" s="17">
+      <c r="F153" s="16">
         <f t="shared" si="8"/>
         <v>40</v>
       </c>
-      <c r="G153" s="14" t="s">
+      <c r="G153" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H153" s="5" t="s">
@@ -8591,10 +8609,10 @@
       <c r="K153" s="5">
         <v>130</v>
       </c>
-      <c r="L153" s="20">
+      <c r="L153" s="19">
         <v>7.3</v>
       </c>
-      <c r="M153" s="20">
+      <c r="M153" s="19">
         <v>8.5</v>
       </c>
       <c r="N153" s="5">
@@ -8610,20 +8628,20 @@
       <c r="B154" s="5">
         <v>174</v>
       </c>
-      <c r="C154" s="8" t="s">
+      <c r="C154" s="26" t="s">
         <v>223</v>
       </c>
       <c r="D154" s="5">
         <v>2023</v>
       </c>
-      <c r="E154" s="14">
+      <c r="E154" s="13">
         <v>30000000</v>
       </c>
-      <c r="F154" s="17">
+      <c r="F154" s="16">
         <f t="shared" si="8"/>
         <v>30</v>
       </c>
-      <c r="G154" s="14" t="s">
+      <c r="G154" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H154" s="5" t="s">
@@ -8636,10 +8654,10 @@
       <c r="K154" s="5">
         <v>111</v>
       </c>
-      <c r="L154" s="20">
+      <c r="L154" s="19">
         <v>6</v>
       </c>
-      <c r="M154" s="20">
+      <c r="M154" s="19">
         <v>5.5</v>
       </c>
       <c r="N154" s="5">
@@ -8655,20 +8673,20 @@
       <c r="B155" s="5">
         <v>175</v>
       </c>
-      <c r="C155" s="8" t="s">
+      <c r="C155" s="26" t="s">
         <v>224</v>
       </c>
       <c r="D155" s="5">
         <v>2023</v>
       </c>
-      <c r="E155" s="14">
+      <c r="E155" s="13">
         <v>15000000</v>
       </c>
-      <c r="F155" s="17">
+      <c r="F155" s="16">
         <f t="shared" si="8"/>
         <v>15</v>
       </c>
-      <c r="G155" s="14" t="s">
+      <c r="G155" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H155" s="5" t="s">
@@ -8683,10 +8701,10 @@
       <c r="K155" s="5">
         <v>124</v>
       </c>
-      <c r="L155" s="20">
+      <c r="L155" s="19">
         <v>8.6</v>
       </c>
-      <c r="M155" s="20">
+      <c r="M155" s="19">
         <v>8.8000000000000007</v>
       </c>
       <c r="N155" s="5">
@@ -8702,20 +8720,20 @@
       <c r="B156" s="5">
         <v>176</v>
       </c>
-      <c r="C156" s="8" t="s">
+      <c r="C156" s="26" t="s">
         <v>225</v>
       </c>
       <c r="D156" s="5">
         <v>2023</v>
       </c>
-      <c r="E156" s="14">
+      <c r="E156" s="13">
         <v>0</v>
       </c>
-      <c r="F156" s="17">
+      <c r="F156" s="16">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G156" s="14" t="s">
+      <c r="G156" s="13" t="s">
         <v>262</v>
       </c>
       <c r="H156" s="5" t="s">
@@ -8730,10 +8748,10 @@
       <c r="K156" s="5">
         <v>98</v>
       </c>
-      <c r="L156" s="20">
+      <c r="L156" s="19">
         <v>5.9</v>
       </c>
-      <c r="M156" s="20">
+      <c r="M156" s="19">
         <v>6</v>
       </c>
       <c r="N156" s="5">
@@ -8749,20 +8767,20 @@
       <c r="B157" s="5">
         <v>177</v>
       </c>
-      <c r="C157" s="8" t="s">
+      <c r="C157" s="26" t="s">
         <v>226</v>
       </c>
       <c r="D157" s="5">
         <v>2023</v>
       </c>
-      <c r="E157" s="14">
+      <c r="E157" s="13">
         <v>90000000</v>
       </c>
-      <c r="F157" s="17">
+      <c r="F157" s="16">
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="G157" s="14" t="s">
+      <c r="G157" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H157" s="5" t="s">
@@ -8777,10 +8795,10 @@
       <c r="K157" s="5">
         <v>133</v>
       </c>
-      <c r="L157" s="20">
+      <c r="L157" s="19">
         <v>5</v>
       </c>
-      <c r="M157" s="20">
+      <c r="M157" s="19">
         <v>5.3</v>
       </c>
       <c r="N157" s="5">
@@ -8796,20 +8814,20 @@
       <c r="B158" s="5">
         <v>178</v>
       </c>
-      <c r="C158" s="8" t="s">
+      <c r="C158" s="26" t="s">
         <v>227</v>
       </c>
       <c r="D158" s="5">
         <v>2023</v>
       </c>
-      <c r="E158" s="14">
+      <c r="E158" s="13">
         <v>100000000</v>
       </c>
-      <c r="F158" s="17">
+      <c r="F158" s="16">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="G158" s="14" t="s">
+      <c r="G158" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H158" s="5" t="s">
@@ -8824,10 +8842,10 @@
       <c r="K158" s="5">
         <v>114</v>
       </c>
-      <c r="L158" s="20">
+      <c r="L158" s="19">
         <v>6.7</v>
       </c>
-      <c r="M158" s="20">
+      <c r="M158" s="19">
         <v>7.1</v>
       </c>
       <c r="N158" s="5">
@@ -8843,20 +8861,20 @@
       <c r="B159" s="5">
         <v>179</v>
       </c>
-      <c r="C159" s="8" t="s">
+      <c r="C159" s="26" t="s">
         <v>228</v>
       </c>
       <c r="D159" s="5">
         <v>1992</v>
       </c>
-      <c r="E159" s="14">
+      <c r="E159" s="13">
         <v>5000000</v>
       </c>
-      <c r="F159" s="17">
+      <c r="F159" s="16">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="G159" s="14" t="s">
+      <c r="G159" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H159" s="5" t="s">
@@ -8871,10 +8889,10 @@
       <c r="K159" s="5">
         <v>95</v>
       </c>
-      <c r="L159" s="20">
+      <c r="L159" s="19">
         <v>7</v>
       </c>
-      <c r="M159" s="20">
+      <c r="M159" s="19">
         <v>6.8</v>
       </c>
       <c r="N159" s="5">
@@ -8890,20 +8908,20 @@
       <c r="B160" s="5">
         <v>180</v>
       </c>
-      <c r="C160" s="8" t="s">
+      <c r="C160" s="26" t="s">
         <v>229</v>
       </c>
       <c r="D160" s="5">
         <v>1984</v>
       </c>
-      <c r="E160" s="14">
+      <c r="E160" s="13">
         <v>17000000</v>
       </c>
-      <c r="F160" s="17">
+      <c r="F160" s="16">
         <f t="shared" si="8"/>
         <v>17</v>
       </c>
-      <c r="G160" s="14" t="s">
+      <c r="G160" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H160" s="5" t="s">
@@ -8918,10 +8936,10 @@
       <c r="K160" s="5">
         <v>114</v>
       </c>
-      <c r="L160" s="20">
+      <c r="L160" s="19">
         <v>6.3</v>
       </c>
-      <c r="M160" s="20">
+      <c r="M160" s="19">
         <v>6.6</v>
       </c>
       <c r="N160" s="5">
@@ -8937,20 +8955,20 @@
       <c r="B161" s="5">
         <v>181</v>
       </c>
-      <c r="C161" s="8" t="s">
+      <c r="C161" s="26" t="s">
         <v>230</v>
       </c>
       <c r="D161" s="5">
         <v>1989</v>
       </c>
-      <c r="E161" s="14">
+      <c r="E161" s="13">
         <v>500000</v>
       </c>
-      <c r="F161" s="17">
+      <c r="F161" s="16">
         <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
-      <c r="G161" s="14" t="s">
+      <c r="G161" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H161" s="5" t="s">
@@ -8965,10 +8983,10 @@
       <c r="K161" s="5">
         <v>86</v>
       </c>
-      <c r="L161" s="20">
+      <c r="L161" s="19">
         <v>4.7</v>
       </c>
-      <c r="M161" s="20">
+      <c r="M161" s="19">
         <v>4.2</v>
       </c>
       <c r="N161" s="5">
@@ -8984,20 +9002,20 @@
       <c r="B162" s="5">
         <v>182</v>
       </c>
-      <c r="C162" s="8" t="s">
+      <c r="C162" s="26" t="s">
         <v>231</v>
       </c>
       <c r="D162" s="5">
         <v>1983</v>
       </c>
-      <c r="E162" s="14">
+      <c r="E162" s="13">
         <v>12000000</v>
       </c>
-      <c r="F162" s="17">
-        <f t="shared" ref="F162:F189" si="10">E162/1000000</f>
+      <c r="F162" s="16">
+        <f t="shared" ref="F162:F193" si="10">E162/1000000</f>
         <v>12</v>
       </c>
-      <c r="G162" s="14" t="s">
+      <c r="G162" s="13" t="s">
         <v>262</v>
       </c>
       <c r="H162" s="5" t="s">
@@ -9012,14 +9030,14 @@
       <c r="K162" s="5">
         <v>114</v>
       </c>
-      <c r="L162" s="20">
+      <c r="L162" s="19">
         <v>6.3</v>
       </c>
-      <c r="M162" s="20">
+      <c r="M162" s="19">
         <v>7.1</v>
       </c>
       <c r="N162" s="5">
-        <f t="shared" ref="N162:N189" si="11">L162-M162</f>
+        <f t="shared" ref="N162:N193" si="11">L162-M162</f>
         <v>-0.79999999999999982</v>
       </c>
       <c r="O162" s="6"/>
@@ -9031,20 +9049,20 @@
       <c r="B163" s="5">
         <v>183</v>
       </c>
-      <c r="C163" s="8" t="s">
+      <c r="C163" s="26" t="s">
         <v>232</v>
       </c>
       <c r="D163" s="5">
         <v>1986</v>
       </c>
-      <c r="E163" s="14">
+      <c r="E163" s="13">
         <v>10000000</v>
       </c>
-      <c r="F163" s="17">
+      <c r="F163" s="16">
         <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="G163" s="14" t="s">
+      <c r="G163" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H163" s="5" t="s">
@@ -9059,10 +9077,10 @@
       <c r="K163" s="5">
         <v>98</v>
       </c>
-      <c r="L163" s="20">
+      <c r="L163" s="19">
         <v>5.7</v>
       </c>
-      <c r="M163" s="20">
+      <c r="M163" s="19">
         <v>6.2</v>
       </c>
       <c r="N163" s="5">
@@ -9078,20 +9096,20 @@
       <c r="B164" s="5">
         <v>184</v>
       </c>
-      <c r="C164" s="8" t="s">
+      <c r="C164" s="26" t="s">
         <v>233</v>
       </c>
       <c r="D164" s="5">
         <v>2023</v>
       </c>
-      <c r="E164" s="14">
+      <c r="E164" s="13">
         <v>220000000</v>
       </c>
-      <c r="F164" s="17">
+      <c r="F164" s="16">
         <f t="shared" si="10"/>
         <v>220</v>
       </c>
-      <c r="G164" s="14" t="s">
+      <c r="G164" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H164" s="5" t="s">
@@ -9104,10 +9122,10 @@
       <c r="K164" s="5">
         <v>105</v>
       </c>
-      <c r="L164" s="20">
+      <c r="L164" s="19">
         <v>6</v>
       </c>
-      <c r="M164" s="20">
+      <c r="M164" s="19">
         <v>7.1</v>
       </c>
       <c r="N164" s="5">
@@ -9123,20 +9141,20 @@
       <c r="B165" s="5">
         <v>185</v>
       </c>
-      <c r="C165" s="8" t="s">
+      <c r="C165" s="26" t="s">
         <v>234</v>
       </c>
       <c r="D165" s="5">
         <v>1990</v>
       </c>
-      <c r="E165" s="14">
+      <c r="E165" s="13">
         <v>100000</v>
       </c>
-      <c r="F165" s="17">
+      <c r="F165" s="16">
         <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
-      <c r="G165" s="14" t="s">
+      <c r="G165" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H165" s="5" t="s">
@@ -9151,10 +9169,10 @@
       <c r="K165" s="5">
         <v>95</v>
       </c>
-      <c r="L165" s="20">
+      <c r="L165" s="19">
         <v>5</v>
       </c>
-      <c r="M165" s="20">
+      <c r="M165" s="19">
         <v>4</v>
       </c>
       <c r="N165" s="5">
@@ -9170,20 +9188,20 @@
       <c r="B166" s="5">
         <v>186</v>
       </c>
-      <c r="C166" s="8" t="s">
+      <c r="C166" s="26" t="s">
         <v>235</v>
       </c>
       <c r="D166" s="5">
         <v>2015</v>
       </c>
-      <c r="E166" s="14">
+      <c r="E166" s="13">
         <v>5000000</v>
       </c>
-      <c r="F166" s="17">
+      <c r="F166" s="16">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="G166" s="14" t="s">
+      <c r="G166" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H166" s="5" t="s">
@@ -9198,10 +9216,10 @@
       <c r="K166" s="5">
         <v>94</v>
       </c>
-      <c r="L166" s="20">
+      <c r="L166" s="19">
         <v>7.4</v>
       </c>
-      <c r="M166" s="20">
+      <c r="M166" s="19">
         <v>7.2</v>
       </c>
       <c r="N166" s="5">
@@ -9217,20 +9235,20 @@
       <c r="B167" s="5">
         <v>187</v>
       </c>
-      <c r="C167" s="8" t="s">
+      <c r="C167" s="26" t="s">
         <v>272</v>
       </c>
       <c r="D167" s="5">
         <v>2024</v>
       </c>
-      <c r="E167" s="14">
+      <c r="E167" s="13">
         <v>40000000</v>
       </c>
-      <c r="F167" s="17">
+      <c r="F167" s="16">
         <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="G167" s="14" t="s">
+      <c r="G167" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H167" s="5" t="s">
@@ -9245,10 +9263,10 @@
       <c r="K167" s="5">
         <v>107</v>
       </c>
-      <c r="L167" s="20">
+      <c r="L167" s="19">
         <v>7.5</v>
       </c>
-      <c r="M167" s="20">
+      <c r="M167" s="19">
         <v>6.7</v>
       </c>
       <c r="N167" s="5">
@@ -9264,20 +9282,20 @@
       <c r="B168" s="5">
         <v>188</v>
       </c>
-      <c r="C168" s="8" t="s">
+      <c r="C168" s="26" t="s">
         <v>236</v>
       </c>
       <c r="D168" s="5">
         <v>2023</v>
       </c>
-      <c r="E168" s="14">
+      <c r="E168" s="13">
         <v>205000000</v>
       </c>
-      <c r="F168" s="17">
+      <c r="F168" s="16">
         <f t="shared" si="10"/>
         <v>205</v>
       </c>
-      <c r="G168" s="14" t="s">
+      <c r="G168" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H168" s="5" t="s">
@@ -9290,10 +9308,10 @@
       <c r="K168" s="5">
         <v>124</v>
       </c>
-      <c r="L168" s="20">
+      <c r="L168" s="19">
         <v>5.5</v>
       </c>
-      <c r="M168" s="20">
+      <c r="M168" s="19">
         <v>5.6</v>
       </c>
       <c r="N168" s="5">
@@ -9309,20 +9327,20 @@
       <c r="B169" s="5">
         <v>189</v>
       </c>
-      <c r="C169" s="8" t="s">
+      <c r="C169" s="26" t="s">
         <v>237</v>
       </c>
       <c r="D169" s="5">
         <v>1988</v>
       </c>
-      <c r="E169" s="14">
+      <c r="E169" s="13">
         <v>13000000</v>
       </c>
-      <c r="F169" s="17">
+      <c r="F169" s="16">
         <f t="shared" si="10"/>
         <v>13</v>
       </c>
-      <c r="G169" s="14" t="s">
+      <c r="G169" s="13" t="s">
         <v>262</v>
       </c>
       <c r="H169" s="5" t="s">
@@ -9337,10 +9355,10 @@
       <c r="K169" s="5">
         <v>99</v>
       </c>
-      <c r="L169" s="20">
+      <c r="L169" s="19">
         <v>3.2</v>
       </c>
-      <c r="M169" s="20">
+      <c r="M169" s="19">
         <v>3.7</v>
       </c>
       <c r="N169" s="5">
@@ -9356,20 +9374,20 @@
       <c r="B170" s="5">
         <v>190</v>
       </c>
-      <c r="C170" s="8" t="s">
+      <c r="C170" s="26" t="s">
         <v>238</v>
       </c>
       <c r="D170" s="5">
         <v>2024</v>
       </c>
-      <c r="E170" s="14">
+      <c r="E170" s="13">
         <v>100000000</v>
       </c>
-      <c r="F170" s="17">
+      <c r="F170" s="16">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="G170" s="14" t="s">
+      <c r="G170" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H170" s="5" t="s">
@@ -9384,10 +9402,10 @@
       <c r="K170" s="5">
         <v>115</v>
       </c>
-      <c r="L170" s="20">
+      <c r="L170" s="19">
         <v>7</v>
       </c>
-      <c r="M170" s="20">
+      <c r="M170" s="19">
         <v>7.2</v>
       </c>
       <c r="N170" s="5">
@@ -9403,20 +9421,20 @@
       <c r="B171" s="5">
         <v>191</v>
       </c>
-      <c r="C171" s="8" t="s">
+      <c r="C171" s="26" t="s">
         <v>240</v>
       </c>
       <c r="D171" s="5">
         <v>1997</v>
       </c>
-      <c r="E171" s="14">
+      <c r="E171" s="13">
         <v>75000000</v>
       </c>
-      <c r="F171" s="17">
+      <c r="F171" s="16">
         <f t="shared" si="10"/>
         <v>75</v>
       </c>
-      <c r="G171" s="14" t="s">
+      <c r="G171" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H171" s="5" t="s">
@@ -9431,10 +9449,10 @@
       <c r="K171" s="5">
         <v>109</v>
       </c>
-      <c r="L171" s="20">
+      <c r="L171" s="19">
         <v>5.4</v>
       </c>
-      <c r="M171" s="20">
+      <c r="M171" s="19">
         <v>5.5</v>
       </c>
       <c r="N171" s="5">
@@ -9450,20 +9468,20 @@
       <c r="B172" s="5">
         <v>192</v>
       </c>
-      <c r="C172" s="8" t="s">
+      <c r="C172" s="26" t="s">
         <v>241</v>
       </c>
       <c r="D172" s="5">
         <v>2003</v>
       </c>
-      <c r="E172" s="14">
+      <c r="E172" s="13">
         <v>28000000</v>
       </c>
-      <c r="F172" s="17">
+      <c r="F172" s="16">
         <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="G172" s="14" t="s">
+      <c r="G172" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H172" s="5" t="s">
@@ -9478,10 +9496,10 @@
       <c r="K172" s="5">
         <v>90</v>
       </c>
-      <c r="L172" s="20">
+      <c r="L172" s="19">
         <v>7.6</v>
       </c>
-      <c r="M172" s="20">
+      <c r="M172" s="19">
         <v>6.8</v>
       </c>
       <c r="N172" s="5">
@@ -9497,20 +9515,20 @@
       <c r="B173" s="5">
         <v>193</v>
       </c>
-      <c r="C173" s="8" t="s">
+      <c r="C173" s="26" t="s">
         <v>242</v>
       </c>
       <c r="D173" s="5">
         <v>2024</v>
       </c>
-      <c r="E173" s="14">
+      <c r="E173" s="13">
         <v>50000000</v>
       </c>
-      <c r="F173" s="17">
+      <c r="F173" s="16">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="G173" s="14" t="s">
+      <c r="G173" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H173" s="5" t="s">
@@ -9525,10 +9543,10 @@
       <c r="K173" s="5">
         <v>109</v>
       </c>
-      <c r="L173" s="20">
+      <c r="L173" s="19">
         <v>7.1</v>
       </c>
-      <c r="M173" s="20">
+      <c r="M173" s="19">
         <v>9.1999999999999993</v>
       </c>
       <c r="N173" s="5">
@@ -9544,20 +9562,20 @@
       <c r="B174" s="5">
         <v>194</v>
       </c>
-      <c r="C174" s="8" t="s">
+      <c r="C174" s="26" t="s">
         <v>258</v>
       </c>
       <c r="D174" s="5">
         <v>2010</v>
       </c>
-      <c r="E174" s="14">
+      <c r="E174" s="13">
         <v>100000000</v>
       </c>
-      <c r="F174" s="17">
+      <c r="F174" s="16">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="G174" s="14" t="s">
+      <c r="G174" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H174" s="5" t="s">
@@ -9572,10 +9590,10 @@
       <c r="K174" s="5">
         <v>107</v>
       </c>
-      <c r="L174" s="20">
+      <c r="L174" s="19">
         <v>6.7</v>
       </c>
-      <c r="M174" s="20">
+      <c r="M174" s="19">
         <v>6</v>
       </c>
       <c r="N174" s="5">
@@ -9591,20 +9609,20 @@
       <c r="B175" s="5">
         <v>195</v>
       </c>
-      <c r="C175" s="8" t="s">
+      <c r="C175" s="26" t="s">
         <v>274</v>
       </c>
       <c r="D175" s="5">
         <v>2009</v>
       </c>
-      <c r="E175" s="14">
+      <c r="E175" s="13">
         <v>150000000</v>
       </c>
-      <c r="F175" s="17">
+      <c r="F175" s="16">
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="G175" s="14" t="s">
+      <c r="G175" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H175" s="5" t="s">
@@ -9619,10 +9637,10 @@
       <c r="K175" s="5">
         <v>107</v>
       </c>
-      <c r="L175" s="20">
+      <c r="L175" s="19">
         <v>6.5</v>
       </c>
-      <c r="M175" s="20">
+      <c r="M175" s="19">
         <v>4.7</v>
       </c>
       <c r="N175" s="5">
@@ -9638,20 +9656,20 @@
       <c r="B176" s="5">
         <v>196</v>
       </c>
-      <c r="C176" s="8" t="s">
+      <c r="C176" s="26" t="s">
         <v>275</v>
       </c>
       <c r="D176" s="5">
         <v>1997</v>
       </c>
-      <c r="E176" s="14">
+      <c r="E176" s="13">
         <v>45000000</v>
       </c>
-      <c r="F176" s="17">
+      <c r="F176" s="16">
         <f t="shared" si="10"/>
         <v>45</v>
       </c>
-      <c r="G176" s="14" t="s">
+      <c r="G176" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H176" s="5" t="s">
@@ -9666,10 +9684,10 @@
       <c r="K176" s="5">
         <v>89</v>
       </c>
-      <c r="L176" s="20">
+      <c r="L176" s="19">
         <v>5.7</v>
       </c>
-      <c r="M176" s="20">
+      <c r="M176" s="19">
         <v>5.6</v>
       </c>
       <c r="N176" s="5">
@@ -9685,20 +9703,20 @@
       <c r="B177" s="5">
         <v>197</v>
       </c>
-      <c r="C177" s="8" t="s">
+      <c r="C177" s="26" t="s">
         <v>276</v>
       </c>
       <c r="D177" s="5">
         <v>1997</v>
       </c>
-      <c r="E177" s="14">
+      <c r="E177" s="13">
         <v>105000000</v>
       </c>
-      <c r="F177" s="17">
+      <c r="F177" s="16">
         <f t="shared" si="10"/>
         <v>105</v>
       </c>
-      <c r="G177" s="14" t="s">
+      <c r="G177" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H177" s="5" t="s">
@@ -9713,10 +9731,10 @@
       <c r="K177" s="5">
         <v>129</v>
       </c>
-      <c r="L177" s="20">
+      <c r="L177" s="19">
         <v>6.5</v>
       </c>
-      <c r="M177" s="20">
+      <c r="M177" s="19">
         <v>7.2</v>
       </c>
       <c r="N177" s="5">
@@ -9732,20 +9750,20 @@
       <c r="B178" s="5">
         <v>198</v>
       </c>
-      <c r="C178" s="8" t="s">
+      <c r="C178" s="26" t="s">
         <v>277</v>
       </c>
       <c r="D178" s="5">
         <v>2024</v>
       </c>
-      <c r="E178" s="14">
+      <c r="E178" s="13">
         <v>110000000</v>
       </c>
-      <c r="F178" s="17">
+      <c r="F178" s="16">
         <f t="shared" si="10"/>
         <v>110</v>
       </c>
-      <c r="G178" s="14" t="s">
+      <c r="G178" s="13" t="s">
         <v>262</v>
       </c>
       <c r="H178" s="5" t="s">
@@ -9760,10 +9778,10 @@
       <c r="K178" s="5">
         <v>104</v>
       </c>
-      <c r="L178" s="20">
+      <c r="L178" s="19">
         <v>6.9</v>
       </c>
-      <c r="M178" s="20">
+      <c r="M178" s="19">
         <v>6.7</v>
       </c>
       <c r="N178" s="5">
@@ -9779,20 +9797,20 @@
       <c r="B179" s="5">
         <v>199</v>
       </c>
-      <c r="C179" s="8" t="s">
+      <c r="C179" s="26" t="s">
         <v>278</v>
       </c>
       <c r="D179" s="5">
         <v>2024</v>
       </c>
-      <c r="E179" s="22">
+      <c r="E179" s="21">
         <v>168000000</v>
       </c>
-      <c r="F179" s="23">
+      <c r="F179" s="22">
         <f t="shared" si="10"/>
         <v>168</v>
       </c>
-      <c r="G179" s="22" t="s">
+      <c r="G179" s="21" t="s">
         <v>261</v>
       </c>
       <c r="H179" s="5" t="s">
@@ -9807,10 +9825,10 @@
       <c r="K179" s="5">
         <v>148</v>
       </c>
-      <c r="L179" s="20">
+      <c r="L179" s="19">
         <v>7.2</v>
       </c>
-      <c r="M179" s="20">
+      <c r="M179" s="19">
         <v>9</v>
       </c>
       <c r="N179" s="5">
@@ -9826,20 +9844,20 @@
       <c r="B180" s="5">
         <v>200</v>
       </c>
-      <c r="C180" s="8" t="s">
+      <c r="C180" s="26" t="s">
         <v>279</v>
       </c>
       <c r="D180" s="5">
         <v>2000</v>
       </c>
-      <c r="E180" s="22">
+      <c r="E180" s="21">
         <v>23000000</v>
       </c>
-      <c r="F180" s="23">
+      <c r="F180" s="22">
         <f t="shared" si="10"/>
         <v>23</v>
       </c>
-      <c r="G180" s="22" t="s">
+      <c r="G180" s="21" t="s">
         <v>261</v>
       </c>
       <c r="H180" s="5" t="s">
@@ -9854,10 +9872,10 @@
       <c r="K180" s="5">
         <v>109</v>
       </c>
-      <c r="L180" s="20">
+      <c r="L180" s="19">
         <v>6</v>
       </c>
-      <c r="M180" s="20">
+      <c r="M180" s="19">
         <v>6.7</v>
       </c>
       <c r="N180" s="5">
@@ -9873,20 +9891,20 @@
       <c r="B181" s="5">
         <v>201</v>
       </c>
-      <c r="C181" s="8" t="s">
+      <c r="C181" s="26" t="s">
         <v>280</v>
       </c>
       <c r="D181" s="5">
         <v>2023</v>
       </c>
-      <c r="E181" s="14">
+      <c r="E181" s="13">
         <v>0</v>
       </c>
-      <c r="F181" s="23">
+      <c r="F181" s="22">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G181" s="22" t="s">
+      <c r="G181" s="21" t="s">
         <v>261</v>
       </c>
       <c r="H181" s="5" t="s">
@@ -9901,10 +9919,10 @@
       <c r="K181" s="5">
         <v>115</v>
       </c>
-      <c r="L181" s="20">
+      <c r="L181" s="19">
         <v>7.2</v>
       </c>
-      <c r="M181" s="20">
+      <c r="M181" s="19">
         <v>8.5</v>
       </c>
       <c r="N181" s="5">
@@ -9920,20 +9938,20 @@
       <c r="B182" s="5">
         <v>202</v>
       </c>
-      <c r="C182" s="8" t="s">
+      <c r="C182" s="26" t="s">
         <v>281</v>
       </c>
       <c r="D182" s="5">
         <v>2016</v>
       </c>
-      <c r="E182" s="14">
+      <c r="E182" s="13">
         <v>44000000</v>
       </c>
-      <c r="F182" s="23">
+      <c r="F182" s="22">
         <f t="shared" si="10"/>
         <v>44</v>
       </c>
-      <c r="G182" s="14" t="s">
+      <c r="G182" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H182" s="5" t="s">
@@ -9948,10 +9966,10 @@
       <c r="K182" s="5">
         <v>128</v>
       </c>
-      <c r="L182" s="20">
+      <c r="L182" s="19">
         <v>7.7</v>
       </c>
-      <c r="M182" s="20">
+      <c r="M182" s="19">
         <v>6.2</v>
       </c>
       <c r="N182" s="5">
@@ -9967,20 +9985,20 @@
       <c r="B183" s="5">
         <v>203</v>
       </c>
-      <c r="C183" s="8" t="s">
+      <c r="C183" s="26" t="s">
         <v>282</v>
       </c>
       <c r="D183" s="5">
         <v>2024</v>
       </c>
-      <c r="E183" s="14">
+      <c r="E183" s="13">
         <v>0</v>
       </c>
-      <c r="F183" s="23">
+      <c r="F183" s="22">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="G183" s="14" t="s">
+      <c r="G183" s="13" t="s">
         <v>266</v>
       </c>
       <c r="H183" s="5" t="s">
@@ -9995,10 +10013,10 @@
       <c r="K183" s="5">
         <v>106</v>
       </c>
-      <c r="L183" s="20">
+      <c r="L183" s="19">
         <v>5.6</v>
       </c>
-      <c r="M183" s="20">
+      <c r="M183" s="19">
         <v>4.8</v>
       </c>
       <c r="N183" s="5">
@@ -10014,20 +10032,20 @@
       <c r="B184" s="5">
         <v>204</v>
       </c>
-      <c r="C184" s="8" t="s">
+      <c r="C184" s="26" t="s">
         <v>283</v>
       </c>
       <c r="D184" s="5">
         <v>2024</v>
       </c>
-      <c r="E184" s="14">
+      <c r="E184" s="13">
         <v>67000000</v>
       </c>
-      <c r="F184" s="23">
+      <c r="F184" s="22">
         <f t="shared" si="10"/>
         <v>67</v>
       </c>
-      <c r="G184" s="14" t="s">
+      <c r="G184" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H184" s="5" t="s">
@@ -10042,10 +10060,10 @@
       <c r="K184" s="5">
         <v>100</v>
       </c>
-      <c r="L184" s="20">
+      <c r="L184" s="19">
         <v>8.1999999999999993</v>
       </c>
-      <c r="M184" s="20">
+      <c r="M184" s="19">
         <v>7</v>
       </c>
       <c r="N184" s="5">
@@ -10061,20 +10079,20 @@
       <c r="B185" s="5">
         <v>205</v>
       </c>
-      <c r="C185" s="8" t="s">
+      <c r="C185" s="26" t="s">
         <v>284</v>
       </c>
       <c r="D185" s="5">
         <v>2024</v>
       </c>
-      <c r="E185" s="14">
+      <c r="E185" s="13">
         <v>150000000</v>
       </c>
-      <c r="F185" s="23">
+      <c r="F185" s="22">
         <f t="shared" si="10"/>
         <v>150</v>
       </c>
-      <c r="G185" s="14" t="s">
+      <c r="G185" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H185" s="5" t="s">
@@ -10089,10 +10107,10 @@
       <c r="K185" s="5">
         <v>118</v>
       </c>
-      <c r="L185" s="20">
+      <c r="L185" s="19">
         <v>7.2</v>
       </c>
-      <c r="M185" s="20">
+      <c r="M185" s="19">
         <v>7</v>
       </c>
       <c r="N185" s="5">
@@ -10108,20 +10126,20 @@
       <c r="B186" s="5">
         <v>206</v>
       </c>
-      <c r="C186" s="8" t="s">
+      <c r="C186" s="26" t="s">
         <v>285</v>
       </c>
       <c r="D186" s="5">
         <v>2024</v>
       </c>
-      <c r="E186" s="14">
+      <c r="E186" s="13">
         <v>155000000</v>
       </c>
-      <c r="F186" s="23">
+      <c r="F186" s="22">
         <f t="shared" si="10"/>
         <v>155</v>
       </c>
-      <c r="G186" s="14" t="s">
+      <c r="G186" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H186" s="5" t="s">
@@ -10136,10 +10154,10 @@
       <c r="K186" s="5">
         <v>122</v>
       </c>
-      <c r="L186" s="20">
+      <c r="L186" s="19">
         <v>6</v>
       </c>
-      <c r="M186" s="20">
+      <c r="M186" s="19">
         <v>6.8</v>
       </c>
       <c r="N186" s="5">
@@ -10155,20 +10173,20 @@
       <c r="B187" s="5">
         <v>207</v>
       </c>
-      <c r="C187" s="8" t="s">
+      <c r="C187" s="26" t="s">
         <v>286</v>
       </c>
       <c r="D187" s="5">
         <v>2024</v>
       </c>
-      <c r="E187" s="14">
+      <c r="E187" s="13">
         <v>200000000</v>
       </c>
-      <c r="F187" s="23">
+      <c r="F187" s="22">
         <f t="shared" si="10"/>
         <v>200</v>
       </c>
-      <c r="G187" s="14" t="s">
+      <c r="G187" s="13" t="s">
         <v>261</v>
       </c>
       <c r="H187" s="5" t="s">
@@ -10183,10 +10201,10 @@
       <c r="K187" s="5">
         <v>127</v>
       </c>
-      <c r="L187" s="20">
+      <c r="L187" s="19">
         <v>9.1</v>
       </c>
-      <c r="M187" s="20">
+      <c r="M187" s="19">
         <v>8.8000000000000007</v>
       </c>
       <c r="N187" s="5">
@@ -10202,20 +10220,20 @@
       <c r="B188" s="5">
         <v>208</v>
       </c>
-      <c r="C188" s="8" t="s">
+      <c r="C188" s="26" t="s">
         <v>287</v>
       </c>
       <c r="D188" s="5">
         <v>2024</v>
       </c>
-      <c r="E188" s="14">
+      <c r="E188" s="13">
         <v>30000000</v>
       </c>
-      <c r="F188" s="23">
+      <c r="F188" s="22">
         <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="G188" s="14" t="s">
+      <c r="G188" s="13" t="s">
         <v>260</v>
       </c>
       <c r="H188" s="5" t="s">
@@ -10230,10 +10248,10 @@
       <c r="K188" s="5">
         <v>105</v>
       </c>
-      <c r="L188" s="20">
+      <c r="L188" s="19">
         <v>4.9000000000000004</v>
       </c>
-      <c r="M188" s="20">
+      <c r="M188" s="19">
         <v>5.2</v>
       </c>
       <c r="N188" s="5">
@@ -10249,13 +10267,13 @@
       <c r="B189" s="5">
         <v>209</v>
       </c>
-      <c r="C189" s="5" t="s">
+      <c r="C189" s="26" t="s">
         <v>288</v>
       </c>
       <c r="D189" s="5">
         <v>2012</v>
       </c>
-      <c r="E189" s="14">
+      <c r="E189" s="13">
         <v>125000000</v>
       </c>
       <c r="F189" s="5">
@@ -10290,43 +10308,194 @@
       <c r="O189" s="5"/>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="C190" s="1"/>
-      <c r="E190" s="1"/>
-      <c r="F190" s="1"/>
-      <c r="G190" s="1"/>
-      <c r="L190" s="1"/>
-      <c r="M190" s="1"/>
-      <c r="O190" s="1"/>
+      <c r="A190" s="5">
+        <v>189</v>
+      </c>
+      <c r="B190" s="5">
+        <v>210</v>
+      </c>
+      <c r="C190" s="26" t="s">
+        <v>289</v>
+      </c>
+      <c r="D190" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E190" s="13">
+        <v>80000000</v>
+      </c>
+      <c r="F190" s="5">
+        <f t="shared" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="G190" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H190" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I190" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J190" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="K190" s="5">
+        <v>119</v>
+      </c>
+      <c r="L190" s="5">
+        <v>8.6</v>
+      </c>
+      <c r="M190" s="5">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N190" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.20000000000000107</v>
+      </c>
+      <c r="O190" s="5"/>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="C191" s="1"/>
-      <c r="E191" s="1"/>
-      <c r="F191" s="1"/>
-      <c r="G191" s="1"/>
-      <c r="L191" s="1"/>
-      <c r="M191" s="1"/>
-      <c r="O191" s="1"/>
+      <c r="A191" s="5">
+        <v>190</v>
+      </c>
+      <c r="B191" s="5">
+        <v>211</v>
+      </c>
+      <c r="C191" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="D191" s="5">
+        <v>1994</v>
+      </c>
+      <c r="E191" s="13">
+        <v>27000000</v>
+      </c>
+      <c r="F191" s="5">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="G191" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H191" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I191" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="J191" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K191" s="5">
+        <v>99</v>
+      </c>
+      <c r="L191" s="5">
+        <v>7.7</v>
+      </c>
+      <c r="M191" s="5">
+        <v>6.2</v>
+      </c>
+      <c r="N191" s="5">
+        <f t="shared" si="11"/>
+        <v>1.5</v>
+      </c>
+      <c r="O191" s="5"/>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="C192" s="1"/>
-      <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
-      <c r="G192" s="1"/>
-      <c r="L192" s="1"/>
-      <c r="M192" s="1"/>
-      <c r="O192" s="1"/>
-    </row>
-    <row r="193" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C193" s="1"/>
-      <c r="E193" s="1"/>
-      <c r="F193" s="1"/>
-      <c r="G193" s="1"/>
-      <c r="L193" s="1"/>
-      <c r="M193" s="1"/>
-      <c r="O193" s="1"/>
-    </row>
-    <row r="194" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C194" s="1"/>
+      <c r="A192" s="5">
+        <v>191</v>
+      </c>
+      <c r="B192" s="5">
+        <v>212</v>
+      </c>
+      <c r="C192" s="26" t="s">
+        <v>291</v>
+      </c>
+      <c r="D192" s="5">
+        <v>1988</v>
+      </c>
+      <c r="E192" s="13">
+        <v>15000000</v>
+      </c>
+      <c r="F192" s="5">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="G192" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="H192" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I192" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="J192" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="K192" s="5">
+        <v>92</v>
+      </c>
+      <c r="L192" s="5">
+        <v>7.3</v>
+      </c>
+      <c r="M192" s="5">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N192" s="5">
+        <f t="shared" si="11"/>
+        <v>-1.0000000000000009</v>
+      </c>
+      <c r="O192" s="5"/>
+    </row>
+    <row r="193" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A193" s="5">
+        <v>192</v>
+      </c>
+      <c r="B193" s="5">
+        <v>213</v>
+      </c>
+      <c r="C193" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="D193" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E193" s="13">
+        <v>100000000</v>
+      </c>
+      <c r="F193" s="5">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="G193" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="H193" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I193" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="J193" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="K193" s="5">
+        <v>105</v>
+      </c>
+      <c r="L193" s="5">
+        <v>6.3</v>
+      </c>
+      <c r="M193" s="5">
+        <v>7</v>
+      </c>
+      <c r="N193" s="5">
+        <f t="shared" si="11"/>
+        <v>-0.70000000000000018</v>
+      </c>
+      <c r="O193" s="5"/>
+    </row>
+    <row r="194" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
       <c r="G194" s="1"/>
@@ -10334,8 +10503,7 @@
       <c r="M194" s="1"/>
       <c r="O194" s="1"/>
     </row>
-    <row r="195" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C195" s="1"/>
+    <row r="195" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
       <c r="G195" s="1"/>
@@ -10343,8 +10511,7 @@
       <c r="M195" s="1"/>
       <c r="O195" s="1"/>
     </row>
-    <row r="196" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C196" s="1"/>
+    <row r="196" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
       <c r="G196" s="1"/>
@@ -10352,8 +10519,7 @@
       <c r="M196" s="1"/>
       <c r="O196" s="1"/>
     </row>
-    <row r="197" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C197" s="1"/>
+    <row r="197" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
       <c r="G197" s="1"/>
@@ -10361,8 +10527,7 @@
       <c r="M197" s="1"/>
       <c r="O197" s="1"/>
     </row>
-    <row r="198" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C198" s="1"/>
+    <row r="198" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
       <c r="G198" s="1"/>
@@ -10370,8 +10535,7 @@
       <c r="M198" s="1"/>
       <c r="O198" s="1"/>
     </row>
-    <row r="199" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C199" s="1"/>
+    <row r="199" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
       <c r="G199" s="1"/>
@@ -10379,8 +10543,7 @@
       <c r="M199" s="1"/>
       <c r="O199" s="1"/>
     </row>
-    <row r="200" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C200" s="1"/>
+    <row r="200" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
       <c r="G200" s="1"/>
@@ -10388,8 +10551,7 @@
       <c r="M200" s="1"/>
       <c r="O200" s="1"/>
     </row>
-    <row r="201" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C201" s="1"/>
+    <row r="201" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
       <c r="G201" s="1"/>
@@ -10397,8 +10559,7 @@
       <c r="M201" s="1"/>
       <c r="O201" s="1"/>
     </row>
-    <row r="202" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C202" s="1"/>
+    <row r="202" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
@@ -10406,8 +10567,7 @@
       <c r="M202" s="1"/>
       <c r="O202" s="1"/>
     </row>
-    <row r="203" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C203" s="1"/>
+    <row r="203" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
@@ -10415,8 +10575,7 @@
       <c r="M203" s="1"/>
       <c r="O203" s="1"/>
     </row>
-    <row r="204" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C204" s="1"/>
+    <row r="204" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
@@ -10424,8 +10583,7 @@
       <c r="M204" s="1"/>
       <c r="O204" s="1"/>
     </row>
-    <row r="205" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C205" s="1"/>
+    <row r="205" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
@@ -10433,8 +10591,7 @@
       <c r="M205" s="1"/>
       <c r="O205" s="1"/>
     </row>
-    <row r="206" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C206" s="1"/>
+    <row r="206" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
@@ -10442,8 +10599,7 @@
       <c r="M206" s="1"/>
       <c r="O206" s="1"/>
     </row>
-    <row r="207" spans="3:15" x14ac:dyDescent="0.45">
-      <c r="C207" s="1"/>
+    <row r="207" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
@@ -10500,10 +10656,10 @@
       <c r="D1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>259</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -10544,8 +10700,8 @@
       <c r="D2" s="5">
         <v>2013</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="5" t="s">
         <v>8</v>
       </c>
@@ -10579,8 +10735,8 @@
       <c r="D3" s="5">
         <v>2020</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="5" t="s">
         <v>8</v>
       </c>
@@ -10614,8 +10770,8 @@
       <c r="D4" s="5">
         <v>2020</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
       <c r="G4" s="5" t="s">
         <v>8</v>
       </c>
@@ -10647,8 +10803,8 @@
       <c r="D5" s="5">
         <v>2001</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
@@ -10682,8 +10838,8 @@
       <c r="D6" s="5">
         <v>2021</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="5" t="s">
         <v>8</v>
       </c>
@@ -10717,8 +10873,8 @@
       <c r="D7" s="5">
         <v>2021</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="5" t="s">
         <v>8</v>
       </c>
@@ -10752,8 +10908,8 @@
       <c r="D8" s="5">
         <v>2021</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="5" t="s">
         <v>8</v>
       </c>
@@ -10787,8 +10943,8 @@
       <c r="D9" s="5">
         <v>2009</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="5" t="s">
         <v>8</v>
       </c>
@@ -10824,8 +10980,8 @@
       <c r="D10" s="5">
         <v>2020</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="5" t="s">
         <v>8</v>
       </c>
@@ -10859,8 +11015,8 @@
       <c r="D11" s="5">
         <v>2021</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>8</v>
       </c>
@@ -10894,8 +11050,8 @@
       <c r="D12" s="5">
         <v>2022</v>
       </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="5" t="s">
         <v>8</v>
       </c>
@@ -10929,8 +11085,8 @@
       <c r="D13" s="5">
         <v>2023</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="5" t="s">
         <v>8</v>
       </c>
@@ -11331,7 +11487,7 @@
       <c r="A15" s="5">
         <v>100</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>129</v>
       </c>
       <c r="C15" s="6"/>
@@ -11343,10 +11499,10 @@
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="11">
+      <c r="H15" s="10">
         <v>2</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="10">
         <v>3</v>
       </c>
       <c r="J15" s="5">
@@ -11358,7 +11514,7 @@
       <c r="A16" s="5">
         <v>100</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="9" t="s">
         <v>130</v>
       </c>
       <c r="C16" s="6"/>
@@ -11370,10 +11526,10 @@
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <v>1</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="10">
         <v>2</v>
       </c>
       <c r="J16" s="5">
@@ -11385,7 +11541,7 @@
       <c r="A17" s="5">
         <v>100</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>131</v>
       </c>
       <c r="C17" s="6"/>
@@ -11397,10 +11553,10 @@
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="H17" s="11">
+      <c r="H17" s="10">
         <v>5</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="10">
         <v>5</v>
       </c>
       <c r="J17" s="5">
@@ -11412,7 +11568,7 @@
       <c r="A18" s="5">
         <v>100</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>132</v>
       </c>
       <c r="C18" s="6"/>
@@ -11424,10 +11580,10 @@
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="11">
+      <c r="H18" s="10">
         <v>6</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="10">
         <v>7</v>
       </c>
       <c r="J18" s="5">
@@ -11439,7 +11595,7 @@
       <c r="A19" s="5">
         <v>100</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>133</v>
       </c>
       <c r="C19" s="6"/>
@@ -11451,10 +11607,10 @@
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="11">
+      <c r="H19" s="10">
         <v>9</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="10">
         <v>9</v>
       </c>
       <c r="J19" s="5">
@@ -11466,7 +11622,7 @@
       <c r="A20" s="5">
         <v>100</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="9" t="s">
         <v>134</v>
       </c>
       <c r="C20" s="6"/>
@@ -11478,10 +11634,10 @@
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="11">
+      <c r="H20" s="10">
         <v>3</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="10">
         <v>8</v>
       </c>
       <c r="J20" s="5">
@@ -11493,7 +11649,7 @@
       <c r="A21" s="5">
         <v>100</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="9" t="s">
         <v>135</v>
       </c>
       <c r="C21" s="6"/>
@@ -11505,10 +11661,10 @@
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="11">
+      <c r="H21" s="10">
         <v>7</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="10">
         <v>6</v>
       </c>
       <c r="J21" s="5">
@@ -11520,7 +11676,7 @@
       <c r="A22" s="5">
         <v>100</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>136</v>
       </c>
       <c r="C22" s="6"/>
@@ -11532,10 +11688,10 @@
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="11">
-        <v>4</v>
-      </c>
-      <c r="I22" s="11">
+      <c r="H22" s="10">
+        <v>4</v>
+      </c>
+      <c r="I22" s="10">
         <v>4</v>
       </c>
       <c r="J22" s="5">
@@ -11547,7 +11703,7 @@
       <c r="A23" s="5">
         <v>100</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="9" t="s">
         <v>137</v>
       </c>
       <c r="C23" s="6"/>
@@ -11559,10 +11715,10 @@
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="11">
+      <c r="H23" s="10">
         <v>8</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="10">
         <v>1</v>
       </c>
       <c r="J23" s="5">
@@ -11574,7 +11730,7 @@
       <c r="A24" s="5">
         <v>100</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>138</v>
       </c>
       <c r="C24" s="6"/>
@@ -11586,10 +11742,10 @@
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
-      <c r="H24" s="11">
+      <c r="H24" s="10">
         <v>11</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="10">
         <v>10</v>
       </c>
       <c r="J24" s="5">
@@ -11601,7 +11757,7 @@
       <c r="A25" s="5">
         <v>100</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="9" t="s">
         <v>139</v>
       </c>
       <c r="C25" s="6"/>
@@ -11613,10 +11769,10 @@
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
-      <c r="H25" s="11">
+      <c r="H25" s="10">
         <v>10</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="10">
         <v>11</v>
       </c>
       <c r="J25" s="5">

--- a/Data/BryanVsBryan_Data.xlsx
+++ b/Data/BryanVsBryan_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kraem\OneDrive\Data_Science\Visualization_Project_Podcast\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACA8C9E-7365-44C3-850C-68F33C775C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC6E6E7-BE2D-4F0F-B507-799983C0F7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{1B70641D-B009-4E91-B3D5-80C95BCC6CD5}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="297">
   <si>
     <t>Episode</t>
   </si>
@@ -926,6 +926,12 @@
   </si>
   <si>
     <t>Beetlejuice Beetlejuice</t>
+  </si>
+  <si>
+    <t>Street Fighter (1994)</t>
+  </si>
+  <si>
+    <t>Martial Arts</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1016,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1078,9 +1084,6 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1427,8 +1430,8 @@
   <cols>
     <col min="1" max="1" width="14.796875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.9296875" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.86328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.265625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.796875" style="17" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" style="14" bestFit="1" customWidth="1"/>
@@ -1449,7 +1452,7 @@
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="23" t="s">
@@ -1496,7 +1499,7 @@
       <c r="B2" s="5">
         <v>8</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="5">
@@ -1545,7 +1548,7 @@
       <c r="B3" s="5">
         <v>10</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="6" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="5">
@@ -1592,7 +1595,7 @@
       <c r="B4" s="5">
         <v>10</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="5">
@@ -1639,7 +1642,7 @@
       <c r="B5" s="5">
         <v>10</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="5">
@@ -1688,7 +1691,7 @@
       <c r="B6" s="5">
         <v>12</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="5">
@@ -1737,7 +1740,7 @@
       <c r="B7" s="5">
         <v>12</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D7" s="5">
@@ -1786,7 +1789,7 @@
       <c r="B8" s="5">
         <v>12</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="6" t="s">
         <v>60</v>
       </c>
       <c r="D8" s="5">
@@ -1835,7 +1838,7 @@
       <c r="B9" s="5">
         <v>16</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D9" s="5">
@@ -1880,7 +1883,7 @@
       <c r="B10" s="5">
         <v>18</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D10" s="5">
@@ -1925,7 +1928,7 @@
       <c r="B11" s="5">
         <v>20</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="6" t="s">
         <v>43</v>
       </c>
       <c r="D11" s="5">
@@ -1974,7 +1977,7 @@
       <c r="B12" s="5">
         <v>21</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="5">
@@ -2019,7 +2022,7 @@
       <c r="B13" s="5">
         <v>24</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="6" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="5">
@@ -2064,7 +2067,7 @@
       <c r="B14" s="5">
         <v>27</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="6" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="5">
@@ -2111,7 +2114,7 @@
       <c r="B15" s="5">
         <v>28</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="6" t="s">
         <v>52</v>
       </c>
       <c r="D15" s="5">
@@ -2158,7 +2161,7 @@
       <c r="B16" s="5">
         <v>30</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D16" s="5">
@@ -2205,7 +2208,7 @@
       <c r="B17" s="5">
         <v>31</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="6" t="s">
         <v>55</v>
       </c>
       <c r="D17" s="5">
@@ -2250,7 +2253,7 @@
       <c r="B18" s="5">
         <v>32</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="6" t="s">
         <v>56</v>
       </c>
       <c r="D18" s="5">
@@ -2297,7 +2300,7 @@
       <c r="B19" s="5">
         <v>33</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D19" s="5">
@@ -2342,7 +2345,7 @@
       <c r="B20" s="5">
         <v>34</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D20" s="5">
@@ -2389,7 +2392,7 @@
       <c r="B21" s="5">
         <v>35</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="6" t="s">
         <v>63</v>
       </c>
       <c r="D21" s="5">
@@ -2436,7 +2439,7 @@
       <c r="B22" s="5">
         <v>37</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="6" t="s">
         <v>264</v>
       </c>
       <c r="D22" s="5">
@@ -2483,7 +2486,7 @@
       <c r="B23" s="5">
         <v>37</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="6" t="s">
         <v>64</v>
       </c>
       <c r="D23" s="5">
@@ -2530,7 +2533,7 @@
       <c r="B24" s="5">
         <v>38</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="6" t="s">
         <v>65</v>
       </c>
       <c r="D24" s="5">
@@ -2577,7 +2580,7 @@
       <c r="B25" s="5">
         <v>39</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="6" t="s">
         <v>66</v>
       </c>
       <c r="D25" s="5">
@@ -2624,7 +2627,7 @@
       <c r="B26" s="5">
         <v>41</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="6" t="s">
         <v>68</v>
       </c>
       <c r="D26" s="5">
@@ -2671,7 +2674,7 @@
       <c r="B27" s="5">
         <v>42</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="6" t="s">
         <v>69</v>
       </c>
       <c r="D27" s="5">
@@ -2718,7 +2721,7 @@
       <c r="B28" s="5">
         <v>44</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="6" t="s">
         <v>72</v>
       </c>
       <c r="D28" s="5">
@@ -2765,7 +2768,7 @@
       <c r="B29" s="5">
         <v>44</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="6" t="s">
         <v>73</v>
       </c>
       <c r="D29" s="5">
@@ -2812,7 +2815,7 @@
       <c r="B30" s="5">
         <v>44</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="6" t="s">
         <v>70</v>
       </c>
       <c r="D30" s="5">
@@ -2859,7 +2862,7 @@
       <c r="B31" s="5">
         <v>47</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="6" t="s">
         <v>76</v>
       </c>
       <c r="D31" s="5">
@@ -2906,7 +2909,7 @@
       <c r="B32" s="5">
         <v>48</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="6" t="s">
         <v>81</v>
       </c>
       <c r="D32" s="5">
@@ -2953,7 +2956,7 @@
       <c r="B33" s="5">
         <v>50</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="6" t="s">
         <v>88</v>
       </c>
       <c r="D33" s="5">
@@ -3000,7 +3003,7 @@
       <c r="B34" s="5">
         <v>50</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D34" s="5">
@@ -3047,7 +3050,7 @@
       <c r="B35" s="5">
         <v>51</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="6" t="s">
         <v>84</v>
       </c>
       <c r="D35" s="5">
@@ -3094,7 +3097,7 @@
       <c r="B36" s="5">
         <v>52</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="6" t="s">
         <v>85</v>
       </c>
       <c r="D36" s="5">
@@ -3141,7 +3144,7 @@
       <c r="B37" s="5">
         <v>52</v>
       </c>
-      <c r="C37" s="26" t="s">
+      <c r="C37" s="6" t="s">
         <v>87</v>
       </c>
       <c r="D37" s="5">
@@ -3190,7 +3193,7 @@
       <c r="B38" s="5">
         <v>53</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="6" t="s">
         <v>89</v>
       </c>
       <c r="D38" s="5">
@@ -3237,7 +3240,7 @@
       <c r="B39" s="5">
         <v>54</v>
       </c>
-      <c r="C39" s="26" t="s">
+      <c r="C39" s="6" t="s">
         <v>200</v>
       </c>
       <c r="D39" s="5">
@@ -3284,7 +3287,7 @@
       <c r="B40" s="5">
         <v>55</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="6" t="s">
         <v>90</v>
       </c>
       <c r="D40" s="5">
@@ -3331,7 +3334,7 @@
       <c r="B41" s="5">
         <v>57</v>
       </c>
-      <c r="C41" s="26" t="s">
+      <c r="C41" s="6" t="s">
         <v>92</v>
       </c>
       <c r="D41" s="5">
@@ -3378,7 +3381,7 @@
       <c r="B42" s="5">
         <v>58</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="6" t="s">
         <v>93</v>
       </c>
       <c r="D42" s="5">
@@ -3425,7 +3428,7 @@
       <c r="B43" s="5">
         <v>59</v>
       </c>
-      <c r="C43" s="26" t="s">
+      <c r="C43" s="6" t="s">
         <v>94</v>
       </c>
       <c r="D43" s="5">
@@ -3470,7 +3473,7 @@
       <c r="B44" s="5">
         <v>60</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="6" t="s">
         <v>95</v>
       </c>
       <c r="D44" s="5">
@@ -3517,7 +3520,7 @@
       <c r="B45" s="5">
         <v>61</v>
       </c>
-      <c r="C45" s="26" t="s">
+      <c r="C45" s="6" t="s">
         <v>96</v>
       </c>
       <c r="D45" s="5">
@@ -3564,7 +3567,7 @@
       <c r="B46" s="5">
         <v>62</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="6" t="s">
         <v>101</v>
       </c>
       <c r="D46" s="5">
@@ -3611,7 +3614,7 @@
       <c r="B47" s="5">
         <v>63</v>
       </c>
-      <c r="C47" s="26" t="s">
+      <c r="C47" s="6" t="s">
         <v>103</v>
       </c>
       <c r="D47" s="5">
@@ -3658,7 +3661,7 @@
       <c r="B48" s="5">
         <v>64</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="6" t="s">
         <v>110</v>
       </c>
       <c r="D48" s="5">
@@ -3705,7 +3708,7 @@
       <c r="B49" s="5">
         <v>65</v>
       </c>
-      <c r="C49" s="26" t="s">
+      <c r="C49" s="6" t="s">
         <v>111</v>
       </c>
       <c r="D49" s="5">
@@ -3752,7 +3755,7 @@
       <c r="B50" s="5">
         <v>66</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="6" t="s">
         <v>112</v>
       </c>
       <c r="D50" s="5">
@@ -3799,7 +3802,7 @@
       <c r="B51" s="5">
         <v>67</v>
       </c>
-      <c r="C51" s="26" t="s">
+      <c r="C51" s="6" t="s">
         <v>113</v>
       </c>
       <c r="D51" s="5">
@@ -3846,7 +3849,7 @@
       <c r="B52" s="5">
         <v>68</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="6" t="s">
         <v>239</v>
       </c>
       <c r="D52" s="5">
@@ -3893,7 +3896,7 @@
       <c r="B53" s="5">
         <v>69</v>
       </c>
-      <c r="C53" s="26" t="s">
+      <c r="C53" s="6" t="s">
         <v>114</v>
       </c>
       <c r="D53" s="5">
@@ -3940,7 +3943,7 @@
       <c r="B54" s="5">
         <v>70</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="C54" s="6" t="s">
         <v>105</v>
       </c>
       <c r="D54" s="5">
@@ -3987,7 +3990,7 @@
       <c r="B55" s="5">
         <v>70</v>
       </c>
-      <c r="C55" s="26" t="s">
+      <c r="C55" s="6" t="s">
         <v>106</v>
       </c>
       <c r="D55" s="5">
@@ -4032,7 +4035,7 @@
       <c r="B56" s="5">
         <v>72</v>
       </c>
-      <c r="C56" s="26" t="s">
+      <c r="C56" s="6" t="s">
         <v>104</v>
       </c>
       <c r="D56" s="5">
@@ -4077,7 +4080,7 @@
       <c r="B57" s="5">
         <v>72</v>
       </c>
-      <c r="C57" s="26" t="s">
+      <c r="C57" s="6" t="s">
         <v>107</v>
       </c>
       <c r="D57" s="5">
@@ -4124,7 +4127,7 @@
       <c r="B58" s="5">
         <v>73</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C58" s="6" t="s">
         <v>109</v>
       </c>
       <c r="D58" s="5">
@@ -4171,7 +4174,7 @@
       <c r="B59" s="5">
         <v>75</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C59" s="6" t="s">
         <v>116</v>
       </c>
       <c r="D59" s="5">
@@ -4218,7 +4221,7 @@
       <c r="B60" s="5">
         <v>76</v>
       </c>
-      <c r="C60" s="26" t="s">
+      <c r="C60" s="6" t="s">
         <v>118</v>
       </c>
       <c r="D60" s="5">
@@ -4265,7 +4268,7 @@
       <c r="B61" s="5">
         <v>77</v>
       </c>
-      <c r="C61" s="26" t="s">
+      <c r="C61" s="6" t="s">
         <v>119</v>
       </c>
       <c r="D61" s="5">
@@ -4312,7 +4315,7 @@
       <c r="B62" s="5">
         <v>77</v>
       </c>
-      <c r="C62" s="26" t="s">
+      <c r="C62" s="6" t="s">
         <v>120</v>
       </c>
       <c r="D62" s="5">
@@ -4359,7 +4362,7 @@
       <c r="B63" s="5">
         <v>78</v>
       </c>
-      <c r="C63" s="26" t="s">
+      <c r="C63" s="6" t="s">
         <v>121</v>
       </c>
       <c r="D63" s="5">
@@ -4406,7 +4409,7 @@
       <c r="B64" s="5">
         <v>79</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C64" s="6" t="s">
         <v>122</v>
       </c>
       <c r="D64" s="5">
@@ -4453,7 +4456,7 @@
       <c r="B65" s="5">
         <v>80</v>
       </c>
-      <c r="C65" s="26" t="s">
+      <c r="C65" s="6" t="s">
         <v>123</v>
       </c>
       <c r="D65" s="5">
@@ -4500,7 +4503,7 @@
       <c r="B66" s="5">
         <v>81</v>
       </c>
-      <c r="C66" s="26" t="s">
+      <c r="C66" s="6" t="s">
         <v>124</v>
       </c>
       <c r="D66" s="5">
@@ -4547,7 +4550,7 @@
       <c r="B67" s="5">
         <v>83</v>
       </c>
-      <c r="C67" s="26" t="s">
+      <c r="C67" s="6" t="s">
         <v>126</v>
       </c>
       <c r="D67" s="5">
@@ -4592,7 +4595,7 @@
       <c r="B68" s="5">
         <v>83</v>
       </c>
-      <c r="C68" s="26" t="s">
+      <c r="C68" s="6" t="s">
         <v>127</v>
       </c>
       <c r="D68" s="5">
@@ -4639,7 +4642,7 @@
       <c r="B69" s="5">
         <v>84</v>
       </c>
-      <c r="C69" s="26" t="s">
+      <c r="C69" s="6" t="s">
         <v>140</v>
       </c>
       <c r="D69" s="5">
@@ -4686,7 +4689,7 @@
       <c r="B70" s="5">
         <v>85</v>
       </c>
-      <c r="C70" s="26" t="s">
+      <c r="C70" s="6" t="s">
         <v>141</v>
       </c>
       <c r="D70" s="5">
@@ -4733,7 +4736,7 @@
       <c r="B71" s="5">
         <v>87</v>
       </c>
-      <c r="C71" s="26" t="s">
+      <c r="C71" s="6" t="s">
         <v>142</v>
       </c>
       <c r="D71" s="5">
@@ -4780,7 +4783,7 @@
       <c r="B72" s="5">
         <v>88</v>
       </c>
-      <c r="C72" s="26" t="s">
+      <c r="C72" s="6" t="s">
         <v>143</v>
       </c>
       <c r="D72" s="5">
@@ -4827,7 +4830,7 @@
       <c r="B73" s="5">
         <v>89</v>
       </c>
-      <c r="C73" s="26" t="s">
+      <c r="C73" s="6" t="s">
         <v>144</v>
       </c>
       <c r="D73" s="5">
@@ -4874,7 +4877,7 @@
       <c r="B74" s="5">
         <v>90</v>
       </c>
-      <c r="C74" s="26" t="s">
+      <c r="C74" s="6" t="s">
         <v>243</v>
       </c>
       <c r="D74" s="5">
@@ -4921,7 +4924,7 @@
       <c r="B75" s="5">
         <v>91</v>
       </c>
-      <c r="C75" s="26" t="s">
+      <c r="C75" s="6" t="s">
         <v>145</v>
       </c>
       <c r="D75" s="5">
@@ -4966,7 +4969,7 @@
       <c r="B76" s="5">
         <v>92</v>
       </c>
-      <c r="C76" s="26" t="s">
+      <c r="C76" s="6" t="s">
         <v>146</v>
       </c>
       <c r="D76" s="5">
@@ -5013,7 +5016,7 @@
       <c r="B77" s="5">
         <v>93</v>
       </c>
-      <c r="C77" s="26" t="s">
+      <c r="C77" s="6" t="s">
         <v>244</v>
       </c>
       <c r="D77" s="5">
@@ -5060,7 +5063,7 @@
       <c r="B78" s="5">
         <v>94</v>
       </c>
-      <c r="C78" s="26" t="s">
+      <c r="C78" s="6" t="s">
         <v>147</v>
       </c>
       <c r="D78" s="5">
@@ -5107,7 +5110,7 @@
       <c r="B79" s="5">
         <v>97</v>
       </c>
-      <c r="C79" s="26" t="s">
+      <c r="C79" s="6" t="s">
         <v>148</v>
       </c>
       <c r="D79" s="5">
@@ -5154,7 +5157,7 @@
       <c r="B80" s="5">
         <v>98</v>
       </c>
-      <c r="C80" s="26" t="s">
+      <c r="C80" s="6" t="s">
         <v>149</v>
       </c>
       <c r="D80" s="5">
@@ -5201,7 +5204,7 @@
       <c r="B81" s="5">
         <v>101</v>
       </c>
-      <c r="C81" s="26" t="s">
+      <c r="C81" s="6" t="s">
         <v>151</v>
       </c>
       <c r="D81" s="5">
@@ -5246,7 +5249,7 @@
       <c r="B82" s="5">
         <v>102</v>
       </c>
-      <c r="C82" s="26" t="s">
+      <c r="C82" s="6" t="s">
         <v>152</v>
       </c>
       <c r="D82" s="5">
@@ -5293,7 +5296,7 @@
       <c r="B83" s="5">
         <v>103</v>
       </c>
-      <c r="C83" s="26" t="s">
+      <c r="C83" s="6" t="s">
         <v>153</v>
       </c>
       <c r="D83" s="5">
@@ -5340,7 +5343,7 @@
       <c r="B84" s="5">
         <v>103</v>
       </c>
-      <c r="C84" s="26" t="s">
+      <c r="C84" s="6" t="s">
         <v>154</v>
       </c>
       <c r="D84" s="5">
@@ -5389,7 +5392,7 @@
       <c r="B85" s="5">
         <v>103</v>
       </c>
-      <c r="C85" s="26" t="s">
+      <c r="C85" s="6" t="s">
         <v>155</v>
       </c>
       <c r="D85" s="5">
@@ -5438,7 +5441,7 @@
       <c r="B86" s="5">
         <v>104</v>
       </c>
-      <c r="C86" s="26" t="s">
+      <c r="C86" s="6" t="s">
         <v>157</v>
       </c>
       <c r="D86" s="5">
@@ -5485,7 +5488,7 @@
       <c r="B87" s="5">
         <v>105</v>
       </c>
-      <c r="C87" s="26" t="s">
+      <c r="C87" s="6" t="s">
         <v>158</v>
       </c>
       <c r="D87" s="5">
@@ -5532,7 +5535,7 @@
       <c r="B88" s="5">
         <v>106</v>
       </c>
-      <c r="C88" s="26" t="s">
+      <c r="C88" s="6" t="s">
         <v>159</v>
       </c>
       <c r="D88" s="5">
@@ -5579,7 +5582,7 @@
       <c r="B89" s="5">
         <v>107</v>
       </c>
-      <c r="C89" s="26" t="s">
+      <c r="C89" s="6" t="s">
         <v>160</v>
       </c>
       <c r="D89" s="5">
@@ -5626,7 +5629,7 @@
       <c r="B90" s="5">
         <v>108</v>
       </c>
-      <c r="C90" s="26" t="s">
+      <c r="C90" s="6" t="s">
         <v>161</v>
       </c>
       <c r="D90" s="5">
@@ -5673,7 +5676,7 @@
       <c r="B91" s="5">
         <v>109</v>
       </c>
-      <c r="C91" s="26" t="s">
+      <c r="C91" s="6" t="s">
         <v>162</v>
       </c>
       <c r="D91" s="5">
@@ -5720,7 +5723,7 @@
       <c r="B92" s="5">
         <v>110</v>
       </c>
-      <c r="C92" s="26" t="s">
+      <c r="C92" s="6" t="s">
         <v>163</v>
       </c>
       <c r="D92" s="5">
@@ -5767,7 +5770,7 @@
       <c r="B93" s="5">
         <v>111</v>
       </c>
-      <c r="C93" s="26" t="s">
+      <c r="C93" s="6" t="s">
         <v>247</v>
       </c>
       <c r="D93" s="5">
@@ -5812,7 +5815,7 @@
       <c r="B94" s="5">
         <v>113</v>
       </c>
-      <c r="C94" s="26" t="s">
+      <c r="C94" s="6" t="s">
         <v>164</v>
       </c>
       <c r="D94" s="5">
@@ -5859,7 +5862,7 @@
       <c r="B95" s="5">
         <v>114</v>
       </c>
-      <c r="C95" s="26" t="s">
+      <c r="C95" s="6" t="s">
         <v>165</v>
       </c>
       <c r="D95" s="5">
@@ -5906,7 +5909,7 @@
       <c r="B96" s="5">
         <v>115</v>
       </c>
-      <c r="C96" s="26" t="s">
+      <c r="C96" s="6" t="s">
         <v>166</v>
       </c>
       <c r="D96" s="5">
@@ -5953,7 +5956,7 @@
       <c r="B97" s="5">
         <v>116</v>
       </c>
-      <c r="C97" s="26" t="s">
+      <c r="C97" s="6" t="s">
         <v>167</v>
       </c>
       <c r="D97" s="5">
@@ -6000,7 +6003,7 @@
       <c r="B98" s="5">
         <v>117</v>
       </c>
-      <c r="C98" s="26" t="s">
+      <c r="C98" s="6" t="s">
         <v>168</v>
       </c>
       <c r="D98" s="5">
@@ -6047,7 +6050,7 @@
       <c r="B99" s="5">
         <v>118</v>
       </c>
-      <c r="C99" s="26" t="s">
+      <c r="C99" s="6" t="s">
         <v>169</v>
       </c>
       <c r="D99" s="5">
@@ -6094,7 +6097,7 @@
       <c r="B100" s="5">
         <v>119</v>
       </c>
-      <c r="C100" s="26" t="s">
+      <c r="C100" s="6" t="s">
         <v>248</v>
       </c>
       <c r="D100" s="5">
@@ -6139,7 +6142,7 @@
       <c r="B101" s="5">
         <v>120</v>
       </c>
-      <c r="C101" s="26" t="s">
+      <c r="C101" s="6" t="s">
         <v>170</v>
       </c>
       <c r="D101" s="5">
@@ -6186,7 +6189,7 @@
       <c r="B102" s="5">
         <v>121</v>
       </c>
-      <c r="C102" s="26" t="s">
+      <c r="C102" s="6" t="s">
         <v>171</v>
       </c>
       <c r="D102" s="5">
@@ -6233,7 +6236,7 @@
       <c r="B103" s="5">
         <v>122</v>
       </c>
-      <c r="C103" s="26" t="s">
+      <c r="C103" s="6" t="s">
         <v>172</v>
       </c>
       <c r="D103" s="5">
@@ -6280,7 +6283,7 @@
       <c r="B104" s="5">
         <v>123</v>
       </c>
-      <c r="C104" s="26" t="s">
+      <c r="C104" s="6" t="s">
         <v>173</v>
       </c>
       <c r="D104" s="5">
@@ -6327,7 +6330,7 @@
       <c r="B105" s="5">
         <v>124</v>
       </c>
-      <c r="C105" s="26" t="s">
+      <c r="C105" s="6" t="s">
         <v>174</v>
       </c>
       <c r="D105" s="5">
@@ -6374,7 +6377,7 @@
       <c r="B106" s="5">
         <v>125</v>
       </c>
-      <c r="C106" s="26" t="s">
+      <c r="C106" s="6" t="s">
         <v>175</v>
       </c>
       <c r="D106" s="5">
@@ -6421,7 +6424,7 @@
       <c r="B107" s="5">
         <v>126</v>
       </c>
-      <c r="C107" s="26" t="s">
+      <c r="C107" s="6" t="s">
         <v>176</v>
       </c>
       <c r="D107" s="5">
@@ -6468,7 +6471,7 @@
       <c r="B108" s="5">
         <v>127</v>
       </c>
-      <c r="C108" s="26" t="s">
+      <c r="C108" s="6" t="s">
         <v>177</v>
       </c>
       <c r="D108" s="5">
@@ -6515,7 +6518,7 @@
       <c r="B109" s="5">
         <v>128</v>
       </c>
-      <c r="C109" s="26" t="s">
+      <c r="C109" s="6" t="s">
         <v>178</v>
       </c>
       <c r="D109" s="5">
@@ -6562,7 +6565,7 @@
       <c r="B110" s="5">
         <v>130</v>
       </c>
-      <c r="C110" s="26" t="s">
+      <c r="C110" s="6" t="s">
         <v>179</v>
       </c>
       <c r="D110" s="5">
@@ -6609,7 +6612,7 @@
       <c r="B111" s="5">
         <v>131</v>
       </c>
-      <c r="C111" s="26" t="s">
+      <c r="C111" s="6" t="s">
         <v>268</v>
       </c>
       <c r="D111" s="5">
@@ -6656,7 +6659,7 @@
       <c r="B112" s="5">
         <v>132</v>
       </c>
-      <c r="C112" s="26" t="s">
+      <c r="C112" s="6" t="s">
         <v>180</v>
       </c>
       <c r="D112" s="5">
@@ -6703,7 +6706,7 @@
       <c r="B113" s="5">
         <v>133</v>
       </c>
-      <c r="C113" s="26" t="s">
+      <c r="C113" s="6" t="s">
         <v>250</v>
       </c>
       <c r="D113" s="5">
@@ -6748,7 +6751,7 @@
       <c r="B114" s="5">
         <v>134</v>
       </c>
-      <c r="C114" s="26" t="s">
+      <c r="C114" s="6" t="s">
         <v>181</v>
       </c>
       <c r="D114" s="5">
@@ -6793,7 +6796,7 @@
       <c r="B115" s="5">
         <v>135</v>
       </c>
-      <c r="C115" s="26" t="s">
+      <c r="C115" s="6" t="s">
         <v>182</v>
       </c>
       <c r="D115" s="5">
@@ -6840,7 +6843,7 @@
       <c r="B116" s="5">
         <v>136</v>
       </c>
-      <c r="C116" s="26" t="s">
+      <c r="C116" s="6" t="s">
         <v>183</v>
       </c>
       <c r="D116" s="5">
@@ -6887,7 +6890,7 @@
       <c r="B117" s="5">
         <v>137</v>
       </c>
-      <c r="C117" s="26" t="s">
+      <c r="C117" s="6" t="s">
         <v>184</v>
       </c>
       <c r="D117" s="5">
@@ -6934,7 +6937,7 @@
       <c r="B118" s="5">
         <v>138</v>
       </c>
-      <c r="C118" s="26" t="s">
+      <c r="C118" s="6" t="s">
         <v>185</v>
       </c>
       <c r="D118" s="5">
@@ -6981,7 +6984,7 @@
       <c r="B119" s="5">
         <v>140</v>
       </c>
-      <c r="C119" s="26" t="s">
+      <c r="C119" s="6" t="s">
         <v>187</v>
       </c>
       <c r="D119" s="5">
@@ -7028,7 +7031,7 @@
       <c r="B120" s="5">
         <v>141</v>
       </c>
-      <c r="C120" s="26" t="s">
+      <c r="C120" s="6" t="s">
         <v>188</v>
       </c>
       <c r="D120" s="5">
@@ -7075,7 +7078,7 @@
       <c r="B121" s="5">
         <v>142</v>
       </c>
-      <c r="C121" s="26" t="s">
+      <c r="C121" s="6" t="s">
         <v>189</v>
       </c>
       <c r="D121" s="5">
@@ -7122,7 +7125,7 @@
       <c r="B122" s="5">
         <v>143</v>
       </c>
-      <c r="C122" s="26" t="s">
+      <c r="C122" s="6" t="s">
         <v>190</v>
       </c>
       <c r="D122" s="5">
@@ -7167,7 +7170,7 @@
       <c r="B123" s="5">
         <v>144</v>
       </c>
-      <c r="C123" s="26" t="s">
+      <c r="C123" s="6" t="s">
         <v>191</v>
       </c>
       <c r="D123" s="5">
@@ -7214,7 +7217,7 @@
       <c r="B124" s="5">
         <v>145</v>
       </c>
-      <c r="C124" s="26" t="s">
+      <c r="C124" s="6" t="s">
         <v>192</v>
       </c>
       <c r="D124" s="5">
@@ -7261,7 +7264,7 @@
       <c r="B125" s="5">
         <v>146</v>
       </c>
-      <c r="C125" s="26" t="s">
+      <c r="C125" s="6" t="s">
         <v>193</v>
       </c>
       <c r="D125" s="5">
@@ -7308,7 +7311,7 @@
       <c r="B126" s="5">
         <v>147</v>
       </c>
-      <c r="C126" s="26" t="s">
+      <c r="C126" s="6" t="s">
         <v>194</v>
       </c>
       <c r="D126" s="5">
@@ -7355,7 +7358,7 @@
       <c r="B127" s="5">
         <v>148</v>
       </c>
-      <c r="C127" s="26" t="s">
+      <c r="C127" s="6" t="s">
         <v>195</v>
       </c>
       <c r="D127" s="5">
@@ -7402,7 +7405,7 @@
       <c r="B128" s="5">
         <v>149</v>
       </c>
-      <c r="C128" s="26" t="s">
+      <c r="C128" s="6" t="s">
         <v>196</v>
       </c>
       <c r="D128" s="5">
@@ -7451,7 +7454,7 @@
       <c r="B129" s="5">
         <v>150</v>
       </c>
-      <c r="C129" s="26" t="s">
+      <c r="C129" s="6" t="s">
         <v>252</v>
       </c>
       <c r="D129" s="5">
@@ -7498,7 +7501,7 @@
       <c r="B130" s="5">
         <v>151</v>
       </c>
-      <c r="C130" s="26" t="s">
+      <c r="C130" s="6" t="s">
         <v>198</v>
       </c>
       <c r="D130" s="5">
@@ -7545,7 +7548,7 @@
       <c r="B131" s="5">
         <v>152</v>
       </c>
-      <c r="C131" s="26" t="s">
+      <c r="C131" s="6" t="s">
         <v>199</v>
       </c>
       <c r="D131" s="5">
@@ -7592,7 +7595,7 @@
       <c r="B132" s="5">
         <v>153</v>
       </c>
-      <c r="C132" s="26" t="s">
+      <c r="C132" s="6" t="s">
         <v>201</v>
       </c>
       <c r="D132" s="5">
@@ -7639,7 +7642,7 @@
       <c r="B133" s="5">
         <v>154</v>
       </c>
-      <c r="C133" s="26" t="s">
+      <c r="C133" s="6" t="s">
         <v>202</v>
       </c>
       <c r="D133" s="5">
@@ -7686,7 +7689,7 @@
       <c r="B134" s="5">
         <v>155</v>
       </c>
-      <c r="C134" s="26" t="s">
+      <c r="C134" s="6" t="s">
         <v>203</v>
       </c>
       <c r="D134" s="5">
@@ -7733,7 +7736,7 @@
       <c r="B135" s="5">
         <v>156</v>
       </c>
-      <c r="C135" s="26" t="s">
+      <c r="C135" s="6" t="s">
         <v>204</v>
       </c>
       <c r="D135" s="5">
@@ -7780,7 +7783,7 @@
       <c r="B136" s="5">
         <v>157</v>
       </c>
-      <c r="C136" s="26" t="s">
+      <c r="C136" s="6" t="s">
         <v>205</v>
       </c>
       <c r="D136" s="5">
@@ -7827,7 +7830,7 @@
       <c r="B137" s="5">
         <v>158</v>
       </c>
-      <c r="C137" s="26" t="s">
+      <c r="C137" s="6" t="s">
         <v>206</v>
       </c>
       <c r="D137" s="5">
@@ -7874,7 +7877,7 @@
       <c r="B138" s="5">
         <v>159</v>
       </c>
-      <c r="C138" s="26">
+      <c r="C138" s="6">
         <v>65</v>
       </c>
       <c r="D138" s="5">
@@ -7921,7 +7924,7 @@
       <c r="B139" s="5">
         <v>160</v>
       </c>
-      <c r="C139" s="26" t="s">
+      <c r="C139" s="6" t="s">
         <v>207</v>
       </c>
       <c r="D139" s="5">
@@ -7968,7 +7971,7 @@
       <c r="B140" s="5">
         <v>161</v>
       </c>
-      <c r="C140" s="26" t="s">
+      <c r="C140" s="6" t="s">
         <v>208</v>
       </c>
       <c r="D140" s="5">
@@ -8015,7 +8018,7 @@
       <c r="B141" s="5">
         <v>162</v>
       </c>
-      <c r="C141" s="26" t="s">
+      <c r="C141" s="6" t="s">
         <v>209</v>
       </c>
       <c r="D141" s="5">
@@ -8062,7 +8065,7 @@
       <c r="B142" s="5">
         <v>163</v>
       </c>
-      <c r="C142" s="26" t="s">
+      <c r="C142" s="6" t="s">
         <v>210</v>
       </c>
       <c r="D142" s="5">
@@ -8109,7 +8112,7 @@
       <c r="B143" s="5">
         <v>164</v>
       </c>
-      <c r="C143" s="26" t="s">
+      <c r="C143" s="6" t="s">
         <v>211</v>
       </c>
       <c r="D143" s="5">
@@ -8156,7 +8159,7 @@
       <c r="B144" s="5">
         <v>165</v>
       </c>
-      <c r="C144" s="26" t="s">
+      <c r="C144" s="6" t="s">
         <v>212</v>
       </c>
       <c r="D144" s="5">
@@ -8203,7 +8206,7 @@
       <c r="B145" s="5">
         <v>166</v>
       </c>
-      <c r="C145" s="26" t="s">
+      <c r="C145" s="6" t="s">
         <v>213</v>
       </c>
       <c r="D145" s="5">
@@ -8250,7 +8253,7 @@
       <c r="B146" s="5">
         <v>166</v>
       </c>
-      <c r="C146" s="26" t="s">
+      <c r="C146" s="6" t="s">
         <v>214</v>
       </c>
       <c r="D146" s="5">
@@ -8299,7 +8302,7 @@
       <c r="B147" s="5">
         <v>167</v>
       </c>
-      <c r="C147" s="26" t="s">
+      <c r="C147" s="6" t="s">
         <v>216</v>
       </c>
       <c r="D147" s="5">
@@ -8346,7 +8349,7 @@
       <c r="B148" s="5">
         <v>168</v>
       </c>
-      <c r="C148" s="26" t="s">
+      <c r="C148" s="6" t="s">
         <v>217</v>
       </c>
       <c r="D148" s="5">
@@ -8393,7 +8396,7 @@
       <c r="B149" s="5">
         <v>169</v>
       </c>
-      <c r="C149" s="26" t="s">
+      <c r="C149" s="6" t="s">
         <v>218</v>
       </c>
       <c r="D149" s="5">
@@ -8440,7 +8443,7 @@
       <c r="B150" s="5">
         <v>170</v>
       </c>
-      <c r="C150" s="26" t="s">
+      <c r="C150" s="6" t="s">
         <v>219</v>
       </c>
       <c r="D150" s="5">
@@ -8487,7 +8490,7 @@
       <c r="B151" s="5">
         <v>171</v>
       </c>
-      <c r="C151" s="26" t="s">
+      <c r="C151" s="6" t="s">
         <v>220</v>
       </c>
       <c r="D151" s="5">
@@ -8534,7 +8537,7 @@
       <c r="B152" s="5">
         <v>172</v>
       </c>
-      <c r="C152" s="26" t="s">
+      <c r="C152" s="6" t="s">
         <v>221</v>
       </c>
       <c r="D152" s="5">
@@ -8581,7 +8584,7 @@
       <c r="B153" s="5">
         <v>173</v>
       </c>
-      <c r="C153" s="26" t="s">
+      <c r="C153" s="6" t="s">
         <v>222</v>
       </c>
       <c r="D153" s="5">
@@ -8628,7 +8631,7 @@
       <c r="B154" s="5">
         <v>174</v>
       </c>
-      <c r="C154" s="26" t="s">
+      <c r="C154" s="6" t="s">
         <v>223</v>
       </c>
       <c r="D154" s="5">
@@ -8673,7 +8676,7 @@
       <c r="B155" s="5">
         <v>175</v>
       </c>
-      <c r="C155" s="26" t="s">
+      <c r="C155" s="6" t="s">
         <v>224</v>
       </c>
       <c r="D155" s="5">
@@ -8720,7 +8723,7 @@
       <c r="B156" s="5">
         <v>176</v>
       </c>
-      <c r="C156" s="26" t="s">
+      <c r="C156" s="6" t="s">
         <v>225</v>
       </c>
       <c r="D156" s="5">
@@ -8767,7 +8770,7 @@
       <c r="B157" s="5">
         <v>177</v>
       </c>
-      <c r="C157" s="26" t="s">
+      <c r="C157" s="6" t="s">
         <v>226</v>
       </c>
       <c r="D157" s="5">
@@ -8814,7 +8817,7 @@
       <c r="B158" s="5">
         <v>178</v>
       </c>
-      <c r="C158" s="26" t="s">
+      <c r="C158" s="6" t="s">
         <v>227</v>
       </c>
       <c r="D158" s="5">
@@ -8861,7 +8864,7 @@
       <c r="B159" s="5">
         <v>179</v>
       </c>
-      <c r="C159" s="26" t="s">
+      <c r="C159" s="6" t="s">
         <v>228</v>
       </c>
       <c r="D159" s="5">
@@ -8908,7 +8911,7 @@
       <c r="B160" s="5">
         <v>180</v>
       </c>
-      <c r="C160" s="26" t="s">
+      <c r="C160" s="6" t="s">
         <v>229</v>
       </c>
       <c r="D160" s="5">
@@ -8955,7 +8958,7 @@
       <c r="B161" s="5">
         <v>181</v>
       </c>
-      <c r="C161" s="26" t="s">
+      <c r="C161" s="6" t="s">
         <v>230</v>
       </c>
       <c r="D161" s="5">
@@ -9002,7 +9005,7 @@
       <c r="B162" s="5">
         <v>182</v>
       </c>
-      <c r="C162" s="26" t="s">
+      <c r="C162" s="6" t="s">
         <v>231</v>
       </c>
       <c r="D162" s="5">
@@ -9012,7 +9015,7 @@
         <v>12000000</v>
       </c>
       <c r="F162" s="16">
-        <f t="shared" ref="F162:F193" si="10">E162/1000000</f>
+        <f t="shared" ref="F162:F194" si="10">E162/1000000</f>
         <v>12</v>
       </c>
       <c r="G162" s="13" t="s">
@@ -9037,7 +9040,7 @@
         <v>7.1</v>
       </c>
       <c r="N162" s="5">
-        <f t="shared" ref="N162:N193" si="11">L162-M162</f>
+        <f t="shared" ref="N162:N194" si="11">L162-M162</f>
         <v>-0.79999999999999982</v>
       </c>
       <c r="O162" s="6"/>
@@ -9049,7 +9052,7 @@
       <c r="B163" s="5">
         <v>183</v>
       </c>
-      <c r="C163" s="26" t="s">
+      <c r="C163" s="6" t="s">
         <v>232</v>
       </c>
       <c r="D163" s="5">
@@ -9096,7 +9099,7 @@
       <c r="B164" s="5">
         <v>184</v>
       </c>
-      <c r="C164" s="26" t="s">
+      <c r="C164" s="6" t="s">
         <v>233</v>
       </c>
       <c r="D164" s="5">
@@ -9141,7 +9144,7 @@
       <c r="B165" s="5">
         <v>185</v>
       </c>
-      <c r="C165" s="26" t="s">
+      <c r="C165" s="6" t="s">
         <v>234</v>
       </c>
       <c r="D165" s="5">
@@ -9188,7 +9191,7 @@
       <c r="B166" s="5">
         <v>186</v>
       </c>
-      <c r="C166" s="26" t="s">
+      <c r="C166" s="6" t="s">
         <v>235</v>
       </c>
       <c r="D166" s="5">
@@ -9235,7 +9238,7 @@
       <c r="B167" s="5">
         <v>187</v>
       </c>
-      <c r="C167" s="26" t="s">
+      <c r="C167" s="6" t="s">
         <v>272</v>
       </c>
       <c r="D167" s="5">
@@ -9282,7 +9285,7 @@
       <c r="B168" s="5">
         <v>188</v>
       </c>
-      <c r="C168" s="26" t="s">
+      <c r="C168" s="6" t="s">
         <v>236</v>
       </c>
       <c r="D168" s="5">
@@ -9327,7 +9330,7 @@
       <c r="B169" s="5">
         <v>189</v>
       </c>
-      <c r="C169" s="26" t="s">
+      <c r="C169" s="6" t="s">
         <v>237</v>
       </c>
       <c r="D169" s="5">
@@ -9374,7 +9377,7 @@
       <c r="B170" s="5">
         <v>190</v>
       </c>
-      <c r="C170" s="26" t="s">
+      <c r="C170" s="6" t="s">
         <v>238</v>
       </c>
       <c r="D170" s="5">
@@ -9421,7 +9424,7 @@
       <c r="B171" s="5">
         <v>191</v>
       </c>
-      <c r="C171" s="26" t="s">
+      <c r="C171" s="6" t="s">
         <v>240</v>
       </c>
       <c r="D171" s="5">
@@ -9468,7 +9471,7 @@
       <c r="B172" s="5">
         <v>192</v>
       </c>
-      <c r="C172" s="26" t="s">
+      <c r="C172" s="6" t="s">
         <v>241</v>
       </c>
       <c r="D172" s="5">
@@ -9515,7 +9518,7 @@
       <c r="B173" s="5">
         <v>193</v>
       </c>
-      <c r="C173" s="26" t="s">
+      <c r="C173" s="6" t="s">
         <v>242</v>
       </c>
       <c r="D173" s="5">
@@ -9562,7 +9565,7 @@
       <c r="B174" s="5">
         <v>194</v>
       </c>
-      <c r="C174" s="26" t="s">
+      <c r="C174" s="6" t="s">
         <v>258</v>
       </c>
       <c r="D174" s="5">
@@ -9609,7 +9612,7 @@
       <c r="B175" s="5">
         <v>195</v>
       </c>
-      <c r="C175" s="26" t="s">
+      <c r="C175" s="6" t="s">
         <v>274</v>
       </c>
       <c r="D175" s="5">
@@ -9656,7 +9659,7 @@
       <c r="B176" s="5">
         <v>196</v>
       </c>
-      <c r="C176" s="26" t="s">
+      <c r="C176" s="6" t="s">
         <v>275</v>
       </c>
       <c r="D176" s="5">
@@ -9703,7 +9706,7 @@
       <c r="B177" s="5">
         <v>197</v>
       </c>
-      <c r="C177" s="26" t="s">
+      <c r="C177" s="6" t="s">
         <v>276</v>
       </c>
       <c r="D177" s="5">
@@ -9750,7 +9753,7 @@
       <c r="B178" s="5">
         <v>198</v>
       </c>
-      <c r="C178" s="26" t="s">
+      <c r="C178" s="6" t="s">
         <v>277</v>
       </c>
       <c r="D178" s="5">
@@ -9797,7 +9800,7 @@
       <c r="B179" s="5">
         <v>199</v>
       </c>
-      <c r="C179" s="26" t="s">
+      <c r="C179" s="6" t="s">
         <v>278</v>
       </c>
       <c r="D179" s="5">
@@ -9844,7 +9847,7 @@
       <c r="B180" s="5">
         <v>200</v>
       </c>
-      <c r="C180" s="26" t="s">
+      <c r="C180" s="6" t="s">
         <v>279</v>
       </c>
       <c r="D180" s="5">
@@ -9891,7 +9894,7 @@
       <c r="B181" s="5">
         <v>201</v>
       </c>
-      <c r="C181" s="26" t="s">
+      <c r="C181" s="6" t="s">
         <v>280</v>
       </c>
       <c r="D181" s="5">
@@ -9938,7 +9941,7 @@
       <c r="B182" s="5">
         <v>202</v>
       </c>
-      <c r="C182" s="26" t="s">
+      <c r="C182" s="6" t="s">
         <v>281</v>
       </c>
       <c r="D182" s="5">
@@ -9985,7 +9988,7 @@
       <c r="B183" s="5">
         <v>203</v>
       </c>
-      <c r="C183" s="26" t="s">
+      <c r="C183" s="6" t="s">
         <v>282</v>
       </c>
       <c r="D183" s="5">
@@ -10032,7 +10035,7 @@
       <c r="B184" s="5">
         <v>204</v>
       </c>
-      <c r="C184" s="26" t="s">
+      <c r="C184" s="6" t="s">
         <v>283</v>
       </c>
       <c r="D184" s="5">
@@ -10079,7 +10082,7 @@
       <c r="B185" s="5">
         <v>205</v>
       </c>
-      <c r="C185" s="26" t="s">
+      <c r="C185" s="6" t="s">
         <v>284</v>
       </c>
       <c r="D185" s="5">
@@ -10126,7 +10129,7 @@
       <c r="B186" s="5">
         <v>206</v>
       </c>
-      <c r="C186" s="26" t="s">
+      <c r="C186" s="6" t="s">
         <v>285</v>
       </c>
       <c r="D186" s="5">
@@ -10173,7 +10176,7 @@
       <c r="B187" s="5">
         <v>207</v>
       </c>
-      <c r="C187" s="26" t="s">
+      <c r="C187" s="6" t="s">
         <v>286</v>
       </c>
       <c r="D187" s="5">
@@ -10220,7 +10223,7 @@
       <c r="B188" s="5">
         <v>208</v>
       </c>
-      <c r="C188" s="26" t="s">
+      <c r="C188" s="6" t="s">
         <v>287</v>
       </c>
       <c r="D188" s="5">
@@ -10267,7 +10270,7 @@
       <c r="B189" s="5">
         <v>209</v>
       </c>
-      <c r="C189" s="26" t="s">
+      <c r="C189" s="6" t="s">
         <v>288</v>
       </c>
       <c r="D189" s="5">
@@ -10314,7 +10317,7 @@
       <c r="B190" s="5">
         <v>210</v>
       </c>
-      <c r="C190" s="26" t="s">
+      <c r="C190" s="6" t="s">
         <v>289</v>
       </c>
       <c r="D190" s="5">
@@ -10361,7 +10364,7 @@
       <c r="B191" s="5">
         <v>211</v>
       </c>
-      <c r="C191" s="26" t="s">
+      <c r="C191" s="6" t="s">
         <v>290</v>
       </c>
       <c r="D191" s="5">
@@ -10408,7 +10411,7 @@
       <c r="B192" s="5">
         <v>212</v>
       </c>
-      <c r="C192" s="26" t="s">
+      <c r="C192" s="6" t="s">
         <v>291</v>
       </c>
       <c r="D192" s="5">
@@ -10455,7 +10458,7 @@
       <c r="B193" s="5">
         <v>213</v>
       </c>
-      <c r="C193" s="26" t="s">
+      <c r="C193" s="6" t="s">
         <v>294</v>
       </c>
       <c r="D193" s="5">
@@ -10496,12 +10499,51 @@
       <c r="O193" s="5"/>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="E194" s="1"/>
-      <c r="F194" s="1"/>
-      <c r="G194" s="1"/>
-      <c r="L194" s="1"/>
-      <c r="M194" s="1"/>
-      <c r="O194" s="1"/>
+      <c r="A194" s="5">
+        <v>193</v>
+      </c>
+      <c r="B194" s="5">
+        <v>214</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D194" s="5">
+        <v>1994</v>
+      </c>
+      <c r="E194" s="13">
+        <v>35000000</v>
+      </c>
+      <c r="F194" s="5">
+        <f t="shared" si="10"/>
+        <v>35</v>
+      </c>
+      <c r="G194" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="H194" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I194" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J194" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="K194" s="5">
+        <v>102</v>
+      </c>
+      <c r="L194" s="5">
+        <v>5.2</v>
+      </c>
+      <c r="M194" s="5">
+        <v>4.2</v>
+      </c>
+      <c r="N194" s="5">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O194" s="5"/>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E195" s="1"/>

--- a/Data/BryanVsBryan_Data.xlsx
+++ b/Data/BryanVsBryan_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kraem\OneDrive\Data_Science\Visualization_Project_Podcast\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65f40906fbee13bf/Data_Science/Visualization_Project_Podcast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC6E6E7-BE2D-4F0F-B507-799983C0F7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{4FC6E6E7-BE2D-4F0F-B507-799983C0F7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE5D74EE-5006-4D10-AB76-66ADED85F537}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{1B70641D-B009-4E91-B3D5-80C95BCC6CD5}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="305">
   <si>
     <t>Episode</t>
   </si>
@@ -932,6 +932,30 @@
   </si>
   <si>
     <t>Martial Arts</t>
+  </si>
+  <si>
+    <t>Ace Ventura Pet Detective</t>
+  </si>
+  <si>
+    <t>Salem's Lot</t>
+  </si>
+  <si>
+    <t>Bad Boys: Ride or Die</t>
+  </si>
+  <si>
+    <t>Don't Move</t>
+  </si>
+  <si>
+    <t>Scary Movie</t>
+  </si>
+  <si>
+    <t>Planes, Trains, and Automobiles</t>
+  </si>
+  <si>
+    <t>Rambo: Last Blood</t>
+  </si>
+  <si>
+    <t>Parody</t>
   </si>
 </sst>
 </file>
@@ -1100,6 +1124,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1441,7 +1469,7 @@
     <col min="11" max="11" width="10.19921875" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.265625" style="20" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.796875" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.46484375" style="20" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="56.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1485,7 +1513,7 @@
       <c r="M1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="24" t="s">
         <v>99</v>
       </c>
       <c r="O1" s="4" t="s">
@@ -1533,7 +1561,7 @@
       <c r="M2" s="19">
         <v>8.5</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="19">
         <f t="shared" ref="N2:N33" si="1">L2-M2</f>
         <v>-2.5</v>
       </c>
@@ -1582,7 +1610,7 @@
       <c r="M3" s="19">
         <v>10</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1629,7 +1657,7 @@
       <c r="M4" s="19">
         <v>7</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1676,7 +1704,7 @@
       <c r="M5" s="19">
         <v>4.5</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="19">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -1725,7 +1753,7 @@
       <c r="M6" s="19">
         <v>9</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1774,7 +1802,7 @@
       <c r="M7" s="19">
         <v>7</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1823,7 +1851,7 @@
       <c r="M8" s="19">
         <v>5</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1868,7 +1896,7 @@
       </c>
       <c r="L9" s="19"/>
       <c r="M9" s="19"/>
-      <c r="N9" s="5">
+      <c r="N9" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1913,7 +1941,7 @@
       </c>
       <c r="L10" s="19"/>
       <c r="M10" s="19"/>
-      <c r="N10" s="5">
+      <c r="N10" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1962,7 +1990,7 @@
       <c r="M11" s="19">
         <v>8</v>
       </c>
-      <c r="N11" s="5">
+      <c r="N11" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2009,7 +2037,7 @@
       <c r="M12" s="19">
         <v>6</v>
       </c>
-      <c r="N12" s="5">
+      <c r="N12" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2052,7 +2080,7 @@
       </c>
       <c r="L13" s="19"/>
       <c r="M13" s="19"/>
-      <c r="N13" s="5">
+      <c r="N13" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2101,7 +2129,7 @@
       <c r="M14" s="19">
         <v>5</v>
       </c>
-      <c r="N14" s="5">
+      <c r="N14" s="19">
         <f t="shared" si="1"/>
         <v>2.0999999999999996</v>
       </c>
@@ -2148,7 +2176,7 @@
       <c r="M15" s="19">
         <v>8.5</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="19">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -2195,7 +2223,7 @@
       <c r="M16" s="19">
         <v>3</v>
       </c>
-      <c r="N16" s="5">
+      <c r="N16" s="19">
         <f t="shared" si="1"/>
         <v>0.70000000000000018</v>
       </c>
@@ -2240,7 +2268,7 @@
       <c r="M17" s="19">
         <v>5.5</v>
       </c>
-      <c r="N17" s="5">
+      <c r="N17" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2287,7 +2315,7 @@
       <c r="M18" s="19">
         <v>8</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2332,7 +2360,7 @@
       <c r="M19" s="19">
         <v>7</v>
       </c>
-      <c r="N19" s="5">
+      <c r="N19" s="19">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -2379,7 +2407,7 @@
       <c r="M20" s="19">
         <v>5.5</v>
       </c>
-      <c r="N20" s="5">
+      <c r="N20" s="19">
         <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
@@ -2426,7 +2454,7 @@
       <c r="M21" s="19">
         <v>6</v>
       </c>
-      <c r="N21" s="5">
+      <c r="N21" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2473,7 +2501,7 @@
       <c r="M22" s="19">
         <v>7.5</v>
       </c>
-      <c r="N22" s="5">
+      <c r="N22" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2520,7 +2548,7 @@
       <c r="M23" s="19">
         <v>8</v>
       </c>
-      <c r="N23" s="5">
+      <c r="N23" s="19">
         <f t="shared" si="1"/>
         <v>0.69999999999999929</v>
       </c>
@@ -2567,7 +2595,7 @@
       <c r="M24" s="19">
         <v>5.75</v>
       </c>
-      <c r="N24" s="5">
+      <c r="N24" s="19">
         <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
@@ -2614,7 +2642,7 @@
       <c r="M25" s="19">
         <v>7</v>
       </c>
-      <c r="N25" s="5">
+      <c r="N25" s="19">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -2661,7 +2689,7 @@
       <c r="M26" s="19">
         <v>7</v>
       </c>
-      <c r="N26" s="5">
+      <c r="N26" s="19">
         <f t="shared" si="1"/>
         <v>-0.5</v>
       </c>
@@ -2708,7 +2736,7 @@
       <c r="M27" s="19">
         <v>6</v>
       </c>
-      <c r="N27" s="5">
+      <c r="N27" s="19">
         <f t="shared" si="1"/>
         <v>0.79999999999999982</v>
       </c>
@@ -2755,7 +2783,7 @@
       <c r="M28" s="19">
         <v>9</v>
       </c>
-      <c r="N28" s="5">
+      <c r="N28" s="19">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
@@ -2802,7 +2830,7 @@
       <c r="M29" s="19">
         <v>8</v>
       </c>
-      <c r="N29" s="5">
+      <c r="N29" s="19">
         <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
@@ -2849,7 +2877,7 @@
       <c r="M30" s="19">
         <v>7</v>
       </c>
-      <c r="N30" s="5">
+      <c r="N30" s="19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -2896,7 +2924,7 @@
       <c r="M31" s="19">
         <v>7</v>
       </c>
-      <c r="N31" s="5">
+      <c r="N31" s="19">
         <f t="shared" si="1"/>
         <v>0.90000000000000036</v>
       </c>
@@ -2943,7 +2971,7 @@
       <c r="M32" s="19">
         <v>6</v>
       </c>
-      <c r="N32" s="5">
+      <c r="N32" s="19">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2990,7 +3018,7 @@
       <c r="M33" s="19">
         <v>8</v>
       </c>
-      <c r="N33" s="5">
+      <c r="N33" s="19">
         <f t="shared" si="1"/>
         <v>0.40000000000000036</v>
       </c>
@@ -3037,7 +3065,7 @@
       <c r="M34" s="19">
         <v>8.5</v>
       </c>
-      <c r="N34" s="5">
+      <c r="N34" s="19">
         <f t="shared" ref="N34:N65" si="3">L34-M34</f>
         <v>-0.19999999999999929</v>
       </c>
@@ -3084,7 +3112,7 @@
       <c r="M35" s="19">
         <v>5.5</v>
       </c>
-      <c r="N35" s="5">
+      <c r="N35" s="19">
         <f t="shared" si="3"/>
         <v>9.9999999999999645E-2</v>
       </c>
@@ -3131,7 +3159,7 @@
       <c r="M36" s="19">
         <v>7.5</v>
       </c>
-      <c r="N36" s="5">
+      <c r="N36" s="19">
         <f t="shared" si="3"/>
         <v>0.59999999999999964</v>
       </c>
@@ -3178,7 +3206,7 @@
       <c r="M37" s="19">
         <v>6.7</v>
       </c>
-      <c r="N37" s="5">
+      <c r="N37" s="19">
         <f t="shared" si="3"/>
         <v>0.29999999999999982</v>
       </c>
@@ -3227,7 +3255,7 @@
       <c r="M38" s="19">
         <v>8</v>
       </c>
-      <c r="N38" s="5">
+      <c r="N38" s="19">
         <f t="shared" si="3"/>
         <v>0.40000000000000036</v>
       </c>
@@ -3274,7 +3302,7 @@
       <c r="M39" s="19">
         <v>8.5</v>
       </c>
-      <c r="N39" s="5">
+      <c r="N39" s="19">
         <f t="shared" si="3"/>
         <v>9.9999999999999645E-2</v>
       </c>
@@ -3321,7 +3349,7 @@
       <c r="M40" s="19">
         <v>5.0999999999999996</v>
       </c>
-      <c r="N40" s="5">
+      <c r="N40" s="19">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
@@ -3368,7 +3396,7 @@
       <c r="M41" s="19">
         <v>9.1999999999999993</v>
       </c>
-      <c r="N41" s="5">
+      <c r="N41" s="19">
         <f t="shared" si="3"/>
         <v>-1.4999999999999991</v>
       </c>
@@ -3415,7 +3443,7 @@
       <c r="M42" s="19">
         <v>6</v>
       </c>
-      <c r="N42" s="5">
+      <c r="N42" s="19">
         <f t="shared" si="3"/>
         <v>0.20000000000000018</v>
       </c>
@@ -3460,7 +3488,7 @@
       <c r="M43" s="19">
         <v>9</v>
       </c>
-      <c r="N43" s="5">
+      <c r="N43" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3507,7 +3535,7 @@
       <c r="M44" s="19">
         <v>6.5</v>
       </c>
-      <c r="N44" s="5">
+      <c r="N44" s="19">
         <f t="shared" si="3"/>
         <v>0.29999999999999982</v>
       </c>
@@ -3554,7 +3582,7 @@
       <c r="M45" s="19">
         <v>6.7</v>
       </c>
-      <c r="N45" s="5">
+      <c r="N45" s="19">
         <f t="shared" si="3"/>
         <v>0.59999999999999964</v>
       </c>
@@ -3601,7 +3629,7 @@
       <c r="M46" s="19">
         <v>7</v>
       </c>
-      <c r="N46" s="5">
+      <c r="N46" s="19">
         <f t="shared" si="3"/>
         <v>-9.9999999999999645E-2</v>
       </c>
@@ -3648,7 +3676,7 @@
       <c r="M47" s="19">
         <v>9.6999999999999993</v>
       </c>
-      <c r="N47" s="5">
+      <c r="N47" s="19">
         <f t="shared" si="3"/>
         <v>-9.9999999999999645E-2</v>
       </c>
@@ -3695,7 +3723,7 @@
       <c r="M48" s="19">
         <v>8</v>
       </c>
-      <c r="N48" s="5">
+      <c r="N48" s="19">
         <f t="shared" si="3"/>
         <v>-1.0999999999999996</v>
       </c>
@@ -3742,7 +3770,7 @@
       <c r="M49" s="19">
         <v>5</v>
       </c>
-      <c r="N49" s="5">
+      <c r="N49" s="19">
         <f t="shared" si="3"/>
         <v>0.29999999999999982</v>
       </c>
@@ -3789,7 +3817,7 @@
       <c r="M50" s="19">
         <v>5.8</v>
       </c>
-      <c r="N50" s="5">
+      <c r="N50" s="19">
         <f t="shared" si="3"/>
         <v>0.60000000000000053</v>
       </c>
@@ -3836,7 +3864,7 @@
       <c r="M51" s="19">
         <v>6.5</v>
       </c>
-      <c r="N51" s="5">
+      <c r="N51" s="19">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
@@ -3883,7 +3911,7 @@
       <c r="M52" s="19">
         <v>9</v>
       </c>
-      <c r="N52" s="5">
+      <c r="N52" s="19">
         <f t="shared" si="3"/>
         <v>-0.5</v>
       </c>
@@ -3930,7 +3958,7 @@
       <c r="M53" s="19">
         <v>7</v>
       </c>
-      <c r="N53" s="5">
+      <c r="N53" s="19">
         <f t="shared" si="3"/>
         <v>0.40000000000000036</v>
       </c>
@@ -3977,7 +4005,7 @@
       <c r="M54" s="19">
         <v>7.4</v>
       </c>
-      <c r="N54" s="5">
+      <c r="N54" s="19">
         <f t="shared" si="3"/>
         <v>1.4000000000000004</v>
       </c>
@@ -4022,7 +4050,7 @@
       <c r="M55" s="19">
         <v>8.5</v>
       </c>
-      <c r="N55" s="5">
+      <c r="N55" s="19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -4067,7 +4095,7 @@
       <c r="M56" s="19">
         <v>9.6</v>
       </c>
-      <c r="N56" s="5">
+      <c r="N56" s="19">
         <f t="shared" si="3"/>
         <v>-0.19999999999999929</v>
       </c>
@@ -4112,7 +4140,7 @@
       <c r="M57" s="19">
         <v>9</v>
       </c>
-      <c r="N57" s="5">
+      <c r="N57" s="19">
         <f t="shared" si="3"/>
         <v>-0.30000000000000071</v>
       </c>
@@ -4161,7 +4189,7 @@
       <c r="M58" s="19">
         <v>4.5</v>
       </c>
-      <c r="N58" s="5">
+      <c r="N58" s="19">
         <f t="shared" si="3"/>
         <v>-9.9999999999999645E-2</v>
       </c>
@@ -4208,7 +4236,7 @@
       <c r="M59" s="19">
         <v>7.1</v>
       </c>
-      <c r="N59" s="5">
+      <c r="N59" s="19">
         <f t="shared" si="3"/>
         <v>0.80000000000000071</v>
       </c>
@@ -4255,7 +4283,7 @@
       <c r="M60" s="19">
         <v>7.5</v>
       </c>
-      <c r="N60" s="5">
+      <c r="N60" s="19">
         <f t="shared" si="3"/>
         <v>0.29999999999999982</v>
       </c>
@@ -4302,7 +4330,7 @@
       <c r="M61" s="19">
         <v>6</v>
       </c>
-      <c r="N61" s="5">
+      <c r="N61" s="19">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -4349,7 +4377,7 @@
       <c r="M62" s="19">
         <v>5.9</v>
       </c>
-      <c r="N62" s="5">
+      <c r="N62" s="19">
         <f t="shared" si="3"/>
         <v>1.5999999999999996</v>
       </c>
@@ -4396,7 +4424,7 @@
       <c r="M63" s="19">
         <v>5.5</v>
       </c>
-      <c r="N63" s="5">
+      <c r="N63" s="19">
         <f t="shared" si="3"/>
         <v>-1.2999999999999998</v>
       </c>
@@ -4443,7 +4471,7 @@
       <c r="M64" s="19">
         <v>6</v>
       </c>
-      <c r="N64" s="5">
+      <c r="N64" s="19">
         <f t="shared" si="3"/>
         <v>1.0999999999999996</v>
       </c>
@@ -4490,7 +4518,7 @@
       <c r="M65" s="19">
         <v>8.5</v>
       </c>
-      <c r="N65" s="5">
+      <c r="N65" s="19">
         <f t="shared" si="3"/>
         <v>9.9999999999999645E-2</v>
       </c>
@@ -4537,7 +4565,7 @@
       <c r="M66" s="19">
         <v>6.7</v>
       </c>
-      <c r="N66" s="5">
+      <c r="N66" s="19">
         <f t="shared" ref="N66:N97" si="5">L66-M66</f>
         <v>-0.5</v>
       </c>
@@ -4582,7 +4610,7 @@
       <c r="M67" s="19">
         <v>9.5</v>
       </c>
-      <c r="N67" s="5">
+      <c r="N67" s="19">
         <f t="shared" si="5"/>
         <v>-0.59999999999999964</v>
       </c>
@@ -4627,7 +4655,7 @@
       <c r="M68" s="19">
         <v>9.3000000000000007</v>
       </c>
-      <c r="N68" s="5">
+      <c r="N68" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -4676,7 +4704,7 @@
       <c r="M69" s="19">
         <v>6.5</v>
       </c>
-      <c r="N69" s="5">
+      <c r="N69" s="19">
         <f t="shared" si="5"/>
         <v>-9.9999999999999645E-2</v>
       </c>
@@ -4723,7 +4751,7 @@
       <c r="M70" s="19">
         <v>6.2</v>
       </c>
-      <c r="N70" s="5">
+      <c r="N70" s="19">
         <f t="shared" si="5"/>
         <v>1.0999999999999996</v>
       </c>
@@ -4770,7 +4798,7 @@
       <c r="M71" s="19">
         <v>7</v>
       </c>
-      <c r="N71" s="5">
+      <c r="N71" s="19">
         <f t="shared" si="5"/>
         <v>-0.29999999999999982</v>
       </c>
@@ -4817,7 +4845,7 @@
       <c r="M72" s="19">
         <v>7.8</v>
       </c>
-      <c r="N72" s="5">
+      <c r="N72" s="19">
         <f t="shared" si="5"/>
         <v>-0.79999999999999982</v>
       </c>
@@ -4864,7 +4892,7 @@
       <c r="M73" s="19">
         <v>8.1999999999999993</v>
       </c>
-      <c r="N73" s="5">
+      <c r="N73" s="19">
         <f t="shared" si="5"/>
         <v>0.40000000000000036</v>
       </c>
@@ -4911,7 +4939,7 @@
       <c r="M74" s="19">
         <v>7</v>
       </c>
-      <c r="N74" s="5">
+      <c r="N74" s="19">
         <f t="shared" si="5"/>
         <v>-0.79999999999999982</v>
       </c>
@@ -4956,7 +4984,7 @@
       <c r="M75" s="19">
         <v>7.5</v>
       </c>
-      <c r="N75" s="5">
+      <c r="N75" s="19">
         <f t="shared" si="5"/>
         <v>0.29999999999999982</v>
       </c>
@@ -5003,7 +5031,7 @@
       <c r="M76" s="19">
         <v>6</v>
       </c>
-      <c r="N76" s="5">
+      <c r="N76" s="19">
         <f t="shared" si="5"/>
         <v>-1</v>
       </c>
@@ -5050,7 +5078,7 @@
       <c r="M77" s="19">
         <v>7.2</v>
       </c>
-      <c r="N77" s="5">
+      <c r="N77" s="19">
         <f t="shared" si="5"/>
         <v>9.9999999999999645E-2</v>
       </c>
@@ -5097,7 +5125,7 @@
       <c r="M78" s="19">
         <v>9.4</v>
       </c>
-      <c r="N78" s="5">
+      <c r="N78" s="19">
         <f t="shared" si="5"/>
         <v>-0.40000000000000036</v>
       </c>
@@ -5144,7 +5172,7 @@
       <c r="M79" s="19">
         <v>6.8</v>
       </c>
-      <c r="N79" s="5">
+      <c r="N79" s="19">
         <f t="shared" si="5"/>
         <v>0.70000000000000018</v>
       </c>
@@ -5191,7 +5219,7 @@
       <c r="M80" s="19">
         <v>4.5</v>
       </c>
-      <c r="N80" s="5">
+      <c r="N80" s="19">
         <f t="shared" si="5"/>
         <v>-9.9999999999999645E-2</v>
       </c>
@@ -5236,7 +5264,7 @@
       <c r="M81" s="19">
         <v>5.5</v>
       </c>
-      <c r="N81" s="5">
+      <c r="N81" s="19">
         <f t="shared" si="5"/>
         <v>1.0999999999999996</v>
       </c>
@@ -5283,7 +5311,7 @@
       <c r="M82" s="19">
         <v>6</v>
       </c>
-      <c r="N82" s="5">
+      <c r="N82" s="19">
         <f t="shared" si="5"/>
         <v>0.79999999999999982</v>
       </c>
@@ -5330,7 +5358,7 @@
       <c r="M83" s="19">
         <v>9</v>
       </c>
-      <c r="N83" s="5">
+      <c r="N83" s="19">
         <f t="shared" si="5"/>
         <v>-1.7000000000000002</v>
       </c>
@@ -5377,7 +5405,7 @@
       <c r="M84" s="19">
         <v>8.5</v>
       </c>
-      <c r="N84" s="5">
+      <c r="N84" s="19">
         <f t="shared" si="5"/>
         <v>0.30000000000000071</v>
       </c>
@@ -5426,7 +5454,7 @@
       <c r="M85" s="19">
         <v>8.8000000000000007</v>
       </c>
-      <c r="N85" s="5">
+      <c r="N85" s="19">
         <f t="shared" si="5"/>
         <v>-0.40000000000000036</v>
       </c>
@@ -5475,7 +5503,7 @@
       <c r="M86" s="19">
         <v>4.5</v>
       </c>
-      <c r="N86" s="5">
+      <c r="N86" s="19">
         <f t="shared" si="5"/>
         <v>1.5</v>
       </c>
@@ -5522,7 +5550,7 @@
       <c r="M87" s="19">
         <v>8</v>
       </c>
-      <c r="N87" s="5">
+      <c r="N87" s="19">
         <f t="shared" si="5"/>
         <v>-0.5</v>
       </c>
@@ -5569,7 +5597,7 @@
       <c r="M88" s="19">
         <v>8.4</v>
       </c>
-      <c r="N88" s="5">
+      <c r="N88" s="19">
         <f t="shared" si="5"/>
         <v>0.19999999999999929</v>
       </c>
@@ -5616,7 +5644,7 @@
       <c r="M89" s="19">
         <v>5.5</v>
       </c>
-      <c r="N89" s="5">
+      <c r="N89" s="19">
         <f t="shared" si="5"/>
         <v>1.5999999999999996</v>
       </c>
@@ -5663,7 +5691,7 @@
       <c r="M90" s="19">
         <v>6.2</v>
       </c>
-      <c r="N90" s="5">
+      <c r="N90" s="19">
         <f t="shared" si="5"/>
         <v>0.79999999999999982</v>
       </c>
@@ -5710,7 +5738,7 @@
       <c r="M91" s="19">
         <v>7.4</v>
       </c>
-      <c r="N91" s="5">
+      <c r="N91" s="19">
         <f t="shared" si="5"/>
         <v>0.69999999999999929</v>
       </c>
@@ -5757,7 +5785,7 @@
       <c r="M92" s="19">
         <v>5.5</v>
       </c>
-      <c r="N92" s="5">
+      <c r="N92" s="19">
         <f t="shared" si="5"/>
         <v>-0.29999999999999982</v>
       </c>
@@ -5802,7 +5830,7 @@
       <c r="M93" s="19">
         <v>6</v>
       </c>
-      <c r="N93" s="5">
+      <c r="N93" s="19">
         <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
@@ -5849,7 +5877,7 @@
       <c r="M94" s="19">
         <v>5</v>
       </c>
-      <c r="N94" s="5">
+      <c r="N94" s="19">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
@@ -5896,7 +5924,7 @@
       <c r="M95" s="19">
         <v>6.5</v>
       </c>
-      <c r="N95" s="5">
+      <c r="N95" s="19">
         <f t="shared" si="5"/>
         <v>0.70000000000000018</v>
       </c>
@@ -5943,7 +5971,7 @@
       <c r="M96" s="19">
         <v>5.5</v>
       </c>
-      <c r="N96" s="5">
+      <c r="N96" s="19">
         <f t="shared" si="5"/>
         <v>-0.5</v>
       </c>
@@ -5990,7 +6018,7 @@
       <c r="M97" s="19">
         <v>7.5</v>
       </c>
-      <c r="N97" s="5">
+      <c r="N97" s="19">
         <f t="shared" si="5"/>
         <v>-0.29999999999999982</v>
       </c>
@@ -6037,7 +6065,7 @@
       <c r="M98" s="19">
         <v>8.5</v>
       </c>
-      <c r="N98" s="5">
+      <c r="N98" s="19">
         <f t="shared" ref="N98:N129" si="7">L98-M98</f>
         <v>0.59999999999999964</v>
       </c>
@@ -6084,7 +6112,7 @@
       <c r="M99" s="19">
         <v>6.7</v>
       </c>
-      <c r="N99" s="5">
+      <c r="N99" s="19">
         <f t="shared" si="7"/>
         <v>0.29999999999999982</v>
       </c>
@@ -6129,7 +6157,7 @@
       <c r="M100" s="19">
         <v>6.8</v>
       </c>
-      <c r="N100" s="5">
+      <c r="N100" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6176,7 +6204,7 @@
       <c r="M101" s="19">
         <v>7.7</v>
       </c>
-      <c r="N101" s="5">
+      <c r="N101" s="19">
         <f t="shared" si="7"/>
         <v>-0.29999999999999982</v>
       </c>
@@ -6223,7 +6251,7 @@
       <c r="M102" s="19">
         <v>7</v>
       </c>
-      <c r="N102" s="5">
+      <c r="N102" s="19">
         <f t="shared" si="7"/>
         <v>0.79999999999999982</v>
       </c>
@@ -6270,7 +6298,7 @@
       <c r="M103" s="19">
         <v>7.5</v>
       </c>
-      <c r="N103" s="5">
+      <c r="N103" s="19">
         <f t="shared" si="7"/>
         <v>0.59999999999999964</v>
       </c>
@@ -6317,7 +6345,7 @@
       <c r="M104" s="19">
         <v>5.5</v>
       </c>
-      <c r="N104" s="5">
+      <c r="N104" s="19">
         <f t="shared" si="7"/>
         <v>1.0999999999999996</v>
       </c>
@@ -6364,7 +6392,7 @@
       <c r="M105" s="19">
         <v>8.1999999999999993</v>
       </c>
-      <c r="N105" s="5">
+      <c r="N105" s="19">
         <f t="shared" si="7"/>
         <v>-1.4999999999999991</v>
       </c>
@@ -6411,7 +6439,7 @@
       <c r="M106" s="19">
         <v>6.5</v>
       </c>
-      <c r="N106" s="5">
+      <c r="N106" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -6458,7 +6486,7 @@
       <c r="M107" s="19">
         <v>9.6</v>
       </c>
-      <c r="N107" s="5">
+      <c r="N107" s="19">
         <f t="shared" si="7"/>
         <v>-0.29999999999999893</v>
       </c>
@@ -6505,7 +6533,7 @@
       <c r="M108" s="19">
         <v>6.7</v>
       </c>
-      <c r="N108" s="5">
+      <c r="N108" s="19">
         <f t="shared" si="7"/>
         <v>0.39999999999999947</v>
       </c>
@@ -6552,7 +6580,7 @@
       <c r="M109" s="19">
         <v>7.8</v>
       </c>
-      <c r="N109" s="5">
+      <c r="N109" s="19">
         <f t="shared" si="7"/>
         <v>0.29999999999999982</v>
       </c>
@@ -6599,7 +6627,7 @@
       <c r="M110" s="19">
         <v>7</v>
       </c>
-      <c r="N110" s="5">
+      <c r="N110" s="19">
         <f t="shared" si="7"/>
         <v>-0.70000000000000018</v>
       </c>
@@ -6646,7 +6674,7 @@
       <c r="M111" s="19">
         <v>7.2</v>
       </c>
-      <c r="N111" s="5">
+      <c r="N111" s="19">
         <f t="shared" si="7"/>
         <v>1.6000000000000005</v>
       </c>
@@ -6693,7 +6721,7 @@
       <c r="M112" s="19">
         <v>5.5</v>
       </c>
-      <c r="N112" s="5">
+      <c r="N112" s="19">
         <f t="shared" si="7"/>
         <v>-1.2000000000000002</v>
       </c>
@@ -6738,7 +6766,7 @@
       <c r="M113" s="19">
         <v>7</v>
       </c>
-      <c r="N113" s="5">
+      <c r="N113" s="19">
         <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
@@ -6783,7 +6811,7 @@
       <c r="M114" s="19">
         <v>7</v>
       </c>
-      <c r="N114" s="5">
+      <c r="N114" s="19">
         <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
@@ -6830,7 +6858,7 @@
       <c r="M115" s="19">
         <v>8.1999999999999993</v>
       </c>
-      <c r="N115" s="5">
+      <c r="N115" s="19">
         <f t="shared" si="7"/>
         <v>0.30000000000000071</v>
       </c>
@@ -6877,7 +6905,7 @@
       <c r="M116" s="19">
         <v>7.8</v>
       </c>
-      <c r="N116" s="5">
+      <c r="N116" s="19">
         <f t="shared" si="7"/>
         <v>0.29999999999999982</v>
       </c>
@@ -6924,7 +6952,7 @@
       <c r="M117" s="19">
         <v>6.7</v>
       </c>
-      <c r="N117" s="5">
+      <c r="N117" s="19">
         <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
@@ -6971,7 +6999,7 @@
       <c r="M118" s="19">
         <v>7.5</v>
       </c>
-      <c r="N118" s="5">
+      <c r="N118" s="19">
         <f t="shared" si="7"/>
         <v>9.9999999999999645E-2</v>
       </c>
@@ -7018,7 +7046,7 @@
       <c r="M119" s="19">
         <v>6.5</v>
       </c>
-      <c r="N119" s="5">
+      <c r="N119" s="19">
         <f t="shared" si="7"/>
         <v>1.5999999999999996</v>
       </c>
@@ -7065,7 +7093,7 @@
       <c r="M120" s="19">
         <v>4.5</v>
       </c>
-      <c r="N120" s="5">
+      <c r="N120" s="19">
         <f t="shared" si="7"/>
         <v>-0.5</v>
       </c>
@@ -7112,7 +7140,7 @@
       <c r="M121" s="19">
         <v>5.7</v>
       </c>
-      <c r="N121" s="5">
+      <c r="N121" s="19">
         <f t="shared" si="7"/>
         <v>-0.70000000000000018</v>
       </c>
@@ -7157,7 +7185,7 @@
       <c r="M122" s="19">
         <v>7.3</v>
       </c>
-      <c r="N122" s="5">
+      <c r="N122" s="19">
         <f t="shared" si="7"/>
         <v>0.79999999999999982</v>
       </c>
@@ -7204,7 +7232,7 @@
       <c r="M123" s="19">
         <v>7.8</v>
       </c>
-      <c r="N123" s="5">
+      <c r="N123" s="19">
         <f t="shared" si="7"/>
         <v>0.39999999999999947</v>
       </c>
@@ -7251,7 +7279,7 @@
       <c r="M124" s="19">
         <v>8.5</v>
       </c>
-      <c r="N124" s="5">
+      <c r="N124" s="19">
         <f t="shared" si="7"/>
         <v>-0.90000000000000036</v>
       </c>
@@ -7298,7 +7326,7 @@
       <c r="M125" s="19">
         <v>7.5</v>
       </c>
-      <c r="N125" s="5">
+      <c r="N125" s="19">
         <f t="shared" si="7"/>
         <v>0.59999999999999964</v>
       </c>
@@ -7345,7 +7373,7 @@
       <c r="M126" s="19">
         <v>7.2</v>
       </c>
-      <c r="N126" s="5">
+      <c r="N126" s="19">
         <f t="shared" si="7"/>
         <v>0.39999999999999947</v>
       </c>
@@ -7392,7 +7420,7 @@
       <c r="M127" s="19">
         <v>10</v>
       </c>
-      <c r="N127" s="5">
+      <c r="N127" s="19">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -7439,7 +7467,7 @@
       <c r="M128" s="19">
         <v>7.2</v>
       </c>
-      <c r="N128" s="5">
+      <c r="N128" s="19">
         <f t="shared" si="7"/>
         <v>-0.90000000000000036</v>
       </c>
@@ -7488,7 +7516,7 @@
       <c r="M129" s="19">
         <v>7</v>
       </c>
-      <c r="N129" s="5">
+      <c r="N129" s="19">
         <f t="shared" si="7"/>
         <v>0.90000000000000036</v>
       </c>
@@ -7535,7 +7563,7 @@
       <c r="M130" s="19">
         <v>9.1</v>
       </c>
-      <c r="N130" s="5">
+      <c r="N130" s="19">
         <f t="shared" ref="N130:N161" si="9">L130-M130</f>
         <v>-1.2999999999999998</v>
       </c>
@@ -7582,7 +7610,7 @@
       <c r="M131" s="19">
         <v>5.2</v>
       </c>
-      <c r="N131" s="5">
+      <c r="N131" s="19">
         <f t="shared" si="9"/>
         <v>1.3999999999999995</v>
       </c>
@@ -7629,7 +7657,7 @@
       <c r="M132" s="19">
         <v>7.8</v>
       </c>
-      <c r="N132" s="5">
+      <c r="N132" s="19">
         <f t="shared" si="9"/>
         <v>-0.70000000000000018</v>
       </c>
@@ -7676,7 +7704,7 @@
       <c r="M133" s="19">
         <v>8.9</v>
       </c>
-      <c r="N133" s="5">
+      <c r="N133" s="19">
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
@@ -7723,7 +7751,7 @@
       <c r="M134" s="19">
         <v>8.5</v>
       </c>
-      <c r="N134" s="5">
+      <c r="N134" s="19">
         <f t="shared" si="9"/>
         <v>-0.30000000000000071</v>
       </c>
@@ -7770,7 +7798,7 @@
       <c r="M135" s="19">
         <v>5.5</v>
       </c>
-      <c r="N135" s="5">
+      <c r="N135" s="19">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
@@ -7817,7 +7845,7 @@
       <c r="M136" s="19">
         <v>9.3000000000000007</v>
       </c>
-      <c r="N136" s="5">
+      <c r="N136" s="19">
         <f t="shared" si="9"/>
         <v>-0.70000000000000107</v>
       </c>
@@ -7864,7 +7892,7 @@
       <c r="M137" s="19">
         <v>8.6999999999999993</v>
       </c>
-      <c r="N137" s="5">
+      <c r="N137" s="19">
         <f t="shared" si="9"/>
         <v>-0.19999999999999929</v>
       </c>
@@ -7911,7 +7939,7 @@
       <c r="M138" s="19">
         <v>4.5999999999999996</v>
       </c>
-      <c r="N138" s="5">
+      <c r="N138" s="19">
         <f t="shared" si="9"/>
         <v>0.60000000000000053</v>
       </c>
@@ -7958,7 +7986,7 @@
       <c r="M139" s="19">
         <v>8.5</v>
       </c>
-      <c r="N139" s="5">
+      <c r="N139" s="19">
         <f t="shared" si="9"/>
         <v>0.80000000000000071</v>
       </c>
@@ -8005,7 +8033,7 @@
       <c r="M140" s="19">
         <v>7.7</v>
       </c>
-      <c r="N140" s="5">
+      <c r="N140" s="19">
         <f t="shared" si="9"/>
         <v>0.70000000000000018</v>
       </c>
@@ -8052,7 +8080,7 @@
       <c r="M141" s="19">
         <v>8.5</v>
       </c>
-      <c r="N141" s="5">
+      <c r="N141" s="19">
         <f t="shared" si="9"/>
         <v>-0.59999999999999964</v>
       </c>
@@ -8099,7 +8127,7 @@
       <c r="M142" s="19">
         <v>5.5</v>
       </c>
-      <c r="N142" s="5">
+      <c r="N142" s="19">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
@@ -8146,7 +8174,7 @@
       <c r="M143" s="19">
         <v>7.2</v>
       </c>
-      <c r="N143" s="5">
+      <c r="N143" s="19">
         <f t="shared" si="9"/>
         <v>-1</v>
       </c>
@@ -8193,7 +8221,7 @@
       <c r="M144" s="19">
         <v>8</v>
       </c>
-      <c r="N144" s="5">
+      <c r="N144" s="19">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
@@ -8240,7 +8268,7 @@
       <c r="M145" s="19">
         <v>9.5</v>
       </c>
-      <c r="N145" s="5">
+      <c r="N145" s="19">
         <f t="shared" si="9"/>
         <v>-1.4000000000000004</v>
       </c>
@@ -8287,7 +8315,7 @@
       <c r="M146" s="19">
         <v>4.5</v>
       </c>
-      <c r="N146" s="5">
+      <c r="N146" s="19">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
@@ -8336,7 +8364,7 @@
       <c r="M147" s="19">
         <v>9.1</v>
       </c>
-      <c r="N147" s="5">
+      <c r="N147" s="19">
         <f t="shared" si="9"/>
         <v>-0.5</v>
       </c>
@@ -8383,7 +8411,7 @@
       <c r="M148" s="19">
         <v>9.5</v>
       </c>
-      <c r="N148" s="5">
+      <c r="N148" s="19">
         <f t="shared" si="9"/>
         <v>-1.9000000000000004</v>
       </c>
@@ -8430,7 +8458,7 @@
       <c r="M149" s="19">
         <v>8.5</v>
       </c>
-      <c r="N149" s="5">
+      <c r="N149" s="19">
         <f t="shared" si="9"/>
         <v>-1.0999999999999996</v>
       </c>
@@ -8477,7 +8505,7 @@
       <c r="M150" s="19">
         <v>5.6</v>
       </c>
-      <c r="N150" s="5">
+      <c r="N150" s="19">
         <f t="shared" si="9"/>
         <v>0.20000000000000018</v>
       </c>
@@ -8524,7 +8552,7 @@
       <c r="M151" s="19">
         <v>7.8</v>
       </c>
-      <c r="N151" s="5">
+      <c r="N151" s="19">
         <f t="shared" si="9"/>
         <v>-0.59999999999999964</v>
       </c>
@@ -8571,7 +8599,7 @@
       <c r="M152" s="19">
         <v>8.6999999999999993</v>
       </c>
-      <c r="N152" s="5">
+      <c r="N152" s="19">
         <f t="shared" si="9"/>
         <v>-0.69999999999999929</v>
       </c>
@@ -8618,7 +8646,7 @@
       <c r="M153" s="19">
         <v>8.5</v>
       </c>
-      <c r="N153" s="5">
+      <c r="N153" s="19">
         <f t="shared" si="9"/>
         <v>-1.2000000000000002</v>
       </c>
@@ -8663,7 +8691,7 @@
       <c r="M154" s="19">
         <v>5.5</v>
       </c>
-      <c r="N154" s="5">
+      <c r="N154" s="19">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
@@ -8710,7 +8738,7 @@
       <c r="M155" s="19">
         <v>8.8000000000000007</v>
       </c>
-      <c r="N155" s="5">
+      <c r="N155" s="19">
         <f t="shared" si="9"/>
         <v>-0.20000000000000107</v>
       </c>
@@ -8757,7 +8785,7 @@
       <c r="M156" s="19">
         <v>6</v>
       </c>
-      <c r="N156" s="5">
+      <c r="N156" s="19">
         <f t="shared" si="9"/>
         <v>-9.9999999999999645E-2</v>
       </c>
@@ -8804,7 +8832,7 @@
       <c r="M157" s="19">
         <v>5.3</v>
       </c>
-      <c r="N157" s="5">
+      <c r="N157" s="19">
         <f t="shared" si="9"/>
         <v>-0.29999999999999982</v>
       </c>
@@ -8851,7 +8879,7 @@
       <c r="M158" s="19">
         <v>7.1</v>
       </c>
-      <c r="N158" s="5">
+      <c r="N158" s="19">
         <f t="shared" si="9"/>
         <v>-0.39999999999999947</v>
       </c>
@@ -8898,7 +8926,7 @@
       <c r="M159" s="19">
         <v>6.8</v>
       </c>
-      <c r="N159" s="5">
+      <c r="N159" s="19">
         <f t="shared" si="9"/>
         <v>0.20000000000000018</v>
       </c>
@@ -8945,7 +8973,7 @@
       <c r="M160" s="19">
         <v>6.6</v>
       </c>
-      <c r="N160" s="5">
+      <c r="N160" s="19">
         <f t="shared" si="9"/>
         <v>-0.29999999999999982</v>
       </c>
@@ -8992,7 +9020,7 @@
       <c r="M161" s="19">
         <v>4.2</v>
       </c>
-      <c r="N161" s="5">
+      <c r="N161" s="19">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
@@ -9015,7 +9043,7 @@
         <v>12000000</v>
       </c>
       <c r="F162" s="16">
-        <f t="shared" ref="F162:F194" si="10">E162/1000000</f>
+        <f t="shared" ref="F162:F201" si="10">E162/1000000</f>
         <v>12</v>
       </c>
       <c r="G162" s="13" t="s">
@@ -9039,8 +9067,8 @@
       <c r="M162" s="19">
         <v>7.1</v>
       </c>
-      <c r="N162" s="5">
-        <f t="shared" ref="N162:N194" si="11">L162-M162</f>
+      <c r="N162" s="19">
+        <f t="shared" ref="N162:N201" si="11">L162-M162</f>
         <v>-0.79999999999999982</v>
       </c>
       <c r="O162" s="6"/>
@@ -9086,7 +9114,7 @@
       <c r="M163" s="19">
         <v>6.2</v>
       </c>
-      <c r="N163" s="5">
+      <c r="N163" s="19">
         <f t="shared" si="11"/>
         <v>-0.5</v>
       </c>
@@ -9131,7 +9159,7 @@
       <c r="M164" s="19">
         <v>7.1</v>
       </c>
-      <c r="N164" s="5">
+      <c r="N164" s="19">
         <f t="shared" si="11"/>
         <v>-1.0999999999999996</v>
       </c>
@@ -9178,7 +9206,7 @@
       <c r="M165" s="19">
         <v>4</v>
       </c>
-      <c r="N165" s="5">
+      <c r="N165" s="19">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
@@ -9225,7 +9253,7 @@
       <c r="M166" s="19">
         <v>7.2</v>
       </c>
-      <c r="N166" s="5">
+      <c r="N166" s="19">
         <f t="shared" si="11"/>
         <v>0.20000000000000018</v>
       </c>
@@ -9272,7 +9300,7 @@
       <c r="M167" s="19">
         <v>6.7</v>
       </c>
-      <c r="N167" s="5">
+      <c r="N167" s="19">
         <f t="shared" si="11"/>
         <v>0.79999999999999982</v>
       </c>
@@ -9317,7 +9345,7 @@
       <c r="M168" s="19">
         <v>5.6</v>
       </c>
-      <c r="N168" s="5">
+      <c r="N168" s="19">
         <f t="shared" si="11"/>
         <v>-9.9999999999999645E-2</v>
       </c>
@@ -9364,7 +9392,7 @@
       <c r="M169" s="19">
         <v>3.7</v>
       </c>
-      <c r="N169" s="5">
+      <c r="N169" s="19">
         <f t="shared" si="11"/>
         <v>-0.5</v>
       </c>
@@ -9411,7 +9439,7 @@
       <c r="M170" s="19">
         <v>7.2</v>
       </c>
-      <c r="N170" s="5">
+      <c r="N170" s="19">
         <f t="shared" si="11"/>
         <v>-0.20000000000000018</v>
       </c>
@@ -9458,7 +9486,7 @@
       <c r="M171" s="19">
         <v>5.5</v>
       </c>
-      <c r="N171" s="5">
+      <c r="N171" s="19">
         <f t="shared" si="11"/>
         <v>-9.9999999999999645E-2</v>
       </c>
@@ -9505,7 +9533,7 @@
       <c r="M172" s="19">
         <v>6.8</v>
       </c>
-      <c r="N172" s="5">
+      <c r="N172" s="19">
         <f t="shared" si="11"/>
         <v>0.79999999999999982</v>
       </c>
@@ -9552,7 +9580,7 @@
       <c r="M173" s="19">
         <v>9.1999999999999993</v>
       </c>
-      <c r="N173" s="5">
+      <c r="N173" s="19">
         <f t="shared" si="11"/>
         <v>-2.0999999999999996</v>
       </c>
@@ -9599,7 +9627,7 @@
       <c r="M174" s="19">
         <v>6</v>
       </c>
-      <c r="N174" s="5">
+      <c r="N174" s="19">
         <f t="shared" si="11"/>
         <v>0.70000000000000018</v>
       </c>
@@ -9646,7 +9674,7 @@
       <c r="M175" s="19">
         <v>4.7</v>
       </c>
-      <c r="N175" s="5">
+      <c r="N175" s="19">
         <f t="shared" si="11"/>
         <v>1.7999999999999998</v>
       </c>
@@ -9693,7 +9721,7 @@
       <c r="M176" s="19">
         <v>5.6</v>
       </c>
-      <c r="N176" s="5">
+      <c r="N176" s="19">
         <f t="shared" si="11"/>
         <v>0.10000000000000053</v>
       </c>
@@ -9740,7 +9768,7 @@
       <c r="M177" s="19">
         <v>7.2</v>
       </c>
-      <c r="N177" s="5">
+      <c r="N177" s="19">
         <f t="shared" si="11"/>
         <v>-0.70000000000000018</v>
       </c>
@@ -9787,7 +9815,7 @@
       <c r="M178" s="19">
         <v>6.7</v>
       </c>
-      <c r="N178" s="5">
+      <c r="N178" s="19">
         <f t="shared" si="11"/>
         <v>0.20000000000000018</v>
       </c>
@@ -9834,7 +9862,7 @@
       <c r="M179" s="19">
         <v>9</v>
       </c>
-      <c r="N179" s="5">
+      <c r="N179" s="19">
         <f t="shared" si="11"/>
         <v>-1.7999999999999998</v>
       </c>
@@ -9881,7 +9909,7 @@
       <c r="M180" s="19">
         <v>6.7</v>
       </c>
-      <c r="N180" s="5">
+      <c r="N180" s="19">
         <f t="shared" si="11"/>
         <v>-0.70000000000000018</v>
       </c>
@@ -9928,7 +9956,7 @@
       <c r="M181" s="19">
         <v>8.5</v>
       </c>
-      <c r="N181" s="5">
+      <c r="N181" s="19">
         <f t="shared" si="11"/>
         <v>-1.2999999999999998</v>
       </c>
@@ -9975,7 +10003,7 @@
       <c r="M182" s="19">
         <v>6.2</v>
       </c>
-      <c r="N182" s="5">
+      <c r="N182" s="19">
         <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
@@ -10022,7 +10050,7 @@
       <c r="M183" s="19">
         <v>4.8</v>
       </c>
-      <c r="N183" s="5">
+      <c r="N183" s="19">
         <f t="shared" si="11"/>
         <v>0.79999999999999982</v>
       </c>
@@ -10069,7 +10097,7 @@
       <c r="M184" s="19">
         <v>7</v>
       </c>
-      <c r="N184" s="5">
+      <c r="N184" s="19">
         <f t="shared" si="11"/>
         <v>1.1999999999999993</v>
       </c>
@@ -10116,7 +10144,7 @@
       <c r="M185" s="19">
         <v>7</v>
       </c>
-      <c r="N185" s="5">
+      <c r="N185" s="19">
         <f t="shared" si="11"/>
         <v>0.20000000000000018</v>
       </c>
@@ -10163,7 +10191,7 @@
       <c r="M186" s="19">
         <v>6.8</v>
       </c>
-      <c r="N186" s="5">
+      <c r="N186" s="19">
         <f t="shared" si="11"/>
         <v>-0.79999999999999982</v>
       </c>
@@ -10210,7 +10238,7 @@
       <c r="M187" s="19">
         <v>8.8000000000000007</v>
       </c>
-      <c r="N187" s="5">
+      <c r="N187" s="19">
         <f t="shared" si="11"/>
         <v>0.29999999999999893</v>
       </c>
@@ -10257,7 +10285,7 @@
       <c r="M188" s="19">
         <v>5.2</v>
       </c>
-      <c r="N188" s="5">
+      <c r="N188" s="19">
         <f t="shared" si="11"/>
         <v>-0.29999999999999982</v>
       </c>
@@ -10298,13 +10326,13 @@
       <c r="K189" s="5">
         <v>118</v>
       </c>
-      <c r="L189" s="5">
+      <c r="L189" s="19">
         <v>6.2</v>
       </c>
-      <c r="M189" s="5">
+      <c r="M189" s="19">
         <v>6.3</v>
       </c>
-      <c r="N189" s="5">
+      <c r="N189" s="19">
         <f t="shared" si="11"/>
         <v>-9.9999999999999645E-2</v>
       </c>
@@ -10345,13 +10373,13 @@
       <c r="K190" s="5">
         <v>119</v>
       </c>
-      <c r="L190" s="5">
+      <c r="L190" s="19">
         <v>8.6</v>
       </c>
-      <c r="M190" s="5">
+      <c r="M190" s="19">
         <v>8.8000000000000007</v>
       </c>
-      <c r="N190" s="5">
+      <c r="N190" s="19">
         <f t="shared" si="11"/>
         <v>-0.20000000000000107</v>
       </c>
@@ -10392,13 +10420,13 @@
       <c r="K191" s="5">
         <v>99</v>
       </c>
-      <c r="L191" s="5">
+      <c r="L191" s="19">
         <v>7.7</v>
       </c>
-      <c r="M191" s="5">
+      <c r="M191" s="19">
         <v>6.2</v>
       </c>
-      <c r="N191" s="5">
+      <c r="N191" s="19">
         <f t="shared" si="11"/>
         <v>1.5</v>
       </c>
@@ -10439,13 +10467,13 @@
       <c r="K192" s="5">
         <v>92</v>
       </c>
-      <c r="L192" s="5">
+      <c r="L192" s="19">
         <v>7.3</v>
       </c>
-      <c r="M192" s="5">
+      <c r="M192" s="19">
         <v>8.3000000000000007</v>
       </c>
-      <c r="N192" s="5">
+      <c r="N192" s="19">
         <f t="shared" si="11"/>
         <v>-1.0000000000000009</v>
       </c>
@@ -10486,13 +10514,13 @@
       <c r="K193" s="5">
         <v>105</v>
       </c>
-      <c r="L193" s="5">
+      <c r="L193" s="19">
         <v>6.3</v>
       </c>
-      <c r="M193" s="5">
+      <c r="M193" s="19">
         <v>7</v>
       </c>
-      <c r="N193" s="5">
+      <c r="N193" s="19">
         <f t="shared" si="11"/>
         <v>-0.70000000000000018</v>
       </c>
@@ -10533,120 +10561,373 @@
       <c r="K194" s="5">
         <v>102</v>
       </c>
-      <c r="L194" s="5">
+      <c r="L194" s="19">
         <v>5.2</v>
       </c>
-      <c r="M194" s="5">
+      <c r="M194" s="19">
         <v>4.2</v>
       </c>
-      <c r="N194" s="5">
+      <c r="N194" s="19">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="O194" s="5"/>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="E195" s="1"/>
-      <c r="F195" s="1"/>
-      <c r="G195" s="1"/>
-      <c r="L195" s="1"/>
-      <c r="M195" s="1"/>
-      <c r="O195" s="1"/>
+      <c r="A195" s="5">
+        <v>194</v>
+      </c>
+      <c r="B195" s="5">
+        <v>215</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D195" s="5">
+        <v>2019</v>
+      </c>
+      <c r="E195" s="13">
+        <v>50000000</v>
+      </c>
+      <c r="F195" s="5">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="G195" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H195" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I195" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J195" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K195" s="5">
+        <v>89</v>
+      </c>
+      <c r="L195" s="19">
+        <v>6.5</v>
+      </c>
+      <c r="M195" s="19">
+        <v>6.5</v>
+      </c>
+      <c r="N195" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O195" s="5"/>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="E196" s="1"/>
-      <c r="F196" s="1"/>
-      <c r="G196" s="1"/>
-      <c r="L196" s="1"/>
-      <c r="M196" s="1"/>
-      <c r="O196" s="1"/>
+      <c r="A196" s="5">
+        <v>195</v>
+      </c>
+      <c r="B196" s="5">
+        <v>216</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D196" s="5">
+        <v>1994</v>
+      </c>
+      <c r="E196" s="13">
+        <v>15000000</v>
+      </c>
+      <c r="F196" s="5">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="G196" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="H196" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I196" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J196" s="5"/>
+      <c r="K196" s="5">
+        <v>86</v>
+      </c>
+      <c r="L196" s="19">
+        <v>8</v>
+      </c>
+      <c r="M196" s="19">
+        <v>7</v>
+      </c>
+      <c r="N196" s="19">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="O196" s="5"/>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="E197" s="1"/>
-      <c r="F197" s="1"/>
-      <c r="G197" s="1"/>
-      <c r="L197" s="1"/>
-      <c r="M197" s="1"/>
-      <c r="O197" s="1"/>
+      <c r="A197" s="5">
+        <v>196</v>
+      </c>
+      <c r="B197" s="5">
+        <v>217</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D197" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E197" s="13"/>
+      <c r="F197" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G197" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H197" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I197" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J197" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K197" s="5">
+        <v>114</v>
+      </c>
+      <c r="L197" s="19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M197" s="19">
+        <v>5.2</v>
+      </c>
+      <c r="N197" s="19">
+        <f t="shared" si="11"/>
+        <v>-0.10000000000000053</v>
+      </c>
+      <c r="O197" s="5"/>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="E198" s="1"/>
-      <c r="F198" s="1"/>
-      <c r="G198" s="1"/>
-      <c r="L198" s="1"/>
-      <c r="M198" s="1"/>
-      <c r="O198" s="1"/>
+      <c r="A198" s="5">
+        <v>197</v>
+      </c>
+      <c r="B198" s="5">
+        <v>218</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D198" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E198" s="13">
+        <v>100000000</v>
+      </c>
+      <c r="F198" s="5">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="G198" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H198" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I198" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J198" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K198" s="5">
+        <v>115</v>
+      </c>
+      <c r="L198" s="19">
+        <v>7</v>
+      </c>
+      <c r="M198" s="19">
+        <v>5.5</v>
+      </c>
+      <c r="N198" s="19">
+        <f t="shared" si="11"/>
+        <v>1.5</v>
+      </c>
+      <c r="O198" s="5"/>
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="E199" s="1"/>
-      <c r="F199" s="1"/>
-      <c r="G199" s="1"/>
-      <c r="L199" s="1"/>
-      <c r="M199" s="1"/>
-      <c r="O199" s="1"/>
+      <c r="A199" s="5">
+        <v>198</v>
+      </c>
+      <c r="B199" s="5">
+        <v>219</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D199" s="5">
+        <v>2024</v>
+      </c>
+      <c r="E199" s="13"/>
+      <c r="F199" s="5">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G199" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H199" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I199" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J199" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K199" s="5">
+        <v>92</v>
+      </c>
+      <c r="L199" s="19">
+        <v>5</v>
+      </c>
+      <c r="M199" s="19">
+        <v>6.5</v>
+      </c>
+      <c r="N199" s="19">
+        <f t="shared" si="11"/>
+        <v>-1.5</v>
+      </c>
+      <c r="O199" s="5"/>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
-      <c r="G200" s="1"/>
-      <c r="L200" s="1"/>
-      <c r="M200" s="1"/>
-      <c r="O200" s="1"/>
+      <c r="A200" s="5">
+        <v>199</v>
+      </c>
+      <c r="B200" s="5">
+        <v>220</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D200" s="5">
+        <v>2000</v>
+      </c>
+      <c r="E200" s="13">
+        <v>19000000</v>
+      </c>
+      <c r="F200" s="5">
+        <f t="shared" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="G200" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H200" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I200" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="J200" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K200" s="5">
+        <v>88</v>
+      </c>
+      <c r="L200" s="19">
+        <v>7.3</v>
+      </c>
+      <c r="M200" s="19">
+        <v>6.7</v>
+      </c>
+      <c r="N200" s="19">
+        <f t="shared" si="11"/>
+        <v>0.59999999999999964</v>
+      </c>
+      <c r="O200" s="5"/>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="E201" s="1"/>
-      <c r="F201" s="1"/>
-      <c r="G201" s="1"/>
-      <c r="L201" s="1"/>
-      <c r="M201" s="1"/>
-      <c r="O201" s="1"/>
+      <c r="A201" s="5">
+        <v>200</v>
+      </c>
+      <c r="B201" s="5">
+        <v>221</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D201" s="5">
+        <v>1987</v>
+      </c>
+      <c r="E201" s="13">
+        <v>15000000</v>
+      </c>
+      <c r="F201" s="5">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="G201" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="H201" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I201" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J201" s="5"/>
+      <c r="K201" s="5">
+        <v>92</v>
+      </c>
+      <c r="L201" s="19">
+        <v>7</v>
+      </c>
+      <c r="M201" s="19">
+        <v>7.5</v>
+      </c>
+      <c r="N201" s="19">
+        <f t="shared" si="11"/>
+        <v>-0.5</v>
+      </c>
+      <c r="O201" s="5"/>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
       <c r="G202" s="1"/>
-      <c r="L202" s="1"/>
-      <c r="M202" s="1"/>
       <c r="O202" s="1"/>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
-      <c r="L203" s="1"/>
-      <c r="M203" s="1"/>
       <c r="O203" s="1"/>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
-      <c r="L204" s="1"/>
-      <c r="M204" s="1"/>
       <c r="O204" s="1"/>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
-      <c r="L205" s="1"/>
-      <c r="M205" s="1"/>
       <c r="O205" s="1"/>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
-      <c r="L206" s="1"/>
-      <c r="M206" s="1"/>
       <c r="O206" s="1"/>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.45">
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
-      <c r="L207" s="1"/>
-      <c r="M207" s="1"/>
       <c r="O207" s="1"/>
     </row>
   </sheetData>

--- a/Data/BryanVsBryan_Data.xlsx
+++ b/Data/BryanVsBryan_Data.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65f40906fbee13bf/Data_Science/Visualization_Project_Podcast/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65f40906fbee13bf/[04] Data Science/[01] Projects/[04] Visualization_Project_Podcast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{4FC6E6E7-BE2D-4F0F-B507-799983C0F7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE5D74EE-5006-4D10-AB76-66ADED85F537}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="13_ncr:1_{4FC6E6E7-BE2D-4F0F-B507-799983C0F7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A34F2F15-5AA8-455A-AA1C-964FAFEF86C1}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{1B70641D-B009-4E91-B3D5-80C95BCC6CD5}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Movies!$A$1:$O$174</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="306">
+  <si>
+    <t>Sort_Order</t>
+  </si>
   <si>
     <t>Episode</t>
   </si>
@@ -49,387 +52,882 @@
     <t>Title</t>
   </si>
   <si>
+    <t>Release_Date</t>
+  </si>
+  <si>
+    <t>Budget</t>
+  </si>
+  <si>
+    <t>Budget (Millions)</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
     <t>Genre</t>
   </si>
   <si>
-    <t>Type</t>
+    <t>Sub_Genre</t>
+  </si>
+  <si>
+    <t>Run_Time_Minutes</t>
+  </si>
+  <si>
+    <t>Bryan_B_Score</t>
+  </si>
+  <si>
+    <t>Bryan_W_Score</t>
+  </si>
+  <si>
+    <t>Score_Difference</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Star Wars: The Last Jedi</t>
+  </si>
+  <si>
+    <t>PG-13</t>
   </si>
   <si>
     <t>Movie</t>
   </si>
   <si>
-    <t>Star Wars: The Last Jedi</t>
-  </si>
-  <si>
-    <t>Notes</t>
+    <t>Sci-Fi</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Scores based on conversation</t>
+  </si>
+  <si>
+    <t>The Blair Witch Project</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Horror</t>
+  </si>
+  <si>
+    <t>Mystery</t>
+  </si>
+  <si>
+    <t>Blair Witch 2: Book of Shadows</t>
+  </si>
+  <si>
+    <t>Adventure</t>
+  </si>
+  <si>
+    <t>Blair Witch</t>
+  </si>
+  <si>
+    <t>Bryan W says 4 or a 5 for this one.</t>
+  </si>
+  <si>
+    <t>Ghostbusters</t>
+  </si>
+  <si>
+    <t>PG</t>
+  </si>
+  <si>
+    <t>Comedy</t>
+  </si>
+  <si>
+    <t>Fantasy</t>
+  </si>
+  <si>
+    <t>Scored based on comments, never gave a score</t>
+  </si>
+  <si>
+    <t>Ghosbusters 2</t>
+  </si>
+  <si>
+    <t>Ghostbusters: Answer the Call</t>
+  </si>
+  <si>
+    <t>Jingle All The Way</t>
+  </si>
+  <si>
+    <t>Bryan B says watch it, Bryan W says miss it.</t>
+  </si>
+  <si>
+    <t>Krampus</t>
+  </si>
+  <si>
+    <t>Both say watch it</t>
+  </si>
+  <si>
+    <t>Tenet</t>
+  </si>
+  <si>
+    <t>Both agree it's in the 7.5 or 8 range</t>
+  </si>
+  <si>
+    <t>Wonder Woman 1984</t>
+  </si>
+  <si>
+    <t>Super Hero</t>
+  </si>
+  <si>
+    <t>Caddyshack</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>They both liked it.</t>
+  </si>
+  <si>
+    <t>The Little Things</t>
+  </si>
+  <si>
+    <t>Crime</t>
+  </si>
+  <si>
+    <t>Drama</t>
+  </si>
+  <si>
+    <t>Judas and the Black Messiah</t>
+  </si>
+  <si>
+    <t>Biography</t>
+  </si>
+  <si>
+    <t>Tom and Jerry</t>
+  </si>
+  <si>
+    <t>Animated</t>
+  </si>
+  <si>
+    <t>Coming 2 America</t>
+  </si>
+  <si>
+    <t>Rumble in the Bronx</t>
+  </si>
+  <si>
+    <t>Justice League Snyder Cut</t>
+  </si>
+  <si>
+    <t>Transformers</t>
+  </si>
+  <si>
+    <t>Godzilla vs Kong</t>
+  </si>
+  <si>
+    <t>The Sandlot</t>
+  </si>
+  <si>
+    <t>Family</t>
+  </si>
+  <si>
+    <t>Rookie of the Year</t>
+  </si>
+  <si>
+    <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>3 Ninjas</t>
+  </si>
+  <si>
+    <t>Those Who Wish Me Dead</t>
+  </si>
+  <si>
+    <t>Thriller</t>
+  </si>
+  <si>
+    <t>Army of the Dead</t>
+  </si>
+  <si>
+    <t>Conjuring 1</t>
+  </si>
+  <si>
+    <t>Conjuring 2</t>
+  </si>
+  <si>
+    <t>The Conjuring: The Devil Made Me Do It</t>
+  </si>
+  <si>
+    <t>Dragon: Bruce Lee Story</t>
+  </si>
+  <si>
+    <t>Fear Street 1994</t>
+  </si>
+  <si>
+    <t>A Quiet Place</t>
+  </si>
+  <si>
+    <t>A Quiet Place Part 2</t>
+  </si>
+  <si>
+    <t>OLD</t>
+  </si>
+  <si>
+    <t>Fear Street 1978</t>
+  </si>
+  <si>
+    <t>Fear Street 1666</t>
+  </si>
+  <si>
+    <t>Bryan W. originally scored it a 6.75 but changed it</t>
+  </si>
+  <si>
+    <t>The Suicide Squad</t>
+  </si>
+  <si>
+    <t>Teenage Mutant Ninja Turtles (1990)</t>
+  </si>
+  <si>
+    <t>Reminiscence</t>
+  </si>
+  <si>
+    <t>Candyman</t>
+  </si>
+  <si>
+    <t>Malignant</t>
+  </si>
+  <si>
+    <t>Batman</t>
+  </si>
+  <si>
+    <t>Kid 90</t>
+  </si>
+  <si>
+    <t>TV-MA</t>
+  </si>
+  <si>
+    <t>Documentary</t>
+  </si>
+  <si>
+    <t>Venom: Let There Be Carnage</t>
+  </si>
+  <si>
+    <t>The Many Saints of Newark</t>
+  </si>
+  <si>
+    <t>The Shining</t>
+  </si>
+  <si>
+    <t>Dune</t>
+  </si>
+  <si>
+    <t>Halloween Kills</t>
+  </si>
+  <si>
+    <t>Paranormal Activity: Next of Kin</t>
+  </si>
+  <si>
+    <t>Shang-Chi and the Legend of the Ten Rings</t>
+  </si>
+  <si>
+    <t>Ghostbusters: Afterlife</t>
+  </si>
+  <si>
+    <t>8-Bit Christmas</t>
+  </si>
+  <si>
+    <t>Man on the Moon</t>
+  </si>
+  <si>
+    <t>Jim and Andy: The Great Beyond</t>
+  </si>
+  <si>
+    <t>Spider Man 2</t>
+  </si>
+  <si>
+    <t>Spider Man: No Way Home</t>
+  </si>
+  <si>
+    <t>BB had originally 8.6</t>
+  </si>
+  <si>
+    <t>The Matrix Resurrections</t>
+  </si>
+  <si>
+    <t>The Thing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scream </t>
+  </si>
+  <si>
+    <t>Short Circuit 1</t>
+  </si>
+  <si>
+    <t>Short Circuit 2</t>
+  </si>
+  <si>
+    <t>The Lawnmower Man</t>
+  </si>
+  <si>
+    <t>Buffy the Vampire Slayer</t>
+  </si>
+  <si>
+    <t>Robocop</t>
+  </si>
+  <si>
+    <t>Uncharted</t>
+  </si>
+  <si>
+    <t>The Batman</t>
+  </si>
+  <si>
+    <t>The Dark Night</t>
+  </si>
+  <si>
+    <t>Mentioned in this episode</t>
+  </si>
+  <si>
+    <t>The Interview</t>
+  </si>
+  <si>
+    <t>The Adam Project</t>
+  </si>
+  <si>
+    <t>Top Gun</t>
+  </si>
+  <si>
+    <t>Face/Off</t>
+  </si>
+  <si>
+    <t>The Northman</t>
+  </si>
+  <si>
+    <t>The Raid: Redemption</t>
+  </si>
+  <si>
+    <t>Doctor Strange in the Multiverse of Madness</t>
+  </si>
+  <si>
+    <t>Lost in Space</t>
+  </si>
+  <si>
+    <t>Chip n Dale: Rescue Rangers</t>
+  </si>
+  <si>
+    <t>Top Gun: Maverick</t>
+  </si>
+  <si>
+    <t>Ambulance</t>
+  </si>
+  <si>
+    <t>Morbius</t>
+  </si>
+  <si>
+    <t>Run Ronnie Run</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Days of Thunder</t>
+  </si>
+  <si>
+    <t>Nope</t>
+  </si>
+  <si>
+    <t>Get Out</t>
+  </si>
+  <si>
+    <t>BB didn't score this, but he said he agreed with quoted Metacritic ratings</t>
+  </si>
+  <si>
+    <t>Us</t>
+  </si>
+  <si>
+    <t>The Gray Man</t>
+  </si>
+  <si>
+    <t>Prey</t>
+  </si>
+  <si>
+    <t>Black Phone</t>
+  </si>
+  <si>
+    <t>Maggie</t>
+  </si>
+  <si>
+    <t>Day Shift</t>
+  </si>
+  <si>
+    <t>Elvis</t>
+  </si>
+  <si>
+    <t>Pinnochio</t>
+  </si>
+  <si>
+    <t>Thor: Love and Thunder</t>
+  </si>
+  <si>
+    <t>The Munsters</t>
+  </si>
+  <si>
+    <t>Warewolf by Night</t>
+  </si>
+  <si>
+    <t>TV-14</t>
+  </si>
+  <si>
+    <t>Hellraiser</t>
+  </si>
+  <si>
+    <t>Halloween Ends</t>
+  </si>
+  <si>
+    <t>American Gangster</t>
+  </si>
+  <si>
+    <t>Weird: The Al Yankovic Story</t>
+  </si>
+  <si>
+    <t>Black Panther: Wakanda Forever</t>
+  </si>
+  <si>
+    <t>Smile</t>
+  </si>
+  <si>
+    <t>The Mighty Morphin Power Rangers</t>
+  </si>
+  <si>
+    <t>A Christmas Story Christmas</t>
+  </si>
+  <si>
+    <t>Clerks 3</t>
+  </si>
+  <si>
+    <t>Avatar: Way of Water</t>
+  </si>
+  <si>
+    <t>Black Adam</t>
+  </si>
+  <si>
+    <t>The Departed</t>
+  </si>
+  <si>
+    <t>The Pale Blue Eye</t>
+  </si>
+  <si>
+    <t>Signs</t>
+  </si>
+  <si>
+    <t>Event Horizon</t>
+  </si>
+  <si>
+    <t>Knock at the Cabin</t>
+  </si>
+  <si>
+    <t>Mars Attacks</t>
+  </si>
+  <si>
+    <t>Ant-Man and the Wasp: Quantamania</t>
+  </si>
+  <si>
+    <t>Superman</t>
+  </si>
+  <si>
+    <t>The Last Dragon</t>
+  </si>
+  <si>
+    <t>Scream 6</t>
+  </si>
+  <si>
+    <t>Road House</t>
+  </si>
+  <si>
+    <t>Point Break</t>
+  </si>
+  <si>
+    <t>Super Mario Bros</t>
+  </si>
+  <si>
+    <t>Blonde</t>
+  </si>
+  <si>
+    <t>NC-17</t>
+  </si>
+  <si>
+    <t>History</t>
+  </si>
+  <si>
+    <t>Cocaine Bear</t>
+  </si>
+  <si>
+    <t>Evil Dead</t>
+  </si>
+  <si>
+    <t>Guardians of the Galaxy: Volume 3</t>
+  </si>
+  <si>
+    <t>The Princess Bride</t>
+  </si>
+  <si>
+    <t>Under Siege</t>
+  </si>
+  <si>
+    <t>The Faculty</t>
+  </si>
+  <si>
+    <t>Django Unchained</t>
+  </si>
+  <si>
+    <t>Western</t>
+  </si>
+  <si>
+    <t>Flaming Hot</t>
+  </si>
+  <si>
+    <t>BB originally said 6.4</t>
+  </si>
+  <si>
+    <t>The Flash</t>
+  </si>
+  <si>
+    <t>Indiana Jones: Temple of Doom</t>
+  </si>
+  <si>
+    <t>Teenage Mutant Ninja Turtles (2014)</t>
+  </si>
+  <si>
+    <t>The Untouchables</t>
+  </si>
+  <si>
+    <t>Mission Impossible: Dead Reckoning</t>
+  </si>
+  <si>
+    <t>Oppenheimer</t>
+  </si>
+  <si>
+    <t>Transformers: Rise of the Beasts</t>
+  </si>
+  <si>
+    <t>Teenage Mutant Ninja Turtles: Mutant Mayhem</t>
+  </si>
+  <si>
+    <t>They Cloned Tyrone</t>
+  </si>
+  <si>
+    <t>Training Day</t>
+  </si>
+  <si>
+    <t>Demolition Man</t>
+  </si>
+  <si>
+    <t>Frailty</t>
+  </si>
+  <si>
+    <t>Double Impact</t>
+  </si>
+  <si>
+    <t>Asteroid City</t>
+  </si>
+  <si>
+    <t>Romance</t>
+  </si>
+  <si>
+    <t>The Creator</t>
+  </si>
+  <si>
+    <t>Spiderman: Across the Spiderverse</t>
+  </si>
+  <si>
+    <t>Jason Goes to Hell</t>
+  </si>
+  <si>
+    <t>Special Edition Friday the 13th Episode</t>
+  </si>
+  <si>
+    <t>Talk to Me</t>
+  </si>
+  <si>
+    <t>Killers of the Flower Moon</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Power Rangers</t>
+  </si>
+  <si>
+    <t>The Killer</t>
+  </si>
+  <si>
+    <t>Fargo</t>
+  </si>
+  <si>
+    <t>Knives Out</t>
+  </si>
+  <si>
+    <t>The Exorcist: Believer</t>
+  </si>
+  <si>
+    <t>Godzilla Minus One</t>
+  </si>
+  <si>
+    <t>Chicken Run: Dawn of th Nugget</t>
+  </si>
+  <si>
+    <t>Rebel Moon Part 1: A Child of Fire</t>
+  </si>
+  <si>
+    <t>Barbie</t>
+  </si>
+  <si>
+    <t>Juice</t>
+  </si>
+  <si>
+    <t>Red Dawn</t>
+  </si>
+  <si>
+    <t>Cyborg</t>
+  </si>
+  <si>
+    <t>War Games</t>
+  </si>
+  <si>
+    <t>Maximum Overdrive</t>
+  </si>
+  <si>
+    <t>The Marvels</t>
+  </si>
+  <si>
+    <t>Troll 2</t>
+  </si>
+  <si>
+    <t>The Visit</t>
+  </si>
+  <si>
+    <t>Spaceman</t>
+  </si>
+  <si>
+    <t>Aquaman and the Lost Kingdom</t>
+  </si>
+  <si>
+    <t>Mac and Me</t>
+  </si>
+  <si>
+    <t>Ghostbusters: Frozen Empire</t>
+  </si>
+  <si>
+    <t>Alien Resurrection</t>
+  </si>
+  <si>
+    <t>Identity</t>
+  </si>
+  <si>
+    <t>Civil War</t>
+  </si>
+  <si>
+    <t>The Other Guys</t>
+  </si>
+  <si>
+    <t>X-Men Origins: Wolverine</t>
+  </si>
+  <si>
+    <t>Anaconda</t>
+  </si>
+  <si>
+    <t>Starship Troopers</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>Furiosa: A Mad Max Saga</t>
+  </si>
+  <si>
+    <t>Pitch Black</t>
+  </si>
+  <si>
+    <t>Hit Man</t>
+  </si>
+  <si>
+    <t>The Accountant</t>
+  </si>
+  <si>
+    <t>Trigger Warning</t>
+  </si>
+  <si>
+    <t>A Quiet Place: Day One</t>
+  </si>
+  <si>
+    <t>Beverly Hills Cop: Axel F</t>
+  </si>
+  <si>
+    <t>Twisters</t>
+  </si>
+  <si>
+    <t>Deadpool and Wolverine</t>
+  </si>
+  <si>
+    <t>TRAP</t>
+  </si>
+  <si>
+    <t>Total Recall (2012)</t>
+  </si>
+  <si>
+    <t>Alien Romulus</t>
+  </si>
+  <si>
+    <t>Timecop (1994)</t>
+  </si>
+  <si>
+    <t>Beetlejuice (1988)</t>
+  </si>
+  <si>
+    <t>Dark Comedy</t>
+  </si>
+  <si>
+    <t>Dark Fantasy</t>
+  </si>
+  <si>
+    <t>Beetlejuice Beetlejuice</t>
+  </si>
+  <si>
+    <t>Street Fighter (1994)</t>
+  </si>
+  <si>
+    <t>Martial Arts</t>
+  </si>
+  <si>
+    <t>Rambo: Last Blood</t>
+  </si>
+  <si>
+    <t>Ace Ventura Pet Detective</t>
+  </si>
+  <si>
+    <t>Salem's Lot</t>
+  </si>
+  <si>
+    <t>Bad Boys: Ride or Die</t>
+  </si>
+  <si>
+    <t>Don't Move</t>
+  </si>
+  <si>
+    <t>Scary Movie</t>
+  </si>
+  <si>
+    <t>Parody</t>
+  </si>
+  <si>
+    <t>Planes, Trains, and Automobiles</t>
+  </si>
+  <si>
+    <t>Robocop (2014)</t>
+  </si>
+  <si>
+    <t>Last of Us</t>
+  </si>
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>Action Adventure</t>
   </si>
   <si>
     <t>Last of Us 2</t>
   </si>
   <si>
-    <t>Game</t>
-  </si>
-  <si>
-    <t>Last of Us</t>
-  </si>
-  <si>
-    <t>Action Adventure</t>
-  </si>
-  <si>
-    <t>Bryan_B_Score</t>
-  </si>
-  <si>
-    <t>Bryan_W_Score</t>
-  </si>
-  <si>
-    <t>Scores based on conversation</t>
-  </si>
-  <si>
-    <t>Blair Witch</t>
-  </si>
-  <si>
-    <t>Blair Witch 2: Book of Shadows</t>
-  </si>
-  <si>
-    <t>The Blair Witch Project</t>
-  </si>
-  <si>
-    <t>Horror</t>
-  </si>
-  <si>
-    <t>Bryan W says 4 or a 5 for this one.</t>
+    <t>Spiderman: Miles Morales</t>
+  </si>
+  <si>
+    <t>Never scored it</t>
+  </si>
+  <si>
+    <t>Max Payne</t>
+  </si>
+  <si>
+    <t>Third Person Shooter</t>
+  </si>
+  <si>
+    <t>Super Mario 3D World + Bowser's Fury</t>
+  </si>
+  <si>
+    <t>Platformer</t>
+  </si>
+  <si>
+    <t>Resident Evil Village</t>
+  </si>
+  <si>
+    <t>Ratchet and Clank: Rift Apart</t>
+  </si>
+  <si>
+    <t>Ghostbusters: The Video Game</t>
+  </si>
+  <si>
+    <t>Brian B. gave it a 6.5 if you're not a GB fan.  He gave a 9 because he's a fan.</t>
+  </si>
+  <si>
+    <t>Ghost of Tsushima Director's Cut</t>
+  </si>
+  <si>
+    <t>Halo Infinite</t>
+  </si>
+  <si>
+    <t>First Person Shooter</t>
+  </si>
+  <si>
+    <t>Teenage Mutant Ninja Turtles: Shredder's Revenge</t>
+  </si>
+  <si>
+    <t>Beat em' Up</t>
+  </si>
+  <si>
+    <t>Resident Evil 4 Remake</t>
+  </si>
+  <si>
+    <t>Bryan_B_Rank</t>
+  </si>
+  <si>
+    <t>Bryan_W_Rank</t>
+  </si>
+  <si>
+    <t>Rank_Difference</t>
+  </si>
+  <si>
+    <t>The Terminator</t>
+  </si>
+  <si>
+    <t>Terminator 2</t>
+  </si>
+  <si>
+    <t>T3: Terminator</t>
+  </si>
+  <si>
+    <t>Terminator Salvation</t>
+  </si>
+  <si>
+    <t>Terminator Dark Fate</t>
+  </si>
+  <si>
+    <t>Terminator Genesis</t>
   </si>
   <si>
     <t>Resident Evil</t>
   </si>
   <si>
+    <t>Resident Evil (Gamecube Remake)</t>
+  </si>
+  <si>
     <t>Resident Evil 2</t>
   </si>
   <si>
+    <t>Resident Evil 2 Remake</t>
+  </si>
+  <si>
+    <t>Resident Evil 3: Nemesis</t>
+  </si>
+  <si>
+    <t>Resident Evil 3 Remake</t>
+  </si>
+  <si>
     <t>Resident Evil 4</t>
   </si>
   <si>
-    <t>Resident Evil (Gamecube Remake)</t>
-  </si>
-  <si>
-    <t>Resident Evil 2 Remake</t>
-  </si>
-  <si>
-    <t>Resident Evil 3 Remake</t>
-  </si>
-  <si>
-    <t>Ghostbusters</t>
-  </si>
-  <si>
-    <t>Ghosbusters 2</t>
-  </si>
-  <si>
-    <t>Comedy</t>
-  </si>
-  <si>
-    <t>Release_Date</t>
-  </si>
-  <si>
-    <t>Terminator 2</t>
-  </si>
-  <si>
-    <t>T3: Terminator</t>
-  </si>
-  <si>
-    <t>Terminator Salvation</t>
-  </si>
-  <si>
-    <t>Bryan_B_Rank</t>
-  </si>
-  <si>
-    <t>Bryan_W_Rank</t>
-  </si>
-  <si>
-    <t>Terminator Dark Fate</t>
-  </si>
-  <si>
-    <t>Terminator Genesis</t>
-  </si>
-  <si>
-    <t>The Terminator</t>
-  </si>
-  <si>
-    <t>Action</t>
-  </si>
-  <si>
-    <t>Rank_Difference</t>
-  </si>
-  <si>
-    <t>Jingle All The Way</t>
-  </si>
-  <si>
-    <t>Bryan B says watch it, Bryan W says miss it.</t>
-  </si>
-  <si>
-    <t>Krampus</t>
-  </si>
-  <si>
-    <t>Both say watch it</t>
-  </si>
-  <si>
-    <t>Tenet</t>
-  </si>
-  <si>
-    <t>Both agree it's in the 7.5 or 8 range</t>
-  </si>
-  <si>
-    <t>Wonder Woman 1984</t>
-  </si>
-  <si>
-    <t>Caddyshack</t>
-  </si>
-  <si>
-    <t>They both liked it.</t>
-  </si>
-  <si>
-    <t>Third Person Shooter</t>
-  </si>
-  <si>
-    <t>Max Payne</t>
-  </si>
-  <si>
-    <t>The Little Things</t>
-  </si>
-  <si>
-    <t>Thriller</t>
-  </si>
-  <si>
-    <t>Judas and the Black Messiah</t>
-  </si>
-  <si>
-    <t>Super Mario 3D World + Bowser's Fury</t>
-  </si>
-  <si>
-    <t>Tom and Jerry</t>
-  </si>
-  <si>
-    <t>Coming 2 America</t>
-  </si>
-  <si>
-    <t>Rumble in the Bronx</t>
-  </si>
-  <si>
-    <t>Justice League Snyder Cut</t>
-  </si>
-  <si>
-    <t>Super Hero</t>
-  </si>
-  <si>
-    <t>Run_Time_Minutes</t>
-  </si>
-  <si>
-    <t>Ghostbusters: Answer the Call</t>
-  </si>
-  <si>
-    <t>Transformers</t>
-  </si>
-  <si>
-    <t>Sci-Fi</t>
-  </si>
-  <si>
-    <t>Godzilla vs Kong</t>
-  </si>
-  <si>
-    <t>Rookie of the Year</t>
-  </si>
-  <si>
-    <t>Mortal Kombat</t>
-  </si>
-  <si>
-    <t>3 Ninjas</t>
-  </si>
-  <si>
-    <t>Resident Evil Village</t>
-  </si>
-  <si>
-    <t>Those Who Wish Me Dead</t>
-  </si>
-  <si>
-    <t>Army of the Dead</t>
-  </si>
-  <si>
-    <t>The Conjuring: The Devil Made Me Do It</t>
-  </si>
-  <si>
-    <t>Drama</t>
-  </si>
-  <si>
-    <t>Conjuring 1</t>
-  </si>
-  <si>
-    <t>Conjuring 2</t>
-  </si>
-  <si>
-    <t>Sub_Genre</t>
-  </si>
-  <si>
-    <t>Ratchet and Clank: Rift Apart</t>
-  </si>
-  <si>
-    <t>Dragon: Bruce Lee Story</t>
-  </si>
-  <si>
-    <t>Biography</t>
-  </si>
-  <si>
-    <t>Animated</t>
-  </si>
-  <si>
-    <t>Platformer</t>
-  </si>
-  <si>
-    <t>Family</t>
-  </si>
-  <si>
-    <t>Fear Street 1994</t>
-  </si>
-  <si>
-    <t>Ghostbusters: The Video Game</t>
-  </si>
-  <si>
-    <t>A Quiet Place Part 2</t>
-  </si>
-  <si>
-    <t>OLD</t>
-  </si>
-  <si>
-    <t>Fear Street 1978</t>
-  </si>
-  <si>
-    <t>Brian B. gave it a 6.5 if you're not a GB fan.  He gave a 9 because he's a fan.</t>
-  </si>
-  <si>
-    <t>Fear Street 1666</t>
-  </si>
-  <si>
-    <t>A Quiet Place</t>
-  </si>
-  <si>
-    <t>The Suicide Squad</t>
-  </si>
-  <si>
-    <t>Reminiscence</t>
-  </si>
-  <si>
-    <t>Ghost of Tsushima Director's Cut</t>
-  </si>
-  <si>
-    <t>Candyman</t>
-  </si>
-  <si>
-    <t>Malignant</t>
-  </si>
-  <si>
-    <t>Batman</t>
-  </si>
-  <si>
-    <t>Kid 90</t>
-  </si>
-  <si>
-    <t>Venom: Let There Be Carnage</t>
-  </si>
-  <si>
-    <t>Bryan W. originally scored it a 6.75 but changed it</t>
-  </si>
-  <si>
-    <t>Resident Evil 3: Nemesis</t>
-  </si>
-  <si>
-    <t>Score_Difference</t>
-  </si>
-  <si>
-    <t>Documentary</t>
-  </si>
-  <si>
-    <t>The Many Saints of Newark</t>
-  </si>
-  <si>
-    <t>Crime</t>
-  </si>
-  <si>
-    <t>The Shining</t>
-  </si>
-  <si>
-    <t>Spider Man 2</t>
-  </si>
-  <si>
-    <t>Man on the Moon</t>
-  </si>
-  <si>
-    <t>Jim and Andy: The Great Beyond</t>
-  </si>
-  <si>
-    <t>Spider Man: No Way Home</t>
-  </si>
-  <si>
-    <t>BB had originally 8.6</t>
-  </si>
-  <si>
-    <t>The Matrix Resurrections</t>
-  </si>
-  <si>
-    <t>Dune</t>
-  </si>
-  <si>
-    <t>Halloween Kills</t>
-  </si>
-  <si>
-    <t>Paranormal Activity: Next of Kin</t>
-  </si>
-  <si>
-    <t>Shang-Chi and the Legend of the Ten Rings</t>
-  </si>
-  <si>
-    <t>8-Bit Christmas</t>
-  </si>
-  <si>
-    <t>Halo Infinite</t>
-  </si>
-  <si>
-    <t>The Thing</t>
-  </si>
-  <si>
-    <t>First Person Shooter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scream </t>
-  </si>
-  <si>
-    <t>Short Circuit 1</t>
-  </si>
-  <si>
-    <t>Short Circuit 2</t>
-  </si>
-  <si>
-    <t>The Lawnmower Man</t>
-  </si>
-  <si>
-    <t>Buffy the Vampire Slayer</t>
-  </si>
-  <si>
-    <t>Robocop</t>
-  </si>
-  <si>
-    <t>Uncharted</t>
-  </si>
-  <si>
-    <t>Adventure</t>
-  </si>
-  <si>
-    <t>The Batman</t>
-  </si>
-  <si>
-    <t>The Dark Night</t>
-  </si>
-  <si>
-    <t>Mentioned in this episode</t>
-  </si>
-  <si>
     <t>A New Hope</t>
   </si>
   <si>
@@ -461,501 +959,6 @@
   </si>
   <si>
     <t>The Rise of Skywalker</t>
-  </si>
-  <si>
-    <t>The Interview</t>
-  </si>
-  <si>
-    <t>The Adam Project</t>
-  </si>
-  <si>
-    <t>Top Gun</t>
-  </si>
-  <si>
-    <t>Face/Off</t>
-  </si>
-  <si>
-    <t>The Northman</t>
-  </si>
-  <si>
-    <t>Doctor Strange in the Multiverse of Madness</t>
-  </si>
-  <si>
-    <t>Lost in Space</t>
-  </si>
-  <si>
-    <t>Top Gun: Maverick</t>
-  </si>
-  <si>
-    <t>Ambulance</t>
-  </si>
-  <si>
-    <t>Morbius</t>
-  </si>
-  <si>
-    <t>Teenage Mutant Ninja Turtles: Shredder's Revenge</t>
-  </si>
-  <si>
-    <t>Run Ronnie Run</t>
-  </si>
-  <si>
-    <t>Days of Thunder</t>
-  </si>
-  <si>
-    <t>Nope</t>
-  </si>
-  <si>
-    <t>Get Out</t>
-  </si>
-  <si>
-    <t>Us</t>
-  </si>
-  <si>
-    <t>BB didn't score this, but he said he agreed with quoted Metacritic ratings</t>
-  </si>
-  <si>
-    <t>The Gray Man</t>
-  </si>
-  <si>
-    <t>Prey</t>
-  </si>
-  <si>
-    <t>Black Phone</t>
-  </si>
-  <si>
-    <t>Maggie</t>
-  </si>
-  <si>
-    <t>Day Shift</t>
-  </si>
-  <si>
-    <t>Elvis</t>
-  </si>
-  <si>
-    <t>Pinnochio</t>
-  </si>
-  <si>
-    <t>The Munsters</t>
-  </si>
-  <si>
-    <t>Warewolf by Night</t>
-  </si>
-  <si>
-    <t>Hellraiser</t>
-  </si>
-  <si>
-    <t>Halloween Ends</t>
-  </si>
-  <si>
-    <t>American Gangster</t>
-  </si>
-  <si>
-    <t>Weird: The Al Yankovic Story</t>
-  </si>
-  <si>
-    <t>Smile</t>
-  </si>
-  <si>
-    <t>The Mighty Morphin Power Rangers</t>
-  </si>
-  <si>
-    <t>A Christmas Story Christmas</t>
-  </si>
-  <si>
-    <t>Clerks 3</t>
-  </si>
-  <si>
-    <t>Avatar: Way of Water</t>
-  </si>
-  <si>
-    <t>Black Adam</t>
-  </si>
-  <si>
-    <t>The Departed</t>
-  </si>
-  <si>
-    <t>The Pale Blue Eye</t>
-  </si>
-  <si>
-    <t>Signs</t>
-  </si>
-  <si>
-    <t>Event Horizon</t>
-  </si>
-  <si>
-    <t>Mars Attacks</t>
-  </si>
-  <si>
-    <t>Superman</t>
-  </si>
-  <si>
-    <t>The Last Dragon</t>
-  </si>
-  <si>
-    <t>Scream 6</t>
-  </si>
-  <si>
-    <t>Road House</t>
-  </si>
-  <si>
-    <t>Point Break</t>
-  </si>
-  <si>
-    <t>Resident Evil 4 Remake</t>
-  </si>
-  <si>
-    <t>Super Mario Bros</t>
-  </si>
-  <si>
-    <t>Blonde</t>
-  </si>
-  <si>
-    <t>Cocaine Bear</t>
-  </si>
-  <si>
-    <t>Evil Dead</t>
-  </si>
-  <si>
-    <t>Guardians of the Galaxy: Volume 3</t>
-  </si>
-  <si>
-    <t>The Princess Bride</t>
-  </si>
-  <si>
-    <t>Under Siege</t>
-  </si>
-  <si>
-    <t>The Faculty</t>
-  </si>
-  <si>
-    <t>Django Unchained</t>
-  </si>
-  <si>
-    <t>Flaming Hot</t>
-  </si>
-  <si>
-    <t>BB originally said 6.4</t>
-  </si>
-  <si>
-    <t>Indiana Jones: Temple of Doom</t>
-  </si>
-  <si>
-    <t>Teenage Mutant Ninja Turtles (2014)</t>
-  </si>
-  <si>
-    <t>Teenage Mutant Ninja Turtles (1990)</t>
-  </si>
-  <si>
-    <t>The Untouchables</t>
-  </si>
-  <si>
-    <t>Mission Impossible: Dead Reckoning</t>
-  </si>
-  <si>
-    <t>Oppenheimer</t>
-  </si>
-  <si>
-    <t>Transformers: Rise of the Beasts</t>
-  </si>
-  <si>
-    <t>Teenage Mutant Ninja Turtles: Mutant Mayhem</t>
-  </si>
-  <si>
-    <t>They Cloned Tyrone</t>
-  </si>
-  <si>
-    <t>Training Day</t>
-  </si>
-  <si>
-    <t>Demolition Man</t>
-  </si>
-  <si>
-    <t>Frailty</t>
-  </si>
-  <si>
-    <t>Double Impact</t>
-  </si>
-  <si>
-    <t>Asteroid City</t>
-  </si>
-  <si>
-    <t>The Creator</t>
-  </si>
-  <si>
-    <t>Spiderman: Across the Spiderverse</t>
-  </si>
-  <si>
-    <t>Jason Goes to Hell</t>
-  </si>
-  <si>
-    <t>Special Edition Friday the 13th Episode</t>
-  </si>
-  <si>
-    <t>Talk to Me</t>
-  </si>
-  <si>
-    <t>Killers of the Flower Moon</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>Power Rangers</t>
-  </si>
-  <si>
-    <t>The Killer</t>
-  </si>
-  <si>
-    <t>Fargo</t>
-  </si>
-  <si>
-    <t>Knives Out</t>
-  </si>
-  <si>
-    <t>The Exorcist: Believer</t>
-  </si>
-  <si>
-    <t>Godzilla Minus One</t>
-  </si>
-  <si>
-    <t>Chicken Run: Dawn of th Nugget</t>
-  </si>
-  <si>
-    <t>Rebel Moon Part 1: A Child of Fire</t>
-  </si>
-  <si>
-    <t>Barbie</t>
-  </si>
-  <si>
-    <t>Juice</t>
-  </si>
-  <si>
-    <t>Red Dawn</t>
-  </si>
-  <si>
-    <t>Cyborg</t>
-  </si>
-  <si>
-    <t>War Games</t>
-  </si>
-  <si>
-    <t>Maximum Overdrive</t>
-  </si>
-  <si>
-    <t>The Marvels</t>
-  </si>
-  <si>
-    <t>Troll 2</t>
-  </si>
-  <si>
-    <t>The Visit</t>
-  </si>
-  <si>
-    <t>Aquaman and the Lost Kingdom</t>
-  </si>
-  <si>
-    <t>Mac and Me</t>
-  </si>
-  <si>
-    <t>Ghostbusters: Frozen Empire</t>
-  </si>
-  <si>
-    <t>Ghostbusters: Afterlife</t>
-  </si>
-  <si>
-    <t>Alien Resurrection</t>
-  </si>
-  <si>
-    <t>Identity</t>
-  </si>
-  <si>
-    <t>Civil War</t>
-  </si>
-  <si>
-    <t>The Raid: Redemption</t>
-  </si>
-  <si>
-    <t>Chip n Dale: Rescue Rangers</t>
-  </si>
-  <si>
-    <t>Beat em' Up</t>
-  </si>
-  <si>
-    <t>Mystery</t>
-  </si>
-  <si>
-    <t>Thor: Love and Thunder</t>
-  </si>
-  <si>
-    <t>Black Panther: Wakanda Forever</t>
-  </si>
-  <si>
-    <t>Fantasy</t>
-  </si>
-  <si>
-    <t>Ant-Man and the Wasp: Quantamania</t>
-  </si>
-  <si>
-    <t>Western</t>
-  </si>
-  <si>
-    <t>The Flash</t>
-  </si>
-  <si>
-    <t>Sort_Order</t>
-  </si>
-  <si>
-    <t>Scored based on comments, never gave a score</t>
-  </si>
-  <si>
-    <t>Spiderman: Miles Morales</t>
-  </si>
-  <si>
-    <t>Never scored it</t>
-  </si>
-  <si>
-    <t>Budget</t>
-  </si>
-  <si>
-    <t>The Other Guys</t>
-  </si>
-  <si>
-    <t>Rating</t>
-  </si>
-  <si>
-    <t>PG-13</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>PG</t>
-  </si>
-  <si>
-    <t>Sport</t>
-  </si>
-  <si>
-    <t>The Sandlot</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>TV-MA</t>
-  </si>
-  <si>
-    <t>TV-14</t>
-  </si>
-  <si>
-    <t>Knock at the Cabin</t>
-  </si>
-  <si>
-    <t>NC-17</t>
-  </si>
-  <si>
-    <t>History</t>
-  </si>
-  <si>
-    <t>Romance</t>
-  </si>
-  <si>
-    <t>Spaceman</t>
-  </si>
-  <si>
-    <t>Budget (Millions)</t>
-  </si>
-  <si>
-    <t>X-Men Origins: Wolverine</t>
-  </si>
-  <si>
-    <t>Anaconda</t>
-  </si>
-  <si>
-    <t>Starship Troopers</t>
-  </si>
-  <si>
-    <t>IF</t>
-  </si>
-  <si>
-    <t>Furiosa: A Mad Max Saga</t>
-  </si>
-  <si>
-    <t>Pitch Black</t>
-  </si>
-  <si>
-    <t>Hit Man</t>
-  </si>
-  <si>
-    <t>The Accountant</t>
-  </si>
-  <si>
-    <t>Trigger Warning</t>
-  </si>
-  <si>
-    <t>A Quiet Place: Day One</t>
-  </si>
-  <si>
-    <t>Beverly Hills Cop: Axel F</t>
-  </si>
-  <si>
-    <t>Twisters</t>
-  </si>
-  <si>
-    <t>Deadpool and Wolverine</t>
-  </si>
-  <si>
-    <t>TRAP</t>
-  </si>
-  <si>
-    <t>Total Recall (2012)</t>
-  </si>
-  <si>
-    <t>Alien Romulus</t>
-  </si>
-  <si>
-    <t>Timecop (1994)</t>
-  </si>
-  <si>
-    <t>Beetlejuice (1988)</t>
-  </si>
-  <si>
-    <t>Dark Comedy</t>
-  </si>
-  <si>
-    <t>Dark Fantasy</t>
-  </si>
-  <si>
-    <t>Beetlejuice Beetlejuice</t>
-  </si>
-  <si>
-    <t>Street Fighter (1994)</t>
-  </si>
-  <si>
-    <t>Martial Arts</t>
-  </si>
-  <si>
-    <t>Ace Ventura Pet Detective</t>
-  </si>
-  <si>
-    <t>Salem's Lot</t>
-  </si>
-  <si>
-    <t>Bad Boys: Ride or Die</t>
-  </si>
-  <si>
-    <t>Don't Move</t>
-  </si>
-  <si>
-    <t>Scary Movie</t>
-  </si>
-  <si>
-    <t>Planes, Trains, and Automobiles</t>
-  </si>
-  <si>
-    <t>Rambo: Last Blood</t>
-  </si>
-  <si>
-    <t>Parody</t>
   </si>
 </sst>
 </file>
@@ -1040,7 +1043,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1107,6 +1110,18 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1454,58 +1469,58 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.796875" style="17" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.9296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.73046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.73046875" style="27" customWidth="1"/>
+    <col min="5" max="5" width="16" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.86328125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="12.265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.1328125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.19921875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.1328125" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.265625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.796875" style="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.46484375" style="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="56.9296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.86328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.3984375" style="20" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="23" t="s">
-        <v>28</v>
+        <v>2</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>3</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>257</v>
+        <v>4</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>273</v>
+        <v>5</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>259</v>
+        <v>6</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="K1" s="23" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="L1" s="24" t="s">
         <v>11</v>
@@ -1514,10 +1529,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.45">
@@ -1528,9 +1543,9 @@
         <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5">
+        <v>15</v>
+      </c>
+      <c r="D2" s="26">
         <v>2017</v>
       </c>
       <c r="E2" s="13">
@@ -1541,16 +1556,16 @@
         <v>317</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K2" s="5">
         <v>152</v>
@@ -1566,7 +1581,7 @@
         <v>-2.5</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
@@ -1577,9 +1592,9 @@
         <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="5">
+        <v>21</v>
+      </c>
+      <c r="D3" s="26">
         <v>1999</v>
       </c>
       <c r="E3" s="13">
@@ -1590,16 +1605,16 @@
         <v>0.06</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="K3" s="5">
         <v>81</v>
@@ -1624,9 +1639,9 @@
         <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="5">
+        <v>25</v>
+      </c>
+      <c r="D4" s="26">
         <v>2000</v>
       </c>
       <c r="E4" s="13">
@@ -1637,16 +1652,16 @@
         <v>15</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="K4" s="5">
         <v>90</v>
@@ -1671,9 +1686,9 @@
         <v>10</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="5">
+        <v>27</v>
+      </c>
+      <c r="D5" s="26">
         <v>2016</v>
       </c>
       <c r="E5" s="13">
@@ -1684,16 +1699,16 @@
         <v>5</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="K5" s="5">
         <v>89</v>
@@ -1709,7 +1724,7 @@
         <v>0.5</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.45">
@@ -1720,9 +1735,9 @@
         <v>12</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5">
+        <v>29</v>
+      </c>
+      <c r="D6" s="26">
         <v>1984</v>
       </c>
       <c r="E6" s="13">
@@ -1733,16 +1748,16 @@
         <v>30</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="K6" s="5">
         <v>105</v>
@@ -1758,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>254</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.45">
@@ -1769,9 +1784,9 @@
         <v>12</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="5">
+        <v>34</v>
+      </c>
+      <c r="D7" s="26">
         <v>1989</v>
       </c>
       <c r="E7" s="13">
@@ -1782,16 +1797,16 @@
         <v>25</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="K7" s="5">
         <v>108</v>
@@ -1807,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="6" t="s">
-        <v>254</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.45">
@@ -1818,9 +1833,9 @@
         <v>12</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="5">
+        <v>35</v>
+      </c>
+      <c r="D8" s="26">
         <v>2016</v>
       </c>
       <c r="E8" s="13">
@@ -1831,16 +1846,16 @@
         <v>144</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="K8" s="5">
         <v>116</v>
@@ -1856,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>254</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.45">
@@ -1867,9 +1882,9 @@
         <v>16</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="5">
+        <v>36</v>
+      </c>
+      <c r="D9" s="26">
         <v>1996</v>
       </c>
       <c r="E9" s="13">
@@ -1880,16 +1895,16 @@
         <v>60</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K9" s="5">
         <v>89</v>
@@ -1901,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.45">
@@ -1912,9 +1927,9 @@
         <v>18</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="5">
+        <v>38</v>
+      </c>
+      <c r="D10" s="26">
         <v>2015</v>
       </c>
       <c r="E10" s="13">
@@ -1925,16 +1940,16 @@
         <v>15</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K10" s="5">
         <v>98</v>
@@ -1946,7 +1961,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.45">
@@ -1957,9 +1972,9 @@
         <v>20</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="5">
+        <v>40</v>
+      </c>
+      <c r="D11" s="26">
         <v>2020</v>
       </c>
       <c r="E11" s="13">
@@ -1970,16 +1985,16 @@
         <v>205</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K11" s="5">
         <v>150</v>
@@ -1995,7 +2010,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.45">
@@ -2006,9 +2021,9 @@
         <v>21</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="5">
+        <v>42</v>
+      </c>
+      <c r="D12" s="26">
         <v>2020</v>
       </c>
       <c r="E12" s="13">
@@ -2019,13 +2034,13 @@
         <v>200</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="5">
@@ -2051,9 +2066,9 @@
         <v>24</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="5">
+        <v>44</v>
+      </c>
+      <c r="D13" s="26">
         <v>1980</v>
       </c>
       <c r="E13" s="13">
@@ -2064,16 +2079,16 @@
         <v>6</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="K13" s="5">
         <v>98</v>
@@ -2085,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.45">
@@ -2096,9 +2111,9 @@
         <v>27</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="5">
+        <v>47</v>
+      </c>
+      <c r="D14" s="26">
         <v>2021</v>
       </c>
       <c r="E14" s="13">
@@ -2109,16 +2124,16 @@
         <v>30</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="K14" s="5">
         <v>128</v>
@@ -2143,9 +2158,9 @@
         <v>28</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="5">
+        <v>50</v>
+      </c>
+      <c r="D15" s="26">
         <v>2021</v>
       </c>
       <c r="E15" s="13">
@@ -2156,16 +2171,16 @@
         <v>26</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="K15" s="5">
         <v>126</v>
@@ -2190,9 +2205,9 @@
         <v>30</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="5">
+        <v>52</v>
+      </c>
+      <c r="D16" s="26">
         <v>2021</v>
       </c>
       <c r="E16" s="13">
@@ -2203,16 +2218,16 @@
         <v>79</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="K16" s="5">
         <v>101</v>
@@ -2237,9 +2252,9 @@
         <v>31</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="5">
+        <v>54</v>
+      </c>
+      <c r="D17" s="26">
         <v>2021</v>
       </c>
       <c r="E17" s="13">
@@ -2250,13 +2265,13 @@
         <v>60</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5">
@@ -2282,9 +2297,9 @@
         <v>32</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="5">
+        <v>55</v>
+      </c>
+      <c r="D18" s="26">
         <v>1995</v>
       </c>
       <c r="E18" s="13">
@@ -2295,16 +2310,16 @@
         <v>7.5</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K18" s="5">
         <v>104</v>
@@ -2329,9 +2344,9 @@
         <v>33</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="5">
+        <v>56</v>
+      </c>
+      <c r="D19" s="26">
         <v>2021</v>
       </c>
       <c r="E19" s="13">
@@ -2342,13 +2357,13 @@
         <v>300</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5">
@@ -2374,9 +2389,9 @@
         <v>34</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="5">
+        <v>57</v>
+      </c>
+      <c r="D20" s="26">
         <v>2007</v>
       </c>
       <c r="E20" s="13">
@@ -2387,16 +2402,16 @@
         <v>150</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K20" s="5">
         <v>144</v>
@@ -2421,9 +2436,9 @@
         <v>35</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="5">
+        <v>58</v>
+      </c>
+      <c r="D21" s="26">
         <v>2021</v>
       </c>
       <c r="E21" s="13">
@@ -2434,16 +2449,16 @@
         <v>200</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K21" s="5">
         <v>113</v>
@@ -2468,9 +2483,9 @@
         <v>37</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="D22" s="5">
+        <v>59</v>
+      </c>
+      <c r="D22" s="26">
         <v>1993</v>
       </c>
       <c r="E22" s="13">
@@ -2481,16 +2496,16 @@
         <v>7</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K22" s="5">
         <v>101</v>
@@ -2515,9 +2530,9 @@
         <v>37</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="5">
+        <v>61</v>
+      </c>
+      <c r="D23" s="26">
         <v>1993</v>
       </c>
       <c r="E23" s="13">
@@ -2528,16 +2543,16 @@
         <v>10</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K23" s="5">
         <v>103</v>
@@ -2562,9 +2577,9 @@
         <v>38</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="5">
+        <v>62</v>
+      </c>
+      <c r="D24" s="26">
         <v>2021</v>
       </c>
       <c r="E24" s="13">
@@ -2575,16 +2590,16 @@
         <v>55</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="K24" s="5">
         <v>110</v>
@@ -2609,9 +2624,9 @@
         <v>39</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" s="5">
+        <v>63</v>
+      </c>
+      <c r="D25" s="26">
         <v>1992</v>
       </c>
       <c r="E25" s="13">
@@ -2622,16 +2637,16 @@
         <v>6.5</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K25" s="5">
         <v>84</v>
@@ -2656,9 +2671,9 @@
         <v>41</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="5">
+        <v>64</v>
+      </c>
+      <c r="D26" s="26">
         <v>2021</v>
       </c>
       <c r="E26" s="13">
@@ -2669,16 +2684,16 @@
         <v>20</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J26" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K26" s="5">
         <v>100</v>
@@ -2703,9 +2718,9 @@
         <v>42</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="5">
+        <v>66</v>
+      </c>
+      <c r="D27" s="26">
         <v>2021</v>
       </c>
       <c r="E27" s="13">
@@ -2716,16 +2731,16 @@
         <v>70</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="K27" s="5">
         <v>148</v>
@@ -2750,9 +2765,9 @@
         <v>44</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" s="5">
+        <v>67</v>
+      </c>
+      <c r="D28" s="26">
         <v>2013</v>
       </c>
       <c r="E28" s="13">
@@ -2763,16 +2778,16 @@
         <v>20</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K28" s="5">
         <v>111</v>
@@ -2797,9 +2812,9 @@
         <v>44</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="5">
+        <v>68</v>
+      </c>
+      <c r="D29" s="26">
         <v>2016</v>
       </c>
       <c r="E29" s="13">
@@ -2810,16 +2825,16 @@
         <v>40</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K29" s="5">
         <v>134</v>
@@ -2844,9 +2859,9 @@
         <v>44</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30" s="5">
+        <v>69</v>
+      </c>
+      <c r="D30" s="26">
         <v>2021</v>
       </c>
       <c r="E30" s="13">
@@ -2857,16 +2872,16 @@
         <v>39</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K30" s="5">
         <v>112</v>
@@ -2891,9 +2906,9 @@
         <v>47</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="5">
+        <v>70</v>
+      </c>
+      <c r="D31" s="26">
         <v>1993</v>
       </c>
       <c r="E31" s="13">
@@ -2904,16 +2919,16 @@
         <v>14</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="K31" s="5">
         <v>120</v>
@@ -2938,9 +2953,9 @@
         <v>48</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D32" s="5">
+        <v>71</v>
+      </c>
+      <c r="D32" s="26">
         <v>2021</v>
       </c>
       <c r="E32" s="13">
@@ -2951,16 +2966,16 @@
         <v>0</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="K32" s="5">
         <v>107</v>
@@ -2985,9 +3000,9 @@
         <v>50</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="5">
+        <v>72</v>
+      </c>
+      <c r="D33" s="26">
         <v>2018</v>
       </c>
       <c r="E33" s="13">
@@ -2998,16 +3013,16 @@
         <v>17</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I33" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K33" s="5">
         <v>90</v>
@@ -3032,9 +3047,9 @@
         <v>50</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" s="5">
+        <v>73</v>
+      </c>
+      <c r="D34" s="26">
         <v>2021</v>
       </c>
       <c r="E34" s="13">
@@ -3045,16 +3060,16 @@
         <v>61</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H34" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="J34" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K34" s="5">
         <v>97</v>
@@ -3079,9 +3094,9 @@
         <v>51</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="5">
+        <v>74</v>
+      </c>
+      <c r="D35" s="26">
         <v>2021</v>
       </c>
       <c r="E35" s="13">
@@ -3092,16 +3107,16 @@
         <v>18</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I35" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="J35" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K35" s="5">
         <v>109</v>
@@ -3126,9 +3141,9 @@
         <v>52</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="5">
+        <v>75</v>
+      </c>
+      <c r="D36" s="26">
         <v>2021</v>
       </c>
       <c r="E36" s="13">
@@ -3139,16 +3154,16 @@
         <v>0</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H36" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I36" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="K36" s="5">
         <v>110</v>
@@ -3173,9 +3188,9 @@
         <v>52</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="5">
+        <v>76</v>
+      </c>
+      <c r="D37" s="26">
         <v>2021</v>
       </c>
       <c r="E37" s="13">
@@ -3186,16 +3201,16 @@
         <v>0</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H37" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J37" s="5" t="s">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="K37" s="5">
         <v>114</v>
@@ -3211,7 +3226,7 @@
         <v>0.29999999999999982</v>
       </c>
       <c r="O37" s="6" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.45">
@@ -3222,9 +3237,9 @@
         <v>53</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="5">
+        <v>78</v>
+      </c>
+      <c r="D38" s="26">
         <v>2021</v>
       </c>
       <c r="E38" s="13">
@@ -3235,16 +3250,16 @@
         <v>185</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K38" s="5">
         <v>132</v>
@@ -3269,9 +3284,9 @@
         <v>54</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D39" s="5">
+        <v>79</v>
+      </c>
+      <c r="D39" s="26">
         <v>1990</v>
       </c>
       <c r="E39" s="13">
@@ -3282,16 +3297,16 @@
         <v>13.5</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K39" s="5">
         <v>93</v>
@@ -3316,9 +3331,9 @@
         <v>55</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="5">
+        <v>80</v>
+      </c>
+      <c r="D40" s="26">
         <v>2021</v>
       </c>
       <c r="E40" s="13">
@@ -3329,16 +3344,16 @@
         <v>54</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="K40" s="5">
         <v>116</v>
@@ -3363,9 +3378,9 @@
         <v>57</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="5">
+        <v>81</v>
+      </c>
+      <c r="D41" s="26">
         <v>2021</v>
       </c>
       <c r="E41" s="13">
@@ -3376,16 +3391,16 @@
         <v>22</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K41" s="5">
         <v>91</v>
@@ -3410,9 +3425,9 @@
         <v>58</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D42" s="5">
+        <v>82</v>
+      </c>
+      <c r="D42" s="26">
         <v>2021</v>
       </c>
       <c r="E42" s="13">
@@ -3423,16 +3438,16 @@
         <v>40</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J42" s="5" t="s">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="K42" s="5">
         <v>111</v>
@@ -3457,9 +3472,9 @@
         <v>59</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D43" s="5">
+        <v>83</v>
+      </c>
+      <c r="D43" s="26">
         <v>1989</v>
       </c>
       <c r="E43" s="13">
@@ -3470,13 +3485,13 @@
         <v>35</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="J43" s="5"/>
       <c r="K43" s="5">
@@ -3502,9 +3517,9 @@
         <v>60</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" s="5">
+        <v>84</v>
+      </c>
+      <c r="D44" s="26">
         <v>2021</v>
       </c>
       <c r="E44" s="13">
@@ -3515,16 +3530,16 @@
         <v>0</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>266</v>
+        <v>85</v>
       </c>
       <c r="H44" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="K44" s="5">
         <v>71</v>
@@ -3549,9 +3564,9 @@
         <v>61</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D45" s="5">
+        <v>87</v>
+      </c>
+      <c r="D45" s="26">
         <v>2021</v>
       </c>
       <c r="E45" s="13">
@@ -3562,16 +3577,16 @@
         <v>110</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H45" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="K45" s="5">
         <v>97</v>
@@ -3596,9 +3611,9 @@
         <v>62</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D46" s="5">
+        <v>88</v>
+      </c>
+      <c r="D46" s="26">
         <v>2021</v>
       </c>
       <c r="E46" s="13">
@@ -3609,16 +3624,16 @@
         <v>50</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H46" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="K46" s="5">
         <v>120</v>
@@ -3643,9 +3658,9 @@
         <v>63</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D47" s="5">
+        <v>89</v>
+      </c>
+      <c r="D47" s="26">
         <v>1980</v>
       </c>
       <c r="E47" s="13">
@@ -3656,16 +3671,16 @@
         <v>19</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H47" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="J47" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K47" s="5">
         <v>144</v>
@@ -3690,9 +3705,9 @@
         <v>64</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D48" s="5">
+        <v>90</v>
+      </c>
+      <c r="D48" s="26">
         <v>2021</v>
       </c>
       <c r="E48" s="13">
@@ -3703,16 +3718,16 @@
         <v>165</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H48" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="J48" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K48" s="5">
         <v>155</v>
@@ -3737,9 +3752,9 @@
         <v>65</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D49" s="5">
+        <v>91</v>
+      </c>
+      <c r="D49" s="26">
         <v>2021</v>
       </c>
       <c r="E49" s="13">
@@ -3750,16 +3765,16 @@
         <v>20</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H49" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J49" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K49" s="5">
         <v>105</v>
@@ -3784,9 +3799,9 @@
         <v>66</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D50" s="5">
+        <v>92</v>
+      </c>
+      <c r="D50" s="26">
         <v>2021</v>
       </c>
       <c r="E50" s="13">
@@ -3797,16 +3812,16 @@
         <v>0</v>
       </c>
       <c r="G50" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H50" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J50" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K50" s="5">
         <v>98</v>
@@ -3831,9 +3846,9 @@
         <v>67</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D51" s="5">
+        <v>93</v>
+      </c>
+      <c r="D51" s="26">
         <v>2021</v>
       </c>
       <c r="E51" s="13">
@@ -3844,16 +3859,16 @@
         <v>200</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H51" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J51" s="5" t="s">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="K51" s="5">
         <v>132</v>
@@ -3878,9 +3893,9 @@
         <v>68</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="D52" s="5">
+        <v>94</v>
+      </c>
+      <c r="D52" s="26">
         <v>2021</v>
       </c>
       <c r="E52" s="13">
@@ -3891,16 +3906,16 @@
         <v>75</v>
       </c>
       <c r="G52" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H52" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J52" s="5" t="s">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="K52" s="5">
         <v>124</v>
@@ -3925,9 +3940,9 @@
         <v>69</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D53" s="5">
+        <v>95</v>
+      </c>
+      <c r="D53" s="26">
         <v>2021</v>
       </c>
       <c r="E53" s="13">
@@ -3938,16 +3953,16 @@
         <v>0</v>
       </c>
       <c r="G53" s="13" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="H53" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J53" s="5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K53" s="5">
         <v>97</v>
@@ -3972,9 +3987,9 @@
         <v>70</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D54" s="5">
+        <v>96</v>
+      </c>
+      <c r="D54" s="26">
         <v>1999</v>
       </c>
       <c r="E54" s="13">
@@ -3985,16 +4000,16 @@
         <v>82</v>
       </c>
       <c r="G54" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H54" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="J54" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K54" s="5">
         <v>119</v>
@@ -4019,9 +4034,9 @@
         <v>70</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D55" s="5">
+        <v>97</v>
+      </c>
+      <c r="D55" s="26">
         <v>2017</v>
       </c>
       <c r="E55" s="13">
@@ -4032,13 +4047,13 @@
         <v>0</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>266</v>
+        <v>85</v>
       </c>
       <c r="H55" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="J55" s="5"/>
       <c r="K55" s="5">
@@ -4064,9 +4079,9 @@
         <v>72</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D56" s="5">
+        <v>98</v>
+      </c>
+      <c r="D56" s="26">
         <v>2004</v>
       </c>
       <c r="E56" s="13">
@@ -4077,13 +4092,13 @@
         <v>200</v>
       </c>
       <c r="G56" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H56" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="J56" s="5"/>
       <c r="K56" s="5">
@@ -4109,9 +4124,9 @@
         <v>72</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D57" s="5">
+        <v>99</v>
+      </c>
+      <c r="D57" s="26">
         <v>2021</v>
       </c>
       <c r="E57" s="13">
@@ -4122,13 +4137,13 @@
         <v>200</v>
       </c>
       <c r="G57" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="J57" s="5"/>
       <c r="K57" s="5">
@@ -4145,7 +4160,7 @@
         <v>-0.30000000000000071</v>
       </c>
       <c r="O57" s="6" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.45">
@@ -4156,9 +4171,9 @@
         <v>73</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D58" s="5">
+        <v>101</v>
+      </c>
+      <c r="D58" s="26">
         <v>2021</v>
       </c>
       <c r="E58" s="13">
@@ -4169,16 +4184,16 @@
         <v>190</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H58" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="J58" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K58" s="5">
         <v>148</v>
@@ -4203,9 +4218,9 @@
         <v>75</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D59" s="5">
+        <v>102</v>
+      </c>
+      <c r="D59" s="26">
         <v>2011</v>
       </c>
       <c r="E59" s="13">
@@ -4216,16 +4231,16 @@
         <v>38</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H59" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="J59" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K59" s="5">
         <v>103</v>
@@ -4250,9 +4265,9 @@
         <v>76</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D60" s="5">
+        <v>103</v>
+      </c>
+      <c r="D60" s="26">
         <v>2022</v>
       </c>
       <c r="E60" s="13">
@@ -4263,16 +4278,16 @@
         <v>24</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H60" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J60" s="5" t="s">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="K60" s="5">
         <v>114</v>
@@ -4297,9 +4312,9 @@
         <v>77</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D61" s="5">
+        <v>104</v>
+      </c>
+      <c r="D61" s="26">
         <v>1986</v>
       </c>
       <c r="E61" s="13">
@@ -4310,16 +4325,16 @@
         <v>15</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J61" s="5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K61" s="5">
         <v>98</v>
@@ -4344,9 +4359,9 @@
         <v>77</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D62" s="5">
+        <v>105</v>
+      </c>
+      <c r="D62" s="26">
         <v>1988</v>
       </c>
       <c r="E62" s="13">
@@ -4357,16 +4372,16 @@
         <v>15</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="H62" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J62" s="5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K62" s="5">
         <v>110</v>
@@ -4391,9 +4406,9 @@
         <v>78</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D63" s="5">
+        <v>106</v>
+      </c>
+      <c r="D63" s="26">
         <v>1992</v>
       </c>
       <c r="E63" s="13">
@@ -4404,16 +4419,16 @@
         <v>10</v>
       </c>
       <c r="G63" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="J63" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K63" s="5">
         <v>108</v>
@@ -4438,9 +4453,9 @@
         <v>79</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D64" s="5">
+        <v>107</v>
+      </c>
+      <c r="D64" s="26">
         <v>1992</v>
       </c>
       <c r="E64" s="13">
@@ -4451,16 +4466,16 @@
         <v>7</v>
       </c>
       <c r="G64" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J64" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K64" s="5">
         <v>86</v>
@@ -4485,9 +4500,9 @@
         <v>80</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D65" s="5">
+        <v>108</v>
+      </c>
+      <c r="D65" s="26">
         <v>1987</v>
       </c>
       <c r="E65" s="13">
@@ -4498,16 +4513,16 @@
         <v>13</v>
       </c>
       <c r="G65" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H65" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="J65" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K65" s="5">
         <v>102</v>
@@ -4532,9 +4547,9 @@
         <v>81</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D66" s="5">
+        <v>109</v>
+      </c>
+      <c r="D66" s="26">
         <v>2022</v>
       </c>
       <c r="E66" s="13">
@@ -4545,16 +4560,16 @@
         <v>120</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H66" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J66" s="5" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="K66" s="5">
         <v>116</v>
@@ -4579,9 +4594,9 @@
         <v>83</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D67" s="5">
+        <v>110</v>
+      </c>
+      <c r="D67" s="26">
         <v>2022</v>
       </c>
       <c r="E67" s="13">
@@ -4592,13 +4607,13 @@
         <v>185</v>
       </c>
       <c r="G67" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H67" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="J67" s="5"/>
       <c r="K67" s="5">
@@ -4624,9 +4639,9 @@
         <v>83</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D68" s="5">
+        <v>111</v>
+      </c>
+      <c r="D68" s="26">
         <v>2008</v>
       </c>
       <c r="E68" s="13">
@@ -4637,13 +4652,13 @@
         <v>185</v>
       </c>
       <c r="G68" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H68" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="J68" s="5"/>
       <c r="K68" s="5">
@@ -4660,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="6" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.45">
@@ -4671,9 +4686,9 @@
         <v>84</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D69" s="5">
+        <v>113</v>
+      </c>
+      <c r="D69" s="26">
         <v>2014</v>
       </c>
       <c r="E69" s="13">
@@ -4684,16 +4699,16 @@
         <v>44</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H69" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J69" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K69" s="5">
         <v>112</v>
@@ -4718,9 +4733,9 @@
         <v>85</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D70" s="5">
+        <v>114</v>
+      </c>
+      <c r="D70" s="26">
         <v>2022</v>
       </c>
       <c r="E70" s="13">
@@ -4731,16 +4746,16 @@
         <v>116</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H70" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J70" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K70" s="5">
         <v>106</v>
@@ -4765,9 +4780,9 @@
         <v>87</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D71" s="5">
+        <v>115</v>
+      </c>
+      <c r="D71" s="26">
         <v>1986</v>
       </c>
       <c r="E71" s="13">
@@ -4778,16 +4793,16 @@
         <v>15</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="H71" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J71" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="K71" s="5">
         <v>109</v>
@@ -4812,9 +4827,9 @@
         <v>88</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D72" s="5">
+        <v>116</v>
+      </c>
+      <c r="D72" s="26">
         <v>1997</v>
       </c>
       <c r="E72" s="13">
@@ -4825,16 +4840,16 @@
         <v>80</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H72" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="J72" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K72" s="5">
         <v>138</v>
@@ -4859,9 +4874,9 @@
         <v>89</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D73" s="5">
+        <v>117</v>
+      </c>
+      <c r="D73" s="26">
         <v>2022</v>
       </c>
       <c r="E73" s="13">
@@ -4872,16 +4887,16 @@
         <v>70</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H73" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J73" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="K73" s="5">
         <v>137</v>
@@ -4906,9 +4921,9 @@
         <v>90</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="D74" s="5">
+        <v>118</v>
+      </c>
+      <c r="D74" s="26">
         <v>2011</v>
       </c>
       <c r="E74" s="13">
@@ -4919,16 +4934,16 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K74" s="5">
         <v>101</v>
@@ -4953,9 +4968,9 @@
         <v>91</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D75" s="5">
+        <v>119</v>
+      </c>
+      <c r="D75" s="26">
         <v>2022</v>
       </c>
       <c r="E75" s="13">
@@ -4966,13 +4981,13 @@
         <v>200</v>
       </c>
       <c r="G75" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H75" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="J75" s="5"/>
       <c r="K75" s="5">
@@ -4998,9 +5013,9 @@
         <v>92</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D76" s="5">
+        <v>120</v>
+      </c>
+      <c r="D76" s="26">
         <v>1998</v>
       </c>
       <c r="E76" s="13">
@@ -5011,16 +5026,16 @@
         <v>80</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H76" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J76" s="5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K76" s="5">
         <v>130</v>
@@ -5045,9 +5060,9 @@
         <v>93</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="D77" s="5">
+        <v>121</v>
+      </c>
+      <c r="D77" s="26">
         <v>2022</v>
       </c>
       <c r="E77" s="13">
@@ -5058,16 +5073,16 @@
         <v>70</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="K77" s="5">
         <v>97</v>
@@ -5092,9 +5107,9 @@
         <v>94</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D78" s="5">
+        <v>122</v>
+      </c>
+      <c r="D78" s="26">
         <v>2022</v>
       </c>
       <c r="E78" s="13">
@@ -5105,16 +5120,16 @@
         <v>170</v>
       </c>
       <c r="G78" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H78" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I78" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J78" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="K78" s="5">
         <v>130</v>
@@ -5139,9 +5154,9 @@
         <v>97</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D79" s="5">
+        <v>123</v>
+      </c>
+      <c r="D79" s="26">
         <v>2022</v>
       </c>
       <c r="E79" s="13">
@@ -5152,16 +5167,16 @@
         <v>40</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H79" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I79" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J79" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="K79" s="5">
         <v>136</v>
@@ -5186,9 +5201,9 @@
         <v>98</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D80" s="5">
+        <v>124</v>
+      </c>
+      <c r="D80" s="26">
         <v>2022</v>
       </c>
       <c r="E80" s="13">
@@ -5199,16 +5214,16 @@
         <v>75</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H80" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J80" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K80" s="5">
         <v>104</v>
@@ -5233,9 +5248,9 @@
         <v>101</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D81" s="5">
+        <v>125</v>
+      </c>
+      <c r="D81" s="26">
         <v>2002</v>
       </c>
       <c r="E81" s="13">
@@ -5246,13 +5261,13 @@
         <v>0</v>
       </c>
       <c r="G81" s="13" t="s">
-        <v>265</v>
+        <v>126</v>
       </c>
       <c r="H81" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I81" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J81" s="5"/>
       <c r="K81" s="5">
@@ -5278,9 +5293,9 @@
         <v>102</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D82" s="5">
+        <v>127</v>
+      </c>
+      <c r="D82" s="26">
         <v>1990</v>
       </c>
       <c r="E82" s="13">
@@ -5291,16 +5306,16 @@
         <v>60</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H82" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J82" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="K82" s="5">
         <v>107</v>
@@ -5325,9 +5340,9 @@
         <v>103</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D83" s="5">
+        <v>128</v>
+      </c>
+      <c r="D83" s="26">
         <v>2022</v>
       </c>
       <c r="E83" s="13">
@@ -5338,16 +5353,16 @@
         <v>68</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H83" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="K83" s="5">
         <v>130</v>
@@ -5372,9 +5387,9 @@
         <v>103</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D84" s="5">
+        <v>129</v>
+      </c>
+      <c r="D84" s="26">
         <v>2017</v>
       </c>
       <c r="E84" s="13">
@@ -5385,16 +5400,16 @@
         <v>4.5</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="K84" s="5">
         <v>104</v>
@@ -5410,7 +5425,7 @@
         <v>0.30000000000000071</v>
       </c>
       <c r="O84" s="6" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.45">
@@ -5421,9 +5436,9 @@
         <v>103</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D85" s="5">
+        <v>131</v>
+      </c>
+      <c r="D85" s="26">
         <v>2019</v>
       </c>
       <c r="E85" s="13">
@@ -5434,16 +5449,16 @@
         <v>20</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I85" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J85" s="5" t="s">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="K85" s="5">
         <v>116</v>
@@ -5459,7 +5474,7 @@
         <v>-0.40000000000000036</v>
       </c>
       <c r="O85" s="6" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.45">
@@ -5470,9 +5485,9 @@
         <v>104</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D86" s="5">
+        <v>132</v>
+      </c>
+      <c r="D86" s="26">
         <v>2022</v>
       </c>
       <c r="E86" s="13">
@@ -5483,16 +5498,16 @@
         <v>200</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I86" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J86" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K86" s="5">
         <v>122</v>
@@ -5517,9 +5532,9 @@
         <v>105</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D87" s="5">
+        <v>133</v>
+      </c>
+      <c r="D87" s="26">
         <v>2022</v>
       </c>
       <c r="E87" s="13">
@@ -5530,16 +5545,16 @@
         <v>65</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I87" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J87" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K87" s="5">
         <v>100</v>
@@ -5564,9 +5579,9 @@
         <v>106</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D88" s="5">
+        <v>134</v>
+      </c>
+      <c r="D88" s="26">
         <v>2021</v>
       </c>
       <c r="E88" s="13">
@@ -5577,16 +5592,16 @@
         <v>18</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I88" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J88" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K88" s="5">
         <v>103</v>
@@ -5611,9 +5626,9 @@
         <v>107</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D89" s="5">
+        <v>135</v>
+      </c>
+      <c r="D89" s="26">
         <v>2015</v>
       </c>
       <c r="E89" s="13">
@@ -5624,16 +5639,16 @@
         <v>4</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I89" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="J89" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K89" s="5">
         <v>95</v>
@@ -5658,9 +5673,9 @@
         <v>108</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D90" s="5">
+        <v>136</v>
+      </c>
+      <c r="D90" s="26">
         <v>2022</v>
       </c>
       <c r="E90" s="13">
@@ -5671,16 +5686,16 @@
         <v>100</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H90" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I90" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J90" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K90" s="5">
         <v>113</v>
@@ -5705,9 +5720,9 @@
         <v>109</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D91" s="5">
+        <v>137</v>
+      </c>
+      <c r="D91" s="26">
         <v>2022</v>
       </c>
       <c r="E91" s="13">
@@ -5718,16 +5733,16 @@
         <v>85</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H91" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I91" s="5" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="J91" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="K91" s="5">
         <v>159</v>
@@ -5752,9 +5767,9 @@
         <v>110</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D92" s="5">
+        <v>138</v>
+      </c>
+      <c r="D92" s="26">
         <v>2022</v>
       </c>
       <c r="E92" s="13">
@@ -5765,16 +5780,16 @@
         <v>150</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="H92" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I92" s="5" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="J92" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="K92" s="5">
         <v>105</v>
@@ -5799,9 +5814,9 @@
         <v>111</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="D93" s="5">
+        <v>139</v>
+      </c>
+      <c r="D93" s="26">
         <v>2022</v>
       </c>
       <c r="E93" s="13">
@@ -5812,13 +5827,13 @@
         <v>250</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H93" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I93" s="5" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="J93" s="5"/>
       <c r="K93" s="5">
@@ -5844,9 +5859,9 @@
         <v>113</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D94" s="5">
+        <v>140</v>
+      </c>
+      <c r="D94" s="26">
         <v>2022</v>
       </c>
       <c r="E94" s="13">
@@ -5857,16 +5872,16 @@
         <v>0</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="H94" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I94" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="K94" s="5">
         <v>109</v>
@@ -5891,9 +5906,9 @@
         <v>114</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D95" s="5">
+        <v>141</v>
+      </c>
+      <c r="D95" s="26">
         <v>2022</v>
       </c>
       <c r="E95" s="13">
@@ -5904,16 +5919,16 @@
         <v>0</v>
       </c>
       <c r="G95" s="13" t="s">
-        <v>267</v>
+        <v>142</v>
       </c>
       <c r="H95" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I95" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J95" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="K95" s="5">
         <v>52</v>
@@ -5938,9 +5953,9 @@
         <v>115</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D96" s="5">
+        <v>143</v>
+      </c>
+      <c r="D96" s="26">
         <v>2022</v>
       </c>
       <c r="E96" s="13">
@@ -5951,16 +5966,16 @@
         <v>14</v>
       </c>
       <c r="G96" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H96" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I96" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J96" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K96" s="5">
         <v>121</v>
@@ -5985,9 +6000,9 @@
         <v>116</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D97" s="5">
+        <v>144</v>
+      </c>
+      <c r="D97" s="26">
         <v>2022</v>
       </c>
       <c r="E97" s="13">
@@ -5998,16 +6013,16 @@
         <v>20</v>
       </c>
       <c r="G97" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H97" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I97" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J97" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="K97" s="5">
         <v>111</v>
@@ -6032,9 +6047,9 @@
         <v>117</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D98" s="5">
+        <v>145</v>
+      </c>
+      <c r="D98" s="26">
         <v>2007</v>
       </c>
       <c r="E98" s="13">
@@ -6045,16 +6060,16 @@
         <v>100</v>
       </c>
       <c r="G98" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H98" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="K98" s="5">
         <v>157</v>
@@ -6079,9 +6094,9 @@
         <v>118</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D99" s="5">
+        <v>146</v>
+      </c>
+      <c r="D99" s="26">
         <v>2022</v>
       </c>
       <c r="E99" s="13">
@@ -6092,16 +6107,16 @@
         <v>8</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>267</v>
+        <v>142</v>
       </c>
       <c r="H99" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K99" s="5">
         <v>108</v>
@@ -6126,9 +6141,9 @@
         <v>119</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="D100" s="5">
+        <v>147</v>
+      </c>
+      <c r="D100" s="26">
         <v>2022</v>
       </c>
       <c r="E100" s="13">
@@ -6139,13 +6154,13 @@
         <v>250</v>
       </c>
       <c r="G100" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H100" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="J100" s="5"/>
       <c r="K100" s="5">
@@ -6171,9 +6186,9 @@
         <v>120</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D101" s="5">
+        <v>148</v>
+      </c>
+      <c r="D101" s="26">
         <v>2022</v>
       </c>
       <c r="E101" s="13">
@@ -6184,16 +6199,16 @@
         <v>17</v>
       </c>
       <c r="G101" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H101" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K101" s="5">
         <v>115</v>
@@ -6218,9 +6233,9 @@
         <v>121</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D102" s="5">
+        <v>149</v>
+      </c>
+      <c r="D102" s="26">
         <v>1995</v>
       </c>
       <c r="E102" s="13">
@@ -6231,16 +6246,16 @@
         <v>20</v>
       </c>
       <c r="G102" s="13" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="H102" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K102" s="5">
         <v>95</v>
@@ -6265,9 +6280,9 @@
         <v>122</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D103" s="5">
+        <v>150</v>
+      </c>
+      <c r="D103" s="26">
         <v>2022</v>
       </c>
       <c r="E103" s="13">
@@ -6278,16 +6293,16 @@
         <v>0</v>
       </c>
       <c r="G103" s="13" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="H103" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K103" s="5">
         <v>98</v>
@@ -6312,9 +6327,9 @@
         <v>123</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D104" s="5">
+        <v>151</v>
+      </c>
+      <c r="D104" s="26">
         <v>2022</v>
       </c>
       <c r="E104" s="13">
@@ -6325,16 +6340,16 @@
         <v>7</v>
       </c>
       <c r="G104" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H104" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="K104" s="5">
         <v>100</v>
@@ -6359,9 +6374,9 @@
         <v>124</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D105" s="5">
+        <v>152</v>
+      </c>
+      <c r="D105" s="26">
         <v>2022</v>
       </c>
       <c r="E105" s="13">
@@ -6372,16 +6387,16 @@
         <v>350</v>
       </c>
       <c r="G105" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H105" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="K105" s="5">
         <v>192</v>
@@ -6406,9 +6421,9 @@
         <v>125</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D106" s="5">
+        <v>153</v>
+      </c>
+      <c r="D106" s="26">
         <v>2022</v>
       </c>
       <c r="E106" s="13">
@@ -6419,16 +6434,16 @@
         <v>195</v>
       </c>
       <c r="G106" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H106" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="K106" s="5">
         <v>125</v>
@@ -6453,9 +6468,9 @@
         <v>126</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D107" s="5">
+        <v>154</v>
+      </c>
+      <c r="D107" s="26">
         <v>2006</v>
       </c>
       <c r="E107" s="13">
@@ -6466,16 +6481,16 @@
         <v>90</v>
       </c>
       <c r="G107" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H107" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="J107" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K107" s="5">
         <v>151</v>
@@ -6500,9 +6515,9 @@
         <v>127</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D108" s="5">
+        <v>155</v>
+      </c>
+      <c r="D108" s="26">
         <v>2022</v>
       </c>
       <c r="E108" s="13">
@@ -6513,16 +6528,16 @@
         <v>72</v>
       </c>
       <c r="G108" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="J108" s="5" t="s">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="K108" s="5">
         <v>128</v>
@@ -6547,9 +6562,9 @@
         <v>128</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D109" s="5">
+        <v>156</v>
+      </c>
+      <c r="D109" s="26">
         <v>2002</v>
       </c>
       <c r="E109" s="13">
@@ -6560,16 +6575,16 @@
         <v>72</v>
       </c>
       <c r="G109" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I109" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="J109" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K109" s="5">
         <v>106</v>
@@ -6594,9 +6609,9 @@
         <v>130</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D110" s="5">
+        <v>157</v>
+      </c>
+      <c r="D110" s="26">
         <v>1997</v>
       </c>
       <c r="E110" s="13">
@@ -6607,16 +6622,16 @@
         <v>60</v>
       </c>
       <c r="G110" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H110" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I110" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="J110" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K110" s="5">
         <v>96</v>
@@ -6641,9 +6656,9 @@
         <v>131</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="D111" s="5">
+        <v>158</v>
+      </c>
+      <c r="D111" s="26">
         <v>2023</v>
       </c>
       <c r="E111" s="13">
@@ -6654,16 +6669,16 @@
         <v>20</v>
       </c>
       <c r="G111" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H111" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I111" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J111" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K111" s="5">
         <v>100</v>
@@ -6688,9 +6703,9 @@
         <v>132</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D112" s="5">
+        <v>159</v>
+      </c>
+      <c r="D112" s="26">
         <v>1996</v>
       </c>
       <c r="E112" s="13">
@@ -6701,16 +6716,16 @@
         <v>70</v>
       </c>
       <c r="G112" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I112" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="J112" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K112" s="5">
         <v>106</v>
@@ -6735,9 +6750,9 @@
         <v>133</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="D113" s="5">
+        <v>160</v>
+      </c>
+      <c r="D113" s="26">
         <v>2023</v>
       </c>
       <c r="E113" s="13">
@@ -6748,13 +6763,13 @@
         <v>200</v>
       </c>
       <c r="G113" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I113" s="5" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="J113" s="5"/>
       <c r="K113" s="5">
@@ -6780,9 +6795,9 @@
         <v>134</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D114" s="5">
+        <v>161</v>
+      </c>
+      <c r="D114" s="26">
         <v>1978</v>
       </c>
       <c r="E114" s="13">
@@ -6793,13 +6808,13 @@
         <v>55</v>
       </c>
       <c r="G114" s="13" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="H114" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I114" s="5" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="J114" s="5"/>
       <c r="K114" s="5">
@@ -6825,9 +6840,9 @@
         <v>135</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D115" s="5">
+        <v>162</v>
+      </c>
+      <c r="D115" s="26">
         <v>1985</v>
       </c>
       <c r="E115" s="13">
@@ -6838,16 +6853,16 @@
         <v>10</v>
       </c>
       <c r="G115" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H115" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I115" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J115" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K115" s="5">
         <v>109</v>
@@ -6872,9 +6887,9 @@
         <v>136</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D116" s="5">
+        <v>163</v>
+      </c>
+      <c r="D116" s="26">
         <v>2023</v>
       </c>
       <c r="E116" s="13">
@@ -6885,16 +6900,16 @@
         <v>35</v>
       </c>
       <c r="G116" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H116" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I116" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J116" s="5" t="s">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="K116" s="5">
         <v>122</v>
@@ -6919,9 +6934,9 @@
         <v>137</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D117" s="5">
+        <v>164</v>
+      </c>
+      <c r="D117" s="26">
         <v>1989</v>
       </c>
       <c r="E117" s="13">
@@ -6932,16 +6947,16 @@
         <v>17</v>
       </c>
       <c r="G117" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H117" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K117" s="5">
         <v>114</v>
@@ -6966,9 +6981,9 @@
         <v>138</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D118" s="5">
+        <v>165</v>
+      </c>
+      <c r="D118" s="26">
         <v>1991</v>
       </c>
       <c r="E118" s="13">
@@ -6979,16 +6994,16 @@
         <v>24</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H118" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="K118" s="5">
         <v>122</v>
@@ -7013,9 +7028,9 @@
         <v>140</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D119" s="5">
+        <v>166</v>
+      </c>
+      <c r="D119" s="26">
         <v>2023</v>
       </c>
       <c r="E119" s="13">
@@ -7026,16 +7041,16 @@
         <v>100</v>
       </c>
       <c r="G119" s="13" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="H119" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K119" s="5">
         <v>92</v>
@@ -7060,9 +7075,9 @@
         <v>141</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D120" s="5">
+        <v>167</v>
+      </c>
+      <c r="D120" s="26">
         <v>2022</v>
       </c>
       <c r="E120" s="13">
@@ -7073,16 +7088,16 @@
         <v>22</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>269</v>
+        <v>168</v>
       </c>
       <c r="H120" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>270</v>
+        <v>169</v>
       </c>
       <c r="K120" s="5">
         <v>167</v>
@@ -7107,9 +7122,9 @@
         <v>142</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D121" s="5">
+        <v>170</v>
+      </c>
+      <c r="D121" s="26">
         <v>2023</v>
       </c>
       <c r="E121" s="13">
@@ -7120,16 +7135,16 @@
         <v>35</v>
       </c>
       <c r="G121" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K121" s="5">
         <v>95</v>
@@ -7154,9 +7169,9 @@
         <v>143</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D122" s="5">
+        <v>171</v>
+      </c>
+      <c r="D122" s="26">
         <v>2013</v>
       </c>
       <c r="E122" s="13">
@@ -7167,13 +7182,13 @@
         <v>17</v>
       </c>
       <c r="G122" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J122" s="5"/>
       <c r="K122" s="5">
@@ -7199,9 +7214,9 @@
         <v>144</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D123" s="5">
+        <v>172</v>
+      </c>
+      <c r="D123" s="26">
         <v>2023</v>
       </c>
       <c r="E123" s="13">
@@ -7212,16 +7227,16 @@
         <v>250</v>
       </c>
       <c r="G123" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K123" s="5">
         <v>150</v>
@@ -7246,9 +7261,9 @@
         <v>145</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D124" s="5">
+        <v>173</v>
+      </c>
+      <c r="D124" s="26">
         <v>1987</v>
       </c>
       <c r="E124" s="13">
@@ -7259,16 +7274,16 @@
         <v>16</v>
       </c>
       <c r="G124" s="13" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K124" s="5">
         <v>98</v>
@@ -7293,9 +7308,9 @@
         <v>146</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D125" s="5">
+        <v>174</v>
+      </c>
+      <c r="D125" s="26">
         <v>1992</v>
       </c>
       <c r="E125" s="13">
@@ -7306,16 +7321,16 @@
         <v>35</v>
       </c>
       <c r="G125" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K125" s="5">
         <v>103</v>
@@ -7340,9 +7355,9 @@
         <v>147</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D126" s="5">
+        <v>175</v>
+      </c>
+      <c r="D126" s="26">
         <v>1998</v>
       </c>
       <c r="E126" s="13">
@@ -7353,16 +7368,16 @@
         <v>15</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="K126" s="5">
         <v>104</v>
@@ -7387,9 +7402,9 @@
         <v>148</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D127" s="5">
+        <v>176</v>
+      </c>
+      <c r="D127" s="26">
         <v>2012</v>
       </c>
       <c r="E127" s="13">
@@ -7400,16 +7415,16 @@
         <v>100</v>
       </c>
       <c r="G127" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H127" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>251</v>
+        <v>177</v>
       </c>
       <c r="K127" s="5">
         <v>165</v>
@@ -7434,9 +7449,9 @@
         <v>149</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D128" s="5">
+        <v>178</v>
+      </c>
+      <c r="D128" s="26">
         <v>2023</v>
       </c>
       <c r="E128" s="13">
@@ -7447,16 +7462,16 @@
         <v>0</v>
       </c>
       <c r="G128" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H128" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>270</v>
+        <v>169</v>
       </c>
       <c r="K128" s="5">
         <v>99</v>
@@ -7472,7 +7487,7 @@
         <v>-0.90000000000000036</v>
       </c>
       <c r="O128" s="6" t="s">
-        <v>197</v>
+        <v>179</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.45">
@@ -7483,9 +7498,9 @@
         <v>150</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="D129" s="5">
+        <v>180</v>
+      </c>
+      <c r="D129" s="26">
         <v>2023</v>
       </c>
       <c r="E129" s="13">
@@ -7496,16 +7511,16 @@
         <v>200</v>
       </c>
       <c r="G129" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H129" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="K129" s="5">
         <v>144</v>
@@ -7530,9 +7545,9 @@
         <v>151</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="D130" s="5">
+        <v>181</v>
+      </c>
+      <c r="D130" s="26">
         <v>1984</v>
       </c>
       <c r="E130" s="13">
@@ -7543,16 +7558,16 @@
         <v>28</v>
       </c>
       <c r="G130" s="13" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="H130" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="K130" s="5">
         <v>118</v>
@@ -7577,9 +7592,9 @@
         <v>152</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D131" s="5">
+        <v>182</v>
+      </c>
+      <c r="D131" s="26">
         <v>2014</v>
       </c>
       <c r="E131" s="13">
@@ -7590,16 +7605,16 @@
         <v>125</v>
       </c>
       <c r="G131" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H131" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I131" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J131" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K131" s="5">
         <v>101</v>
@@ -7624,9 +7639,9 @@
         <v>153</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D132" s="5">
+        <v>183</v>
+      </c>
+      <c r="D132" s="26">
         <v>1987</v>
       </c>
       <c r="E132" s="13">
@@ -7637,16 +7652,16 @@
         <v>25</v>
       </c>
       <c r="G132" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H132" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I132" s="5" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="J132" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K132" s="5">
         <v>119</v>
@@ -7671,9 +7686,9 @@
         <v>154</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D133" s="5">
+        <v>184</v>
+      </c>
+      <c r="D133" s="26">
         <v>2023</v>
       </c>
       <c r="E133" s="13">
@@ -7684,16 +7699,16 @@
         <v>291</v>
       </c>
       <c r="G133" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H133" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J133" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K133" s="5">
         <v>163</v>
@@ -7718,9 +7733,9 @@
         <v>155</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D134" s="5">
+        <v>185</v>
+      </c>
+      <c r="D134" s="26">
         <v>2023</v>
       </c>
       <c r="E134" s="13">
@@ -7731,16 +7746,16 @@
         <v>100</v>
       </c>
       <c r="G134" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H134" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="J134" s="5" t="s">
-        <v>270</v>
+        <v>169</v>
       </c>
       <c r="K134" s="5">
         <v>180</v>
@@ -7765,9 +7780,9 @@
         <v>156</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D135" s="5">
+        <v>186</v>
+      </c>
+      <c r="D135" s="26">
         <v>2023</v>
       </c>
       <c r="E135" s="13">
@@ -7778,16 +7793,16 @@
         <v>200</v>
       </c>
       <c r="G135" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H135" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K135" s="5">
         <v>127</v>
@@ -7812,9 +7827,9 @@
         <v>157</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D136" s="5">
+        <v>187</v>
+      </c>
+      <c r="D136" s="26">
         <v>2023</v>
       </c>
       <c r="E136" s="13">
@@ -7825,16 +7840,16 @@
         <v>70</v>
       </c>
       <c r="G136" s="13" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="H136" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="K136" s="5">
         <v>99</v>
@@ -7859,9 +7874,9 @@
         <v>158</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D137" s="5">
+        <v>188</v>
+      </c>
+      <c r="D137" s="26">
         <v>2023</v>
       </c>
       <c r="E137" s="13">
@@ -7872,16 +7887,16 @@
         <v>0</v>
       </c>
       <c r="G137" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H137" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J137" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="K137" s="5">
         <v>122</v>
@@ -7908,7 +7923,7 @@
       <c r="C138" s="6">
         <v>65</v>
       </c>
-      <c r="D138" s="5">
+      <c r="D138" s="26">
         <v>2023</v>
       </c>
       <c r="E138" s="13">
@@ -7919,16 +7934,16 @@
         <v>45</v>
       </c>
       <c r="G138" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="K138" s="5">
         <v>93</v>
@@ -7953,9 +7968,9 @@
         <v>160</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D139" s="5">
+        <v>189</v>
+      </c>
+      <c r="D139" s="26">
         <v>2001</v>
       </c>
       <c r="E139" s="13">
@@ -7966,16 +7981,16 @@
         <v>45</v>
       </c>
       <c r="G139" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="J139" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K139" s="5">
         <v>122</v>
@@ -8000,9 +8015,9 @@
         <v>161</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D140" s="5">
+        <v>190</v>
+      </c>
+      <c r="D140" s="26">
         <v>1993</v>
       </c>
       <c r="E140" s="13">
@@ -8013,16 +8028,16 @@
         <v>57</v>
       </c>
       <c r="G140" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K140" s="5">
         <v>115</v>
@@ -8047,9 +8062,9 @@
         <v>162</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D141" s="5">
+        <v>191</v>
+      </c>
+      <c r="D141" s="26">
         <v>2001</v>
       </c>
       <c r="E141" s="13">
@@ -8060,16 +8075,16 @@
         <v>11</v>
       </c>
       <c r="G141" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="J141" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K141" s="5">
         <v>100</v>
@@ -8094,9 +8109,9 @@
         <v>163</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D142" s="5">
+        <v>192</v>
+      </c>
+      <c r="D142" s="26">
         <v>1991</v>
       </c>
       <c r="E142" s="13">
@@ -8107,16 +8122,16 @@
         <v>15</v>
       </c>
       <c r="G142" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H142" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="K142" s="5">
         <v>110</v>
@@ -8141,9 +8156,9 @@
         <v>164</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D143" s="5">
+        <v>193</v>
+      </c>
+      <c r="D143" s="26">
         <v>2023</v>
       </c>
       <c r="E143" s="13">
@@ -8154,16 +8169,16 @@
         <v>25</v>
       </c>
       <c r="G143" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H143" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J143" s="5" t="s">
-        <v>271</v>
+        <v>194</v>
       </c>
       <c r="K143" s="5">
         <v>105</v>
@@ -8188,9 +8203,9 @@
         <v>165</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D144" s="5">
+        <v>195</v>
+      </c>
+      <c r="D144" s="26">
         <v>2023</v>
       </c>
       <c r="E144" s="13">
@@ -8201,16 +8216,16 @@
         <v>80</v>
       </c>
       <c r="G144" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H144" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I144" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J144" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="K144" s="5">
         <v>133</v>
@@ -8235,9 +8250,9 @@
         <v>166</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D145" s="5">
+        <v>196</v>
+      </c>
+      <c r="D145" s="26">
         <v>2023</v>
       </c>
       <c r="E145" s="13">
@@ -8248,16 +8263,16 @@
         <v>150</v>
       </c>
       <c r="G145" s="13" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="H145" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I145" s="5" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="J145" s="5" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="K145" s="5">
         <v>140</v>
@@ -8282,9 +8297,9 @@
         <v>166</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D146" s="5">
+        <v>197</v>
+      </c>
+      <c r="D146" s="26">
         <v>1993</v>
       </c>
       <c r="E146" s="13">
@@ -8295,16 +8310,16 @@
         <v>3</v>
       </c>
       <c r="G146" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H146" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I146" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J146" s="5" t="s">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="K146" s="5">
         <v>87</v>
@@ -8320,7 +8335,7 @@
         <v>0.5</v>
       </c>
       <c r="O146" s="6" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.45">
@@ -8331,9 +8346,9 @@
         <v>167</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D147" s="5">
+        <v>199</v>
+      </c>
+      <c r="D147" s="26">
         <v>2022</v>
       </c>
       <c r="E147" s="13">
@@ -8344,16 +8359,16 @@
         <v>4.5</v>
       </c>
       <c r="G147" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H147" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I147" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J147" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K147" s="5">
         <v>95</v>
@@ -8378,9 +8393,9 @@
         <v>168</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D148" s="5">
+        <v>200</v>
+      </c>
+      <c r="D148" s="26">
         <v>2023</v>
       </c>
       <c r="E148" s="13">
@@ -8391,16 +8406,16 @@
         <v>200</v>
       </c>
       <c r="G148" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H148" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I148" s="5" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="J148" s="5" t="s">
-        <v>270</v>
+        <v>169</v>
       </c>
       <c r="K148" s="5">
         <v>206</v>
@@ -8425,9 +8440,9 @@
         <v>169</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D149" s="5">
+        <v>201</v>
+      </c>
+      <c r="D149" s="26">
         <v>2022</v>
       </c>
       <c r="E149" s="13">
@@ -8438,16 +8453,16 @@
         <v>1</v>
       </c>
       <c r="G149" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H149" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I149" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J149" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K149" s="5">
         <v>105</v>
@@ -8472,9 +8487,9 @@
         <v>170</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D150" s="5">
+        <v>202</v>
+      </c>
+      <c r="D150" s="26">
         <v>2017</v>
       </c>
       <c r="E150" s="13">
@@ -8485,16 +8500,16 @@
         <v>100</v>
       </c>
       <c r="G150" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H150" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I150" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J150" s="5" t="s">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="K150" s="5">
         <v>124</v>
@@ -8519,9 +8534,9 @@
         <v>171</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D151" s="5">
+        <v>203</v>
+      </c>
+      <c r="D151" s="26">
         <v>2023</v>
       </c>
       <c r="E151" s="13">
@@ -8532,16 +8547,16 @@
         <v>0</v>
       </c>
       <c r="G151" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H151" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I151" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J151" s="5" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="K151" s="5">
         <v>118</v>
@@ -8566,9 +8581,9 @@
         <v>172</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="D152" s="5">
+        <v>204</v>
+      </c>
+      <c r="D152" s="26">
         <v>1996</v>
       </c>
       <c r="E152" s="13">
@@ -8579,16 +8594,16 @@
         <v>7</v>
       </c>
       <c r="G152" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H152" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I152" s="5" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="J152" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K152" s="5">
         <v>98</v>
@@ -8613,9 +8628,9 @@
         <v>173</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="D153" s="5">
+        <v>205</v>
+      </c>
+      <c r="D153" s="26">
         <v>2019</v>
       </c>
       <c r="E153" s="13">
@@ -8626,16 +8641,16 @@
         <v>40</v>
       </c>
       <c r="G153" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I153" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J153" s="5" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="K153" s="5">
         <v>130</v>
@@ -8660,9 +8675,9 @@
         <v>174</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D154" s="5">
+        <v>206</v>
+      </c>
+      <c r="D154" s="26">
         <v>2023</v>
       </c>
       <c r="E154" s="13">
@@ -8673,13 +8688,13 @@
         <v>30</v>
       </c>
       <c r="G154" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I154" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J154" s="5"/>
       <c r="K154" s="5">
@@ -8705,9 +8720,9 @@
         <v>175</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D155" s="5">
+        <v>207</v>
+      </c>
+      <c r="D155" s="26">
         <v>2023</v>
       </c>
       <c r="E155" s="13">
@@ -8718,16 +8733,16 @@
         <v>15</v>
       </c>
       <c r="G155" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I155" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J155" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="K155" s="5">
         <v>124</v>
@@ -8752,9 +8767,9 @@
         <v>176</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="D156" s="5">
+        <v>208</v>
+      </c>
+      <c r="D156" s="26">
         <v>2023</v>
       </c>
       <c r="E156" s="13">
@@ -8765,16 +8780,16 @@
         <v>0</v>
       </c>
       <c r="G156" s="13" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I156" s="5" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="J156" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K156" s="5">
         <v>98</v>
@@ -8799,9 +8814,9 @@
         <v>177</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D157" s="5">
+        <v>209</v>
+      </c>
+      <c r="D157" s="26">
         <v>2023</v>
       </c>
       <c r="E157" s="13">
@@ -8812,16 +8827,16 @@
         <v>90</v>
       </c>
       <c r="G157" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I157" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J157" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="K157" s="5">
         <v>133</v>
@@ -8846,9 +8861,9 @@
         <v>178</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="D158" s="5">
+        <v>210</v>
+      </c>
+      <c r="D158" s="26">
         <v>2023</v>
       </c>
       <c r="E158" s="13">
@@ -8859,16 +8874,16 @@
         <v>100</v>
       </c>
       <c r="G158" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I158" s="5" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="J158" s="5" t="s">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="K158" s="5">
         <v>114</v>
@@ -8893,9 +8908,9 @@
         <v>179</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D159" s="5">
+        <v>211</v>
+      </c>
+      <c r="D159" s="26">
         <v>1992</v>
       </c>
       <c r="E159" s="13">
@@ -8906,16 +8921,16 @@
         <v>5</v>
       </c>
       <c r="G159" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I159" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J159" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="K159" s="5">
         <v>95</v>
@@ -8940,9 +8955,9 @@
         <v>180</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D160" s="5">
+        <v>212</v>
+      </c>
+      <c r="D160" s="26">
         <v>1984</v>
       </c>
       <c r="E160" s="13">
@@ -8953,16 +8968,16 @@
         <v>17</v>
       </c>
       <c r="G160" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I160" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J160" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K160" s="5">
         <v>114</v>
@@ -8987,9 +9002,9 @@
         <v>181</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="D161" s="5">
+        <v>213</v>
+      </c>
+      <c r="D161" s="26">
         <v>1989</v>
       </c>
       <c r="E161" s="13">
@@ -9000,16 +9015,16 @@
         <v>0.5</v>
       </c>
       <c r="G161" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I161" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J161" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K161" s="5">
         <v>86</v>
@@ -9034,29 +9049,29 @@
         <v>182</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="D162" s="5">
+        <v>214</v>
+      </c>
+      <c r="D162" s="26">
         <v>1983</v>
       </c>
       <c r="E162" s="13">
         <v>12000000</v>
       </c>
       <c r="F162" s="16">
-        <f t="shared" ref="F162:F201" si="10">E162/1000000</f>
+        <f t="shared" ref="F162:F202" si="10">E162/1000000</f>
         <v>12</v>
       </c>
       <c r="G162" s="13" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I162" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J162" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K162" s="5">
         <v>114</v>
@@ -9068,7 +9083,7 @@
         <v>7.1</v>
       </c>
       <c r="N162" s="19">
-        <f t="shared" ref="N162:N201" si="11">L162-M162</f>
+        <f t="shared" ref="N162:N202" si="11">L162-M162</f>
         <v>-0.79999999999999982</v>
       </c>
       <c r="O162" s="6"/>
@@ -9081,9 +9096,9 @@
         <v>183</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D163" s="5">
+        <v>215</v>
+      </c>
+      <c r="D163" s="26">
         <v>1986</v>
       </c>
       <c r="E163" s="13">
@@ -9094,16 +9109,16 @@
         <v>10</v>
       </c>
       <c r="G163" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I163" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J163" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K163" s="5">
         <v>98</v>
@@ -9128,9 +9143,9 @@
         <v>184</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="D164" s="5">
+        <v>216</v>
+      </c>
+      <c r="D164" s="26">
         <v>2023</v>
       </c>
       <c r="E164" s="13">
@@ -9141,13 +9156,13 @@
         <v>220</v>
       </c>
       <c r="G164" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I164" s="5" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="J164" s="5"/>
       <c r="K164" s="5">
@@ -9173,9 +9188,9 @@
         <v>185</v>
       </c>
       <c r="C165" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="D165" s="5">
+        <v>217</v>
+      </c>
+      <c r="D165" s="26">
         <v>1990</v>
       </c>
       <c r="E165" s="13">
@@ -9186,16 +9201,16 @@
         <v>0.1</v>
       </c>
       <c r="G165" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H165" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I165" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J165" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K165" s="5">
         <v>95</v>
@@ -9220,9 +9235,9 @@
         <v>186</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="D166" s="5">
+        <v>218</v>
+      </c>
+      <c r="D166" s="26">
         <v>2015</v>
       </c>
       <c r="E166" s="13">
@@ -9233,16 +9248,16 @@
         <v>5</v>
       </c>
       <c r="G166" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H166" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I166" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J166" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K166" s="5">
         <v>94</v>
@@ -9267,9 +9282,9 @@
         <v>187</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="D167" s="5">
+        <v>219</v>
+      </c>
+      <c r="D167" s="26">
         <v>2024</v>
       </c>
       <c r="E167" s="13">
@@ -9280,16 +9295,16 @@
         <v>40</v>
       </c>
       <c r="G167" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H167" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I167" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="J167" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="K167" s="5">
         <v>107</v>
@@ -9314,9 +9329,9 @@
         <v>188</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="D168" s="5">
+        <v>220</v>
+      </c>
+      <c r="D168" s="26">
         <v>2023</v>
       </c>
       <c r="E168" s="13">
@@ -9327,13 +9342,13 @@
         <v>205</v>
       </c>
       <c r="G168" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H168" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I168" s="5" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="J168" s="5"/>
       <c r="K168" s="5">
@@ -9359,9 +9374,9 @@
         <v>189</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D169" s="5">
+        <v>221</v>
+      </c>
+      <c r="D169" s="26">
         <v>1988</v>
       </c>
       <c r="E169" s="13">
@@ -9372,16 +9387,16 @@
         <v>13</v>
       </c>
       <c r="G169" s="13" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="H169" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I169" s="5" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="J169" s="5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="K169" s="5">
         <v>99</v>
@@ -9406,9 +9421,9 @@
         <v>190</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="D170" s="5">
+        <v>222</v>
+      </c>
+      <c r="D170" s="26">
         <v>2024</v>
       </c>
       <c r="E170" s="13">
@@ -9419,16 +9434,16 @@
         <v>100</v>
       </c>
       <c r="G170" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H170" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I170" s="5" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="J170" s="5" t="s">
-        <v>249</v>
+        <v>32</v>
       </c>
       <c r="K170" s="5">
         <v>115</v>
@@ -9453,9 +9468,9 @@
         <v>191</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="D171" s="5">
+        <v>223</v>
+      </c>
+      <c r="D171" s="26">
         <v>1997</v>
       </c>
       <c r="E171" s="13">
@@ -9466,16 +9481,16 @@
         <v>75</v>
       </c>
       <c r="G171" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H171" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I171" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="J171" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K171" s="5">
         <v>109</v>
@@ -9500,9 +9515,9 @@
         <v>192</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="D172" s="5">
+        <v>224</v>
+      </c>
+      <c r="D172" s="26">
         <v>2003</v>
       </c>
       <c r="E172" s="13">
@@ -9513,16 +9528,16 @@
         <v>28</v>
       </c>
       <c r="G172" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H172" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I172" s="5" t="s">
-        <v>246</v>
+        <v>24</v>
       </c>
       <c r="J172" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K172" s="5">
         <v>90</v>
@@ -9547,9 +9562,9 @@
         <v>193</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="D173" s="5">
+        <v>225</v>
+      </c>
+      <c r="D173" s="26">
         <v>2024</v>
       </c>
       <c r="E173" s="13">
@@ -9560,16 +9575,16 @@
         <v>50</v>
       </c>
       <c r="G173" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H173" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I173" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J173" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K173" s="5">
         <v>109</v>
@@ -9594,9 +9609,9 @@
         <v>194</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="D174" s="5">
+        <v>226</v>
+      </c>
+      <c r="D174" s="26">
         <v>2010</v>
       </c>
       <c r="E174" s="13">
@@ -9607,16 +9622,16 @@
         <v>100</v>
       </c>
       <c r="G174" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H174" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I174" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J174" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K174" s="5">
         <v>107</v>
@@ -9641,9 +9656,9 @@
         <v>195</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="D175" s="5">
+        <v>227</v>
+      </c>
+      <c r="D175" s="26">
         <v>2009</v>
       </c>
       <c r="E175" s="13">
@@ -9654,16 +9669,16 @@
         <v>150</v>
       </c>
       <c r="G175" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H175" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I175" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J175" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="K175" s="5">
         <v>107</v>
@@ -9688,9 +9703,9 @@
         <v>196</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="D176" s="5">
+        <v>228</v>
+      </c>
+      <c r="D176" s="26">
         <v>1997</v>
       </c>
       <c r="E176" s="13">
@@ -9701,16 +9716,16 @@
         <v>45</v>
       </c>
       <c r="G176" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H176" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I176" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J176" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K176" s="5">
         <v>89</v>
@@ -9735,9 +9750,9 @@
         <v>197</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="D177" s="5">
+        <v>229</v>
+      </c>
+      <c r="D177" s="26">
         <v>1997</v>
       </c>
       <c r="E177" s="13">
@@ -9748,16 +9763,16 @@
         <v>105</v>
       </c>
       <c r="G177" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H177" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I177" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J177" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="K177" s="5">
         <v>129</v>
@@ -9782,9 +9797,9 @@
         <v>198</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="D178" s="5">
+        <v>230</v>
+      </c>
+      <c r="D178" s="26">
         <v>2024</v>
       </c>
       <c r="E178" s="13">
@@ -9795,16 +9810,16 @@
         <v>110</v>
       </c>
       <c r="G178" s="13" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="H178" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I178" s="5" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="J178" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K178" s="5">
         <v>104</v>
@@ -9829,9 +9844,9 @@
         <v>199</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="D179" s="5">
+        <v>231</v>
+      </c>
+      <c r="D179" s="26">
         <v>2024</v>
       </c>
       <c r="E179" s="21">
@@ -9842,16 +9857,16 @@
         <v>168</v>
       </c>
       <c r="G179" s="21" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H179" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I179" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J179" s="5" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="K179" s="5">
         <v>148</v>
@@ -9876,9 +9891,9 @@
         <v>200</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>279</v>
-      </c>
-      <c r="D180" s="5">
+        <v>232</v>
+      </c>
+      <c r="D180" s="26">
         <v>2000</v>
       </c>
       <c r="E180" s="21">
@@ -9889,16 +9904,16 @@
         <v>23</v>
       </c>
       <c r="G180" s="21" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H180" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I180" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J180" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K180" s="5">
         <v>109</v>
@@ -9923,9 +9938,9 @@
         <v>201</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="D181" s="5">
+        <v>233</v>
+      </c>
+      <c r="D181" s="26">
         <v>2023</v>
       </c>
       <c r="E181" s="13">
@@ -9936,16 +9951,16 @@
         <v>0</v>
       </c>
       <c r="G181" s="21" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H181" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I181" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J181" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K181" s="5">
         <v>115</v>
@@ -9970,9 +9985,9 @@
         <v>202</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="D182" s="5">
+        <v>234</v>
+      </c>
+      <c r="D182" s="26">
         <v>2016</v>
       </c>
       <c r="E182" s="13">
@@ -9983,16 +9998,16 @@
         <v>44</v>
       </c>
       <c r="G182" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H182" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I182" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J182" s="5" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="K182" s="5">
         <v>128</v>
@@ -10017,9 +10032,9 @@
         <v>203</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="D183" s="5">
+        <v>235</v>
+      </c>
+      <c r="D183" s="26">
         <v>2024</v>
       </c>
       <c r="E183" s="13">
@@ -10030,16 +10045,16 @@
         <v>0</v>
       </c>
       <c r="G183" s="13" t="s">
-        <v>266</v>
+        <v>85</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I183" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J183" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K183" s="5">
         <v>106</v>
@@ -10064,9 +10079,9 @@
         <v>204</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="D184" s="5">
+        <v>236</v>
+      </c>
+      <c r="D184" s="26">
         <v>2024</v>
       </c>
       <c r="E184" s="13">
@@ -10077,16 +10092,16 @@
         <v>67</v>
       </c>
       <c r="G184" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I184" s="5" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="J184" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K184" s="5">
         <v>100</v>
@@ -10111,9 +10126,9 @@
         <v>205</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="D185" s="5">
+        <v>237</v>
+      </c>
+      <c r="D185" s="26">
         <v>2024</v>
       </c>
       <c r="E185" s="13">
@@ -10124,16 +10139,16 @@
         <v>150</v>
       </c>
       <c r="G185" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H185" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I185" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J185" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K185" s="5">
         <v>118</v>
@@ -10158,9 +10173,9 @@
         <v>206</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="D186" s="5">
+        <v>238</v>
+      </c>
+      <c r="D186" s="26">
         <v>2024</v>
       </c>
       <c r="E186" s="13">
@@ -10171,16 +10186,16 @@
         <v>155</v>
       </c>
       <c r="G186" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H186" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I186" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J186" s="5" t="s">
-        <v>125</v>
+        <v>26</v>
       </c>
       <c r="K186" s="5">
         <v>122</v>
@@ -10205,9 +10220,9 @@
         <v>207</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="D187" s="5">
+        <v>239</v>
+      </c>
+      <c r="D187" s="26">
         <v>2024</v>
       </c>
       <c r="E187" s="13">
@@ -10218,16 +10233,16 @@
         <v>200</v>
       </c>
       <c r="G187" s="13" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H187" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I187" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J187" s="5" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="K187" s="5">
         <v>127</v>
@@ -10252,9 +10267,9 @@
         <v>208</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="D188" s="5">
+        <v>240</v>
+      </c>
+      <c r="D188" s="26">
         <v>2024</v>
       </c>
       <c r="E188" s="13">
@@ -10265,16 +10280,16 @@
         <v>30</v>
       </c>
       <c r="G188" s="13" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H188" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I188" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="J188" s="5" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="K188" s="5">
         <v>105</v>
@@ -10299,9 +10314,9 @@
         <v>209</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="D189" s="5">
+        <v>241</v>
+      </c>
+      <c r="D189" s="26">
         <v>2012</v>
       </c>
       <c r="E189" s="13">
@@ -10312,16 +10327,16 @@
         <v>125</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H189" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I189" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J189" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="K189" s="5">
         <v>118</v>
@@ -10346,9 +10361,9 @@
         <v>210</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="D190" s="5">
+        <v>242</v>
+      </c>
+      <c r="D190" s="26">
         <v>2024</v>
       </c>
       <c r="E190" s="13">
@@ -10359,16 +10374,16 @@
         <v>80</v>
       </c>
       <c r="G190" s="5" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H190" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I190" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J190" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="K190" s="5">
         <v>119</v>
@@ -10393,9 +10408,9 @@
         <v>211</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="D191" s="5">
+        <v>243</v>
+      </c>
+      <c r="D191" s="26">
         <v>1994</v>
       </c>
       <c r="E191" s="13">
@@ -10406,16 +10421,16 @@
         <v>27</v>
       </c>
       <c r="G191" s="5" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H191" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I191" s="5" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="J191" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="K191" s="5">
         <v>99</v>
@@ -10440,9 +10455,9 @@
         <v>212</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="D192" s="5">
+        <v>244</v>
+      </c>
+      <c r="D192" s="26">
         <v>1988</v>
       </c>
       <c r="E192" s="13">
@@ -10453,16 +10468,16 @@
         <v>15</v>
       </c>
       <c r="G192" s="5" t="s">
-        <v>262</v>
+        <v>30</v>
       </c>
       <c r="H192" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I192" s="5" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="J192" s="5" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="K192" s="5">
         <v>92</v>
@@ -10487,9 +10502,9 @@
         <v>213</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>294</v>
-      </c>
-      <c r="D193" s="5">
+        <v>247</v>
+      </c>
+      <c r="D193" s="26">
         <v>2024</v>
       </c>
       <c r="E193" s="13">
@@ -10500,16 +10515,16 @@
         <v>100</v>
       </c>
       <c r="G193" s="5" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H193" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I193" s="5" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="J193" s="5" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="K193" s="5">
         <v>105</v>
@@ -10534,9 +10549,9 @@
         <v>214</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="D194" s="5">
+        <v>248</v>
+      </c>
+      <c r="D194" s="26">
         <v>1994</v>
       </c>
       <c r="E194" s="13">
@@ -10547,16 +10562,16 @@
         <v>35</v>
       </c>
       <c r="G194" s="5" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H194" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I194" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J194" s="5" t="s">
-        <v>296</v>
+        <v>249</v>
       </c>
       <c r="K194" s="5">
         <v>102</v>
@@ -10581,9 +10596,9 @@
         <v>215</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="D195" s="5">
+        <v>250</v>
+      </c>
+      <c r="D195" s="26">
         <v>2019</v>
       </c>
       <c r="E195" s="13">
@@ -10594,16 +10609,16 @@
         <v>50</v>
       </c>
       <c r="G195" s="5" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H195" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I195" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J195" s="5" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="K195" s="5">
         <v>89</v>
@@ -10628,9 +10643,9 @@
         <v>216</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="D196" s="5">
+        <v>251</v>
+      </c>
+      <c r="D196" s="26">
         <v>1994</v>
       </c>
       <c r="E196" s="13">
@@ -10641,13 +10656,13 @@
         <v>15</v>
       </c>
       <c r="G196" s="5" t="s">
-        <v>260</v>
+        <v>16</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I196" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J196" s="5"/>
       <c r="K196" s="5">
@@ -10673,27 +10688,29 @@
         <v>217</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="D197" s="5">
+        <v>252</v>
+      </c>
+      <c r="D197" s="26">
         <v>2024</v>
       </c>
-      <c r="E197" s="13"/>
+      <c r="E197" s="13">
+        <v>0</v>
+      </c>
       <c r="F197" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I197" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J197" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K197" s="5">
         <v>114</v>
@@ -10718,9 +10735,9 @@
         <v>218</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="D198" s="5">
+        <v>253</v>
+      </c>
+      <c r="D198" s="26">
         <v>2024</v>
       </c>
       <c r="E198" s="13">
@@ -10731,16 +10748,16 @@
         <v>100</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H198" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I198" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="J198" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K198" s="5">
         <v>115</v>
@@ -10765,27 +10782,29 @@
         <v>219</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="D199" s="5">
+        <v>254</v>
+      </c>
+      <c r="D199" s="26">
         <v>2024</v>
       </c>
-      <c r="E199" s="13"/>
+      <c r="E199" s="13">
+        <v>0</v>
+      </c>
       <c r="F199" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H199" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I199" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J199" s="5" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K199" s="5">
         <v>92</v>
@@ -10810,9 +10829,9 @@
         <v>220</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="D200" s="5">
+        <v>255</v>
+      </c>
+      <c r="D200" s="26">
         <v>2000</v>
       </c>
       <c r="E200" s="13">
@@ -10823,16 +10842,16 @@
         <v>19</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H200" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I200" s="5" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="J200" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K200" s="5">
         <v>88</v>
@@ -10857,9 +10876,9 @@
         <v>221</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="D201" s="5">
+        <v>257</v>
+      </c>
+      <c r="D201" s="26">
         <v>1987</v>
       </c>
       <c r="E201" s="13">
@@ -10870,13 +10889,13 @@
         <v>15</v>
       </c>
       <c r="G201" s="5" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="H201" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="I201" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J201" s="5"/>
       <c r="K201" s="5">
@@ -10895,37 +10914,78 @@
       <c r="O201" s="5"/>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="E202" s="1"/>
-      <c r="F202" s="1"/>
-      <c r="G202" s="1"/>
-      <c r="O202" s="1"/>
+      <c r="A202" s="5">
+        <v>201</v>
+      </c>
+      <c r="B202" s="5">
+        <v>222</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D202" s="26">
+        <v>2014</v>
+      </c>
+      <c r="E202" s="13">
+        <v>100000000</v>
+      </c>
+      <c r="F202" s="5">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+      <c r="G202" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H202" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I202" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J202" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K202" s="5">
+        <v>117</v>
+      </c>
+      <c r="L202" s="19">
+        <v>7</v>
+      </c>
+      <c r="M202" s="19">
+        <v>6.8</v>
+      </c>
+      <c r="N202" s="19">
+        <f t="shared" si="11"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="O202" s="5"/>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="E203" s="1"/>
+      <c r="E203" s="28"/>
       <c r="F203" s="1"/>
       <c r="G203" s="1"/>
       <c r="O203" s="1"/>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="E204" s="1"/>
+      <c r="E204" s="28"/>
       <c r="F204" s="1"/>
       <c r="G204" s="1"/>
       <c r="O204" s="1"/>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="E205" s="1"/>
+      <c r="E205" s="28"/>
       <c r="F205" s="1"/>
       <c r="G205" s="1"/>
       <c r="O205" s="1"/>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="E206" s="1"/>
+      <c r="E206" s="28"/>
       <c r="F206" s="1"/>
       <c r="G206" s="1"/>
       <c r="O206" s="1"/>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="E207" s="1"/>
+      <c r="E207" s="28"/>
       <c r="F207" s="1"/>
       <c r="G207" s="1"/>
       <c r="O207" s="1"/>
@@ -10951,51 +11011,51 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.73046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.46484375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.3984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.53125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.59765625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.19921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="60.46484375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="60.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>253</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>257</v>
+        <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>259</v>
+        <v>6</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>11</v>
@@ -11004,10 +11064,10 @@
         <v>12</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
@@ -11018,7 +11078,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>9</v>
+        <v>259</v>
       </c>
       <c r="D2" s="5">
         <v>2013</v>
@@ -11026,10 +11086,10 @@
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="5" t="s">
-        <v>8</v>
+        <v>260</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>10</v>
+        <v>261</v>
       </c>
       <c r="I2" s="8"/>
       <c r="J2" s="5"/>
@@ -11053,7 +11113,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>7</v>
+        <v>262</v>
       </c>
       <c r="D3" s="5">
         <v>2020</v>
@@ -11061,10 +11121,10 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="5" t="s">
-        <v>8</v>
+        <v>260</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>10</v>
+        <v>261</v>
       </c>
       <c r="I3" s="8"/>
       <c r="J3" s="5"/>
@@ -11088,7 +11148,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="D4" s="5">
         <v>2020</v>
@@ -11096,10 +11156,10 @@
       <c r="E4" s="13"/>
       <c r="F4" s="13"/>
       <c r="G4" s="5" t="s">
-        <v>8</v>
+        <v>260</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>10</v>
+        <v>261</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="5"/>
@@ -11110,7 +11170,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
@@ -11121,7 +11181,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>49</v>
+        <v>265</v>
       </c>
       <c r="D5" s="5">
         <v>2001</v>
@@ -11129,10 +11189,10 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="5" t="s">
-        <v>8</v>
+        <v>260</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>48</v>
+        <v>266</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="5"/>
@@ -11156,7 +11216,7 @@
         <v>29</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>53</v>
+        <v>267</v>
       </c>
       <c r="D6" s="5">
         <v>2021</v>
@@ -11164,10 +11224,10 @@
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="5" t="s">
-        <v>8</v>
+        <v>260</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="5"/>
@@ -11191,7 +11251,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>67</v>
+        <v>269</v>
       </c>
       <c r="D7" s="5">
         <v>2021</v>
@@ -11199,10 +11259,10 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="5" t="s">
-        <v>8</v>
+        <v>260</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="5"/>
@@ -11226,7 +11286,7 @@
         <v>46</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="D8" s="5">
         <v>2021</v>
@@ -11234,10 +11294,10 @@
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
       <c r="G8" s="5" t="s">
-        <v>8</v>
+        <v>260</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>48</v>
+        <v>266</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="5"/>
@@ -11261,7 +11321,7 @@
         <v>49</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>82</v>
+        <v>271</v>
       </c>
       <c r="D9" s="5">
         <v>2009</v>
@@ -11269,10 +11329,10 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="5" t="s">
-        <v>8</v>
+        <v>260</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>10</v>
+        <v>261</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="5"/>
@@ -11287,7 +11347,7 @@
         <v>2.5</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>86</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
@@ -11298,7 +11358,7 @@
         <v>56</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>91</v>
+        <v>273</v>
       </c>
       <c r="D10" s="5">
         <v>2020</v>
@@ -11306,10 +11366,10 @@
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="5" t="s">
-        <v>8</v>
+        <v>260</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>10</v>
+        <v>261</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="5"/>
@@ -11333,7 +11393,7 @@
         <v>71</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>115</v>
+        <v>274</v>
       </c>
       <c r="D11" s="5">
         <v>2021</v>
@@ -11341,10 +11401,10 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="5" t="s">
-        <v>8</v>
+        <v>260</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>117</v>
+        <v>275</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="5"/>
@@ -11368,7 +11428,7 @@
         <v>99</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>150</v>
+        <v>276</v>
       </c>
       <c r="D12" s="5">
         <v>2022</v>
@@ -11376,10 +11436,10 @@
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="5" t="s">
-        <v>8</v>
+        <v>260</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="5"/>
@@ -11403,7 +11463,7 @@
         <v>139</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>186</v>
+        <v>278</v>
       </c>
       <c r="D13" s="5">
         <v>2023</v>
@@ -11411,10 +11471,10 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="5" t="s">
-        <v>8</v>
+        <v>260</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="5"/>
@@ -11443,51 +11503,51 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.73046875" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="7.73046875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.59765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.46484375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.06640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>74</v>
+        <v>9</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>32</v>
+        <v>279</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>33</v>
+        <v>280</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>38</v>
+        <v>281</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
@@ -11495,14 +11555,14 @@
         <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>36</v>
+        <v>282</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -11522,14 +11582,14 @@
         <v>14</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>29</v>
+        <v>283</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -11549,14 +11609,14 @@
         <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>30</v>
+        <v>284</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -11576,14 +11636,14 @@
         <v>14</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>31</v>
+        <v>285</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -11603,14 +11663,14 @@
         <v>14</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>34</v>
+        <v>286</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -11630,14 +11690,14 @@
         <v>14</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>35</v>
+        <v>287</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -11657,16 +11717,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>19</v>
+        <v>288</v>
       </c>
       <c r="C8" s="5">
         <v>1996</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>8</v>
+        <v>260</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -11679,16 +11739,16 @@
         <v>11</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>22</v>
+        <v>289</v>
       </c>
       <c r="C9" s="5">
         <v>2002</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>8</v>
+        <v>260</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -11701,16 +11761,16 @@
         <v>11</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>20</v>
+        <v>290</v>
       </c>
       <c r="C10" s="5">
         <v>1998</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>8</v>
+        <v>260</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -11723,16 +11783,16 @@
         <v>11</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>23</v>
+        <v>291</v>
       </c>
       <c r="C11" s="5">
         <v>2019</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>8</v>
+        <v>260</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -11745,16 +11805,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>98</v>
+        <v>292</v>
       </c>
       <c r="C12" s="5">
         <v>1999</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>8</v>
+        <v>260</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -11767,16 +11827,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>24</v>
+        <v>293</v>
       </c>
       <c r="C13" s="5">
         <v>2020</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>8</v>
+        <v>260</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -11789,16 +11849,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>21</v>
+        <v>294</v>
       </c>
       <c r="C14" s="5">
         <v>2005</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>8</v>
+        <v>260</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -11811,14 +11871,14 @@
         <v>100</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>129</v>
+        <v>295</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -11838,14 +11898,14 @@
         <v>100</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>130</v>
+        <v>296</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -11865,14 +11925,14 @@
         <v>100</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>131</v>
+        <v>297</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -11892,14 +11952,14 @@
         <v>100</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>132</v>
+        <v>298</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -11919,14 +11979,14 @@
         <v>100</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>133</v>
+        <v>299</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -11946,14 +12006,14 @@
         <v>100</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>134</v>
+        <v>300</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -11973,14 +12033,14 @@
         <v>100</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>135</v>
+        <v>301</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -12000,14 +12060,14 @@
         <v>100</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>136</v>
+        <v>302</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -12027,14 +12087,14 @@
         <v>100</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>137</v>
+        <v>303</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -12054,14 +12114,14 @@
         <v>100</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>138</v>
+        <v>304</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -12081,14 +12141,14 @@
         <v>100</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>139</v>
+        <v>305</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="5" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>

--- a/Data/BryanVsBryan_Data.xlsx
+++ b/Data/BryanVsBryan_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/65f40906fbee13bf/[04] Data Science/[01] Projects/[04] Visualization_Project_Podcast/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="13_ncr:1_{4FC6E6E7-BE2D-4F0F-B507-799983C0F7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A34F2F15-5AA8-455A-AA1C-964FAFEF86C1}"/>
+  <xr:revisionPtr revIDLastSave="232" documentId="13_ncr:1_{4FC6E6E7-BE2D-4F0F-B507-799983C0F7D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C13A00B4-5AEA-4F47-99DF-DFE0FC40F7AB}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{1B70641D-B009-4E91-B3D5-80C95BCC6CD5}"/>
+    <workbookView xWindow="43080" yWindow="5790" windowWidth="29040" windowHeight="15720" xr2:uid="{1B70641D-B009-4E91-B3D5-80C95BCC6CD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Movies" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="317">
   <si>
     <t>Sort_Order</t>
   </si>
@@ -959,6 +959,39 @@
   </si>
   <si>
     <t>The Rise of Skywalker</t>
+  </si>
+  <si>
+    <t>Gladiator 2</t>
+  </si>
+  <si>
+    <t>Moana 2</t>
+  </si>
+  <si>
+    <t>Christmas Vacation</t>
+  </si>
+  <si>
+    <t>Holiday</t>
+  </si>
+  <si>
+    <t>Earnest Saves Christmas</t>
+  </si>
+  <si>
+    <t>Nosferatu</t>
+  </si>
+  <si>
+    <t>Nothing But Trouble</t>
+  </si>
+  <si>
+    <t>Pain and Gain</t>
+  </si>
+  <si>
+    <t>RoboCop 2</t>
+  </si>
+  <si>
+    <t>Naked Gun</t>
+  </si>
+  <si>
+    <t>Slapstick</t>
   </si>
 </sst>
 </file>
@@ -1043,7 +1076,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1120,8 +1153,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1462,7 +1498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8232CE-F8CC-4A25-9F93-495C87926EDE}">
-  <dimension ref="A1:O207"/>
+  <dimension ref="A1:O212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1473,7 +1509,7 @@
   <cols>
     <col min="1" max="1" width="14.86328125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.73046875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" style="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.73046875" style="27" customWidth="1"/>
     <col min="5" max="5" width="16" style="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.86328125" style="17" customWidth="1"/>
@@ -1482,10 +1518,10 @@
     <col min="9" max="9" width="12.1328125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.1328125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.1328125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.265625" style="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.86328125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.19921875" style="20" customWidth="1"/>
+    <col min="13" max="13" width="19.6640625" style="20" customWidth="1"/>
     <col min="14" max="14" width="15.3984375" style="20" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="57" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="65.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.45">
@@ -1495,7 +1531,7 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="25" t="s">
@@ -1542,7 +1578,7 @@
       <c r="B2" s="5">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="26">
@@ -1591,7 +1627,7 @@
       <c r="B3" s="5">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D3" s="26">
@@ -1638,7 +1674,7 @@
       <c r="B4" s="5">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="26">
@@ -1685,7 +1721,7 @@
       <c r="B5" s="5">
         <v>10</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="26">
@@ -1734,7 +1770,7 @@
       <c r="B6" s="5">
         <v>12</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="26">
@@ -1783,7 +1819,7 @@
       <c r="B7" s="5">
         <v>12</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="26">
@@ -1832,7 +1868,7 @@
       <c r="B8" s="5">
         <v>12</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="26">
@@ -1881,7 +1917,7 @@
       <c r="B9" s="5">
         <v>16</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D9" s="26">
@@ -1926,7 +1962,7 @@
       <c r="B10" s="5">
         <v>18</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="26">
@@ -1971,7 +2007,7 @@
       <c r="B11" s="5">
         <v>20</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D11" s="26">
@@ -2020,7 +2056,7 @@
       <c r="B12" s="5">
         <v>21</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D12" s="26">
@@ -2065,7 +2101,7 @@
       <c r="B13" s="5">
         <v>24</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D13" s="26">
@@ -2110,7 +2146,7 @@
       <c r="B14" s="5">
         <v>27</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D14" s="26">
@@ -2157,7 +2193,7 @@
       <c r="B15" s="5">
         <v>28</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="8" t="s">
         <v>50</v>
       </c>
       <c r="D15" s="26">
@@ -2204,7 +2240,7 @@
       <c r="B16" s="5">
         <v>30</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D16" s="26">
@@ -2251,7 +2287,7 @@
       <c r="B17" s="5">
         <v>31</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D17" s="26">
@@ -2296,7 +2332,7 @@
       <c r="B18" s="5">
         <v>32</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="8" t="s">
         <v>55</v>
       </c>
       <c r="D18" s="26">
@@ -2343,7 +2379,7 @@
       <c r="B19" s="5">
         <v>33</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="8" t="s">
         <v>56</v>
       </c>
       <c r="D19" s="26">
@@ -2388,7 +2424,7 @@
       <c r="B20" s="5">
         <v>34</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="8" t="s">
         <v>57</v>
       </c>
       <c r="D20" s="26">
@@ -2435,7 +2471,7 @@
       <c r="B21" s="5">
         <v>35</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="8" t="s">
         <v>58</v>
       </c>
       <c r="D21" s="26">
@@ -2482,7 +2518,7 @@
       <c r="B22" s="5">
         <v>37</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D22" s="26">
@@ -2529,7 +2565,7 @@
       <c r="B23" s="5">
         <v>37</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="8" t="s">
         <v>61</v>
       </c>
       <c r="D23" s="26">
@@ -2576,7 +2612,7 @@
       <c r="B24" s="5">
         <v>38</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="8" t="s">
         <v>62</v>
       </c>
       <c r="D24" s="26">
@@ -2623,7 +2659,7 @@
       <c r="B25" s="5">
         <v>39</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="8" t="s">
         <v>63</v>
       </c>
       <c r="D25" s="26">
@@ -2670,7 +2706,7 @@
       <c r="B26" s="5">
         <v>41</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="8" t="s">
         <v>64</v>
       </c>
       <c r="D26" s="26">
@@ -2717,7 +2753,7 @@
       <c r="B27" s="5">
         <v>42</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="8" t="s">
         <v>66</v>
       </c>
       <c r="D27" s="26">
@@ -2764,7 +2800,7 @@
       <c r="B28" s="5">
         <v>44</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="8" t="s">
         <v>67</v>
       </c>
       <c r="D28" s="26">
@@ -2811,7 +2847,7 @@
       <c r="B29" s="5">
         <v>44</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="8" t="s">
         <v>68</v>
       </c>
       <c r="D29" s="26">
@@ -2858,7 +2894,7 @@
       <c r="B30" s="5">
         <v>44</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="8" t="s">
         <v>69</v>
       </c>
       <c r="D30" s="26">
@@ -2905,7 +2941,7 @@
       <c r="B31" s="5">
         <v>47</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="8" t="s">
         <v>70</v>
       </c>
       <c r="D31" s="26">
@@ -2952,7 +2988,7 @@
       <c r="B32" s="5">
         <v>48</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="8" t="s">
         <v>71</v>
       </c>
       <c r="D32" s="26">
@@ -2999,7 +3035,7 @@
       <c r="B33" s="5">
         <v>50</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="8" t="s">
         <v>72</v>
       </c>
       <c r="D33" s="26">
@@ -3046,7 +3082,7 @@
       <c r="B34" s="5">
         <v>50</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="8" t="s">
         <v>73</v>
       </c>
       <c r="D34" s="26">
@@ -3093,7 +3129,7 @@
       <c r="B35" s="5">
         <v>51</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D35" s="26">
@@ -3140,7 +3176,7 @@
       <c r="B36" s="5">
         <v>52</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C36" s="8" t="s">
         <v>75</v>
       </c>
       <c r="D36" s="26">
@@ -3187,7 +3223,7 @@
       <c r="B37" s="5">
         <v>52</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="8" t="s">
         <v>76</v>
       </c>
       <c r="D37" s="26">
@@ -3236,7 +3272,7 @@
       <c r="B38" s="5">
         <v>53</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C38" s="8" t="s">
         <v>78</v>
       </c>
       <c r="D38" s="26">
@@ -3283,7 +3319,7 @@
       <c r="B39" s="5">
         <v>54</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="8" t="s">
         <v>79</v>
       </c>
       <c r="D39" s="26">
@@ -3330,7 +3366,7 @@
       <c r="B40" s="5">
         <v>55</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="8" t="s">
         <v>80</v>
       </c>
       <c r="D40" s="26">
@@ -3377,7 +3413,7 @@
       <c r="B41" s="5">
         <v>57</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="8" t="s">
         <v>81</v>
       </c>
       <c r="D41" s="26">
@@ -3424,7 +3460,7 @@
       <c r="B42" s="5">
         <v>58</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="8" t="s">
         <v>82</v>
       </c>
       <c r="D42" s="26">
@@ -3471,7 +3507,7 @@
       <c r="B43" s="5">
         <v>59</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="8" t="s">
         <v>83</v>
       </c>
       <c r="D43" s="26">
@@ -3516,7 +3552,7 @@
       <c r="B44" s="5">
         <v>60</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C44" s="8" t="s">
         <v>84</v>
       </c>
       <c r="D44" s="26">
@@ -3563,7 +3599,7 @@
       <c r="B45" s="5">
         <v>61</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="8" t="s">
         <v>87</v>
       </c>
       <c r="D45" s="26">
@@ -3610,7 +3646,7 @@
       <c r="B46" s="5">
         <v>62</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C46" s="8" t="s">
         <v>88</v>
       </c>
       <c r="D46" s="26">
@@ -3657,7 +3693,7 @@
       <c r="B47" s="5">
         <v>63</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="8" t="s">
         <v>89</v>
       </c>
       <c r="D47" s="26">
@@ -3704,7 +3740,7 @@
       <c r="B48" s="5">
         <v>64</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C48" s="8" t="s">
         <v>90</v>
       </c>
       <c r="D48" s="26">
@@ -3751,7 +3787,7 @@
       <c r="B49" s="5">
         <v>65</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C49" s="8" t="s">
         <v>91</v>
       </c>
       <c r="D49" s="26">
@@ -3798,7 +3834,7 @@
       <c r="B50" s="5">
         <v>66</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C50" s="8" t="s">
         <v>92</v>
       </c>
       <c r="D50" s="26">
@@ -3845,7 +3881,7 @@
       <c r="B51" s="5">
         <v>67</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C51" s="8" t="s">
         <v>93</v>
       </c>
       <c r="D51" s="26">
@@ -3892,7 +3928,7 @@
       <c r="B52" s="5">
         <v>68</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" s="8" t="s">
         <v>94</v>
       </c>
       <c r="D52" s="26">
@@ -3939,7 +3975,7 @@
       <c r="B53" s="5">
         <v>69</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" s="8" t="s">
         <v>95</v>
       </c>
       <c r="D53" s="26">
@@ -3986,7 +4022,7 @@
       <c r="B54" s="5">
         <v>70</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="8" t="s">
         <v>96</v>
       </c>
       <c r="D54" s="26">
@@ -4033,7 +4069,7 @@
       <c r="B55" s="5">
         <v>70</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" s="8" t="s">
         <v>97</v>
       </c>
       <c r="D55" s="26">
@@ -4078,7 +4114,7 @@
       <c r="B56" s="5">
         <v>72</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" s="8" t="s">
         <v>98</v>
       </c>
       <c r="D56" s="26">
@@ -4123,7 +4159,7 @@
       <c r="B57" s="5">
         <v>72</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" s="8" t="s">
         <v>99</v>
       </c>
       <c r="D57" s="26">
@@ -4170,7 +4206,7 @@
       <c r="B58" s="5">
         <v>73</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" s="8" t="s">
         <v>101</v>
       </c>
       <c r="D58" s="26">
@@ -4217,7 +4253,7 @@
       <c r="B59" s="5">
         <v>75</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" s="8" t="s">
         <v>102</v>
       </c>
       <c r="D59" s="26">
@@ -4264,7 +4300,7 @@
       <c r="B60" s="5">
         <v>76</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C60" s="8" t="s">
         <v>103</v>
       </c>
       <c r="D60" s="26">
@@ -4311,7 +4347,7 @@
       <c r="B61" s="5">
         <v>77</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C61" s="8" t="s">
         <v>104</v>
       </c>
       <c r="D61" s="26">
@@ -4358,7 +4394,7 @@
       <c r="B62" s="5">
         <v>77</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C62" s="8" t="s">
         <v>105</v>
       </c>
       <c r="D62" s="26">
@@ -4405,7 +4441,7 @@
       <c r="B63" s="5">
         <v>78</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C63" s="8" t="s">
         <v>106</v>
       </c>
       <c r="D63" s="26">
@@ -4452,7 +4488,7 @@
       <c r="B64" s="5">
         <v>79</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C64" s="8" t="s">
         <v>107</v>
       </c>
       <c r="D64" s="26">
@@ -4499,7 +4535,7 @@
       <c r="B65" s="5">
         <v>80</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C65" s="8" t="s">
         <v>108</v>
       </c>
       <c r="D65" s="26">
@@ -4546,7 +4582,7 @@
       <c r="B66" s="5">
         <v>81</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C66" s="8" t="s">
         <v>109</v>
       </c>
       <c r="D66" s="26">
@@ -4593,7 +4629,7 @@
       <c r="B67" s="5">
         <v>83</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C67" s="8" t="s">
         <v>110</v>
       </c>
       <c r="D67" s="26">
@@ -4638,7 +4674,7 @@
       <c r="B68" s="5">
         <v>83</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C68" s="8" t="s">
         <v>111</v>
       </c>
       <c r="D68" s="26">
@@ -4685,7 +4721,7 @@
       <c r="B69" s="5">
         <v>84</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C69" s="8" t="s">
         <v>113</v>
       </c>
       <c r="D69" s="26">
@@ -4732,7 +4768,7 @@
       <c r="B70" s="5">
         <v>85</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C70" s="8" t="s">
         <v>114</v>
       </c>
       <c r="D70" s="26">
@@ -4779,7 +4815,7 @@
       <c r="B71" s="5">
         <v>87</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C71" s="8" t="s">
         <v>115</v>
       </c>
       <c r="D71" s="26">
@@ -4826,7 +4862,7 @@
       <c r="B72" s="5">
         <v>88</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C72" s="8" t="s">
         <v>116</v>
       </c>
       <c r="D72" s="26">
@@ -4873,7 +4909,7 @@
       <c r="B73" s="5">
         <v>89</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C73" s="8" t="s">
         <v>117</v>
       </c>
       <c r="D73" s="26">
@@ -4920,7 +4956,7 @@
       <c r="B74" s="5">
         <v>90</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C74" s="8" t="s">
         <v>118</v>
       </c>
       <c r="D74" s="26">
@@ -4967,7 +5003,7 @@
       <c r="B75" s="5">
         <v>91</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C75" s="8" t="s">
         <v>119</v>
       </c>
       <c r="D75" s="26">
@@ -5012,7 +5048,7 @@
       <c r="B76" s="5">
         <v>92</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C76" s="8" t="s">
         <v>120</v>
       </c>
       <c r="D76" s="26">
@@ -5059,7 +5095,7 @@
       <c r="B77" s="5">
         <v>93</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C77" s="8" t="s">
         <v>121</v>
       </c>
       <c r="D77" s="26">
@@ -5106,7 +5142,7 @@
       <c r="B78" s="5">
         <v>94</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C78" s="8" t="s">
         <v>122</v>
       </c>
       <c r="D78" s="26">
@@ -5153,7 +5189,7 @@
       <c r="B79" s="5">
         <v>97</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C79" s="8" t="s">
         <v>123</v>
       </c>
       <c r="D79" s="26">
@@ -5200,7 +5236,7 @@
       <c r="B80" s="5">
         <v>98</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C80" s="8" t="s">
         <v>124</v>
       </c>
       <c r="D80" s="26">
@@ -5247,7 +5283,7 @@
       <c r="B81" s="5">
         <v>101</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C81" s="8" t="s">
         <v>125</v>
       </c>
       <c r="D81" s="26">
@@ -5292,7 +5328,7 @@
       <c r="B82" s="5">
         <v>102</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C82" s="8" t="s">
         <v>127</v>
       </c>
       <c r="D82" s="26">
@@ -5339,7 +5375,7 @@
       <c r="B83" s="5">
         <v>103</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C83" s="8" t="s">
         <v>128</v>
       </c>
       <c r="D83" s="26">
@@ -5386,7 +5422,7 @@
       <c r="B84" s="5">
         <v>103</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C84" s="8" t="s">
         <v>129</v>
       </c>
       <c r="D84" s="26">
@@ -5435,7 +5471,7 @@
       <c r="B85" s="5">
         <v>103</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C85" s="8" t="s">
         <v>131</v>
       </c>
       <c r="D85" s="26">
@@ -5484,7 +5520,7 @@
       <c r="B86" s="5">
         <v>104</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C86" s="8" t="s">
         <v>132</v>
       </c>
       <c r="D86" s="26">
@@ -5531,7 +5567,7 @@
       <c r="B87" s="5">
         <v>105</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C87" s="8" t="s">
         <v>133</v>
       </c>
       <c r="D87" s="26">
@@ -5578,7 +5614,7 @@
       <c r="B88" s="5">
         <v>106</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C88" s="8" t="s">
         <v>134</v>
       </c>
       <c r="D88" s="26">
@@ -5625,7 +5661,7 @@
       <c r="B89" s="5">
         <v>107</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C89" s="8" t="s">
         <v>135</v>
       </c>
       <c r="D89" s="26">
@@ -5672,7 +5708,7 @@
       <c r="B90" s="5">
         <v>108</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C90" s="8" t="s">
         <v>136</v>
       </c>
       <c r="D90" s="26">
@@ -5719,7 +5755,7 @@
       <c r="B91" s="5">
         <v>109</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C91" s="8" t="s">
         <v>137</v>
       </c>
       <c r="D91" s="26">
@@ -5766,7 +5802,7 @@
       <c r="B92" s="5">
         <v>110</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C92" s="8" t="s">
         <v>138</v>
       </c>
       <c r="D92" s="26">
@@ -5813,7 +5849,7 @@
       <c r="B93" s="5">
         <v>111</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C93" s="8" t="s">
         <v>139</v>
       </c>
       <c r="D93" s="26">
@@ -5858,7 +5894,7 @@
       <c r="B94" s="5">
         <v>113</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C94" s="8" t="s">
         <v>140</v>
       </c>
       <c r="D94" s="26">
@@ -5905,7 +5941,7 @@
       <c r="B95" s="5">
         <v>114</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C95" s="8" t="s">
         <v>141</v>
       </c>
       <c r="D95" s="26">
@@ -5952,7 +5988,7 @@
       <c r="B96" s="5">
         <v>115</v>
       </c>
-      <c r="C96" s="6" t="s">
+      <c r="C96" s="8" t="s">
         <v>143</v>
       </c>
       <c r="D96" s="26">
@@ -5999,7 +6035,7 @@
       <c r="B97" s="5">
         <v>116</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="8" t="s">
         <v>144</v>
       </c>
       <c r="D97" s="26">
@@ -6046,7 +6082,7 @@
       <c r="B98" s="5">
         <v>117</v>
       </c>
-      <c r="C98" s="6" t="s">
+      <c r="C98" s="8" t="s">
         <v>145</v>
       </c>
       <c r="D98" s="26">
@@ -6093,7 +6129,7 @@
       <c r="B99" s="5">
         <v>118</v>
       </c>
-      <c r="C99" s="6" t="s">
+      <c r="C99" s="8" t="s">
         <v>146</v>
       </c>
       <c r="D99" s="26">
@@ -6140,7 +6176,7 @@
       <c r="B100" s="5">
         <v>119</v>
       </c>
-      <c r="C100" s="6" t="s">
+      <c r="C100" s="8" t="s">
         <v>147</v>
       </c>
       <c r="D100" s="26">
@@ -6185,7 +6221,7 @@
       <c r="B101" s="5">
         <v>120</v>
       </c>
-      <c r="C101" s="6" t="s">
+      <c r="C101" s="8" t="s">
         <v>148</v>
       </c>
       <c r="D101" s="26">
@@ -6232,7 +6268,7 @@
       <c r="B102" s="5">
         <v>121</v>
       </c>
-      <c r="C102" s="6" t="s">
+      <c r="C102" s="8" t="s">
         <v>149</v>
       </c>
       <c r="D102" s="26">
@@ -6279,7 +6315,7 @@
       <c r="B103" s="5">
         <v>122</v>
       </c>
-      <c r="C103" s="6" t="s">
+      <c r="C103" s="8" t="s">
         <v>150</v>
       </c>
       <c r="D103" s="26">
@@ -6326,7 +6362,7 @@
       <c r="B104" s="5">
         <v>123</v>
       </c>
-      <c r="C104" s="6" t="s">
+      <c r="C104" s="8" t="s">
         <v>151</v>
       </c>
       <c r="D104" s="26">
@@ -6373,7 +6409,7 @@
       <c r="B105" s="5">
         <v>124</v>
       </c>
-      <c r="C105" s="6" t="s">
+      <c r="C105" s="8" t="s">
         <v>152</v>
       </c>
       <c r="D105" s="26">
@@ -6420,7 +6456,7 @@
       <c r="B106" s="5">
         <v>125</v>
       </c>
-      <c r="C106" s="6" t="s">
+      <c r="C106" s="8" t="s">
         <v>153</v>
       </c>
       <c r="D106" s="26">
@@ -6467,7 +6503,7 @@
       <c r="B107" s="5">
         <v>126</v>
       </c>
-      <c r="C107" s="6" t="s">
+      <c r="C107" s="8" t="s">
         <v>154</v>
       </c>
       <c r="D107" s="26">
@@ -6514,7 +6550,7 @@
       <c r="B108" s="5">
         <v>127</v>
       </c>
-      <c r="C108" s="6" t="s">
+      <c r="C108" s="8" t="s">
         <v>155</v>
       </c>
       <c r="D108" s="26">
@@ -6561,7 +6597,7 @@
       <c r="B109" s="5">
         <v>128</v>
       </c>
-      <c r="C109" s="6" t="s">
+      <c r="C109" s="8" t="s">
         <v>156</v>
       </c>
       <c r="D109" s="26">
@@ -6608,7 +6644,7 @@
       <c r="B110" s="5">
         <v>130</v>
       </c>
-      <c r="C110" s="6" t="s">
+      <c r="C110" s="8" t="s">
         <v>157</v>
       </c>
       <c r="D110" s="26">
@@ -6655,7 +6691,7 @@
       <c r="B111" s="5">
         <v>131</v>
       </c>
-      <c r="C111" s="6" t="s">
+      <c r="C111" s="8" t="s">
         <v>158</v>
       </c>
       <c r="D111" s="26">
@@ -6702,7 +6738,7 @@
       <c r="B112" s="5">
         <v>132</v>
       </c>
-      <c r="C112" s="6" t="s">
+      <c r="C112" s="8" t="s">
         <v>159</v>
       </c>
       <c r="D112" s="26">
@@ -6749,7 +6785,7 @@
       <c r="B113" s="5">
         <v>133</v>
       </c>
-      <c r="C113" s="6" t="s">
+      <c r="C113" s="8" t="s">
         <v>160</v>
       </c>
       <c r="D113" s="26">
@@ -6794,7 +6830,7 @@
       <c r="B114" s="5">
         <v>134</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="C114" s="8" t="s">
         <v>161</v>
       </c>
       <c r="D114" s="26">
@@ -6839,7 +6875,7 @@
       <c r="B115" s="5">
         <v>135</v>
       </c>
-      <c r="C115" s="6" t="s">
+      <c r="C115" s="8" t="s">
         <v>162</v>
       </c>
       <c r="D115" s="26">
@@ -6886,7 +6922,7 @@
       <c r="B116" s="5">
         <v>136</v>
       </c>
-      <c r="C116" s="6" t="s">
+      <c r="C116" s="8" t="s">
         <v>163</v>
       </c>
       <c r="D116" s="26">
@@ -6933,7 +6969,7 @@
       <c r="B117" s="5">
         <v>137</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="C117" s="8" t="s">
         <v>164</v>
       </c>
       <c r="D117" s="26">
@@ -6980,7 +7016,7 @@
       <c r="B118" s="5">
         <v>138</v>
       </c>
-      <c r="C118" s="6" t="s">
+      <c r="C118" s="8" t="s">
         <v>165</v>
       </c>
       <c r="D118" s="26">
@@ -7027,7 +7063,7 @@
       <c r="B119" s="5">
         <v>140</v>
       </c>
-      <c r="C119" s="6" t="s">
+      <c r="C119" s="8" t="s">
         <v>166</v>
       </c>
       <c r="D119" s="26">
@@ -7074,7 +7110,7 @@
       <c r="B120" s="5">
         <v>141</v>
       </c>
-      <c r="C120" s="6" t="s">
+      <c r="C120" s="8" t="s">
         <v>167</v>
       </c>
       <c r="D120" s="26">
@@ -7121,7 +7157,7 @@
       <c r="B121" s="5">
         <v>142</v>
       </c>
-      <c r="C121" s="6" t="s">
+      <c r="C121" s="8" t="s">
         <v>170</v>
       </c>
       <c r="D121" s="26">
@@ -7168,7 +7204,7 @@
       <c r="B122" s="5">
         <v>143</v>
       </c>
-      <c r="C122" s="6" t="s">
+      <c r="C122" s="8" t="s">
         <v>171</v>
       </c>
       <c r="D122" s="26">
@@ -7213,7 +7249,7 @@
       <c r="B123" s="5">
         <v>144</v>
       </c>
-      <c r="C123" s="6" t="s">
+      <c r="C123" s="8" t="s">
         <v>172</v>
       </c>
       <c r="D123" s="26">
@@ -7260,7 +7296,7 @@
       <c r="B124" s="5">
         <v>145</v>
       </c>
-      <c r="C124" s="6" t="s">
+      <c r="C124" s="8" t="s">
         <v>173</v>
       </c>
       <c r="D124" s="26">
@@ -7307,7 +7343,7 @@
       <c r="B125" s="5">
         <v>146</v>
       </c>
-      <c r="C125" s="6" t="s">
+      <c r="C125" s="8" t="s">
         <v>174</v>
       </c>
       <c r="D125" s="26">
@@ -7354,7 +7390,7 @@
       <c r="B126" s="5">
         <v>147</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="C126" s="8" t="s">
         <v>175</v>
       </c>
       <c r="D126" s="26">
@@ -7401,7 +7437,7 @@
       <c r="B127" s="5">
         <v>148</v>
       </c>
-      <c r="C127" s="6" t="s">
+      <c r="C127" s="8" t="s">
         <v>176</v>
       </c>
       <c r="D127" s="26">
@@ -7448,7 +7484,7 @@
       <c r="B128" s="5">
         <v>149</v>
       </c>
-      <c r="C128" s="6" t="s">
+      <c r="C128" s="8" t="s">
         <v>178</v>
       </c>
       <c r="D128" s="26">
@@ -7497,7 +7533,7 @@
       <c r="B129" s="5">
         <v>150</v>
       </c>
-      <c r="C129" s="6" t="s">
+      <c r="C129" s="8" t="s">
         <v>180</v>
       </c>
       <c r="D129" s="26">
@@ -7544,7 +7580,7 @@
       <c r="B130" s="5">
         <v>151</v>
       </c>
-      <c r="C130" s="6" t="s">
+      <c r="C130" s="8" t="s">
         <v>181</v>
       </c>
       <c r="D130" s="26">
@@ -7591,7 +7627,7 @@
       <c r="B131" s="5">
         <v>152</v>
       </c>
-      <c r="C131" s="6" t="s">
+      <c r="C131" s="8" t="s">
         <v>182</v>
       </c>
       <c r="D131" s="26">
@@ -7638,7 +7674,7 @@
       <c r="B132" s="5">
         <v>153</v>
       </c>
-      <c r="C132" s="6" t="s">
+      <c r="C132" s="8" t="s">
         <v>183</v>
       </c>
       <c r="D132" s="26">
@@ -7685,7 +7721,7 @@
       <c r="B133" s="5">
         <v>154</v>
       </c>
-      <c r="C133" s="6" t="s">
+      <c r="C133" s="8" t="s">
         <v>184</v>
       </c>
       <c r="D133" s="26">
@@ -7732,7 +7768,7 @@
       <c r="B134" s="5">
         <v>155</v>
       </c>
-      <c r="C134" s="6" t="s">
+      <c r="C134" s="8" t="s">
         <v>185</v>
       </c>
       <c r="D134" s="26">
@@ -7779,7 +7815,7 @@
       <c r="B135" s="5">
         <v>156</v>
       </c>
-      <c r="C135" s="6" t="s">
+      <c r="C135" s="8" t="s">
         <v>186</v>
       </c>
       <c r="D135" s="26">
@@ -7826,7 +7862,7 @@
       <c r="B136" s="5">
         <v>157</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="C136" s="8" t="s">
         <v>187</v>
       </c>
       <c r="D136" s="26">
@@ -7873,7 +7909,7 @@
       <c r="B137" s="5">
         <v>158</v>
       </c>
-      <c r="C137" s="6" t="s">
+      <c r="C137" s="8" t="s">
         <v>188</v>
       </c>
       <c r="D137" s="26">
@@ -7920,7 +7956,7 @@
       <c r="B138" s="5">
         <v>159</v>
       </c>
-      <c r="C138" s="6">
+      <c r="C138" s="8">
         <v>65</v>
       </c>
       <c r="D138" s="26">
@@ -7967,7 +8003,7 @@
       <c r="B139" s="5">
         <v>160</v>
       </c>
-      <c r="C139" s="6" t="s">
+      <c r="C139" s="8" t="s">
         <v>189</v>
       </c>
       <c r="D139" s="26">
@@ -8014,7 +8050,7 @@
       <c r="B140" s="5">
         <v>161</v>
       </c>
-      <c r="C140" s="6" t="s">
+      <c r="C140" s="8" t="s">
         <v>190</v>
       </c>
       <c r="D140" s="26">
@@ -8061,7 +8097,7 @@
       <c r="B141" s="5">
         <v>162</v>
       </c>
-      <c r="C141" s="6" t="s">
+      <c r="C141" s="8" t="s">
         <v>191</v>
       </c>
       <c r="D141" s="26">
@@ -8108,7 +8144,7 @@
       <c r="B142" s="5">
         <v>163</v>
       </c>
-      <c r="C142" s="6" t="s">
+      <c r="C142" s="8" t="s">
         <v>192</v>
       </c>
       <c r="D142" s="26">
@@ -8155,7 +8191,7 @@
       <c r="B143" s="5">
         <v>164</v>
       </c>
-      <c r="C143" s="6" t="s">
+      <c r="C143" s="8" t="s">
         <v>193</v>
       </c>
       <c r="D143" s="26">
@@ -8202,7 +8238,7 @@
       <c r="B144" s="5">
         <v>165</v>
       </c>
-      <c r="C144" s="6" t="s">
+      <c r="C144" s="8" t="s">
         <v>195</v>
       </c>
       <c r="D144" s="26">
@@ -8249,7 +8285,7 @@
       <c r="B145" s="5">
         <v>166</v>
       </c>
-      <c r="C145" s="6" t="s">
+      <c r="C145" s="8" t="s">
         <v>196</v>
       </c>
       <c r="D145" s="26">
@@ -8296,7 +8332,7 @@
       <c r="B146" s="5">
         <v>166</v>
       </c>
-      <c r="C146" s="6" t="s">
+      <c r="C146" s="8" t="s">
         <v>197</v>
       </c>
       <c r="D146" s="26">
@@ -8345,7 +8381,7 @@
       <c r="B147" s="5">
         <v>167</v>
       </c>
-      <c r="C147" s="6" t="s">
+      <c r="C147" s="8" t="s">
         <v>199</v>
       </c>
       <c r="D147" s="26">
@@ -8392,7 +8428,7 @@
       <c r="B148" s="5">
         <v>168</v>
       </c>
-      <c r="C148" s="6" t="s">
+      <c r="C148" s="8" t="s">
         <v>200</v>
       </c>
       <c r="D148" s="26">
@@ -8439,7 +8475,7 @@
       <c r="B149" s="5">
         <v>169</v>
       </c>
-      <c r="C149" s="6" t="s">
+      <c r="C149" s="8" t="s">
         <v>201</v>
       </c>
       <c r="D149" s="26">
@@ -8486,7 +8522,7 @@
       <c r="B150" s="5">
         <v>170</v>
       </c>
-      <c r="C150" s="6" t="s">
+      <c r="C150" s="8" t="s">
         <v>202</v>
       </c>
       <c r="D150" s="26">
@@ -8533,7 +8569,7 @@
       <c r="B151" s="5">
         <v>171</v>
       </c>
-      <c r="C151" s="6" t="s">
+      <c r="C151" s="8" t="s">
         <v>203</v>
       </c>
       <c r="D151" s="26">
@@ -8580,7 +8616,7 @@
       <c r="B152" s="5">
         <v>172</v>
       </c>
-      <c r="C152" s="6" t="s">
+      <c r="C152" s="8" t="s">
         <v>204</v>
       </c>
       <c r="D152" s="26">
@@ -8627,7 +8663,7 @@
       <c r="B153" s="5">
         <v>173</v>
       </c>
-      <c r="C153" s="6" t="s">
+      <c r="C153" s="8" t="s">
         <v>205</v>
       </c>
       <c r="D153" s="26">
@@ -8674,7 +8710,7 @@
       <c r="B154" s="5">
         <v>174</v>
       </c>
-      <c r="C154" s="6" t="s">
+      <c r="C154" s="8" t="s">
         <v>206</v>
       </c>
       <c r="D154" s="26">
@@ -8719,7 +8755,7 @@
       <c r="B155" s="5">
         <v>175</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="C155" s="8" t="s">
         <v>207</v>
       </c>
       <c r="D155" s="26">
@@ -8766,7 +8802,7 @@
       <c r="B156" s="5">
         <v>176</v>
       </c>
-      <c r="C156" s="6" t="s">
+      <c r="C156" s="8" t="s">
         <v>208</v>
       </c>
       <c r="D156" s="26">
@@ -8813,7 +8849,7 @@
       <c r="B157" s="5">
         <v>177</v>
       </c>
-      <c r="C157" s="6" t="s">
+      <c r="C157" s="8" t="s">
         <v>209</v>
       </c>
       <c r="D157" s="26">
@@ -8860,7 +8896,7 @@
       <c r="B158" s="5">
         <v>178</v>
       </c>
-      <c r="C158" s="6" t="s">
+      <c r="C158" s="8" t="s">
         <v>210</v>
       </c>
       <c r="D158" s="26">
@@ -8907,7 +8943,7 @@
       <c r="B159" s="5">
         <v>179</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="C159" s="8" t="s">
         <v>211</v>
       </c>
       <c r="D159" s="26">
@@ -8954,7 +8990,7 @@
       <c r="B160" s="5">
         <v>180</v>
       </c>
-      <c r="C160" s="6" t="s">
+      <c r="C160" s="8" t="s">
         <v>212</v>
       </c>
       <c r="D160" s="26">
@@ -9001,7 +9037,7 @@
       <c r="B161" s="5">
         <v>181</v>
       </c>
-      <c r="C161" s="6" t="s">
+      <c r="C161" s="8" t="s">
         <v>213</v>
       </c>
       <c r="D161" s="26">
@@ -9048,7 +9084,7 @@
       <c r="B162" s="5">
         <v>182</v>
       </c>
-      <c r="C162" s="6" t="s">
+      <c r="C162" s="8" t="s">
         <v>214</v>
       </c>
       <c r="D162" s="26">
@@ -9058,7 +9094,7 @@
         <v>12000000</v>
       </c>
       <c r="F162" s="16">
-        <f t="shared" ref="F162:F202" si="10">E162/1000000</f>
+        <f t="shared" ref="F162:F210" si="10">E162/1000000</f>
         <v>12</v>
       </c>
       <c r="G162" s="13" t="s">
@@ -9083,7 +9119,7 @@
         <v>7.1</v>
       </c>
       <c r="N162" s="19">
-        <f t="shared" ref="N162:N202" si="11">L162-M162</f>
+        <f t="shared" ref="N162:N210" si="11">L162-M162</f>
         <v>-0.79999999999999982</v>
       </c>
       <c r="O162" s="6"/>
@@ -9095,7 +9131,7 @@
       <c r="B163" s="5">
         <v>183</v>
       </c>
-      <c r="C163" s="6" t="s">
+      <c r="C163" s="8" t="s">
         <v>215</v>
       </c>
       <c r="D163" s="26">
@@ -9142,7 +9178,7 @@
       <c r="B164" s="5">
         <v>184</v>
       </c>
-      <c r="C164" s="6" t="s">
+      <c r="C164" s="8" t="s">
         <v>216</v>
       </c>
       <c r="D164" s="26">
@@ -9187,7 +9223,7 @@
       <c r="B165" s="5">
         <v>185</v>
       </c>
-      <c r="C165" s="6" t="s">
+      <c r="C165" s="8" t="s">
         <v>217</v>
       </c>
       <c r="D165" s="26">
@@ -9234,7 +9270,7 @@
       <c r="B166" s="5">
         <v>186</v>
       </c>
-      <c r="C166" s="6" t="s">
+      <c r="C166" s="8" t="s">
         <v>218</v>
       </c>
       <c r="D166" s="26">
@@ -9281,7 +9317,7 @@
       <c r="B167" s="5">
         <v>187</v>
       </c>
-      <c r="C167" s="6" t="s">
+      <c r="C167" s="8" t="s">
         <v>219</v>
       </c>
       <c r="D167" s="26">
@@ -9328,7 +9364,7 @@
       <c r="B168" s="5">
         <v>188</v>
       </c>
-      <c r="C168" s="6" t="s">
+      <c r="C168" s="8" t="s">
         <v>220</v>
       </c>
       <c r="D168" s="26">
@@ -9373,7 +9409,7 @@
       <c r="B169" s="5">
         <v>189</v>
       </c>
-      <c r="C169" s="6" t="s">
+      <c r="C169" s="8" t="s">
         <v>221</v>
       </c>
       <c r="D169" s="26">
@@ -9420,7 +9456,7 @@
       <c r="B170" s="5">
         <v>190</v>
       </c>
-      <c r="C170" s="6" t="s">
+      <c r="C170" s="8" t="s">
         <v>222</v>
       </c>
       <c r="D170" s="26">
@@ -9467,7 +9503,7 @@
       <c r="B171" s="5">
         <v>191</v>
       </c>
-      <c r="C171" s="6" t="s">
+      <c r="C171" s="8" t="s">
         <v>223</v>
       </c>
       <c r="D171" s="26">
@@ -9514,7 +9550,7 @@
       <c r="B172" s="5">
         <v>192</v>
       </c>
-      <c r="C172" s="6" t="s">
+      <c r="C172" s="8" t="s">
         <v>224</v>
       </c>
       <c r="D172" s="26">
@@ -9561,7 +9597,7 @@
       <c r="B173" s="5">
         <v>193</v>
       </c>
-      <c r="C173" s="6" t="s">
+      <c r="C173" s="8" t="s">
         <v>225</v>
       </c>
       <c r="D173" s="26">
@@ -9608,7 +9644,7 @@
       <c r="B174" s="5">
         <v>194</v>
       </c>
-      <c r="C174" s="6" t="s">
+      <c r="C174" s="8" t="s">
         <v>226</v>
       </c>
       <c r="D174" s="26">
@@ -9655,7 +9691,7 @@
       <c r="B175" s="5">
         <v>195</v>
       </c>
-      <c r="C175" s="6" t="s">
+      <c r="C175" s="8" t="s">
         <v>227</v>
       </c>
       <c r="D175" s="26">
@@ -9702,7 +9738,7 @@
       <c r="B176" s="5">
         <v>196</v>
       </c>
-      <c r="C176" s="6" t="s">
+      <c r="C176" s="8" t="s">
         <v>228</v>
       </c>
       <c r="D176" s="26">
@@ -9749,7 +9785,7 @@
       <c r="B177" s="5">
         <v>197</v>
       </c>
-      <c r="C177" s="6" t="s">
+      <c r="C177" s="8" t="s">
         <v>229</v>
       </c>
       <c r="D177" s="26">
@@ -9796,7 +9832,7 @@
       <c r="B178" s="5">
         <v>198</v>
       </c>
-      <c r="C178" s="6" t="s">
+      <c r="C178" s="8" t="s">
         <v>230</v>
       </c>
       <c r="D178" s="26">
@@ -9843,7 +9879,7 @@
       <c r="B179" s="5">
         <v>199</v>
       </c>
-      <c r="C179" s="6" t="s">
+      <c r="C179" s="8" t="s">
         <v>231</v>
       </c>
       <c r="D179" s="26">
@@ -9890,7 +9926,7 @@
       <c r="B180" s="5">
         <v>200</v>
       </c>
-      <c r="C180" s="6" t="s">
+      <c r="C180" s="8" t="s">
         <v>232</v>
       </c>
       <c r="D180" s="26">
@@ -9937,7 +9973,7 @@
       <c r="B181" s="5">
         <v>201</v>
       </c>
-      <c r="C181" s="6" t="s">
+      <c r="C181" s="8" t="s">
         <v>233</v>
       </c>
       <c r="D181" s="26">
@@ -9984,7 +10020,7 @@
       <c r="B182" s="5">
         <v>202</v>
       </c>
-      <c r="C182" s="6" t="s">
+      <c r="C182" s="8" t="s">
         <v>234</v>
       </c>
       <c r="D182" s="26">
@@ -10031,7 +10067,7 @@
       <c r="B183" s="5">
         <v>203</v>
       </c>
-      <c r="C183" s="6" t="s">
+      <c r="C183" s="8" t="s">
         <v>235</v>
       </c>
       <c r="D183" s="26">
@@ -10078,7 +10114,7 @@
       <c r="B184" s="5">
         <v>204</v>
       </c>
-      <c r="C184" s="6" t="s">
+      <c r="C184" s="8" t="s">
         <v>236</v>
       </c>
       <c r="D184" s="26">
@@ -10125,7 +10161,7 @@
       <c r="B185" s="5">
         <v>205</v>
       </c>
-      <c r="C185" s="6" t="s">
+      <c r="C185" s="8" t="s">
         <v>237</v>
       </c>
       <c r="D185" s="26">
@@ -10172,7 +10208,7 @@
       <c r="B186" s="5">
         <v>206</v>
       </c>
-      <c r="C186" s="6" t="s">
+      <c r="C186" s="8" t="s">
         <v>238</v>
       </c>
       <c r="D186" s="26">
@@ -10219,7 +10255,7 @@
       <c r="B187" s="5">
         <v>207</v>
       </c>
-      <c r="C187" s="6" t="s">
+      <c r="C187" s="8" t="s">
         <v>239</v>
       </c>
       <c r="D187" s="26">
@@ -10266,7 +10302,7 @@
       <c r="B188" s="5">
         <v>208</v>
       </c>
-      <c r="C188" s="6" t="s">
+      <c r="C188" s="8" t="s">
         <v>240</v>
       </c>
       <c r="D188" s="26">
@@ -10313,7 +10349,7 @@
       <c r="B189" s="5">
         <v>209</v>
       </c>
-      <c r="C189" s="6" t="s">
+      <c r="C189" s="8" t="s">
         <v>241</v>
       </c>
       <c r="D189" s="26">
@@ -10360,7 +10396,7 @@
       <c r="B190" s="5">
         <v>210</v>
       </c>
-      <c r="C190" s="6" t="s">
+      <c r="C190" s="8" t="s">
         <v>242</v>
       </c>
       <c r="D190" s="26">
@@ -10407,7 +10443,7 @@
       <c r="B191" s="5">
         <v>211</v>
       </c>
-      <c r="C191" s="6" t="s">
+      <c r="C191" s="8" t="s">
         <v>243</v>
       </c>
       <c r="D191" s="26">
@@ -10454,7 +10490,7 @@
       <c r="B192" s="5">
         <v>212</v>
       </c>
-      <c r="C192" s="6" t="s">
+      <c r="C192" s="8" t="s">
         <v>244</v>
       </c>
       <c r="D192" s="26">
@@ -10501,7 +10537,7 @@
       <c r="B193" s="5">
         <v>213</v>
       </c>
-      <c r="C193" s="6" t="s">
+      <c r="C193" s="8" t="s">
         <v>247</v>
       </c>
       <c r="D193" s="26">
@@ -10548,7 +10584,7 @@
       <c r="B194" s="5">
         <v>214</v>
       </c>
-      <c r="C194" s="6" t="s">
+      <c r="C194" s="8" t="s">
         <v>248</v>
       </c>
       <c r="D194" s="26">
@@ -10595,7 +10631,7 @@
       <c r="B195" s="5">
         <v>215</v>
       </c>
-      <c r="C195" s="6" t="s">
+      <c r="C195" s="8" t="s">
         <v>250</v>
       </c>
       <c r="D195" s="26">
@@ -10642,7 +10678,7 @@
       <c r="B196" s="5">
         <v>216</v>
       </c>
-      <c r="C196" s="6" t="s">
+      <c r="C196" s="8" t="s">
         <v>251</v>
       </c>
       <c r="D196" s="26">
@@ -10687,7 +10723,7 @@
       <c r="B197" s="5">
         <v>217</v>
       </c>
-      <c r="C197" s="6" t="s">
+      <c r="C197" s="8" t="s">
         <v>252</v>
       </c>
       <c r="D197" s="26">
@@ -10734,7 +10770,7 @@
       <c r="B198" s="5">
         <v>218</v>
       </c>
-      <c r="C198" s="6" t="s">
+      <c r="C198" s="8" t="s">
         <v>253</v>
       </c>
       <c r="D198" s="26">
@@ -10781,7 +10817,7 @@
       <c r="B199" s="5">
         <v>219</v>
       </c>
-      <c r="C199" s="6" t="s">
+      <c r="C199" s="8" t="s">
         <v>254</v>
       </c>
       <c r="D199" s="26">
@@ -10828,7 +10864,7 @@
       <c r="B200" s="5">
         <v>220</v>
       </c>
-      <c r="C200" s="6" t="s">
+      <c r="C200" s="8" t="s">
         <v>255</v>
       </c>
       <c r="D200" s="26">
@@ -10875,7 +10911,7 @@
       <c r="B201" s="5">
         <v>221</v>
       </c>
-      <c r="C201" s="6" t="s">
+      <c r="C201" s="8" t="s">
         <v>257</v>
       </c>
       <c r="D201" s="26">
@@ -10920,7 +10956,7 @@
       <c r="B202" s="5">
         <v>222</v>
       </c>
-      <c r="C202" s="6" t="s">
+      <c r="C202" s="8" t="s">
         <v>258</v>
       </c>
       <c r="D202" s="26">
@@ -10961,34 +10997,446 @@
       <c r="O202" s="5"/>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="E203" s="28"/>
-      <c r="F203" s="1"/>
-      <c r="G203" s="1"/>
-      <c r="O203" s="1"/>
+      <c r="A203" s="5">
+        <v>202</v>
+      </c>
+      <c r="B203" s="5">
+        <v>223</v>
+      </c>
+      <c r="C203" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="D203" s="26">
+        <v>2024</v>
+      </c>
+      <c r="E203" s="28">
+        <v>250000000</v>
+      </c>
+      <c r="F203" s="5">
+        <f t="shared" si="10"/>
+        <v>250</v>
+      </c>
+      <c r="G203" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H203" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I203" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J203" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K203" s="5">
+        <v>148</v>
+      </c>
+      <c r="L203" s="19">
+        <v>6.7</v>
+      </c>
+      <c r="M203" s="19">
+        <v>6</v>
+      </c>
+      <c r="N203" s="19">
+        <f t="shared" si="11"/>
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="O203" s="5"/>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="E204" s="28"/>
-      <c r="F204" s="1"/>
-      <c r="G204" s="1"/>
-      <c r="O204" s="1"/>
+      <c r="A204" s="5">
+        <v>203</v>
+      </c>
+      <c r="B204" s="5">
+        <v>224</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D204" s="26">
+        <v>2024</v>
+      </c>
+      <c r="E204" s="28">
+        <v>150000000</v>
+      </c>
+      <c r="F204" s="5">
+        <f t="shared" si="10"/>
+        <v>150</v>
+      </c>
+      <c r="G204" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H204" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I204" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J204" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K204" s="5">
+        <v>100</v>
+      </c>
+      <c r="L204" s="19">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="M204" s="19">
+        <v>6.5</v>
+      </c>
+      <c r="N204" s="19">
+        <f t="shared" si="11"/>
+        <v>-1.4000000000000004</v>
+      </c>
+      <c r="O204" s="5"/>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="E205" s="28"/>
-      <c r="F205" s="1"/>
-      <c r="G205" s="1"/>
-      <c r="O205" s="1"/>
+      <c r="A205" s="5">
+        <v>204</v>
+      </c>
+      <c r="B205" s="5">
+        <v>225</v>
+      </c>
+      <c r="C205" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D205" s="26">
+        <v>1989</v>
+      </c>
+      <c r="E205" s="28">
+        <v>28000000</v>
+      </c>
+      <c r="F205" s="5">
+        <f t="shared" si="10"/>
+        <v>28</v>
+      </c>
+      <c r="G205" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H205" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I205" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J205" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="K205" s="5">
+        <v>97</v>
+      </c>
+      <c r="L205" s="19">
+        <v>7.8</v>
+      </c>
+      <c r="M205" s="19">
+        <v>8.5</v>
+      </c>
+      <c r="N205" s="19">
+        <f t="shared" si="11"/>
+        <v>-0.70000000000000018</v>
+      </c>
+      <c r="O205" s="5"/>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="E206" s="28"/>
-      <c r="F206" s="1"/>
-      <c r="G206" s="1"/>
-      <c r="O206" s="1"/>
+      <c r="A206" s="5">
+        <v>205</v>
+      </c>
+      <c r="B206" s="5">
+        <v>226</v>
+      </c>
+      <c r="C206" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="D206" s="26">
+        <v>1988</v>
+      </c>
+      <c r="E206" s="28">
+        <v>6500000</v>
+      </c>
+      <c r="F206" s="5">
+        <f t="shared" si="10"/>
+        <v>6.5</v>
+      </c>
+      <c r="G206" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H206" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I206" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J206" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="K206" s="5">
+        <v>91</v>
+      </c>
+      <c r="L206" s="19">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M206" s="19">
+        <v>4</v>
+      </c>
+      <c r="N206" s="19">
+        <f t="shared" si="11"/>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="O206" s="5"/>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="E207" s="28"/>
-      <c r="F207" s="1"/>
-      <c r="G207" s="1"/>
-      <c r="O207" s="1"/>
+      <c r="A207" s="5">
+        <v>206</v>
+      </c>
+      <c r="B207" s="5">
+        <v>227</v>
+      </c>
+      <c r="C207" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="D207" s="26">
+        <v>2024</v>
+      </c>
+      <c r="E207" s="28">
+        <v>50000000</v>
+      </c>
+      <c r="F207" s="5">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="G207" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H207" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I207" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J207" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K207" s="5">
+        <v>132</v>
+      </c>
+      <c r="L207" s="19">
+        <v>7.2</v>
+      </c>
+      <c r="M207" s="19">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N207" s="19">
+        <f t="shared" si="11"/>
+        <v>-1.4999999999999991</v>
+      </c>
+      <c r="O207" s="5"/>
+    </row>
+    <row r="208" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A208" s="5">
+        <v>207</v>
+      </c>
+      <c r="B208" s="5">
+        <v>228</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="D208" s="26">
+        <v>1991</v>
+      </c>
+      <c r="E208" s="13">
+        <v>40000000</v>
+      </c>
+      <c r="F208" s="5">
+        <f t="shared" si="10"/>
+        <v>40</v>
+      </c>
+      <c r="G208" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H208" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I208" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="J208" s="5"/>
+      <c r="K208" s="5">
+        <v>94</v>
+      </c>
+      <c r="L208" s="19">
+        <v>4.7</v>
+      </c>
+      <c r="M208" s="19">
+        <v>5</v>
+      </c>
+      <c r="N208" s="19">
+        <f t="shared" si="11"/>
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="O208" s="6"/>
+    </row>
+    <row r="209" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A209" s="5">
+        <v>208</v>
+      </c>
+      <c r="B209" s="5">
+        <v>229</v>
+      </c>
+      <c r="C209" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="D209" s="26">
+        <v>2013</v>
+      </c>
+      <c r="E209" s="13">
+        <v>26000000</v>
+      </c>
+      <c r="F209" s="5">
+        <f t="shared" si="10"/>
+        <v>26</v>
+      </c>
+      <c r="G209" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H209" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I209" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J209" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K209" s="5">
+        <v>129</v>
+      </c>
+      <c r="L209" s="19">
+        <v>7.4</v>
+      </c>
+      <c r="M209" s="19">
+        <v>7.2</v>
+      </c>
+      <c r="N209" s="19">
+        <f t="shared" si="11"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="O209" s="6"/>
+    </row>
+    <row r="210" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A210" s="5">
+        <v>209</v>
+      </c>
+      <c r="B210" s="5">
+        <v>230</v>
+      </c>
+      <c r="C210" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D210" s="26">
+        <v>1990</v>
+      </c>
+      <c r="E210" s="13">
+        <v>25000000</v>
+      </c>
+      <c r="F210" s="5">
+        <f t="shared" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="G210" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="H210" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I210" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J210" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K210" s="5">
+        <v>117</v>
+      </c>
+      <c r="L210" s="19">
+        <v>6.2</v>
+      </c>
+      <c r="M210" s="19">
+        <v>6.5</v>
+      </c>
+      <c r="N210" s="19">
+        <f t="shared" si="11"/>
+        <v>-0.29999999999999982</v>
+      </c>
+      <c r="O210" s="6"/>
+    </row>
+    <row r="211" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A211" s="5">
+        <v>210</v>
+      </c>
+      <c r="B211" s="5">
+        <v>231</v>
+      </c>
+      <c r="C211" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D211" s="26">
+        <v>1988</v>
+      </c>
+      <c r="E211" s="13">
+        <v>12000000</v>
+      </c>
+      <c r="F211" s="5">
+        <f t="shared" ref="F211" si="12">E211/1000000</f>
+        <v>12</v>
+      </c>
+      <c r="G211" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="H211" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I211" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="J211" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K211" s="5">
+        <v>85</v>
+      </c>
+      <c r="L211" s="19">
+        <v>6.5</v>
+      </c>
+      <c r="M211" s="19">
+        <v>7</v>
+      </c>
+      <c r="N211" s="19">
+        <f t="shared" ref="N211" si="13">L211-M211</f>
+        <v>-0.5</v>
+      </c>
+      <c r="O211" s="6"/>
+    </row>
+    <row r="212" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A212" s="5">
+        <v>211</v>
+      </c>
+      <c r="B212" s="5">
+        <v>232</v>
+      </c>
+      <c r="C212" s="8"/>
+      <c r="D212" s="26"/>
+      <c r="E212" s="13"/>
+      <c r="F212" s="16"/>
+      <c r="G212" s="13"/>
+      <c r="H212" s="5"/>
+      <c r="I212" s="5"/>
+      <c r="J212" s="5"/>
+      <c r="K212" s="5"/>
+      <c r="L212" s="19"/>
+      <c r="M212" s="19"/>
+      <c r="N212" s="19"/>
+      <c r="O212" s="6"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:O174" xr:uid="{AA8232CE-F8CC-4A25-9F93-495C87926EDE}">
